--- a/projects/current/hattrick/1-V@der_Plantilla.xlsx
+++ b/projects/current/hattrick/1-V@der_Plantilla.xlsx
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="444">
   <si>
     <t>CAB</t>
   </si>
@@ -1534,6 +1534,12 @@
   <si>
     <t>#46</t>
   </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>Juan Garcia Peñuela</t>
+  </si>
 </sst>
 </file>
 
@@ -2240,7 +2246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2808,19 +2814,19 @@
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2843,6 +2849,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10307,10 +10316,10 @@
       <c r="C59" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="256" t="s">
+      <c r="D59" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="256" t="s">
+      <c r="E59" s="253" t="s">
         <v>148</v>
       </c>
       <c r="F59" s="106" t="s">
@@ -10329,8 +10338,8 @@
       <c r="C60" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="256"/>
-      <c r="E60" s="256"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
       <c r="F60" s="106" t="s">
         <v>151</v>
       </c>
@@ -10345,8 +10354,8 @@
       </c>
       <c r="B61" s="252"/>
       <c r="C61" s="109"/>
-      <c r="D61" s="256"/>
-      <c r="E61" s="256"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
       <c r="F61" s="110"/>
       <c r="H61" s="101" t="s">
         <v>153</v>
@@ -10362,7 +10371,7 @@
       <c r="C62" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="257" t="s">
+      <c r="D62" s="254" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="106" t="s">
@@ -10378,13 +10387,13 @@
       <c r="A63" s="104">
         <v>21</v>
       </c>
-      <c r="B63" s="254" t="s">
+      <c r="B63" s="255" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="257"/>
+      <c r="D63" s="254"/>
       <c r="E63" s="106" t="s">
         <v>151</v>
       </c>
@@ -10398,9 +10407,9 @@
       <c r="A64" s="108">
         <v>22</v>
       </c>
-      <c r="B64" s="254"/>
+      <c r="B64" s="255"/>
       <c r="C64" s="110"/>
-      <c r="D64" s="257"/>
+      <c r="D64" s="254"/>
       <c r="E64" s="110"/>
       <c r="F64" s="110"/>
       <c r="H64" s="101" t="s">
@@ -10412,9 +10421,9 @@
       <c r="A65" s="104">
         <v>23</v>
       </c>
-      <c r="B65" s="254"/>
+      <c r="B65" s="255"/>
       <c r="C65" s="110"/>
-      <c r="D65" s="257"/>
+      <c r="D65" s="254"/>
       <c r="E65" s="110"/>
       <c r="F65" s="110"/>
       <c r="H65" s="101"/>
@@ -10424,9 +10433,9 @@
       <c r="A66" s="108">
         <v>24</v>
       </c>
-      <c r="B66" s="254"/>
+      <c r="B66" s="255"/>
       <c r="C66" s="110"/>
-      <c r="D66" s="257"/>
+      <c r="D66" s="254"/>
       <c r="E66" s="110"/>
       <c r="F66" s="110"/>
       <c r="H66" s="101" t="s">
@@ -10438,9 +10447,9 @@
       <c r="A67" s="104">
         <v>25</v>
       </c>
-      <c r="B67" s="254"/>
+      <c r="B67" s="255"/>
       <c r="C67" s="110"/>
-      <c r="D67" s="256" t="s">
+      <c r="D67" s="253" t="s">
         <v>148</v>
       </c>
       <c r="E67" s="110"/>
@@ -10454,11 +10463,11 @@
       <c r="A68" s="108">
         <v>26</v>
       </c>
-      <c r="B68" s="254"/>
-      <c r="C68" s="256" t="s">
+      <c r="B68" s="255"/>
+      <c r="C68" s="253" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="256"/>
+      <c r="D68" s="253"/>
       <c r="E68" s="110"/>
       <c r="F68" s="110"/>
       <c r="H68" s="101"/>
@@ -10471,8 +10480,8 @@
       <c r="B69" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="256"/>
-      <c r="D69" s="256"/>
+      <c r="C69" s="253"/>
+      <c r="D69" s="253"/>
       <c r="E69" s="110"/>
       <c r="F69" s="110"/>
       <c r="H69" s="101"/>
@@ -10483,10 +10492,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="252"/>
-      <c r="C70" s="254" t="s">
+      <c r="C70" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="256"/>
+      <c r="D70" s="253"/>
       <c r="E70" s="110"/>
       <c r="F70" s="110"/>
       <c r="H70" s="101" t="s">
@@ -10499,8 +10508,8 @@
         <v>29</v>
       </c>
       <c r="B71" s="252"/>
-      <c r="C71" s="254"/>
-      <c r="D71" s="256"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="253"/>
       <c r="E71" s="110"/>
       <c r="F71" s="110"/>
       <c r="H71" s="101"/>
@@ -10511,8 +10520,8 @@
         <v>30</v>
       </c>
       <c r="B72" s="252"/>
-      <c r="C72" s="254"/>
-      <c r="D72" s="254" t="s">
+      <c r="C72" s="255"/>
+      <c r="D72" s="255" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="110"/>
@@ -10527,8 +10536,8 @@
         <v>31</v>
       </c>
       <c r="B73" s="252"/>
-      <c r="C73" s="254"/>
-      <c r="D73" s="254"/>
+      <c r="C73" s="255"/>
+      <c r="D73" s="255"/>
       <c r="E73" s="106" t="s">
         <v>148</v>
       </c>
@@ -10541,8 +10550,8 @@
         <v>32</v>
       </c>
       <c r="B74" s="252"/>
-      <c r="C74" s="254"/>
-      <c r="D74" s="254"/>
+      <c r="C74" s="255"/>
+      <c r="D74" s="255"/>
       <c r="E74" s="106" t="s">
         <v>155</v>
       </c>
@@ -10560,7 +10569,7 @@
       <c r="C75" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="254"/>
+      <c r="D75" s="255"/>
       <c r="E75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10574,11 +10583,11 @@
       <c r="A76" s="108">
         <v>34</v>
       </c>
-      <c r="B76" s="255" t="s">
+      <c r="B76" s="257" t="s">
         <v>163</v>
       </c>
       <c r="C76" s="252"/>
-      <c r="D76" s="254"/>
+      <c r="D76" s="255"/>
       <c r="E76" s="105" t="s">
         <v>150</v>
       </c>
@@ -10594,8 +10603,8 @@
       <c r="A77" s="104">
         <v>35</v>
       </c>
-      <c r="B77" s="255"/>
-      <c r="C77" s="255" t="s">
+      <c r="B77" s="257"/>
+      <c r="C77" s="257" t="s">
         <v>163</v>
       </c>
       <c r="D77" s="252" t="s">
@@ -10612,8 +10621,8 @@
       <c r="A78" s="108">
         <v>36</v>
       </c>
-      <c r="B78" s="255"/>
-      <c r="C78" s="255"/>
+      <c r="B78" s="257"/>
+      <c r="C78" s="257"/>
       <c r="D78" s="252"/>
       <c r="E78" s="252"/>
       <c r="F78" s="111" t="s">
@@ -10625,14 +10634,14 @@
       <c r="X78" s="98"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="253" t="s">
+      <c r="A79" s="256" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="253"/>
-      <c r="C79" s="253"/>
-      <c r="D79" s="253"/>
-      <c r="E79" s="253"/>
-      <c r="F79" s="253"/>
+      <c r="B79" s="256"/>
+      <c r="C79" s="256"/>
+      <c r="D79" s="256"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="256"/>
       <c r="H79" s="101"/>
       <c r="X79" s="98"/>
     </row>
@@ -11808,6 +11817,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="E59:E61"/>
@@ -11816,14 +11833,6 @@
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B69:B75"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="AA5:AT22 AA24:AT45">
     <cfRule type="colorScale" priority="21">
@@ -12446,7 +12455,7 @@
       </c>
       <c r="B2" s="73">
         <f ca="1">(N2+F2-J2)/K2</f>
-        <v>-74960.281359906236</v>
+        <v>-74557.37704918033</v>
       </c>
       <c r="C2" s="145">
         <v>22</v>
@@ -12467,18 +12476,18 @@
       </c>
       <c r="H2" s="145">
         <f ca="1">PLANTILLA!F4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="49">
         <f ca="1">E2+(H2-D2+(G2-C2)*112)</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J2" s="165">
         <v>6886000</v>
       </c>
       <c r="K2" s="40">
         <f ca="1">(I2-E2)/112</f>
-        <v>7.6160714285714288</v>
+        <v>7.625</v>
       </c>
       <c r="L2" s="74">
         <f>J2-F2</f>
@@ -12490,7 +12499,7 @@
       </c>
       <c r="N2" s="76">
         <f ca="1">((G2-C2)*M2*16)+(H2-D2)/7*M2</f>
-        <v>2049637.142857143</v>
+        <v>2052040</v>
       </c>
       <c r="O2" s="148">
         <f>PLANTILLA!I4</f>
@@ -12621,7 +12630,7 @@
       </c>
       <c r="B3" s="73">
         <f t="shared" ref="B3:B16" ca="1" si="0">(N3+F3-J3)/K3</f>
-        <v>146325.33333333326</v>
+        <v>146953.06194690254</v>
       </c>
       <c r="C3" s="145">
         <v>29</v>
@@ -12642,18 +12651,18 @@
       </c>
       <c r="H3" s="145">
         <f ca="1">PLANTILLA!F5</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I16" ca="1" si="1">E3+(H3-D3+(G3-C3)*112)</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J3" s="165">
         <v>3074000</v>
       </c>
       <c r="K3" s="40">
         <f t="shared" ref="K3:K16" ca="1" si="2">(I3-E3)/112</f>
-        <v>2.0089285714285716</v>
+        <v>2.0178571428571428</v>
       </c>
       <c r="L3" s="74">
         <f t="shared" ref="L3:L16" si="3">J3-F3</f>
@@ -12665,7 +12674,7 @@
       </c>
       <c r="N3" s="76">
         <f t="shared" ref="N3:N16" ca="1" si="4">((G3-C3)*M3*16)+(H3-D3)/7*M3</f>
-        <v>578957.14285714284</v>
+        <v>581530.28571428568</v>
       </c>
       <c r="O3" s="148">
         <f>PLANTILLA!I5</f>
@@ -12733,63 +12742,63 @@
       </c>
       <c r="AE3" s="40">
         <f t="shared" ref="AE3:AE16" ca="1" si="10">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.516),((S3+(((TODAY()-E3)^0.5)/(336^0.516))+(LOG(O3)*4/3))*0.516))</f>
-        <v>8.2876234971581528</v>
+        <v>8.2884774927572042</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF16" ca="1" si="11">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*1),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>16.134012734073298</v>
+        <v>16.135829200433555</v>
       </c>
       <c r="AG3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.238),((T3+(((TODAY()-E3)^0.5)/(336^0.238))+(LOG(O3)*4/3))*0.238))</f>
-        <v>2.8994430960843034</v>
+        <v>2.9014278433264882</v>
       </c>
       <c r="AH3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.92),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.92))</f>
-        <v>14.843291715347435</v>
+        <v>14.844962864398871</v>
       </c>
       <c r="AI3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.414),((S3+(((TODAY()-E3)^0.5)/(336^0.414))+(LOG(O3)*4/3))*0.414))</f>
-        <v>6.8994088910865496</v>
+        <v>6.900649094374554</v>
       </c>
       <c r="AJ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.167),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.167))</f>
-        <v>1.5437501265902409</v>
+        <v>1.5440534764724041</v>
       </c>
       <c r="AK3" s="213">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*0.588),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.588))</f>
-        <v>7.7437994876350986</v>
+        <v>7.7448675698549305</v>
       </c>
       <c r="AL3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.4),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.4))</f>
-        <v>6.4536050936293199</v>
+        <v>6.4543316801734223</v>
       </c>
       <c r="AM3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*1),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>9.2440127340732978</v>
+        <v>9.2458292004335565</v>
       </c>
       <c r="AN3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((W3+1+(LOG(O3)*4/3))*0.21)+((V3+1+(LOG(O3)*4/3))*0.341),((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.21)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.341))</f>
-        <v>3.9985810164743869</v>
+        <v>3.9995818894388897</v>
       </c>
       <c r="AO3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.305),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.305))</f>
-        <v>2.8194238838923558</v>
+        <v>2.8199779061322348</v>
       </c>
       <c r="AP3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*1)+((V3+1+(LOG(O3)*4/3))*0.286),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.286))</f>
-        <v>15.793494661732545</v>
+        <v>15.795830637471838</v>
       </c>
       <c r="AQ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.406),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.406))</f>
-        <v>3.7530691700337591</v>
+        <v>3.7538066553760241</v>
       </c>
       <c r="AR3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.15)+((V3+1+(LOG(O3)*4/3))*0.324)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.15)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.324)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.144)+((W3+1+(LOG(O3)*4/3))*0.25)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.144)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.25)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)))</f>
-        <v>5.4741287960351945</v>
+        <v>5.4752204923177104</v>
       </c>
       <c r="AS3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)))</f>
-        <v>7.3974483385665337</v>
+        <v>7.3994936796881845</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12799,7 +12808,7 @@
       </c>
       <c r="B4" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>149695.99999999994</v>
+        <v>149961.28627450991</v>
       </c>
       <c r="C4" s="145">
         <v>29</v>
@@ -12820,18 +12829,18 @@
       </c>
       <c r="H4" s="145">
         <f ca="1">PLANTILLA!F6</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="49">
         <f ca="1">TODAY()</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J4" s="165">
         <v>2867000</v>
       </c>
       <c r="K4" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2678571428571428</v>
+        <v>2.2767857142857144</v>
       </c>
       <c r="L4" s="74">
         <f t="shared" si="3"/>
@@ -12843,7 +12852,7 @@
       </c>
       <c r="N4" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>506489.14285714284</v>
+        <v>508429.71428571432</v>
       </c>
       <c r="O4" s="148">
         <f>PLANTILLA!I6</f>
@@ -12908,63 +12917,63 @@
       </c>
       <c r="AE4" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8023871627123595</v>
+        <v>7.8031910311088648</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>15.198177077214325</v>
+        <v>15.199886921974587</v>
       </c>
       <c r="AG4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.238),((T4+(((TODAY()-E4)^0.5)/(336^0.238))+(LOG(O4)*4/3))*0.238))</f>
-        <v>2.0111790000244452</v>
+        <v>2.0130472480397894</v>
       </c>
       <c r="AH4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.92),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.92))</f>
-        <v>13.98232291103718</v>
+        <v>13.98389596821662</v>
       </c>
       <c r="AI4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.414),((S4+(((TODAY()-E4)^0.5)/(336^0.414))+(LOG(O4)*4/3))*0.414))</f>
-        <v>6.5257166085445153</v>
+        <v>6.5268840152964644</v>
       </c>
       <c r="AJ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.167),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.167))</f>
-        <v>0.88980557189479248</v>
+        <v>0.89009111596975599</v>
       </c>
       <c r="AK4" s="213">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*0.588),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.588))</f>
-        <v>8.3387281214020224</v>
+        <v>8.3397335101210555</v>
       </c>
       <c r="AL4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.4),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.4))</f>
-        <v>6.0792708308857302</v>
+        <v>6.0799547687898352</v>
       </c>
       <c r="AM4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*1),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1))</f>
-        <v>5.3281770772143258</v>
+        <v>5.3298869219745866</v>
       </c>
       <c r="AN4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((W4+1+(LOG(O4)*4/3))*0.21)+((V4+1+(LOG(O4)*4/3))*0.341),((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.21)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.341))</f>
-        <v>5.1049755695450934</v>
+        <v>5.1059176940079967</v>
       </c>
       <c r="AO4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.305),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.305))</f>
-        <v>1.6250940085503693</v>
+        <v>1.6256155112022488</v>
       </c>
       <c r="AP4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*1)+((V4+1+(LOG(O4)*4/3))*0.286),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.286))</f>
-        <v>17.378469054630955</v>
+        <v>17.38066791499265</v>
       </c>
       <c r="AQ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.406),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.406))</f>
-        <v>2.1632398933490165</v>
+        <v>2.1639340903216824</v>
       </c>
       <c r="AR4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.15)+((V4+1+(LOG(O4)*4/3))*0.324)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.15)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.324)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.144)+((W4+1+(LOG(O4)*4/3))*0.25)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.144)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.25)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)))</f>
-        <v>5.6187702572286629</v>
+        <v>5.619661086348759</v>
       </c>
       <c r="AS4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)))</f>
-        <v>9.6599673889433291</v>
+        <v>9.6618926741433846</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12974,7 +12983,7 @@
       </c>
       <c r="B5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-919640.53333333333</v>
+        <v>-907713.35849056626</v>
       </c>
       <c r="C5" s="145">
         <v>30</v>
@@ -12994,18 +13003,18 @@
       </c>
       <c r="H5" s="145">
         <f ca="1">PLANTILLA!F7</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J5" s="165">
         <v>3864250</v>
       </c>
       <c r="K5" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9375</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="3"/>
@@ -13017,7 +13026,7 @@
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>323100</v>
+        <v>326177.14285714284</v>
       </c>
       <c r="O5" s="148">
         <f>PLANTILLA!I7</f>
@@ -13085,63 +13094,63 @@
       </c>
       <c r="AE5" s="40">
         <f t="shared" ref="AE5" ca="1" si="17">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.516),((S5+(((TODAY()-E5)^0.5)/(336^0.516))+(LOG(O5)*4/3))*0.516))</f>
-        <v>8.1399972219483541</v>
+        <v>8.141245765305607</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" ca="1" si="18">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*1),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>15.824870336568164</v>
+        <v>15.827526014197286</v>
       </c>
       <c r="AG5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.238),((T5+(((TODAY()-E5)^0.5)/(336^0.238))+(LOG(O5)*4/3))*0.238))</f>
-        <v>2.1068384823152622</v>
+        <v>2.1097401869467651</v>
       </c>
       <c r="AH5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.92),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.92))</f>
-        <v>14.558880709642711</v>
+        <v>14.561323933061503</v>
       </c>
       <c r="AI5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.414),((S5+(((TODAY()-E5)^0.5)/(336^0.414))+(LOG(O5)*4/3))*0.414))</f>
-        <v>6.70173548506017</v>
+        <v>6.7035486648688236</v>
       </c>
       <c r="AJ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.167),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.167))</f>
-        <v>1.1430933462068835</v>
+        <v>1.1435368443709468</v>
       </c>
       <c r="AK5" s="213">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*0.588),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.588))</f>
-        <v>6.9589037579020809</v>
+        <v>6.9604652963480049</v>
       </c>
       <c r="AL5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.4),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.4))</f>
-        <v>6.3299481346272657</v>
+        <v>6.3310104056789145</v>
       </c>
       <c r="AM5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*1),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>6.8448703365681638</v>
+        <v>6.8475260141972853</v>
       </c>
       <c r="AN5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((W5+1+(LOG(O5)*4/3))*0.21)+((V5+1+(LOG(O5)*4/3))*0.341),((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.21)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.341))</f>
-        <v>4.2968335554490587</v>
+        <v>4.2982968338227048</v>
       </c>
       <c r="AO5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.305),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.305))</f>
-        <v>2.08768545265329</v>
+        <v>2.0884954343301718</v>
       </c>
       <c r="AP5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*1)+((V5+1+(LOG(O5)*4/3))*0.286),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.286))</f>
-        <v>14.939363252826661</v>
+        <v>14.942778454257711</v>
       </c>
       <c r="AQ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.406),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.406))</f>
-        <v>2.7790173566466745</v>
+        <v>2.7800955617640981</v>
       </c>
       <c r="AR5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.15)+((V5+1+(LOG(O5)*4/3))*0.324)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.15)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.324)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.144)+((W5+1+(LOG(O5)*4/3))*0.25)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.144)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.25)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)))</f>
-        <v>4.7779674453520142</v>
+        <v>4.7793510533967858</v>
       </c>
       <c r="AS5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)))</f>
-        <v>7.5469239989757533</v>
+        <v>7.5499142919861448</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13151,7 +13160,7 @@
       </c>
       <c r="B6" s="73">
         <f t="shared" ref="B6" ca="1" si="19">(N6+F6-J6)/K6</f>
-        <v>632571.13043478259</v>
+        <v>630953.51351351361</v>
       </c>
       <c r="C6" s="145">
         <v>29</v>
@@ -13171,18 +13180,18 @@
       </c>
       <c r="H6" s="145">
         <f ca="1">PLANTILLA!F8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="49">
         <f t="shared" ref="I6" ca="1" si="20">E6+(H6-D6+(G6-C6)*112)</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J6" s="165">
         <v>1854360</v>
       </c>
       <c r="K6" s="40">
         <f t="shared" ref="K6" ca="1" si="21">(I6-E6)/112</f>
-        <v>1.6428571428571428</v>
+        <v>1.6517857142857142</v>
       </c>
       <c r="L6" s="74">
         <f t="shared" ref="L6" si="22">J6-F6</f>
@@ -13194,7 +13203,7 @@
       </c>
       <c r="N6" s="76">
         <f t="shared" ref="N6" ca="1" si="23">((G6-C6)*M6*16)+(H6-D6)/7*M6</f>
-        <v>547584</v>
+        <v>550560</v>
       </c>
       <c r="O6" s="148">
         <f>PLANTILLA!I8</f>
@@ -13262,63 +13271,63 @@
       </c>
       <c r="AE6" s="40">
         <f t="shared" ref="AE6" ca="1" si="29">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.516),((S6+(((TODAY()-E6)^0.5)/(336^0.516))+(LOG(O6)*4/3))*0.516))</f>
-        <v>8.204236235541396</v>
+        <v>8.2051803634861464</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" ca="1" si="30">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*1),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>15.965450326402387</v>
+        <v>15.967458506132262</v>
       </c>
       <c r="AG6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.238),((T6+(((TODAY()-E6)^0.5)/(336^0.238))+(LOG(O6)*4/3))*0.238))</f>
-        <v>1.8189831775547303</v>
+        <v>1.8211773988559785</v>
       </c>
       <c r="AH6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.92),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.92))</f>
-        <v>14.688214300290197</v>
+        <v>14.690061825641681</v>
       </c>
       <c r="AI6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.414),((S6+(((TODAY()-E6)^0.5)/(336^0.414))+(LOG(O6)*4/3))*0.414))</f>
-        <v>6.8085793265550221</v>
+        <v>6.8099504232944854</v>
       </c>
       <c r="AJ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.167),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.167))</f>
-        <v>0.83257020450919872</v>
+        <v>0.83290557052408776</v>
       </c>
       <c r="AK6" s="213">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*0.588),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.588))</f>
-        <v>2.9255647919246028</v>
+        <v>2.9267456016057691</v>
       </c>
       <c r="AL6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.4),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.4))</f>
-        <v>6.3861801305609553</v>
+        <v>6.3869834024529055</v>
       </c>
       <c r="AM6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*1),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>4.9854503264023871</v>
+        <v>4.9874585061322616</v>
       </c>
       <c r="AN6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((W6+1+(LOG(O6)*4/3))*0.21)+((V6+1+(LOG(O6)*4/3))*0.341),((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.21)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.341))</f>
-        <v>5.1263731298477149</v>
+        <v>5.1274796368788769</v>
       </c>
       <c r="AO6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.305),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.305))</f>
-        <v>1.5205623495527281</v>
+        <v>1.5211748443703397</v>
       </c>
       <c r="AP6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*1)+((V6+1+(LOG(O6)*4/3))*0.286),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.286))</f>
-        <v>8.4004291197534684</v>
+        <v>8.4030116388860883</v>
       </c>
       <c r="AQ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.406),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.406))</f>
-        <v>2.0240928325193694</v>
+        <v>2.0249081534896982</v>
       </c>
       <c r="AR6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.15)+((V6+1+(LOG(O6)*4/3))*0.324)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.15)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.324)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.144)+((W6+1+(LOG(O6)*4/3))*0.25)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.144)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.25)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)))</f>
-        <v>4.3409396200556429</v>
+        <v>4.3419858816949084</v>
       </c>
       <c r="AS6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)))</f>
-        <v>9.3975270675290865</v>
+        <v>9.3997882779049267</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13328,7 +13337,7 @@
       </c>
       <c r="B7" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>510536.84887459793</v>
+        <v>510026.66666666686</v>
       </c>
       <c r="C7" s="145">
         <v>29</v>
@@ -13349,18 +13358,18 @@
       </c>
       <c r="H7" s="166">
         <f ca="1">PLANTILLA!F9</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J7" s="165">
         <v>3200000</v>
       </c>
       <c r="K7" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7767857142857144</v>
+        <v>2.7857142857142856</v>
       </c>
       <c r="L7" s="74">
         <f t="shared" si="3"/>
@@ -13372,7 +13381,7 @@
       </c>
       <c r="N7" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>975651.42857142852</v>
+        <v>978788.57142857148</v>
       </c>
       <c r="O7" s="148">
         <f>PLANTILLA!I9</f>
@@ -13440,63 +13449,63 @@
       </c>
       <c r="AE7" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>8.9208050366806013</v>
+        <v>8.9215316439746282</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>17.3738853620263</v>
+        <v>17.375430870818359</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" ref="AG7:AG16" ca="1" si="31">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.238),((T7+(((TODAY()-E7)^0.5)/(336^0.238))+(LOG(O7)*4/3))*0.238))</f>
-        <v>4.2364173943944001</v>
+        <v>4.2381060820463823</v>
       </c>
       <c r="AH7" s="40">
         <f t="shared" ref="AH7:AH16" ca="1" si="32">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.92),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.92))</f>
-        <v>15.983974533064197</v>
+        <v>15.985396401152892</v>
       </c>
       <c r="AI7" s="40">
         <f t="shared" ref="AI7:AI16" ca="1" si="33">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.414),((S7+(((TODAY()-E7)^0.5)/(336^0.414))+(LOG(O7)*4/3))*0.414))</f>
-        <v>7.4513529272002232</v>
+        <v>7.4524081325855169</v>
       </c>
       <c r="AJ7" s="40">
         <f t="shared" ref="AJ7:AJ16" ca="1" si="34">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.167),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.167))</f>
-        <v>2.3956674268869635</v>
+        <v>2.3959255268552373</v>
       </c>
       <c r="AK7" s="213">
         <f t="shared" ref="AK7:AK16" ca="1" si="35">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*0.588),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.588))</f>
-        <v>2.5609245928714643</v>
+        <v>2.5618333520411944</v>
       </c>
       <c r="AL7" s="40">
         <f t="shared" ref="AL7:AL16" ca="1" si="36">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.4),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.4))</f>
-        <v>6.94955414481052</v>
+        <v>6.9501723483273441</v>
       </c>
       <c r="AM7" s="40">
         <f t="shared" ref="AM7:AM16" ca="1" si="37">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*1),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1))</f>
-        <v>14.345313933454872</v>
+        <v>14.346859442246929</v>
       </c>
       <c r="AN7" s="40">
         <f t="shared" ref="AN7:AN16" ca="1" si="38">IF(TODAY()-E7&gt;335,((W7+1+(LOG(O7)*4/3))*0.21)+((V7+1+(LOG(O7)*4/3))*0.341),((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.21)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.341))</f>
-        <v>4.5761122630479205</v>
+        <v>4.5769638383923441</v>
       </c>
       <c r="AO7" s="40">
         <f t="shared" ref="AO7:AO16" ca="1" si="39">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.305),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.305))</f>
-        <v>4.3753207497037359</v>
+        <v>4.3757921298853129</v>
       </c>
       <c r="AP7" s="40">
         <f t="shared" ref="AP7:AP16" ca="1" si="40">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*1)+((V7+1+(LOG(O7)*4/3))*0.286),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.286))</f>
-        <v>7.077510861280107</v>
+        <v>7.0794983855866942</v>
       </c>
       <c r="AQ7" s="40">
         <f t="shared" ref="AQ7:AQ16" ca="1" si="41">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.406),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.406))</f>
-        <v>5.8241974569826782</v>
+        <v>5.8248249335522537</v>
       </c>
       <c r="AR7" s="40">
         <f t="shared" ref="AR7:AR16" ca="1" si="42">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.15)+((V7+1+(LOG(O7)*4/3))*0.324)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.15)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.324)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.144)+((W7+1+(LOG(O7)*4/3))*0.25)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.144)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.25)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)))</f>
-        <v>3.811292845044274</v>
+        <v>3.8120980551249364</v>
       </c>
       <c r="AS7" s="40">
         <f t="shared" ref="AS7:AS16" ca="1" si="43">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)))</f>
-        <v>8.8618549176416153</v>
+        <v>8.8635951605414718</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13506,7 +13515,7 @@
       </c>
       <c r="B8" s="73">
         <f ca="1">(N8+F8-J8)/K8</f>
-        <v>576787.23404255311</v>
+        <v>576503.70370370371</v>
       </c>
       <c r="C8" s="145">
         <v>30</v>
@@ -13527,18 +13536,18 @@
       </c>
       <c r="H8" s="145">
         <f ca="1">PLANTILLA!F10</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="49">
         <f ca="1">E8+(H8-D8+(G8-C8)*112)</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J8" s="165">
         <v>3160050</v>
       </c>
       <c r="K8" s="40">
         <f ca="1">(I8-E8)/112</f>
-        <v>1.6785714285714286</v>
+        <v>1.6875</v>
       </c>
       <c r="L8" s="74">
         <f>J8-F8</f>
@@ -13550,7 +13559,7 @@
       </c>
       <c r="N8" s="76">
         <f ca="1">((G8-C8)*M8*16)+(H8-D8)/7*M8</f>
-        <v>878228.57142857136</v>
+        <v>882900</v>
       </c>
       <c r="O8" s="148">
         <f>PLANTILLA!I10</f>
@@ -13618,63 +13627,63 @@
       </c>
       <c r="AE8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.516),((S8+(((TODAY()-E8)^0.5)/(336^0.516))+(LOG(O8)*4/3))*0.516))</f>
-        <v>7.2067578371929519</v>
+        <v>7.2076918941156114</v>
       </c>
       <c r="AF8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*1),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>14.033063678003835</v>
+        <v>14.03505043646074</v>
       </c>
       <c r="AG8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.238),((T8+(((TODAY()-E8)^0.5)/(336^0.238))+(LOG(O8)*4/3))*0.238))</f>
-        <v>4.7026726079996761</v>
+        <v>4.7048434235206784</v>
       </c>
       <c r="AH8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.92),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.92))</f>
-        <v>12.910418583763528</v>
+        <v>12.91224640154388</v>
       </c>
       <c r="AI8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.414),((S8+(((TODAY()-E8)^0.5)/(336^0.414))+(LOG(O8)*4/3))*0.414))</f>
-        <v>6.0107214019186559</v>
+        <v>6.012077873155687</v>
       </c>
       <c r="AJ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.167),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.167))</f>
-        <v>2.8512016342266406</v>
+        <v>2.8515334228889437</v>
       </c>
       <c r="AK8" s="213">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*0.588),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.588))</f>
-        <v>2.377321442666255</v>
+        <v>2.3784896566389153</v>
       </c>
       <c r="AL8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.4),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.4))</f>
-        <v>5.6132254712015346</v>
+        <v>5.6140201745842964</v>
       </c>
       <c r="AM8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*1),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>17.073063678003834</v>
+        <v>17.075050436460739</v>
       </c>
       <c r="AN8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((W8+1+(LOG(O8)*4/3))*0.21)+((V8+1+(LOG(O8)*4/3))*0.341),((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.21)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.341))</f>
-        <v>4.4221891976912246</v>
+        <v>4.4232839016009784</v>
       </c>
       <c r="AO8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.305),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.305))</f>
-        <v>5.2072844217911696</v>
+        <v>5.2078903831205254</v>
       </c>
       <c r="AP8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*1)+((V8+1+(LOG(O8)*4/3))*0.286),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.286))</f>
-        <v>7.0123021121351545</v>
+        <v>7.0148570835107336</v>
       </c>
       <c r="AQ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.406),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.406))</f>
-        <v>6.9316638532695567</v>
+        <v>6.9324704772030605</v>
       </c>
       <c r="AR8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.15)+((V8+1+(LOG(O8)*4/3))*0.324)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.15)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.324)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.144)+((W8+1+(LOG(O8)*4/3))*0.25)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.144)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.25)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)))</f>
-        <v>3.7110550651288872</v>
+        <v>3.7120901662849342</v>
       </c>
       <c r="AS8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)))</f>
-        <v>8.0858430347656522</v>
+        <v>8.0880801247881262</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13684,7 +13693,7 @@
       </c>
       <c r="B9" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>536405.33333333337</v>
+        <v>535811.24050632899</v>
       </c>
       <c r="C9" s="145">
         <v>29</v>
@@ -13705,18 +13714,18 @@
       </c>
       <c r="H9" s="166">
         <f ca="1">PLANTILLA!F11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J9" s="165">
         <v>1640000</v>
       </c>
       <c r="K9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8125</v>
+        <v>2.8214285714285716</v>
       </c>
       <c r="L9" s="74">
         <f t="shared" si="3"/>
@@ -13728,7 +13737,7 @@
       </c>
       <c r="N9" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>980640</v>
+        <v>983753.14285714284</v>
       </c>
       <c r="O9" s="148">
         <f>PLANTILLA!I11</f>
@@ -13796,63 +13805,63 @@
       </c>
       <c r="AE9" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7479081041629199</v>
+        <v>3.7486300906901091</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3494394117823596</v>
+        <v>7.3509750921074728</v>
       </c>
       <c r="AG9" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>4.7639833678394741</v>
+        <v>4.7656613164967281</v>
       </c>
       <c r="AH9" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>6.7614842588397712</v>
+        <v>6.7628970847388752</v>
       </c>
       <c r="AI9" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>3.3028897847933441</v>
+        <v>3.3039382797339596</v>
       </c>
       <c r="AJ9" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.7621518719637335</v>
+        <v>2.7624083305780269</v>
       </c>
       <c r="AK9" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>4.3099409623633216</v>
+        <v>4.310843942394488</v>
       </c>
       <c r="AL9" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.9397757647129441</v>
+        <v>2.9403900368429894</v>
       </c>
       <c r="AM9" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>16.539831568645109</v>
+        <v>16.541367248970221</v>
       </c>
       <c r="AN9" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>6.2336498927361514</v>
+        <v>6.2344960525952882</v>
       </c>
       <c r="AO9" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>5.0446486284367582</v>
+        <v>5.0451170109359174</v>
       </c>
       <c r="AP9" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>11.547103079817287</v>
+        <v>11.549077964715382</v>
       </c>
       <c r="AQ9" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>6.7151716168699149</v>
+        <v>6.7157951030819101</v>
       </c>
       <c r="AR9" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.4708805012323527</v>
+        <v>5.4716805906817365</v>
       </c>
       <c r="AS9" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>11.353239393913436</v>
+        <v>11.354968569959512</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13862,7 +13871,7 @@
       </c>
       <c r="B10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-22967.794871794969</v>
+        <v>-17969.417721519174</v>
       </c>
       <c r="C10" s="145">
         <v>29</v>
@@ -13882,18 +13891,18 @@
       </c>
       <c r="H10" s="166">
         <f ca="1">PLANTILLA!F12</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J10" s="165">
         <v>4125000</v>
       </c>
       <c r="K10" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6964285714285714</v>
+        <v>0.7053571428571429</v>
       </c>
       <c r="L10" s="74">
         <f t="shared" si="3"/>
@@ -13905,7 +13914,7 @@
       </c>
       <c r="N10" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>259004.57142857142</v>
+        <v>262325.1428571429</v>
       </c>
       <c r="O10" s="148">
         <f>PLANTILLA!I12</f>
@@ -13973,63 +13982,63 @@
       </c>
       <c r="AE10" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7988266046117185</v>
+        <v>1.8002740294229918</v>
       </c>
       <c r="AF10" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5289185025107384</v>
+        <v>3.5319972051195063</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.8750684619024534</v>
+        <v>3.8784323813484423</v>
       </c>
       <c r="AH10" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>3.2466050223098795</v>
+        <v>3.2494374287099461</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>1.5904621360728042</v>
+        <v>1.5925641387202085</v>
       </c>
       <c r="AJ10" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.4301248444647481</v>
+        <v>2.4306389878004122</v>
       </c>
       <c r="AK10" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.1349966720689064</v>
+        <v>9.1368069492028621</v>
       </c>
       <c r="AL10" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4115674010042953</v>
+        <v>1.4127988820478026</v>
       </c>
       <c r="AM10" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.551645775238011</v>
+        <v>14.554724477846779</v>
       </c>
       <c r="AN10" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.1020354837723056</v>
+        <v>4.103731848909737</v>
       </c>
       <c r="AO10" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.4382519614475937</v>
+        <v>4.4391909657432675</v>
       </c>
       <c r="AP10" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>17.824432095463376</v>
+        <v>17.828391307018251</v>
       </c>
       <c r="AQ10" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.9079681847466325</v>
+        <v>5.9092181380057927</v>
       </c>
       <c r="AR10" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.0682170953636501</v>
+        <v>5.0698210994228177</v>
       </c>
       <c r="AS10" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.1575630671604245</v>
+        <v>8.1610296862978977</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14039,7 +14048,7 @@
       </c>
       <c r="B11" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-166461.17127071816</v>
+        <v>-164081.23076923078</v>
       </c>
       <c r="C11" s="145">
         <v>30</v>
@@ -14060,18 +14069,18 @@
       </c>
       <c r="H11" s="166">
         <f ca="1">PLANTILLA!F13</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J11" s="165">
         <v>3110000</v>
       </c>
       <c r="K11" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6160714285714286</v>
+        <v>1.625</v>
       </c>
       <c r="L11" s="74">
         <f t="shared" si="3"/>
@@ -14083,7 +14092,7 @@
       </c>
       <c r="N11" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>430986.85714285716</v>
+        <v>433368</v>
       </c>
       <c r="O11" s="148">
         <f>PLANTILLA!I13</f>
@@ -14151,63 +14160,63 @@
       </c>
       <c r="AE11" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0554518708968637</v>
+        <v>3.0564037696021722</v>
       </c>
       <c r="AF11" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9866477007199839</v>
+        <v>5.9886724090188119</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.9615002451526218</v>
+        <v>3.9637125262607373</v>
       </c>
       <c r="AH11" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5077158846623853</v>
+        <v>5.5095786162973068</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>2.6757270484993039</v>
+        <v>2.6771094302182261</v>
       </c>
       <c r="AJ11" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.3395656205656921</v>
+        <v>2.3399037468515962</v>
       </c>
       <c r="AK11" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.4393488480233501</v>
+        <v>9.440539376503061</v>
       </c>
       <c r="AL11" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3946590802879935</v>
+        <v>2.395468963607525</v>
       </c>
       <c r="AM11" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.009374973447258</v>
+        <v>14.011399681746084</v>
       </c>
       <c r="AN11" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6252428830967105</v>
+        <v>4.626358497369365</v>
       </c>
       <c r="AO11" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.2728593669014137</v>
+        <v>4.2734769029325559</v>
       </c>
       <c r="AP11" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>19.052495609792565</v>
+        <v>19.055099384664857</v>
       </c>
       <c r="AQ11" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.6878062392195874</v>
+        <v>5.6886282707889109</v>
       </c>
       <c r="AR11" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.5679134520751106</v>
+        <v>5.5689683250987994</v>
       </c>
       <c r="AS11" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.6072953110107004</v>
+        <v>8.6095751325551824</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14217,7 +14226,7 @@
       </c>
       <c r="B12" s="73">
         <f t="shared" ref="B12" ca="1" si="44">(N12+F12-J12)/K12</f>
-        <v>299677.84164222871</v>
+        <v>299630.78362573101</v>
       </c>
       <c r="C12" s="145">
         <v>29</v>
@@ -14238,18 +14247,18 @@
       </c>
       <c r="H12" s="166">
         <f ca="1">PLANTILLA!F14</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="49">
         <f t="shared" ref="I12" ca="1" si="45">E12+(H12-D12+(G12-C12)*112)</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J12" s="165">
         <v>3000000</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" ref="K12" ca="1" si="46">(I12-E12)/112</f>
-        <v>3.0446428571428572</v>
+        <v>3.0535714285714284</v>
       </c>
       <c r="L12" s="74">
         <f t="shared" ref="L12" si="47">J12-F12</f>
@@ -14261,7 +14270,7 @@
       </c>
       <c r="N12" s="76">
         <f t="shared" ref="N12" ca="1" si="48">((G12-C12)*M12*16)+(H12-D12)/7*M12</f>
-        <v>863412</v>
+        <v>865944</v>
       </c>
       <c r="O12" s="148">
         <f>PLANTILLA!I14</f>
@@ -14395,7 +14404,7 @@
       </c>
       <c r="B13" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-5383.9750778816669</v>
+        <v>-4624.0248833592768</v>
       </c>
       <c r="C13" s="145">
         <v>24</v>
@@ -14416,18 +14425,18 @@
       </c>
       <c r="H13" s="166">
         <f ca="1">PLANTILLA!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J13" s="165">
         <v>5200000</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7321428571428568</v>
+        <v>5.7410714285714288</v>
       </c>
       <c r="L13" s="74">
         <f t="shared" si="3"/>
@@ -14439,7 +14448,7 @@
       </c>
       <c r="N13" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>2770138.2857142859</v>
+        <v>2774453.1428571427</v>
       </c>
       <c r="O13" s="148">
         <f>PLANTILLA!I15</f>
@@ -14573,7 +14582,7 @@
       </c>
       <c r="B14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>146032.59259259258</v>
+        <v>146433.39498018497</v>
       </c>
       <c r="C14" s="145">
         <v>22</v>
@@ -14594,18 +14603,18 @@
       </c>
       <c r="H14" s="166">
         <f ca="1">PLANTILLA!F16</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J14" s="165">
         <v>4910000</v>
       </c>
       <c r="K14" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.75</v>
+        <v>6.7589285714285712</v>
       </c>
       <c r="L14" s="74">
         <f t="shared" si="3"/>
@@ -14617,7 +14626,7 @@
       </c>
       <c r="N14" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3033720</v>
+        <v>3037732.8571428573</v>
       </c>
       <c r="O14" s="148">
         <f>PLANTILLA!I16</f>
@@ -14751,7 +14760,7 @@
       </c>
       <c r="B15" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>153322.94193548389</v>
+        <v>153764.45360824742</v>
       </c>
       <c r="C15" s="145">
         <v>23</v>
@@ -14772,18 +14781,18 @@
       </c>
       <c r="H15" s="166">
         <f ca="1">PLANTILLA!F17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J15" s="165">
         <v>4910760</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9196428571428568</v>
+        <v>6.9285714285714288</v>
       </c>
       <c r="L15" s="74">
         <f t="shared" si="3"/>
@@ -14795,7 +14804,7 @@
       </c>
       <c r="N15" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3431700</v>
+        <v>3436128</v>
       </c>
       <c r="O15" s="148">
         <f>PLANTILLA!I17</f>
@@ -14929,7 +14938,7 @@
       </c>
       <c r="B16" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-127276.94656488557</v>
+        <v>-126478.47522236338</v>
       </c>
       <c r="C16" s="145">
         <v>22</v>
@@ -14950,18 +14959,18 @@
       </c>
       <c r="H16" s="166">
         <f ca="1">PLANTILLA!F18</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="J16" s="165">
         <v>7062000</v>
       </c>
       <c r="K16" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0178571428571432</v>
+        <v>7.0267857142857144</v>
       </c>
       <c r="L16" s="74">
         <f t="shared" si="3"/>
@@ -14973,7 +14982,7 @@
       </c>
       <c r="N16" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3516788.5714285714</v>
+        <v>3521262.8571428573</v>
       </c>
       <c r="O16" s="148">
         <f>PLANTILLA!I18</f>
@@ -39231,7 +39240,7 @@
       </c>
       <c r="U8" s="128">
         <f ca="1">PLANTILLA!F4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V8" s="128"/>
       <c r="W8" s="123">
@@ -39325,7 +39334,7 @@
       </c>
       <c r="U9" s="128">
         <f ca="1">PLANTILLA!F5</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V9" s="128" t="str">
         <f>PLANTILLA!G5</f>
@@ -39422,7 +39431,7 @@
       </c>
       <c r="U10" s="128">
         <f ca="1">PLANTILLA!F6</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" s="128"/>
       <c r="W10" s="123">
@@ -39516,7 +39525,7 @@
       </c>
       <c r="U11" s="130">
         <f ca="1">PLANTILLA!F8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V11" s="128"/>
       <c r="W11" s="123">
@@ -39610,7 +39619,7 @@
       </c>
       <c r="U12" s="130">
         <f ca="1">PLANTILLA!F10</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V12" s="128" t="str">
         <f>PLANTILLA!G10</f>
@@ -39707,7 +39716,7 @@
       </c>
       <c r="U13" s="128">
         <f ca="1">PLANTILLA!F9</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V13" s="128" t="str">
         <f>PLANTILLA!G9</f>
@@ -39804,7 +39813,7 @@
       </c>
       <c r="U14" s="130">
         <f ca="1">PLANTILLA!F7</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V14" s="128"/>
       <c r="W14" s="123">
@@ -39898,7 +39907,7 @@
       </c>
       <c r="U15" s="130">
         <f ca="1">PLANTILLA!F13</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" s="128"/>
       <c r="W15" s="123">
@@ -39992,7 +40001,7 @@
       </c>
       <c r="U16" s="130">
         <f ca="1">PLANTILLA!F14</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V16" s="128" t="str">
         <f>PLANTILLA!G14</f>
@@ -40090,7 +40099,7 @@
       </c>
       <c r="U17" s="130">
         <f ca="1">PLANTILLA!F11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17" s="128" t="str">
         <f>PLANTILLA!G11</f>
@@ -40187,7 +40196,7 @@
       </c>
       <c r="U18" s="130">
         <f ca="1">PLANTILLA!F12</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V18" s="128" t="str">
         <f>PLANTILLA!G12</f>
@@ -40284,7 +40293,7 @@
       </c>
       <c r="U19" s="130">
         <f ca="1">PLANTILLA!F18</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V19" s="128" t="str">
         <f>PLANTILLA!G18</f>
@@ -40381,7 +40390,7 @@
       </c>
       <c r="U20" s="130">
         <f ca="1">PLANTILLA!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="128" t="str">
         <f>PLANTILLA!G15</f>
@@ -40478,7 +40487,7 @@
       </c>
       <c r="U21" s="130">
         <f ca="1">PLANTILLA!F16</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V21" s="128" t="str">
         <f>PLANTILLA!G16</f>
@@ -40575,7 +40584,7 @@
       </c>
       <c r="U22" s="130">
         <f ca="1">PLANTILLA!F17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" s="128" t="str">
         <f>PLANTILLA!G17</f>
@@ -40653,13 +40662,13 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AS34"/>
+  <dimension ref="A1:AS35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40712,7 +40721,7 @@
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" s="33">
         <f ca="1">TODAY()</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="I2" s="35">
         <f>AVERAGE(I4:I18)</f>
@@ -40721,7 +40730,7 @@
       <c r="J2" s="35"/>
       <c r="N2" s="40">
         <f ca="1">AVERAGE(N4:N18)</f>
-        <v>0.82876987524882295</v>
+        <v>0.83019664181149266</v>
       </c>
       <c r="O2" s="35">
         <f>AVERAGE(O4:O18)</f>
@@ -40769,13 +40778,13 @@
       <c r="AM2" s="35"/>
       <c r="AN2" s="35"/>
       <c r="AO2" s="35">
-        <f>AVERAGE(AO4:AO31)</f>
-        <v>1.9285714285714286</v>
+        <f>AVERAGE(AO4:AO32)</f>
+        <v>1.9310344827586208</v>
       </c>
       <c r="AP2" s="35"/>
       <c r="AQ2" s="35">
-        <f>AVERAGE(AQ4:AQ31)</f>
-        <v>1.9285714285714286</v>
+        <f>AVERAGE(AQ4:AQ32)</f>
+        <v>1.896551724137931</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -40924,7 +40933,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">((33*112)-(E4*112)-(F4))/112</f>
-        <v>2.8392857142857144</v>
+        <v>2.8303571428571428</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>47</v>
@@ -40934,7 +40943,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">17+D2-D1-112-112-112-112-112-112-112</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="5">
@@ -41083,7 +41092,7 @@
       </c>
       <c r="C5" s="138">
         <f t="shared" ref="C5:C18" ca="1" si="3">((33*112)-(E5*112)-(F5))/112</f>
-        <v>1.1071428571428572</v>
+        <v>1.0982142857142858</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>261</v>
@@ -41093,7 +41102,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">72+D2-D1-112-112-112-112-112+17-112-112+10</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>74</v>
@@ -41121,7 +41130,7 @@
       </c>
       <c r="N5" s="154">
         <f t="shared" ref="N5:N18" ca="1" si="5">IF((TODAY()-M5)&gt;335,1,((TODAY()-M5)^0.64)/(336^0.64))</f>
-        <v>0.77364134993024503</v>
+        <v>0.77584017284391016</v>
       </c>
       <c r="O5" s="21">
         <v>7.2</v>
@@ -41187,35 +41196,35 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="25">
         <f t="shared" ref="AG5:AG18" ca="1" si="10">(AD5+1+(LOG(I5)*4/3)+N5)*(Q5/7)^0.5</f>
-        <v>17.056078482027072</v>
+        <v>17.058114196476385</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ref="AH5:AH18" ca="1" si="11">(AD5+1+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>18.422670328951902</v>
+        <v>18.424869151865568</v>
       </c>
       <c r="AI5" s="137">
         <f t="shared" ref="AI5:AI18" ca="1" si="12">(Z5+N5+(LOG(I5)*4/3))*(Q5/7)^0.5</f>
-        <v>8.5169310951249084</v>
+        <v>8.5189668095742199</v>
       </c>
       <c r="AJ5" s="137">
         <f t="shared" ref="AJ5:AJ18" ca="1" si="13">(Z5+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>9.1993369956185713</v>
+        <v>9.2015358185322356</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" ref="AK5:AK18" ca="1" si="14">(((Y5+LOG(I5)*4/3+N5)+(AB5+LOG(I5)*4/3+N5)*2)/8)*(Q5/7)^0.5</f>
-        <v>3.9750098698549308</v>
+        <v>3.9757732627734228</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" ref="AL5:AL18" ca="1" si="15">(AD5+LOG(I5)*4/3+N5)*0.7+(AC5+LOG(I5)*4/3+N5)*0.3</f>
-        <v>13.425670328951902</v>
+        <v>13.427869151865568</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ref="AM5:AM18" ca="1" si="16">(0.5*(AC5+LOG(I5)*4/3+N5)+ 0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>0.72764695964948567</v>
+        <v>0.72782286548257891</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ref="AN5:AN18" ca="1" si="17">(0.4*(Y5+LOG(I5)*4/3+N5)+0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>1.1662535896933</v>
+        <v>1.1664075072972566</v>
       </c>
       <c r="AO5" s="22">
         <v>2</v>
@@ -41243,7 +41252,7 @@
       </c>
       <c r="C6" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3035714285714286</v>
+        <v>1.2946428571428572</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>260</v>
@@ -41253,7 +41262,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">16+D2-D1-112-51-112-112-112-112-112</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
@@ -41279,7 +41288,7 @@
       </c>
       <c r="N6" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83605806590558429</v>
+        <v>0.83816317869628709</v>
       </c>
       <c r="O6" s="27">
         <v>7.1</v>
@@ -41345,35 +41354,35 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>12.141926856190048</v>
+        <v>12.143875811923969</v>
       </c>
       <c r="AH6" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>13.114779922333708</v>
+        <v>13.116885035124412</v>
       </c>
       <c r="AI6" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9020136759686963</v>
+        <v>4.9039626317026181</v>
       </c>
       <c r="AJ6" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2947799223337091</v>
+        <v>5.2968850351244123</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3344975725000028</v>
+        <v>4.3352284309002229</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>10.31777992233371</v>
+        <v>10.319885035124411</v>
       </c>
       <c r="AM6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.66968239378669669</v>
+        <v>0.66985080280995291</v>
       </c>
       <c r="AN6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.97003459456335972</v>
+        <v>0.97018195245870886</v>
       </c>
       <c r="AO6" s="22">
         <v>3</v>
@@ -41401,7 +41410,7 @@
       </c>
       <c r="C7" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8035714285714286</v>
+        <v>1.7946428571428572</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>263</v>
@@ -41411,7 +41420,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">8-659+D2-D1-112</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
@@ -41437,7 +41446,7 @@
       </c>
       <c r="N7" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47501137955544109</v>
+        <v>0.47790174493713611</v>
       </c>
       <c r="O7" s="27">
         <v>7</v>
@@ -41503,35 +41512,35 @@
       <c r="AF7" s="10"/>
       <c r="AG7" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.758372967150088</v>
+        <v>14.761048925516146</v>
       </c>
       <c r="AH7" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.940864721748659</v>
+        <v>15.943755087130352</v>
       </c>
       <c r="AI7" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2593444512380652</v>
+        <v>6.2620204096041254</v>
       </c>
       <c r="AJ7" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>6.760864721748657</v>
+        <v>6.7637550871303525</v>
       </c>
       <c r="AK7" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3146218812309467</v>
+        <v>4.3156253656182191</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>11.283864721748657</v>
+        <v>11.286755087130352</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.58576917773989268</v>
+        <v>0.5860004069704281</v>
       </c>
       <c r="AN7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0778605305224063</v>
+        <v>1.0780628560991246</v>
       </c>
       <c r="AO7" s="22">
         <v>2</v>
@@ -41559,7 +41568,7 @@
       </c>
       <c r="C8" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9553571428571428</v>
+        <v>1.9464285714285714</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>262</v>
@@ -41569,7 +41578,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">8-659-17+D2-D1-112</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
@@ -41595,7 +41604,7 @@
       </c>
       <c r="N8" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68018377667684582</v>
+        <v>0.68254732455041356</v>
       </c>
       <c r="O8" s="27">
         <v>7</v>
@@ -41659,35 +41668,35 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>16.823320478234923</v>
+        <v>16.825318040776523</v>
       </c>
       <c r="AH8" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>18.429024236135731</v>
+        <v>18.431212456263854</v>
       </c>
       <c r="AI8" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.1629097424017445</v>
+        <v>4.1649073049433447</v>
       </c>
       <c r="AJ8" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5602391415429109</v>
+        <v>4.5624273616710349</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.1979724281536255</v>
+        <v>4.198721514106726</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.705621233178276</v>
+        <v>14.707984781051843</v>
       </c>
       <c r="AM8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8124496986542622</v>
+        <v>0.81263878248414767</v>
       </c>
       <c r="AN8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2033934863224793</v>
+        <v>1.2035589346736291</v>
       </c>
       <c r="AO8" s="22">
         <v>1</v>
@@ -41715,7 +41724,7 @@
       </c>
       <c r="C9" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49107142857142855</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>259</v>
@@ -41725,7 +41734,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112-41-112-112-112</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -41753,7 +41762,7 @@
       </c>
       <c r="N9" s="154">
         <f ca="1">IF((TODAY()-M9)&gt;335,1,((TODAY()-M9)^0.64)/(336^0.64))</f>
-        <v>0.95172069144116989</v>
+        <v>0.95367808443456226</v>
       </c>
       <c r="O9" s="27">
         <v>6.9</v>
@@ -41818,35 +41827,35 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.988773539440658</v>
+        <v>14.990427838457196</v>
       </c>
       <c r="AH9" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>16.419378753776392</v>
+        <v>16.421190947552827</v>
       </c>
       <c r="AI9" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.115249073363699</v>
+        <v>12.116903372380241</v>
       </c>
       <c r="AJ9" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.271590414549717</v>
+        <v>13.273402608326155</v>
       </c>
       <c r="AK9" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.84324957511302</v>
+        <v>3.8438699372442224</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>13.611956022028666</v>
+        <v>13.61391341502206</v>
       </c>
       <c r="AM9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8182964817622933</v>
+        <v>0.81845307320176486</v>
       </c>
       <c r="AN9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.196589778684864</v>
+        <v>1.1967267961944015</v>
       </c>
       <c r="AO9" s="22">
         <v>3</v>
@@ -41874,7 +41883,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">((33*112)-(E10*112)-(F10))/112</f>
-        <v>1.1785714285714286</v>
+        <v>1.1696428571428572</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>432</v>
@@ -41884,7 +41893,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-112-30-112</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>200</v>
@@ -41912,7 +41921,7 @@
       </c>
       <c r="N10" s="154">
         <f ca="1">IF((TODAY()-M10)&gt;335,1,((TODAY()-M10)^0.64)/(336^0.64))</f>
-        <v>0.68961053266353356</v>
+        <v>0.69195590067854806</v>
       </c>
       <c r="O10" s="21">
         <v>7</v>
@@ -41978,35 +41987,35 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>10.530889753313581</v>
+        <v>10.533061142163247</v>
       </c>
       <c r="AH10" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>11.374660969124273</v>
+        <v>11.377006337139289</v>
       </c>
       <c r="AI10" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>15.75251511603077</v>
+        <v>15.754686504880436</v>
       </c>
       <c r="AJ10" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>17.014660969124272</v>
+        <v>17.017006337139289</v>
       </c>
       <c r="AK10" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0066902414784398</v>
+        <v>4.0075045122970643</v>
       </c>
       <c r="AL10" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5046609691242736</v>
+        <v>8.5070063371392877</v>
       </c>
       <c r="AM10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.51830621086327522</v>
+        <v>0.51849384030447632</v>
       </c>
       <c r="AN10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.87022626783869905</v>
+        <v>0.87039044359975004</v>
       </c>
       <c r="AO10" s="22">
         <v>2</v>
@@ -42034,7 +42043,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">((33*112)-(E11*112)-(F11))/112</f>
-        <v>0.9196428571428571</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>258</v>
@@ -42044,7 +42053,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-1-112-112-112</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -42072,7 +42081,7 @@
       </c>
       <c r="N11" s="154">
         <f ca="1">IF((TODAY()-M11)&gt;335,1,((TODAY()-M11)^0.64)/(336^0.64))</f>
-        <v>0.95953675915519743</v>
+        <v>0.96148518173817332</v>
       </c>
       <c r="O11" s="27">
         <v>6.9</v>
@@ -42139,35 +42148,35 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.101443130023924</v>
+        <v>14.102915999053469</v>
       </c>
       <c r="AH11" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.76589270979045</v>
+        <v>15.76753942742646</v>
       </c>
       <c r="AI11" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.496354001311406</v>
+        <v>12.497826870340955</v>
       </c>
       <c r="AJ11" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.971348508916902</v>
+        <v>13.972995226552914</v>
       </c>
       <c r="AK11" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4786641883789908</v>
+        <v>3.4792165142650715</v>
       </c>
       <c r="AL11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.077455824581779</v>
+        <v>14.079404247164755</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.8161897992998759</v>
+        <v>0.81634567310651396</v>
       </c>
       <c r="AN11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.8232628881128814</v>
+        <v>0.82339927769368981</v>
       </c>
       <c r="AO11" s="22">
         <v>1</v>
@@ -42195,7 +42204,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">((33*112)-(E12*112)-(F12))/112</f>
-        <v>3.0892857142857144</v>
+        <v>3.0803571428571428</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>264</v>
@@ -42205,7 +42214,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">8-659-32+D2-D1</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -42233,7 +42242,7 @@
       </c>
       <c r="N12" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39272035185262583</v>
+        <v>0.39593527945771984</v>
       </c>
       <c r="O12" s="27">
         <v>7</v>
@@ -42299,35 +42308,35 @@
       <c r="AF12" s="10"/>
       <c r="AG12" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9535254369302308</v>
+        <v>1.9559556937662752</v>
       </c>
       <c r="AH12" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1841078363754871</v>
+        <v>2.1868249461195766</v>
       </c>
       <c r="AI12" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>10.932663255823176</v>
+        <v>10.93509351265922</v>
       </c>
       <c r="AJ12" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>12.223089107567397</v>
+        <v>12.225806217311487</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1.820532275392758</v>
+        <v>1.8214436217062746</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0439379096447592</v>
+        <v>3.0471528372498531</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37001947721602518</v>
+        <v>0.37027667142443266</v>
       </c>
       <c r="AN12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18512120923068873</v>
+        <v>0.18534625416304532</v>
       </c>
       <c r="AO12" s="22">
         <v>1</v>
@@ -42355,7 +42364,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">((33*112)-(E13*112)-(F13))/112</f>
-        <v>1.3482142857142858</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>265</v>
@@ -42365,7 +42374,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
@@ -42391,7 +42400,7 @@
       </c>
       <c r="N13" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67306522155170212</v>
+        <v>0.6754427598356405</v>
       </c>
       <c r="O13" s="27">
         <v>7</v>
@@ -42457,35 +42466,35 @@
       <c r="AF13" s="10"/>
       <c r="AG13" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4257575583765263</v>
+        <v>8.4281350966604656</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4257575583765281</v>
+        <v>8.4281350966604656</v>
       </c>
       <c r="AI13" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>13.948484831103801</v>
+        <v>13.950862369387739</v>
       </c>
       <c r="AJ13" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.948484831103801</v>
+        <v>13.950862369387739</v>
       </c>
       <c r="AK13" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3471590843911967</v>
+        <v>3.3480506612476737</v>
       </c>
       <c r="AL13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6787575583765255</v>
+        <v>6.6811350966604648</v>
       </c>
       <c r="AM13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.46956060467012206</v>
+        <v>0.46975080773283723</v>
       </c>
       <c r="AN13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45980302908635684</v>
+        <v>0.45996945676623258</v>
       </c>
       <c r="AO13" s="22">
         <v>3</v>
@@ -42513,7 +42522,7 @@
       </c>
       <c r="C14" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.125</v>
+        <v>0.11607142857142858</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>257</v>
@@ -42523,7 +42532,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">-35+D2-D1-67-112-112-112+87-112-112-112</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>0</v>
@@ -42673,7 +42682,7 @@
       </c>
       <c r="C15" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2.9910714285714284</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>198</v>
@@ -42683,7 +42692,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">-35+D2-D1-67-11-112-112-112-112-112-112</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>0</v>
@@ -42832,7 +42841,7 @@
       </c>
       <c r="C16" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4375</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>73</v>
@@ -42842,7 +42851,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">62+D2-D1-112-112-112-112-112-112-112</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>74</v>
@@ -42993,7 +43002,7 @@
       </c>
       <c r="C17" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9821428571428572</v>
+        <v>2.9732142857142856</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -43003,7 +43012,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">1+D2-D1-112-112-112-112-112-112-112</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>45</v>
@@ -43153,7 +43162,7 @@
       </c>
       <c r="C18" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4732142857142856</v>
+        <v>3.4642857142857144</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -43163,7 +43172,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">58++D2-D1-112-112-112-112-112-112-112</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
@@ -43314,7 +43323,7 @@
       </c>
       <c r="C19" s="138">
         <f ca="1">((33*112)-(E19*112)-(F19))/112</f>
-        <v>15.883928571428571</v>
+        <v>15.875</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>416</v>
@@ -43324,7 +43333,7 @@
       </c>
       <c r="F19" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-62</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>45</v>
@@ -43471,7 +43480,7 @@
       </c>
       <c r="C20" s="138">
         <f ca="1">((33*112)-(E20*112)-(F20))/112</f>
-        <v>15.848214285714286</v>
+        <v>15.839285714285714</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>435</v>
@@ -43481,7 +43490,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>418</v>
@@ -43509,7 +43518,7 @@
       </c>
       <c r="N20" s="154">
         <f ca="1">IF((TODAY()-M20)&gt;335,1,((TODAY()-M20)^0.64)/(336^0.64))</f>
-        <v>3.7653214615844956E-2</v>
+        <v>4.8809062439885115E-2</v>
       </c>
       <c r="O20" s="21">
         <v>4</v>
@@ -43571,36 +43580,36 @@
         <v>2035</v>
       </c>
       <c r="AG20" s="25">
-        <f t="shared" ref="AG20" ca="1" si="53">(AD20+1+(LOG(I20)*4/3)+N20)*(Q20/7)^0.5</f>
-        <v>0.87697702926530396</v>
+        <f t="shared" ref="AG20:AG21" ca="1" si="53">(AD20+1+(LOG(I20)*4/3)+N20)*(Q20/7)^0.5</f>
+        <v>0.88640544151889533</v>
       </c>
       <c r="AH20" s="25">
-        <f t="shared" ref="AH20" ca="1" si="54">(AD20+1+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>0.96068020268495036</v>
+        <f t="shared" ref="AH20:AH21" ca="1" si="54">(AD20+1+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
+        <v>0.97100851083045059</v>
       </c>
       <c r="AI20" s="137">
         <f t="shared" ref="AI20" ca="1" si="55">(Z20+N20+(LOG(I20)*4/3))*(Q20/7)^0.5</f>
-        <v>2.567285538722337</v>
+        <v>2.5767139509759285</v>
       </c>
       <c r="AJ20" s="137">
         <f t="shared" ref="AJ20" ca="1" si="56">(Z20+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>2.812320402230053</v>
+        <v>2.8226487103755535</v>
       </c>
       <c r="AK20" s="9">
         <f t="shared" ref="AK20" ca="1" si="57">(((Y20+LOG(I20)*4/3+N20)+(AB20+LOG(I20)*4/3+N20)*2)/8)*(Q20/7)^0.5</f>
-        <v>1.7022420499083284</v>
+        <v>1.7057777045034248</v>
       </c>
       <c r="AL20" s="9">
-        <f t="shared" ref="AL20" ca="1" si="58">(AD20+LOG(I20)*4/3+N20)*0.7+(AC20+LOG(I20)*4/3+N20)*0.3</f>
-        <v>0.6376532146158449</v>
+        <f t="shared" ref="AL20:AL21" ca="1" si="58">(AD20+LOG(I20)*4/3+N20)*0.7+(AC20+LOG(I20)*4/3+N20)*0.3</f>
+        <v>0.64880906243988512</v>
       </c>
       <c r="AM20" s="9">
-        <f t="shared" ref="AM20" ca="1" si="59">(0.5*(AC20+LOG(I20)*4/3+N20)+ 0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.10301225716926758</v>
+        <f t="shared" ref="AM20:AM21" ca="1" si="59">(0.5*(AC20+LOG(I20)*4/3+N20)+ 0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
+        <v>0.10390472499519081</v>
       </c>
       <c r="AN20" s="9">
-        <f t="shared" ref="AN20" ca="1" si="60">(0.4*(Y20+LOG(I20)*4/3+N20)+0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.24263572502310918</v>
+        <f t="shared" ref="AN20:AN21" ca="1" si="60">(0.4*(Y20+LOG(I20)*4/3+N20)+0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
+        <v>0.24341663437079192</v>
       </c>
       <c r="AO20" s="22">
         <v>2</v>
@@ -43621,30 +43630,30 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C21" s="138">
         <f ca="1">((33*112)-(E21*112)-(F21))/112</f>
-        <v>15.517857142857142</v>
+        <v>15.875</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="E21" s="18">
         <v>17</v>
       </c>
-      <c r="F21" s="19">
-        <f ca="1">8-159+16-570-5+D2-D1-2-19</f>
-        <v>54</v>
+      <c r="F21" s="3">
+        <f ca="1">8-159+16-570-5+D2-D1-2-31-25-4</f>
+        <v>14</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="H21" s="5">
-        <v>3</v>
+      <c r="H21" s="43">
+        <v>6</v>
       </c>
       <c r="I21" s="30">
         <v>0.5</v>
@@ -43655,27 +43664,27 @@
       </c>
       <c r="K21" s="7">
         <f>(H21)*(H21)*(I21)</f>
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7">
         <f>(H21+1)*(H21+1)*I21</f>
-        <v>8</v>
+        <v>24.5</v>
       </c>
       <c r="M21" s="153">
-        <v>43045</v>
+        <v>43054</v>
       </c>
       <c r="N21" s="154">
         <f ca="1">IF((TODAY()-M21)&gt;335,1,((TODAY()-M21)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="21">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="P21" s="22">
         <f>O21*10+19</f>
-        <v>66</v>
-      </c>
-      <c r="Q21" s="22">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="28">
         <v>5</v>
       </c>
       <c r="R21" s="132">
@@ -43687,18 +43696,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T21" s="32">
-        <v>930</v>
+        <v>760</v>
       </c>
       <c r="U21" s="32">
         <f>T21-AS21</f>
         <v>0</v>
       </c>
       <c r="V21" s="32">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="W21" s="9">
         <f>T21/V21</f>
-        <v>2.5135135135135136</v>
+        <v>2.6206896551724137</v>
       </c>
       <c r="X21" s="23">
         <v>0</v>
@@ -43707,133 +43716,132 @@
         <v>3</v>
       </c>
       <c r="Z21" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA21" s="24">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="23">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="24">
         <v>3</v>
       </c>
-      <c r="AB21" s="23">
-        <f>3+0.25</f>
-        <v>3.25</v>
-      </c>
-      <c r="AC21" s="24">
-        <v>4</v>
-      </c>
       <c r="AD21" s="23">
         <v>0</v>
       </c>
       <c r="AE21" s="10">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="AF21" s="10">
-        <v>1972</v>
+        <v>1997</v>
       </c>
       <c r="AG21" s="25">
-        <f ca="1">(AD21+1+(LOG(I21)*4/3)+N21)*(Q21/7)^0.5</f>
-        <v>0.58320997931307073</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>0.50593187921342253</v>
       </c>
       <c r="AH21" s="25">
-        <f ca="1">(AD21+1+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
-        <v>0.63887452286378021</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>0.5542206056123411</v>
       </c>
       <c r="AI21" s="137">
-        <f ca="1">(Z21+N21+(LOG(I21)*4/3))*(Q21/7)^0.5</f>
-        <v>4.808981252955653</v>
+        <f t="shared" ref="AI21" ca="1" si="61">(Z21+N21+(LOG(I21)*4/3))*(Q21/7)^0.5</f>
+        <v>3.8865488981274883</v>
       </c>
       <c r="AJ21" s="137">
-        <f ca="1">(Z21+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
-        <v>5.2679750217265369</v>
+        <f t="shared" ref="AJ21" ca="1" si="62">(Z21+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
+        <v>4.2575010047025463</v>
       </c>
       <c r="AK21" s="9">
-        <f ca="1">(((Y21+LOG(I21)*4/3+N21)+(AB21+LOG(I21)*4/3+N21)*2)/8)*(Q21/7)^0.5</f>
-        <v>0.90539157420932137</v>
+        <f t="shared" ref="AK21" ca="1" si="63">(((Y21+LOG(I21)*4/3+N21)+(AB21+LOG(I21)*4/3+N21)*2)/8)*(Q21/7)^0.5</f>
+        <v>1.0348787094335499</v>
       </c>
       <c r="AL21" s="9">
-        <f ca="1">(AD21+LOG(I21)*4/3+N21)*0.7+(AC21+LOG(I21)*4/3+N21)*0.3</f>
-        <v>0.89006335358320077</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>0.49862667244802517</v>
       </c>
       <c r="AM21" s="9">
-        <f ca="1">(0.5*(AC21+LOG(I21)*4/3+N21)+ 0.3*(AD21+LOG(I21)*4/3+N21))/10</f>
-        <v>0.17520506828665605</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>0.11789013379584201</v>
       </c>
       <c r="AN21" s="9">
-        <f ca="1">(0.4*(Y21+LOG(I21)*4/3+N21)+0.3*(AD21+LOG(I21)*4/3+N21))/10</f>
-        <v>9.8304434750824052E-2</v>
+        <f t="shared" ca="1" si="60"/>
+        <v>9.190386707136175E-2</v>
       </c>
       <c r="AO21" s="22">
         <v>2</v>
       </c>
       <c r="AP21" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR21" s="152">
         <f>IF(AP21=4,IF(AQ21=0,0.137+0.0697,0.137+0.02),IF(AP21=3,IF(AQ21=0,0.0958+0.0697,0.0958+0.02),IF(AP21=2,IF(AQ21=0,0.0415+0.0697,0.0415+0.02),IF(AP21=1,IF(AQ21=0,0.0294+0.0697,0.0294+0.02),IF(AP21=0,IF(AQ21=0,0.0063+0.0697,0.0063+0.02))))))</f>
-        <v>0.1158</v>
-      </c>
-      <c r="AS21">
-        <v>930</v>
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="AS21" s="265">
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>44</v>
+        <v>420</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="138">
         <f ca="1">((33*112)-(E22*112)-(F22))/112</f>
-        <v>15.901785714285714</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="2">
+        <v>15.508928571428571</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="18">
         <v>17</v>
       </c>
-      <c r="F22" s="3">
-        <f ca="1">8-159+16-570-5+D2-D1-2-62</f>
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>0</v>
+      <c r="F22" s="19">
+        <f ca="1">8-159+16-570-5+D2-D1-2-19</f>
+        <v>55</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>418</v>
       </c>
       <c r="H22" s="5">
-        <v>4</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.5</v>
       </c>
       <c r="J22" s="24">
         <f>LOG(I22)*4/3</f>
-        <v>0</v>
+        <v>-0.40137332755197491</v>
       </c>
       <c r="K22" s="7">
         <f>(H22)*(H22)*(I22)</f>
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="L22" s="7">
         <f>(H22+1)*(H22+1)*I22</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M22" s="153">
         <v>43045</v>
       </c>
       <c r="N22" s="154">
         <f ca="1">IF((TODAY()-M22)&gt;335,1,((TODAY()-M22)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
-      </c>
-      <c r="O22" s="27">
-        <v>4.2</v>
+        <v>9.8595721295777455E-2</v>
+      </c>
+      <c r="O22" s="21">
+        <v>4.7</v>
       </c>
       <c r="P22" s="22">
         <f>O22*10+19</f>
-        <v>61</v>
-      </c>
-      <c r="Q22" s="28">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="22">
         <v>5</v>
       </c>
       <c r="R22" s="132">
@@ -43845,754 +43853,754 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T22" s="32">
-        <v>710</v>
+        <v>930</v>
       </c>
       <c r="U22" s="32">
         <f>T22-AS22</f>
-        <v>90</v>
-      </c>
-      <c r="V22" s="8">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="V22" s="32">
+        <v>370</v>
       </c>
       <c r="W22" s="9">
         <f>T22/V22</f>
-        <v>2.2903225806451615</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="X22" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA22" s="24">
         <v>3</v>
       </c>
       <c r="AB22" s="23">
+        <f>3+0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="AC22" s="24">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>398</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>1972</v>
+      </c>
+      <c r="AG22" s="25">
+        <f ca="1">(AD22+1+(LOG(I22)*4/3)+N22)*(Q22/7)^0.5</f>
+        <v>0.58926047256457581</v>
+      </c>
+      <c r="AH22" s="25">
+        <f ca="1">(AD22+1+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
+        <v>0.64550250613954452</v>
+      </c>
+      <c r="AI22" s="137">
+        <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(Q22/7)^0.5</f>
+        <v>4.8150317462071586</v>
+      </c>
+      <c r="AJ22" s="137">
+        <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
+        <v>5.2746030050023007</v>
+      </c>
+      <c r="AK22" s="9">
+        <f ca="1">(((Y22+LOG(I22)*4/3+N22)+(AB22+LOG(I22)*4/3+N22)*2)/8)*(Q22/7)^0.5</f>
+        <v>0.90766050917863561</v>
+      </c>
+      <c r="AL22" s="9">
+        <f ca="1">(AD22+LOG(I22)*4/3+N22)*0.7+(AC22+LOG(I22)*4/3+N22)*0.3</f>
+        <v>0.89722239374380242</v>
+      </c>
+      <c r="AM22" s="9">
+        <f ca="1">(0.5*(AC22+LOG(I22)*4/3+N22)+ 0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
+        <v>0.1757777914995042</v>
+      </c>
+      <c r="AN22" s="9">
+        <f ca="1">(0.4*(Y22+LOG(I22)*4/3+N22)+0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
+        <v>9.8805567562066182E-2</v>
+      </c>
+      <c r="AO22" s="22">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="22">
+        <v>3</v>
+      </c>
+      <c r="AQ22" s="22">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="152">
+        <f>IF(AP22=4,IF(AQ22=0,0.137+0.0697,0.137+0.02),IF(AP22=3,IF(AQ22=0,0.0958+0.0697,0.0958+0.02),IF(AP22=2,IF(AQ22=0,0.0415+0.0697,0.0415+0.02),IF(AP22=1,IF(AQ22=0,0.0294+0.0697,0.0294+0.02),IF(AP22=0,IF(AQ22=0,0.0063+0.0697,0.0063+0.02))))))</f>
+        <v>0.1158</v>
+      </c>
+      <c r="AS22">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="138">
+        <f ca="1">((33*112)-(E23*112)-(F23))/112</f>
+        <v>15.892857142857142</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="2">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3">
+        <f ca="1">8-159+16-570-5+D2-D1-2-62</f>
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>4</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <f>LOG(I23)*4/3</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f>(H23)*(H23)*(I23)</f>
+        <v>16</v>
+      </c>
+      <c r="L23" s="7">
+        <f>(H23+1)*(H23+1)*I23</f>
+        <v>25</v>
+      </c>
+      <c r="M23" s="153">
+        <v>43045</v>
+      </c>
+      <c r="N23" s="154">
+        <f ca="1">IF((TODAY()-M23)&gt;335,1,((TODAY()-M23)^0.64)/(336^0.64))</f>
+        <v>9.8595721295777455E-2</v>
+      </c>
+      <c r="O23" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="P23" s="22">
+        <f>O23*10+19</f>
+        <v>61</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>5</v>
+      </c>
+      <c r="R23" s="132">
+        <f>(Q23/7)^0.5</f>
+        <v>0.84515425472851657</v>
+      </c>
+      <c r="S23" s="132">
+        <f>IF(Q23=7,1,((Q23+0.99)/7)^0.5)</f>
+        <v>0.92504826128926143</v>
+      </c>
+      <c r="T23" s="32">
+        <v>710</v>
+      </c>
+      <c r="U23" s="32">
+        <f>T23-AS23</f>
+        <v>90</v>
+      </c>
+      <c r="V23" s="8">
+        <v>310</v>
+      </c>
+      <c r="W23" s="9">
+        <f>T23/V23</f>
+        <v>2.2903225806451615</v>
+      </c>
+      <c r="X23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="24">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="23">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="23">
         <f>3.75+0.25</f>
         <v>4</v>
       </c>
-      <c r="AC22" s="24">
+      <c r="AC23" s="24">
         <v>5</v>
       </c>
-      <c r="AD22" s="23">
+      <c r="AD23" s="23">
         <v>3</v>
       </c>
-      <c r="AE22" s="10">
+      <c r="AE23" s="10">
         <v>388</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF23" s="10">
         <v>2019</v>
       </c>
-      <c r="AG22" s="25">
-        <f ca="1">(AD22+1+(LOG(I22)*4/3)+N22)*(Q22/7)^0.5</f>
-        <v>3.4578951190137146</v>
-      </c>
-      <c r="AH22" s="25">
-        <f ca="1">(AD22+1+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>3.7879343163416448</v>
-      </c>
-      <c r="AI22" s="137">
-        <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(Q22/7)^0.5</f>
-        <v>1.7675866095566815</v>
-      </c>
-      <c r="AJ22" s="137">
-        <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>1.9362941167965422</v>
-      </c>
-      <c r="AK22" s="9">
-        <f ca="1">(((Y22+LOG(I22)*4/3+N22)+(AB22+LOG(I22)*4/3+N22)*2)/8)*(Q22/7)^0.5</f>
-        <v>1.2967106696301431</v>
-      </c>
-      <c r="AL22" s="9">
-        <f ca="1">(AD22+LOG(I22)*4/3+N22)*0.7+(AC22+LOG(I22)*4/3+N22)*0.3</f>
-        <v>3.6914366811351753</v>
-      </c>
-      <c r="AM22" s="9">
-        <f ca="1">(0.5*(AC22+LOG(I22)*4/3+N22)+ 0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.34731493449081408</v>
-      </c>
-      <c r="AN22" s="9">
-        <f ca="1">(0.4*(Y22+LOG(I22)*4/3+N22)+0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.25640056767946229</v>
-      </c>
-      <c r="AO22" s="22">
+      <c r="AG23" s="25">
+        <f ca="1">(AD23+1+(LOG(I23)*4/3)+N23)*(Q23/7)^0.5</f>
+        <v>3.4639456122652197</v>
+      </c>
+      <c r="AH23" s="25">
+        <f ca="1">(AD23+1+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
+        <v>3.7945622996174091</v>
+      </c>
+      <c r="AI23" s="137">
+        <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(Q23/7)^0.5</f>
+        <v>1.7736371028081863</v>
+      </c>
+      <c r="AJ23" s="137">
+        <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
+        <v>1.942922100072306</v>
+      </c>
+      <c r="AK23" s="9">
+        <f ca="1">(((Y23+LOG(I23)*4/3+N23)+(AB23+LOG(I23)*4/3+N23)*2)/8)*(Q23/7)^0.5</f>
+        <v>1.2989796045994575</v>
+      </c>
+      <c r="AL23" s="9">
+        <f ca="1">(AD23+LOG(I23)*4/3+N23)*0.7+(AC23+LOG(I23)*4/3+N23)*0.3</f>
+        <v>3.698595721295777</v>
+      </c>
+      <c r="AM23" s="9">
+        <f ca="1">(0.5*(AC23+LOG(I23)*4/3+N23)+ 0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
+        <v>0.34788765770366215</v>
+      </c>
+      <c r="AN23" s="9">
+        <f ca="1">(0.4*(Y23+LOG(I23)*4/3+N23)+0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
+        <v>0.25690170049070443</v>
+      </c>
+      <c r="AO23" s="22">
         <v>1</v>
       </c>
-      <c r="AP22" s="22">
+      <c r="AP23" s="22">
         <v>1</v>
       </c>
-      <c r="AQ22" s="22">
+      <c r="AQ23" s="22">
         <v>2</v>
       </c>
-      <c r="AR22" s="152">
-        <f>IF(AP22=4,IF(AQ22=0,0.137+0.0697,0.137+0.02),IF(AP22=3,IF(AQ22=0,0.0958+0.0697,0.0958+0.02),IF(AP22=2,IF(AQ22=0,0.0415+0.0697,0.0415+0.02),IF(AP22=1,IF(AQ22=0,0.0294+0.0697,0.0294+0.02),IF(AP22=0,IF(AQ22=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR23" s="152">
+        <f>IF(AP23=4,IF(AQ23=0,0.137+0.0697,0.137+0.02),IF(AP23=3,IF(AQ23=0,0.0958+0.0697,0.0958+0.02),IF(AP23=2,IF(AQ23=0,0.0415+0.0697,0.0415+0.02),IF(AP23=1,IF(AQ23=0,0.0294+0.0697,0.0294+0.02),IF(AP23=0,IF(AQ23=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="AS22">
+      <c r="AS23">
         <v>620</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="138">
-        <f t="shared" ref="C23" ca="1" si="61">((33*112)-(E23*112)-(F23))/112</f>
-        <v>15.883928571428571</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="138">
+        <f t="shared" ref="C24" ca="1" si="64">((33*112)-(E24*112)-(F24))/112</f>
+        <v>15.875</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>17</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-60</f>
-        <v>13</v>
-      </c>
-      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <v>3</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="24">
-        <f t="shared" ref="J23" si="62">LOG(I23)*4/3</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" ref="K23" si="63">(H23)*(H23)*(I23)</f>
+      <c r="J24" s="24">
+        <f t="shared" ref="J24" si="65">LOG(I24)*4/3</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" ref="K24" si="66">(H24)*(H24)*(I24)</f>
         <v>9</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" ref="L23" si="64">(H23+1)*(H23+1)*I23</f>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24" si="67">(H24+1)*(H24+1)*I24</f>
         <v>16</v>
       </c>
-      <c r="M23" s="153">
+      <c r="M24" s="153">
         <v>43045</v>
       </c>
-      <c r="N23" s="154">
-        <f t="shared" ref="N23" ca="1" si="65">IF((TODAY()-M23)&gt;335,1,((TODAY()-M23)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
-      </c>
-      <c r="O23" s="27">
+      <c r="N24" s="154">
+        <f t="shared" ref="N24" ca="1" si="68">IF((TODAY()-M24)&gt;335,1,((TODAY()-M24)^0.64)/(336^0.64))</f>
+        <v>9.8595721295777455E-2</v>
+      </c>
+      <c r="O24" s="27">
         <v>4.2</v>
       </c>
-      <c r="P23" s="22">
-        <f t="shared" ref="P23" si="66">O23*10+19</f>
+      <c r="P24" s="22">
+        <f t="shared" ref="P24" si="69">O24*10+19</f>
         <v>61</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q24" s="28">
         <v>5</v>
       </c>
-      <c r="R23" s="132">
-        <f t="shared" ref="R23" si="67">(Q23/7)^0.5</f>
+      <c r="R24" s="132">
+        <f t="shared" ref="R24" si="70">(Q24/7)^0.5</f>
         <v>0.84515425472851657</v>
       </c>
-      <c r="S23" s="132">
-        <f t="shared" ref="S23" si="68">IF(Q23=7,1,((Q23+0.99)/7)^0.5)</f>
+      <c r="S24" s="132">
+        <f t="shared" ref="S24" si="71">IF(Q24=7,1,((Q24+0.99)/7)^0.5)</f>
         <v>0.92504826128926143</v>
       </c>
-      <c r="T23" s="32">
+      <c r="T24" s="32">
         <v>820</v>
       </c>
-      <c r="U23" s="32">
-        <f>T23-AS23</f>
+      <c r="U24" s="32">
+        <f>T24-AS24</f>
         <v>50</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V24" s="8">
         <v>330</v>
       </c>
-      <c r="W23" s="9">
-        <f t="shared" ref="W23" si="69">T23/V23</f>
+      <c r="W24" s="9">
+        <f t="shared" ref="W24" si="72">T24/V24</f>
         <v>2.4848484848484849</v>
       </c>
-      <c r="X23" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="24">
+      <c r="X24" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
         <v>5</v>
       </c>
-      <c r="Z23" s="23">
+      <c r="Z24" s="23">
         <v>3</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AA24" s="24">
         <v>4</v>
       </c>
-      <c r="AB23" s="23">
+      <c r="AB24" s="23">
         <f>2+(0.33*0.16)</f>
         <v>2.0528</v>
       </c>
-      <c r="AC23" s="24">
+      <c r="AC24" s="24">
         <v>3</v>
       </c>
-      <c r="AD23" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="10">
+      <c r="AD24" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
         <v>344</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF24" s="10">
         <v>1977</v>
       </c>
-      <c r="AG23" s="25">
-        <f ca="1">(AD23+1+(LOG(I23)*4/3)+N23)*(Q23/7)^0.5</f>
-        <v>0.92243235482816477</v>
-      </c>
-      <c r="AH23" s="25">
-        <f ca="1">(AD23+1+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>1.0104740170239905</v>
-      </c>
-      <c r="AI23" s="137">
-        <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(Q23/7)^0.5</f>
-        <v>2.6127408642851981</v>
-      </c>
-      <c r="AJ23" s="137">
-        <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>2.8621142165690934</v>
-      </c>
-      <c r="AK23" s="9">
-        <f ca="1">(((Y23+LOG(I23)*4/3+N23)+(AB23+LOG(I23)*4/3+N23)*2)/8)*(Q23/7)^0.5</f>
-        <v>0.9909338602693657</v>
-      </c>
-      <c r="AL23" s="9">
-        <f ca="1">(AD23+LOG(I23)*4/3+N23)*0.7+(AC23+LOG(I23)*4/3+N23)*0.3</f>
-        <v>0.99143668113517558</v>
-      </c>
-      <c r="AM23" s="9">
-        <f ca="1">(0.5*(AC23+LOG(I23)*4/3+N23)+ 0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.15731493449081405</v>
-      </c>
-      <c r="AN23" s="9">
-        <f ca="1">(0.4*(Y23+LOG(I23)*4/3+N23)+0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.20640056767946233</v>
-      </c>
-      <c r="AO23" s="22">
+      <c r="AG24" s="25">
+        <f ca="1">(AD24+1+(LOG(I24)*4/3)+N24)*(Q24/7)^0.5</f>
+        <v>0.92848284807966996</v>
+      </c>
+      <c r="AH24" s="25">
+        <f ca="1">(AD24+1+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
+        <v>1.0171020002997548</v>
+      </c>
+      <c r="AI24" s="137">
+        <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(Q24/7)^0.5</f>
+        <v>2.6187913575367028</v>
+      </c>
+      <c r="AJ24" s="137">
+        <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
+        <v>2.8687421998448577</v>
+      </c>
+      <c r="AK24" s="9">
+        <f ca="1">(((Y24+LOG(I24)*4/3+N24)+(AB24+LOG(I24)*4/3+N24)*2)/8)*(Q24/7)^0.5</f>
+        <v>0.99320279523868005</v>
+      </c>
+      <c r="AL24" s="9">
+        <f ca="1">(AD24+LOG(I24)*4/3+N24)*0.7+(AC24+LOG(I24)*4/3+N24)*0.3</f>
+        <v>0.99859572129577734</v>
+      </c>
+      <c r="AM24" s="9">
+        <f ca="1">(0.5*(AC24+LOG(I24)*4/3+N24)+ 0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
+        <v>0.1578876577036622</v>
+      </c>
+      <c r="AN24" s="9">
+        <f ca="1">(0.4*(Y24+LOG(I24)*4/3+N24)+0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
+        <v>0.20690170049070442</v>
+      </c>
+      <c r="AO24" s="22">
         <v>3</v>
       </c>
-      <c r="AP23" s="22">
+      <c r="AP24" s="22">
         <v>1</v>
       </c>
-      <c r="AQ23" s="22">
+      <c r="AQ24" s="22">
         <v>2</v>
       </c>
-      <c r="AR23" s="152">
-        <f t="shared" ref="AR23" si="70">IF(AP23=4,IF(AQ23=0,0.137+0.0697,0.137+0.02),IF(AP23=3,IF(AQ23=0,0.0958+0.0697,0.0958+0.02),IF(AP23=2,IF(AQ23=0,0.0415+0.0697,0.0415+0.02),IF(AP23=1,IF(AQ23=0,0.0294+0.0697,0.0294+0.02),IF(AP23=0,IF(AQ23=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR24" s="152">
+        <f t="shared" ref="AR24" si="73">IF(AP24=4,IF(AQ24=0,0.137+0.0697,0.137+0.02),IF(AP24=3,IF(AQ24=0,0.0958+0.0697,0.0958+0.02),IF(AP24=2,IF(AQ24=0,0.0415+0.0697,0.0415+0.02),IF(AP24=1,IF(AQ24=0,0.0294+0.0697,0.0294+0.02),IF(AP24=0,IF(AQ24=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="AS23">
+      <c r="AS24">
         <v>770</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="138">
-        <f t="shared" ref="C24" ca="1" si="71">((33*112)-(E24*112)-(F24))/112</f>
-        <v>15.8125</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="C25" s="138">
+        <f t="shared" ref="C25" ca="1" si="74">((33*112)-(E25*112)-(F25))/112</f>
+        <v>15.803571428571429</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E25" s="18">
         <v>17</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9</f>
-        <v>21</v>
-      </c>
-      <c r="G24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>3</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I25" s="30">
         <v>0.5</v>
       </c>
-      <c r="J24" s="24">
-        <f t="shared" ref="J24" si="72">LOG(I24)*4/3</f>
+      <c r="J25" s="24">
+        <f t="shared" ref="J25" si="75">LOG(I25)*4/3</f>
         <v>-0.40137332755197491</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" ref="K24" si="73">(H24)*(H24)*(I24)</f>
+      <c r="K25" s="7">
+        <f t="shared" ref="K25" si="76">(H25)*(H25)*(I25)</f>
         <v>4.5</v>
       </c>
-      <c r="L24" s="7">
-        <f t="shared" ref="L24" si="74">(H24+1)*(H24+1)*I24</f>
+      <c r="L25" s="7">
+        <f t="shared" ref="L25" si="77">(H25+1)*(H25+1)*I25</f>
         <v>8</v>
       </c>
-      <c r="M24" s="153">
+      <c r="M25" s="153">
         <v>43046</v>
       </c>
-      <c r="N24" s="154">
-        <f t="shared" ref="N24" ca="1" si="75">IF((TODAY()-M24)&gt;335,1,((TODAY()-M24)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O24" s="21">
+      <c r="N25" s="154">
+        <f t="shared" ref="N25" ca="1" si="78">IF((TODAY()-M25)&gt;335,1,((TODAY()-M25)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O25" s="21">
         <v>4.3</v>
       </c>
-      <c r="P24" s="22">
-        <f t="shared" ref="P24" si="76">O24*10+19</f>
+      <c r="P25" s="22">
+        <f t="shared" ref="P25" si="79">O25*10+19</f>
         <v>62</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q25" s="28">
         <v>4</v>
       </c>
-      <c r="R24" s="132">
-        <f t="shared" ref="R24" si="77">(Q24/7)^0.5</f>
+      <c r="R25" s="132">
+        <f t="shared" ref="R25" si="80">(Q25/7)^0.5</f>
         <v>0.7559289460184544</v>
       </c>
-      <c r="S24" s="132">
-        <f t="shared" ref="S24" si="78">IF(Q24=7,1,((Q24+0.99)/7)^0.5)</f>
+      <c r="S25" s="132">
+        <f t="shared" ref="S25" si="81">IF(Q25=7,1,((Q25+0.99)/7)^0.5)</f>
         <v>0.84430867747355465</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T25" s="32">
         <v>460</v>
       </c>
-      <c r="U24" s="32">
-        <f t="shared" ref="U24" si="79">T24-AS24</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="32">
+      <c r="U25" s="32">
+        <f t="shared" ref="U25" si="82">T25-AS25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="32">
         <v>270</v>
       </c>
-      <c r="W24" s="9">
-        <f t="shared" ref="W24" si="80">T24/V24</f>
+      <c r="W25" s="9">
+        <f t="shared" ref="W25" si="83">T25/V25</f>
         <v>1.7037037037037037</v>
       </c>
-      <c r="X24" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="24">
+      <c r="X25" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
         <v>4</v>
       </c>
-      <c r="Z24" s="23">
+      <c r="Z25" s="23">
         <v>2</v>
       </c>
-      <c r="AA24" s="24">
+      <c r="AA25" s="24">
         <v>5</v>
       </c>
-      <c r="AB24" s="23">
+      <c r="AB25" s="23">
         <f>3+(0.25*0.16)</f>
         <v>3.04</v>
       </c>
-      <c r="AC24" s="24">
+      <c r="AC25" s="24">
         <v>4</v>
       </c>
-      <c r="AD24" s="23">
+      <c r="AD25" s="23">
         <v>1</v>
       </c>
-      <c r="AE24" s="10">
+      <c r="AE25" s="10">
         <v>356</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF25" s="10">
         <v>1977</v>
       </c>
-      <c r="AG24" s="25">
-        <f t="shared" ref="AG24" ca="1" si="81">(AD24+1+(LOG(I24)*4/3)+N24)*(Q24/7)^0.5</f>
-        <v>1.2719062052974102</v>
-      </c>
-      <c r="AH24" s="25">
-        <f t="shared" ref="AH24" ca="1" si="82">(AD24+1+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AI24" s="137">
-        <f t="shared" ref="AI24" ca="1" si="83">(Z24+N24+(LOG(I24)*4/3))*(Q24/7)^0.5</f>
-        <v>1.2719062052974102</v>
-      </c>
-      <c r="AJ24" s="137">
-        <f t="shared" ref="AJ24" ca="1" si="84">(Z24+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AK24" s="9">
-        <f t="shared" ref="AK24" ca="1" si="85">(((Y24+LOG(I24)*4/3+N24)+(AB24+LOG(I24)*4/3+N24)*2)/8)*(Q24/7)^0.5</f>
-        <v>0.86248858945594054</v>
-      </c>
-      <c r="AL24" s="9">
-        <f t="shared" ref="AL24" ca="1" si="86">(AD24+LOG(I24)*4/3+N24)*0.7+(AC24+LOG(I24)*4/3+N24)*0.3</f>
-        <v>1.5825737551084056</v>
-      </c>
-      <c r="AM24" s="9">
-        <f t="shared" ref="AM24" ca="1" si="87">(0.5*(AC24+LOG(I24)*4/3+N24)+ 0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.20460590040867244</v>
-      </c>
-      <c r="AN24" s="9">
-        <f t="shared" ref="AN24" ca="1" si="88">(0.4*(Y24+LOG(I24)*4/3+N24)+0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.1677801628575884</v>
-      </c>
-      <c r="AO24" s="22">
+      <c r="AG25" s="25">
+        <f t="shared" ref="AG25" ca="1" si="84">(AD25+1+(LOG(I25)*4/3)+N25)*(Q25/7)^0.5</f>
+        <v>1.2775678095785632</v>
+      </c>
+      <c r="AH25" s="25">
+        <f t="shared" ref="AH25" ca="1" si="85">(AD25+1+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
+        <v>1.4283642340415874</v>
+      </c>
+      <c r="AI25" s="137">
+        <f t="shared" ref="AI25" ca="1" si="86">(Z25+N25+(LOG(I25)*4/3))*(Q25/7)^0.5</f>
+        <v>1.2775678095785634</v>
+      </c>
+      <c r="AJ25" s="137">
+        <f t="shared" ref="AJ25" ca="1" si="87">(Z25+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
+        <v>1.4283642340415874</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" ref="AK25" ca="1" si="88">(((Y25+LOG(I25)*4/3+N25)+(AB25+LOG(I25)*4/3+N25)*2)/8)*(Q25/7)^0.5</f>
+        <v>0.86461169106137303</v>
+      </c>
+      <c r="AL25" s="9">
+        <f t="shared" ref="AL25" ca="1" si="89">(AD25+LOG(I25)*4/3+N25)*0.7+(AC25+LOG(I25)*4/3+N25)*0.3</f>
+        <v>1.5900633535832007</v>
+      </c>
+      <c r="AM25" s="9">
+        <f t="shared" ref="AM25" ca="1" si="90">(0.5*(AC25+LOG(I25)*4/3+N25)+ 0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
+        <v>0.20520506828665605</v>
+      </c>
+      <c r="AN25" s="9">
+        <f t="shared" ref="AN25" ca="1" si="91">(0.4*(Y25+LOG(I25)*4/3+N25)+0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
+        <v>0.16830443475082407</v>
+      </c>
+      <c r="AO25" s="22">
         <v>3</v>
       </c>
-      <c r="AP24" s="22">
+      <c r="AP25" s="22">
         <v>4</v>
       </c>
-      <c r="AQ24" s="22">
+      <c r="AQ25" s="22">
         <v>3</v>
       </c>
-      <c r="AR24" s="152">
-        <f t="shared" ref="AR24" si="89">IF(AP24=4,IF(AQ24=0,0.137+0.0697,0.137+0.02),IF(AP24=3,IF(AQ24=0,0.0958+0.0697,0.0958+0.02),IF(AP24=2,IF(AQ24=0,0.0415+0.0697,0.0415+0.02),IF(AP24=1,IF(AQ24=0,0.0294+0.0697,0.0294+0.02),IF(AP24=0,IF(AQ24=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR25" s="152">
+        <f t="shared" ref="AR25" si="92">IF(AP25=4,IF(AQ25=0,0.137+0.0697,0.137+0.02),IF(AP25=3,IF(AQ25=0,0.0958+0.0697,0.0958+0.02),IF(AP25=2,IF(AQ25=0,0.0415+0.0697,0.0415+0.02),IF(AP25=1,IF(AQ25=0,0.0294+0.0697,0.0294+0.02),IF(AP25=0,IF(AQ25=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>0.157</v>
       </c>
-      <c r="AS24">
+      <c r="AS25">
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="138">
-        <f t="shared" ref="C25" ca="1" si="90">((33*112)-(E25*112)-(F25))/112</f>
-        <v>15.517857142857142</v>
-      </c>
-      <c r="D25" s="31" t="s">
+      <c r="C26" s="138">
+        <f t="shared" ref="C26" ca="1" si="93">((33*112)-(E26*112)-(F26))/112</f>
+        <v>15.508928571428571</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="18">
         <v>17</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44</f>
-        <v>54</v>
-      </c>
-      <c r="G25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <v>3</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I26" s="30">
         <v>0.5</v>
       </c>
-      <c r="J25" s="24">
-        <f t="shared" ref="J25" si="91">LOG(I25)*4/3</f>
+      <c r="J26" s="24">
+        <f t="shared" ref="J26" si="94">LOG(I26)*4/3</f>
         <v>-0.40137332755197491</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" ref="K25" si="92">(H25)*(H25)*(I25)</f>
+      <c r="K26" s="7">
+        <f t="shared" ref="K26" si="95">(H26)*(H26)*(I26)</f>
         <v>4.5</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" ref="L25" si="93">(H25+1)*(H25+1)*I25</f>
+      <c r="L26" s="7">
+        <f t="shared" ref="L26" si="96">(H26+1)*(H26+1)*I26</f>
         <v>8</v>
       </c>
-      <c r="M25" s="153">
+      <c r="M26" s="153">
         <v>43046</v>
       </c>
-      <c r="N25" s="154">
-        <f t="shared" ref="N25" ca="1" si="94">IF((TODAY()-M25)&gt;335,1,((TODAY()-M25)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O25" s="21">
+      <c r="N26" s="154">
+        <f t="shared" ref="N26" ca="1" si="97">IF((TODAY()-M26)&gt;335,1,((TODAY()-M26)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O26" s="21">
         <v>4.2</v>
       </c>
-      <c r="P25" s="22">
-        <f t="shared" ref="P25" si="95">O25*10+19</f>
+      <c r="P26" s="22">
+        <f t="shared" ref="P26" si="98">O26*10+19</f>
         <v>61</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q26" s="28">
         <v>5</v>
       </c>
-      <c r="R25" s="132">
-        <f t="shared" ref="R25" si="96">(Q25/7)^0.5</f>
+      <c r="R26" s="132">
+        <f t="shared" ref="R26" si="99">(Q26/7)^0.5</f>
         <v>0.84515425472851657</v>
       </c>
-      <c r="S25" s="132">
-        <f t="shared" ref="S25" si="97">IF(Q25=7,1,((Q25+0.99)/7)^0.5)</f>
+      <c r="S26" s="132">
+        <f t="shared" ref="S26" si="100">IF(Q26=7,1,((Q26+0.99)/7)^0.5)</f>
         <v>0.92504826128926143</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T26" s="32">
         <v>1450</v>
       </c>
-      <c r="U25" s="32">
-        <f t="shared" ref="U25" si="98">T25-AS25</f>
+      <c r="U26" s="32">
+        <f t="shared" ref="U26" si="101">T26-AS26</f>
         <v>170</v>
       </c>
-      <c r="V25" s="32">
+      <c r="V26" s="32">
         <v>370</v>
       </c>
-      <c r="W25" s="9">
-        <f t="shared" ref="W25" si="99">T25/V25</f>
+      <c r="W26" s="9">
+        <f t="shared" ref="W26" si="102">T26/V26</f>
         <v>3.9189189189189189</v>
       </c>
-      <c r="X25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="24">
+      <c r="X26" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
         <v>5</v>
       </c>
-      <c r="Z25" s="23">
+      <c r="Z26" s="23">
         <v>2</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AA26" s="24">
         <v>3</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB26" s="23">
         <f>4+0.25</f>
         <v>4.25</v>
       </c>
-      <c r="AC25" s="24">
+      <c r="AC26" s="24">
         <v>6</v>
       </c>
-      <c r="AD25" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="10">
+      <c r="AD26" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
         <v>443</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF26" s="10">
         <v>2017</v>
       </c>
-      <c r="AG25" s="25">
-        <f t="shared" ref="AG25" ca="1" si="100">(AD25+1+(LOG(I25)*4/3)+N25)*(Q25/7)^0.5</f>
-        <v>0.57688011329588962</v>
-      </c>
-      <c r="AH25" s="25">
-        <f t="shared" ref="AH25" ca="1" si="101">(AD25+1+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>0.63194050205658925</v>
-      </c>
-      <c r="AI25" s="137">
-        <f t="shared" ref="AI25" ca="1" si="102">(Z25+N25+(LOG(I25)*4/3))*(Q25/7)^0.5</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AJ25" s="137">
-        <f t="shared" ref="AJ25" ca="1" si="103">(Z25+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.5577606018291406</v>
-      </c>
-      <c r="AK25" s="9">
-        <f t="shared" ref="AK25" ca="1" si="104">(((Y25+LOG(I25)*4/3+N25)+(AB25+LOG(I25)*4/3+N25)*2)/8)*(Q25/7)^0.5</f>
-        <v>1.3255950018171365</v>
-      </c>
-      <c r="AL25" s="9">
-        <f t="shared" ref="AL25" ca="1" si="105">(AD25+LOG(I25)*4/3+N25)*0.7+(AC25+LOG(I25)*4/3+N25)*0.3</f>
-        <v>1.4825737551084053</v>
-      </c>
-      <c r="AM25" s="9">
-        <f t="shared" ref="AM25" ca="1" si="106">(0.5*(AC25+LOG(I25)*4/3+N25)+ 0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.27460590040867239</v>
-      </c>
-      <c r="AN25" s="9">
-        <f t="shared" ref="AN25" ca="1" si="107">(0.4*(Y25+LOG(I25)*4/3+N25)+0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.17778016285758838</v>
-      </c>
-      <c r="AO25" s="22">
-        <v>2</v>
-      </c>
-      <c r="AP25" s="22">
-        <v>3</v>
-      </c>
-      <c r="AQ25" s="22">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="152">
-        <f t="shared" ref="AR25" si="108">IF(AP25=4,IF(AQ25=0,0.137+0.0697,0.137+0.02),IF(AP25=3,IF(AQ25=0,0.0958+0.0697,0.0958+0.02),IF(AP25=2,IF(AQ25=0,0.0415+0.0697,0.0415+0.02),IF(AP25=1,IF(AQ25=0,0.0294+0.0697,0.0294+0.02),IF(AP25=0,IF(AQ25=0,0.0063+0.0697,0.0063+0.02))))))</f>
-        <v>0.1158</v>
-      </c>
-      <c r="AS25">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="138">
-        <f ca="1">((33*112)-(E26*112)-(F26))/112</f>
-        <v>15.455357142857142</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E26" s="2">
-        <v>17</v>
-      </c>
-      <c r="F26" s="3">
-        <f ca="1">8-159+16-570-5+D2-D1-2-12</f>
-        <v>61</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="24">
-        <f>LOG(I26)*4/3</f>
-        <v>-0.40137332755197491</v>
-      </c>
-      <c r="K26" s="7">
-        <f>(H26)*(H26)*(I26)</f>
-        <v>2</v>
-      </c>
-      <c r="L26" s="7">
-        <f>(H26+1)*(H26+1)*I26</f>
-        <v>4.5</v>
-      </c>
-      <c r="M26" s="153">
-        <v>43046</v>
-      </c>
-      <c r="N26" s="154">
-        <f ca="1">IF((TODAY()-M26)&gt;335,1,((TODAY()-M26)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O26" s="27">
-        <v>5.2</v>
-      </c>
-      <c r="P26" s="22">
-        <f>O26*10+19</f>
-        <v>71</v>
-      </c>
-      <c r="Q26" s="28">
-        <v>5</v>
-      </c>
-      <c r="R26" s="132">
-        <f>(Q26/7)^0.5</f>
-        <v>0.84515425472851657</v>
-      </c>
-      <c r="S26" s="132">
-        <f>IF(Q26=7,1,((Q26+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
-      </c>
-      <c r="T26" s="32">
-        <v>1770</v>
-      </c>
-      <c r="U26" s="32">
-        <f>T26-AS26</f>
-        <v>120</v>
-      </c>
-      <c r="V26" s="8">
-        <v>450</v>
-      </c>
-      <c r="W26" s="9">
-        <f>T26/V26</f>
-        <v>3.9333333333333331</v>
-      </c>
-      <c r="X26" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="24">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="23">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="24">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="23">
-        <f>2.67+0.33</f>
-        <v>3</v>
-      </c>
-      <c r="AC26" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="23">
-        <v>3</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>440</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>2000</v>
-      </c>
       <c r="AG26" s="25">
-        <f ca="1">(AD26+1+(LOG(I26)*4/3)+N26)*(Q26/7)^0.5</f>
-        <v>3.1123428774814395</v>
+        <f t="shared" ref="AG26" ca="1" si="103">(AD26+1+(LOG(I26)*4/3)+N26)*(Q26/7)^0.5</f>
+        <v>0.58320997931307073</v>
       </c>
       <c r="AH26" s="25">
-        <f ca="1">(AD26+1+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>3.4094008013742432</v>
+        <f t="shared" ref="AH26" ca="1" si="104">(AD26+1+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
+        <v>0.63887452286378021</v>
       </c>
       <c r="AI26" s="137">
-        <f ca="1">(Z26+N26+(LOG(I26)*4/3))*(Q26/7)^0.5</f>
-        <v>3.112342877481439</v>
+        <f t="shared" ref="AI26" ca="1" si="105">(Z26+N26+(LOG(I26)*4/3))*(Q26/7)^0.5</f>
+        <v>1.4283642340415874</v>
       </c>
       <c r="AJ26" s="137">
-        <f ca="1">(Z26+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>3.4094008013742432</v>
+        <f t="shared" ref="AJ26" ca="1" si="106">(Z26+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
+        <v>1.5646946226363319</v>
       </c>
       <c r="AK26" s="9">
-        <f ca="1">(((Y26+LOG(I26)*4/3+N26)+(AB26+LOG(I26)*4/3+N26)*2)/8)*(Q26/7)^0.5</f>
-        <v>1.1671285790555395</v>
+        <f t="shared" ref="AK26" ca="1" si="107">(((Y26+LOG(I26)*4/3+N26)+(AB26+LOG(I26)*4/3+N26)*2)/8)*(Q26/7)^0.5</f>
+        <v>1.3279687015735797</v>
       </c>
       <c r="AL26" s="9">
-        <f ca="1">(AD26+LOG(I26)*4/3+N26)*0.7+(AC26+LOG(I26)*4/3+N26)*0.3</f>
-        <v>2.6825737551084057</v>
+        <f t="shared" ref="AL26" ca="1" si="108">(AD26+LOG(I26)*4/3+N26)*0.7+(AC26+LOG(I26)*4/3+N26)*0.3</f>
+        <v>1.4900633535832006</v>
       </c>
       <c r="AM26" s="9">
-        <f ca="1">(0.5*(AC26+LOG(I26)*4/3+N26)+ 0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.21460590040867245</v>
+        <f t="shared" ref="AM26" ca="1" si="109">(0.5*(AC26+LOG(I26)*4/3+N26)+ 0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
+        <v>0.27520506828665603</v>
       </c>
       <c r="AN26" s="9">
-        <f ca="1">(0.4*(Y26+LOG(I26)*4/3+N26)+0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.30778016285758836</v>
+        <f t="shared" ref="AN26" ca="1" si="110">(0.4*(Y26+LOG(I26)*4/3+N26)+0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
+        <v>0.17830443475082403</v>
       </c>
       <c r="AO26" s="22">
         <v>2</v>
       </c>
       <c r="AP26" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ26" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="152">
-        <f>IF(AP26=4,IF(AQ26=0,0.137+0.0697,0.137+0.02),IF(AP26=3,IF(AQ26=0,0.0958+0.0697,0.0958+0.02),IF(AP26=2,IF(AQ26=0,0.0415+0.0697,0.0415+0.02),IF(AP26=1,IF(AQ26=0,0.0294+0.0697,0.0294+0.02),IF(AP26=0,IF(AQ26=0,0.0063+0.0697,0.0063+0.02))))))</f>
-        <v>2.63E-2</v>
+        <f t="shared" ref="AR26" si="111">IF(AP26=4,IF(AQ26=0,0.137+0.0697,0.137+0.02),IF(AP26=3,IF(AQ26=0,0.0958+0.0697,0.0958+0.02),IF(AP26=2,IF(AQ26=0,0.0415+0.0697,0.0415+0.02),IF(AP26=1,IF(AQ26=0,0.0294+0.0697,0.0294+0.02),IF(AP26=0,IF(AQ26=0,0.0063+0.0697,0.0063+0.02))))))</f>
+        <v>0.1158</v>
       </c>
       <c r="AS26">
-        <v>1650</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C27" s="138">
         <f ca="1">((33*112)-(E27*112)-(F27))/112</f>
-        <v>15.625</v>
+        <v>15.446428571428571</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2">
         <v>17</v>
       </c>
       <c r="F27" s="3">
-        <f ca="1">8-159+16-570-5+D2-D1-2-31</f>
-        <v>42</v>
+        <f ca="1">8-159+16-570-5+D2-D1-2-12</f>
+        <v>62</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="6">
         <v>0.5</v>
@@ -44603,25 +44611,25 @@
       </c>
       <c r="K27" s="7">
         <f>(H27)*(H27)*(I27)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L27" s="7">
         <f>(H27+1)*(H27+1)*I27</f>
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="M27" s="153">
         <v>43046</v>
       </c>
       <c r="N27" s="154">
         <f ca="1">IF((TODAY()-M27)&gt;335,1,((TODAY()-M27)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
+        <v>9.1436681135175488E-2</v>
       </c>
       <c r="O27" s="27">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="P27" s="22">
         <f>O27*10+19</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="28">
         <v>5</v>
@@ -44635,632 +44643,790 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T27" s="32">
-        <v>890</v>
+        <v>1770</v>
       </c>
       <c r="U27" s="32">
         <f>T27-AS27</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="V27" s="8">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="W27" s="9">
         <f>T27/V27</f>
+        <v>3.9333333333333331</v>
+      </c>
+      <c r="X27" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="23">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="24">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="23">
+        <f>2.67+0.33</f>
+        <v>3</v>
+      </c>
+      <c r="AC27" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="23">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>440</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AG27" s="25">
+        <f ca="1">(AD27+1+(LOG(I27)*4/3)+N27)*(Q27/7)^0.5</f>
+        <v>3.1186727434986206</v>
+      </c>
+      <c r="AH27" s="25">
+        <f ca="1">(AD27+1+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
+        <v>3.4163348221814345</v>
+      </c>
+      <c r="AI27" s="137">
+        <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(Q27/7)^0.5</f>
+        <v>3.1186727434986206</v>
+      </c>
+      <c r="AJ27" s="137">
+        <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
+        <v>3.4163348221814345</v>
+      </c>
+      <c r="AK27" s="9">
+        <f ca="1">(((Y27+LOG(I27)*4/3+N27)+(AB27+LOG(I27)*4/3+N27)*2)/8)*(Q27/7)^0.5</f>
+        <v>1.1695022788119829</v>
+      </c>
+      <c r="AL27" s="9">
+        <f ca="1">(AD27+LOG(I27)*4/3+N27)*0.7+(AC27+LOG(I27)*4/3+N27)*0.3</f>
+        <v>2.6900633535832004</v>
+      </c>
+      <c r="AM27" s="9">
+        <f ca="1">(0.5*(AC27+LOG(I27)*4/3+N27)+ 0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
+        <v>0.21520506828665606</v>
+      </c>
+      <c r="AN27" s="9">
+        <f ca="1">(0.4*(Y27+LOG(I27)*4/3+N27)+0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
+        <v>0.30830443475082403</v>
+      </c>
+      <c r="AO27" s="22">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="22">
+        <v>3</v>
+      </c>
+      <c r="AR27" s="152">
+        <f>IF(AP27=4,IF(AQ27=0,0.137+0.0697,0.137+0.02),IF(AP27=3,IF(AQ27=0,0.0958+0.0697,0.0958+0.02),IF(AP27=2,IF(AQ27=0,0.0415+0.0697,0.0415+0.02),IF(AP27=1,IF(AQ27=0,0.0294+0.0697,0.0294+0.02),IF(AP27=0,IF(AQ27=0,0.0063+0.0697,0.0063+0.02))))))</f>
+        <v>2.63E-2</v>
+      </c>
+      <c r="AS27">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="138">
+        <f ca="1">((33*112)-(E28*112)-(F28))/112</f>
+        <v>15.616071428571429</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="2">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3">
+        <f ca="1">8-159+16-570-5+D2-D1-2-31</f>
+        <v>43</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="24">
+        <f>LOG(I28)*4/3</f>
+        <v>-0.40137332755197491</v>
+      </c>
+      <c r="K28" s="7">
+        <f>(H28)*(H28)*(I28)</f>
+        <v>8</v>
+      </c>
+      <c r="L28" s="7">
+        <f>(H28+1)*(H28+1)*I28</f>
+        <v>12.5</v>
+      </c>
+      <c r="M28" s="153">
+        <v>43046</v>
+      </c>
+      <c r="N28" s="154">
+        <f ca="1">IF((TODAY()-M28)&gt;335,1,((TODAY()-M28)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O28" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P28" s="22">
+        <f>O28*10+19</f>
+        <v>63</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>5</v>
+      </c>
+      <c r="R28" s="132">
+        <f>(Q28/7)^0.5</f>
+        <v>0.84515425472851657</v>
+      </c>
+      <c r="S28" s="132">
+        <f>IF(Q28=7,1,((Q28+0.99)/7)^0.5)</f>
+        <v>0.92504826128926143</v>
+      </c>
+      <c r="T28" s="32">
+        <v>890</v>
+      </c>
+      <c r="U28" s="32">
+        <f>T28-AS28</f>
+        <v>70</v>
+      </c>
+      <c r="V28" s="8">
+        <v>330</v>
+      </c>
+      <c r="W28" s="9">
+        <f>T28/V28</f>
         <v>2.6969696969696968</v>
       </c>
-      <c r="X27" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="24">
+      <c r="X28" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
         <v>2</v>
       </c>
-      <c r="Z27" s="23">
+      <c r="Z28" s="23">
         <v>5</v>
       </c>
-      <c r="AA27" s="24">
+      <c r="AA28" s="24">
         <v>3</v>
       </c>
-      <c r="AB27" s="23">
+      <c r="AB28" s="23">
         <f>2+(0.33*0.16)</f>
         <v>2.0528</v>
       </c>
-      <c r="AC27" s="24">
+      <c r="AC28" s="24">
         <v>5</v>
       </c>
-      <c r="AD27" s="23">
+      <c r="AD28" s="23">
         <v>2</v>
       </c>
-      <c r="AE27" s="10">
+      <c r="AE28" s="10">
         <v>351</v>
       </c>
-      <c r="AF27" s="10">
+      <c r="AF28" s="10">
         <v>1942</v>
       </c>
-      <c r="AG27" s="25">
-        <f ca="1">(AD27+1+(LOG(I27)*4/3)+N27)*(Q27/7)^0.5</f>
-        <v>2.2671886227529225</v>
-      </c>
-      <c r="AH27" s="25">
-        <f ca="1">(AD27+1+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>2.4835807016016922</v>
-      </c>
-      <c r="AI27" s="137">
-        <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(Q27/7)^0.5</f>
-        <v>3.957497132209955</v>
-      </c>
-      <c r="AJ27" s="137">
-        <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>4.3352209011467941</v>
-      </c>
-      <c r="AK27" s="9">
-        <f ca="1">(((Y27+LOG(I27)*4/3+N27)+(AB27+LOG(I27)*4/3+N27)*2)/8)*(Q27/7)^0.5</f>
-        <v>0.54441892417156867</v>
-      </c>
-      <c r="AL27" s="9">
-        <f ca="1">(AD27+LOG(I27)*4/3+N27)*0.7+(AC27+LOG(I27)*4/3+N27)*0.3</f>
-        <v>2.5825737551084051</v>
-      </c>
-      <c r="AM27" s="9">
-        <f ca="1">(0.5*(AC27+LOG(I27)*4/3+N27)+ 0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.2846059004086724</v>
-      </c>
-      <c r="AN27" s="9">
-        <f ca="1">(0.4*(Y27+LOG(I27)*4/3+N27)+0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.11778016285758838</v>
-      </c>
-      <c r="AO27" s="22">
+      <c r="AG28" s="25">
+        <f ca="1">(AD28+1+(LOG(I28)*4/3)+N28)*(Q28/7)^0.5</f>
+        <v>2.2735184887701041</v>
+      </c>
+      <c r="AH28" s="25">
+        <f ca="1">(AD28+1+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
+        <v>2.4905147224088831</v>
+      </c>
+      <c r="AI28" s="137">
+        <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(Q28/7)^0.5</f>
+        <v>3.963826998227137</v>
+      </c>
+      <c r="AJ28" s="137">
+        <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
+        <v>4.3421549219539859</v>
+      </c>
+      <c r="AK28" s="9">
+        <f ca="1">(((Y28+LOG(I28)*4/3+N28)+(AB28+LOG(I28)*4/3+N28)*2)/8)*(Q28/7)^0.5</f>
+        <v>0.54679262392801165</v>
+      </c>
+      <c r="AL28" s="9">
+        <f ca="1">(AD28+LOG(I28)*4/3+N28)*0.7+(AC28+LOG(I28)*4/3+N28)*0.3</f>
+        <v>2.5900633535832007</v>
+      </c>
+      <c r="AM28" s="9">
+        <f ca="1">(0.5*(AC28+LOG(I28)*4/3+N28)+ 0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
+        <v>0.28520506828665604</v>
+      </c>
+      <c r="AN28" s="9">
+        <f ca="1">(0.4*(Y28+LOG(I28)*4/3+N28)+0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
+        <v>0.11830443475082406</v>
+      </c>
+      <c r="AO28" s="22">
         <v>4</v>
       </c>
-      <c r="AP27" s="22">
+      <c r="AP28" s="22">
         <v>2</v>
       </c>
-      <c r="AQ27" s="22">
+      <c r="AQ28" s="22">
         <v>2</v>
       </c>
-      <c r="AR27" s="152">
-        <f>IF(AP27=4,IF(AQ27=0,0.137+0.0697,0.137+0.02),IF(AP27=3,IF(AQ27=0,0.0958+0.0697,0.0958+0.02),IF(AP27=2,IF(AQ27=0,0.0415+0.0697,0.0415+0.02),IF(AP27=1,IF(AQ27=0,0.0294+0.0697,0.0294+0.02),IF(AP27=0,IF(AQ27=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR28" s="152">
+        <f>IF(AP28=4,IF(AQ28=0,0.137+0.0697,0.137+0.02),IF(AP28=3,IF(AQ28=0,0.0958+0.0697,0.0958+0.02),IF(AP28=2,IF(AQ28=0,0.0415+0.0697,0.0415+0.02),IF(AP28=1,IF(AQ28=0,0.0294+0.0697,0.0294+0.02),IF(AP28=0,IF(AQ28=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AS27">
+      <c r="AS28">
         <v>820</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="138">
-        <f t="shared" ref="C28" ca="1" si="109">((33*112)-(E28*112)-(F28))/112</f>
-        <v>15.910714285714286</v>
-      </c>
-      <c r="D28" s="31" t="s">
+      <c r="C29" s="138">
+        <f t="shared" ref="C29" ca="1" si="112">((33*112)-(E29*112)-(F29))/112</f>
+        <v>15.901785714285714</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>17</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>4</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I29" s="30">
         <v>0.5</v>
       </c>
-      <c r="J28" s="24">
-        <f t="shared" ref="J28" si="110">LOG(I28)*4/3</f>
+      <c r="J29" s="24">
+        <f t="shared" ref="J29" si="113">LOG(I29)*4/3</f>
         <v>-0.40137332755197491</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" ref="K28" si="111">(H28)*(H28)*(I28)</f>
+      <c r="K29" s="7">
+        <f t="shared" ref="K29" si="114">(H29)*(H29)*(I29)</f>
         <v>8</v>
       </c>
-      <c r="L28" s="7">
-        <f t="shared" ref="L28" si="112">(H28+1)*(H28+1)*I28</f>
+      <c r="L29" s="7">
+        <f t="shared" ref="L29" si="115">(H29+1)*(H29+1)*I29</f>
         <v>12.5</v>
       </c>
-      <c r="M28" s="153">
+      <c r="M29" s="153">
         <v>43046</v>
       </c>
-      <c r="N28" s="154">
-        <f t="shared" ref="N28" ca="1" si="113">IF((TODAY()-M28)&gt;335,1,((TODAY()-M28)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O28" s="21">
+      <c r="N29" s="154">
+        <f t="shared" ref="N29" ca="1" si="116">IF((TODAY()-M29)&gt;335,1,((TODAY()-M29)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O29" s="21">
         <v>4.2</v>
       </c>
-      <c r="P28" s="22">
-        <f t="shared" ref="P28" si="114">O28*10+19</f>
+      <c r="P29" s="22">
+        <f t="shared" ref="P29" si="117">O29*10+19</f>
         <v>61</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q29" s="28">
         <v>5</v>
       </c>
-      <c r="R28" s="132">
-        <f t="shared" ref="R28" si="115">(Q28/7)^0.5</f>
+      <c r="R29" s="132">
+        <f t="shared" ref="R29" si="118">(Q29/7)^0.5</f>
         <v>0.84515425472851657</v>
       </c>
-      <c r="S28" s="132">
-        <f t="shared" ref="S28" si="116">IF(Q28=7,1,((Q28+0.99)/7)^0.5)</f>
+      <c r="S29" s="132">
+        <f t="shared" ref="S29" si="119">IF(Q29=7,1,((Q29+0.99)/7)^0.5)</f>
         <v>0.92504826128926143</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T29" s="32">
         <v>520</v>
       </c>
-      <c r="U28" s="32">
-        <f t="shared" ref="U28" si="117">T28-AS28</f>
+      <c r="U29" s="32">
+        <f t="shared" ref="U29" si="120">T29-AS29</f>
         <v>40</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V29" s="32">
         <v>290</v>
       </c>
-      <c r="W28" s="9">
-        <f t="shared" ref="W28" si="118">T28/V28</f>
+      <c r="W29" s="9">
+        <f t="shared" ref="W29" si="121">T29/V29</f>
         <v>1.7931034482758621</v>
       </c>
-      <c r="X28" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="24">
+      <c r="X29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24">
         <v>4</v>
       </c>
-      <c r="Z28" s="23">
+      <c r="Z29" s="23">
         <v>2</v>
       </c>
-      <c r="AA28" s="24">
+      <c r="AA29" s="24">
         <v>2</v>
       </c>
-      <c r="AB28" s="23">
+      <c r="AB29" s="23">
         <f>3+(0.25*0.16)</f>
         <v>3.04</v>
       </c>
-      <c r="AC28" s="24">
+      <c r="AC29" s="24">
         <v>5</v>
       </c>
-      <c r="AD28" s="23">
+      <c r="AD29" s="23">
         <v>1</v>
       </c>
-      <c r="AE28" s="10">
+      <c r="AE29" s="10">
         <v>356</v>
       </c>
-      <c r="AF28" s="10">
+      <c r="AF29" s="10">
         <v>1977</v>
       </c>
-      <c r="AG28" s="25">
-        <f t="shared" ref="AG28" ca="1" si="119">(AD28+1+(LOG(I28)*4/3)+N28)*(Q28/7)^0.5</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AH28" s="25">
-        <f t="shared" ref="AH28" ca="1" si="120">(AD28+1+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>1.5577606018291406</v>
-      </c>
-      <c r="AI28" s="137">
-        <f t="shared" ref="AI28" ca="1" si="121">(Z28+N28+(LOG(I28)*4/3))*(Q28/7)^0.5</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AJ28" s="137">
-        <f t="shared" ref="AJ28" ca="1" si="122">(Z28+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>1.5577606018291406</v>
-      </c>
-      <c r="AK28" s="9">
-        <f t="shared" ref="AK28" ca="1" si="123">(((Y28+LOG(I28)*4/3+N28)+(AB28+LOG(I28)*4/3+N28)*2)/8)*(Q28/7)^0.5</f>
-        <v>0.96429155792069576</v>
-      </c>
-      <c r="AL28" s="9">
-        <f t="shared" ref="AL28" ca="1" si="124">(AD28+LOG(I28)*4/3+N28)*0.7+(AC28+LOG(I28)*4/3+N28)*0.3</f>
-        <v>1.8825737551084054</v>
-      </c>
-      <c r="AM28" s="9">
-        <f t="shared" ref="AM28" ca="1" si="125">(0.5*(AC28+LOG(I28)*4/3+N28)+ 0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.25460590040867237</v>
-      </c>
-      <c r="AN28" s="9">
-        <f t="shared" ref="AN28" ca="1" si="126">(0.4*(Y28+LOG(I28)*4/3+N28)+0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.1677801628575884</v>
-      </c>
-      <c r="AO28" s="22">
+      <c r="AG29" s="25">
+        <f t="shared" ref="AG29" ca="1" si="122">(AD29+1+(LOG(I29)*4/3)+N29)*(Q29/7)^0.5</f>
+        <v>1.4283642340415872</v>
+      </c>
+      <c r="AH29" s="25">
+        <f t="shared" ref="AH29" ca="1" si="123">(AD29+1+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
+        <v>1.5646946226363319</v>
+      </c>
+      <c r="AI29" s="137">
+        <f t="shared" ref="AI29" ca="1" si="124">(Z29+N29+(LOG(I29)*4/3))*(Q29/7)^0.5</f>
+        <v>1.4283642340415874</v>
+      </c>
+      <c r="AJ29" s="137">
+        <f t="shared" ref="AJ29" ca="1" si="125">(Z29+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
+        <v>1.5646946226363319</v>
+      </c>
+      <c r="AK29" s="9">
+        <f t="shared" ref="AK29" ca="1" si="126">(((Y29+LOG(I29)*4/3+N29)+(AB29+LOG(I29)*4/3+N29)*2)/8)*(Q29/7)^0.5</f>
+        <v>0.96666525767713884</v>
+      </c>
+      <c r="AL29" s="9">
+        <f t="shared" ref="AL29" ca="1" si="127">(AD29+LOG(I29)*4/3+N29)*0.7+(AC29+LOG(I29)*4/3+N29)*0.3</f>
+        <v>1.8900633535832005</v>
+      </c>
+      <c r="AM29" s="9">
+        <f t="shared" ref="AM29" ca="1" si="128">(0.5*(AC29+LOG(I29)*4/3+N29)+ 0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
+        <v>0.25520506828665607</v>
+      </c>
+      <c r="AN29" s="9">
+        <f t="shared" ref="AN29" ca="1" si="129">(0.4*(Y29+LOG(I29)*4/3+N29)+0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
+        <v>0.16830443475082407</v>
+      </c>
+      <c r="AO29" s="22">
         <v>1</v>
       </c>
-      <c r="AP28" s="22">
+      <c r="AP29" s="22">
         <v>2</v>
       </c>
-      <c r="AQ28" s="22">
+      <c r="AQ29" s="22">
         <v>1</v>
       </c>
-      <c r="AR28" s="152">
-        <f t="shared" ref="AR28" si="127">IF(AP28=4,IF(AQ28=0,0.137+0.0697,0.137+0.02),IF(AP28=3,IF(AQ28=0,0.0958+0.0697,0.0958+0.02),IF(AP28=2,IF(AQ28=0,0.0415+0.0697,0.0415+0.02),IF(AP28=1,IF(AQ28=0,0.0294+0.0697,0.0294+0.02),IF(AP28=0,IF(AQ28=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR29" s="152">
+        <f t="shared" ref="AR29" si="130">IF(AP29=4,IF(AQ29=0,0.137+0.0697,0.137+0.02),IF(AP29=3,IF(AQ29=0,0.0958+0.0697,0.0958+0.02),IF(AP29=2,IF(AQ29=0,0.0415+0.0697,0.0415+0.02),IF(AP29=1,IF(AQ29=0,0.0294+0.0697,0.0294+0.02),IF(AP29=0,IF(AQ29=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AS28">
+      <c r="AS29">
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="138">
-        <f t="shared" ref="C29" ca="1" si="128">((33*112)-(E29*112)-(F29))/112</f>
-        <v>15.875</v>
-      </c>
-      <c r="D29" s="31" t="s">
+      <c r="C30" s="138">
+        <f t="shared" ref="C30" ca="1" si="131">((33*112)-(E30*112)-(F30))/112</f>
+        <v>15.866071428571429</v>
+      </c>
+      <c r="D30" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E30" s="18">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44-40</f>
-        <v>14</v>
-      </c>
-      <c r="G29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <v>3</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I30" s="30">
         <v>1</v>
       </c>
-      <c r="J29" s="24">
-        <f t="shared" ref="J29" si="129">LOG(I29)*4/3</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
-        <f t="shared" ref="K29" si="130">(H29)*(H29)*(I29)</f>
+      <c r="J30" s="24">
+        <f t="shared" ref="J30" si="132">LOG(I30)*4/3</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" ref="K30" si="133">(H30)*(H30)*(I30)</f>
         <v>9</v>
       </c>
-      <c r="L29" s="7">
-        <f t="shared" ref="L29" si="131">(H29+1)*(H29+1)*I29</f>
+      <c r="L30" s="7">
+        <f t="shared" ref="L30" si="134">(H30+1)*(H30+1)*I30</f>
         <v>16</v>
       </c>
-      <c r="M29" s="153">
+      <c r="M30" s="153">
         <v>43046</v>
       </c>
-      <c r="N29" s="154">
-        <f t="shared" ref="N29" ca="1" si="132">IF((TODAY()-M29)&gt;335,1,((TODAY()-M29)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O29" s="21">
+      <c r="N30" s="154">
+        <f t="shared" ref="N30" ca="1" si="135">IF((TODAY()-M30)&gt;335,1,((TODAY()-M30)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O30" s="21">
         <v>4.2</v>
       </c>
-      <c r="P29" s="22">
-        <f t="shared" ref="P29" si="133">O29*10+19</f>
+      <c r="P30" s="22">
+        <f t="shared" ref="P30" si="136">O30*10+19</f>
         <v>61</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q30" s="28">
         <v>5</v>
       </c>
-      <c r="R29" s="132">
-        <f t="shared" ref="R29" si="134">(Q29/7)^0.5</f>
+      <c r="R30" s="132">
+        <f t="shared" ref="R30" si="137">(Q30/7)^0.5</f>
         <v>0.84515425472851657</v>
       </c>
-      <c r="S29" s="132">
-        <f t="shared" ref="S29" si="135">IF(Q29=7,1,((Q29+0.99)/7)^0.5)</f>
+      <c r="S30" s="132">
+        <f t="shared" ref="S30" si="138">IF(Q30=7,1,((Q30+0.99)/7)^0.5)</f>
         <v>0.92504826128926143</v>
       </c>
-      <c r="T29" s="32">
+      <c r="T30" s="32">
         <v>490</v>
       </c>
-      <c r="U29" s="32">
-        <f t="shared" ref="U29" si="136">T29-AS29</f>
+      <c r="U30" s="32">
+        <f t="shared" ref="U30" si="139">T30-AS30</f>
         <v>80</v>
       </c>
-      <c r="V29" s="32">
+      <c r="V30" s="32">
         <v>250</v>
       </c>
-      <c r="W29" s="9">
-        <f t="shared" ref="W29" si="137">T29/V29</f>
+      <c r="W30" s="9">
+        <f t="shared" ref="W30" si="140">T30/V30</f>
         <v>1.96</v>
       </c>
-      <c r="X29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="24">
+      <c r="X30" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="24">
         <v>4</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z30" s="23">
         <v>4</v>
       </c>
-      <c r="AA29" s="24">
+      <c r="AA30" s="24">
         <v>3</v>
       </c>
-      <c r="AB29" s="23">
+      <c r="AB30" s="23">
         <f>4+0.25</f>
         <v>4.25</v>
       </c>
-      <c r="AC29" s="24">
+      <c r="AC30" s="24">
         <v>3</v>
       </c>
-      <c r="AD29" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="10">
+      <c r="AD30" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
         <v>360</v>
       </c>
-      <c r="AF29" s="10">
+      <c r="AF30" s="10">
         <v>1991</v>
       </c>
-      <c r="AG29" s="25">
-        <f t="shared" ref="AG29" ca="1" si="138">(AD29+1+(LOG(I29)*4/3)+N29)*(Q29/7)^0.5</f>
-        <v>0.91610248881098366</v>
-      </c>
-      <c r="AH29" s="25">
-        <f t="shared" ref="AH29" ca="1" si="139">(AD29+1+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.0035399962167995</v>
-      </c>
-      <c r="AI29" s="137">
-        <f t="shared" ref="AI29" ca="1" si="140">(Z29+N29+(LOG(I29)*4/3))*(Q29/7)^0.5</f>
-        <v>3.4515652529965331</v>
-      </c>
-      <c r="AJ29" s="137">
-        <f t="shared" ref="AJ29" ca="1" si="141">(Z29+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>3.7810002955344535</v>
-      </c>
-      <c r="AK29" s="9">
-        <f t="shared" ref="AK29" ca="1" si="142">(((Y29+LOG(I29)*4/3+N29)+(AB29+LOG(I29)*4/3+N29)*2)/8)*(Q29/7)^0.5</f>
-        <v>1.3471591107942322</v>
-      </c>
-      <c r="AL29" s="9">
-        <f t="shared" ref="AL29" ca="1" si="143">(AD29+LOG(I29)*4/3+N29)*0.7+(AC29+LOG(I29)*4/3+N29)*0.3</f>
-        <v>0.98394708266038045</v>
-      </c>
-      <c r="AM29" s="9">
-        <f t="shared" ref="AM29" ca="1" si="144">(0.5*(AC29+LOG(I29)*4/3+N29)+ 0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.15671576661283043</v>
-      </c>
-      <c r="AN29" s="9">
-        <f t="shared" ref="AN29" ca="1" si="145">(0.4*(Y29+LOG(I29)*4/3+N29)+0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.16587629578622662</v>
-      </c>
-      <c r="AO29" s="22">
+      <c r="AG30" s="25">
+        <f t="shared" ref="AG30" ca="1" si="141">(AD30+1+(LOG(I30)*4/3)+N30)*(Q30/7)^0.5</f>
+        <v>0.92243235482816477</v>
+      </c>
+      <c r="AH30" s="25">
+        <f t="shared" ref="AH30" ca="1" si="142">(AD30+1+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
+        <v>1.0104740170239905</v>
+      </c>
+      <c r="AI30" s="137">
+        <f t="shared" ref="AI30" ca="1" si="143">(Z30+N30+(LOG(I30)*4/3))*(Q30/7)^0.5</f>
+        <v>3.4578951190137146</v>
+      </c>
+      <c r="AJ30" s="137">
+        <f t="shared" ref="AJ30" ca="1" si="144">(Z30+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
+        <v>3.7879343163416448</v>
+      </c>
+      <c r="AK30" s="9">
+        <f t="shared" ref="AK30" ca="1" si="145">(((Y30+LOG(I30)*4/3+N30)+(AB30+LOG(I30)*4/3+N30)*2)/8)*(Q30/7)^0.5</f>
+        <v>1.3495328105506754</v>
+      </c>
+      <c r="AL30" s="9">
+        <f t="shared" ref="AL30" ca="1" si="146">(AD30+LOG(I30)*4/3+N30)*0.7+(AC30+LOG(I30)*4/3+N30)*0.3</f>
+        <v>0.99143668113517558</v>
+      </c>
+      <c r="AM30" s="9">
+        <f t="shared" ref="AM30" ca="1" si="147">(0.5*(AC30+LOG(I30)*4/3+N30)+ 0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
+        <v>0.15731493449081405</v>
+      </c>
+      <c r="AN30" s="9">
+        <f t="shared" ref="AN30" ca="1" si="148">(0.4*(Y30+LOG(I30)*4/3+N30)+0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
+        <v>0.16640056767946229</v>
+      </c>
+      <c r="AO30" s="22">
         <v>1</v>
       </c>
-      <c r="AP29" s="22">
+      <c r="AP30" s="22">
         <v>1</v>
       </c>
-      <c r="AQ29" s="22">
+      <c r="AQ30" s="22">
         <v>3</v>
       </c>
-      <c r="AR29" s="152">
-        <f t="shared" ref="AR29" si="146">IF(AP29=4,IF(AQ29=0,0.137+0.0697,0.137+0.02),IF(AP29=3,IF(AQ29=0,0.0958+0.0697,0.0958+0.02),IF(AP29=2,IF(AQ29=0,0.0415+0.0697,0.0415+0.02),IF(AP29=1,IF(AQ29=0,0.0294+0.0697,0.0294+0.02),IF(AP29=0,IF(AQ29=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR30" s="152">
+        <f t="shared" ref="AR30" si="149">IF(AP30=4,IF(AQ30=0,0.137+0.0697,0.137+0.02),IF(AP30=3,IF(AQ30=0,0.0958+0.0697,0.0958+0.02),IF(AP30=2,IF(AQ30=0,0.0415+0.0697,0.0415+0.02),IF(AP30=1,IF(AQ30=0,0.0294+0.0697,0.0294+0.02),IF(AP30=0,IF(AQ30=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="AS29">
+      <c r="AS30">
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="138">
-        <f t="shared" ref="C30" ca="1" si="147">((33*112)-(E30*112)-(F30))/112</f>
-        <v>15.892857142857142</v>
-      </c>
-      <c r="D30" s="31" t="s">
+      <c r="C31" s="138">
+        <f t="shared" ref="C31" ca="1" si="150">((33*112)-(E31*112)-(F31))/112</f>
+        <v>15.883928571428571</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="18">
         <v>17</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49</f>
-        <v>12</v>
-      </c>
-      <c r="G30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <v>3</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I31" s="30">
         <v>0.5</v>
       </c>
-      <c r="J30" s="24">
-        <f t="shared" ref="J30" si="148">LOG(I30)*4/3</f>
+      <c r="J31" s="24">
+        <f t="shared" ref="J31" si="151">LOG(I31)*4/3</f>
         <v>-0.40137332755197491</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" ref="K30" si="149">(H30)*(H30)*(I30)</f>
+      <c r="K31" s="7">
+        <f t="shared" ref="K31" si="152">(H31)*(H31)*(I31)</f>
         <v>4.5</v>
       </c>
-      <c r="L30" s="7">
-        <f t="shared" ref="L30" si="150">(H30+1)*(H30+1)*I30</f>
+      <c r="L31" s="7">
+        <f t="shared" ref="L31" si="153">(H31+1)*(H31+1)*I31</f>
         <v>8</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M31" s="153">
         <v>43046</v>
       </c>
-      <c r="N30" s="154">
-        <f t="shared" ref="N30" ca="1" si="151">IF((TODAY()-M30)&gt;335,1,((TODAY()-M30)^0.64)/(336^0.64))</f>
-        <v>8.394708266038052E-2</v>
-      </c>
-      <c r="O30" s="21">
+      <c r="N31" s="154">
+        <f t="shared" ref="N31" ca="1" si="154">IF((TODAY()-M31)&gt;335,1,((TODAY()-M31)^0.64)/(336^0.64))</f>
+        <v>9.1436681135175488E-2</v>
+      </c>
+      <c r="O31" s="21">
         <v>4.2</v>
       </c>
-      <c r="P30" s="22">
-        <f t="shared" ref="P30" si="152">O30*10+19</f>
+      <c r="P31" s="22">
+        <f t="shared" ref="P31" si="155">O31*10+19</f>
         <v>61</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q31" s="28">
         <v>5</v>
       </c>
-      <c r="R30" s="132">
-        <f t="shared" ref="R30" si="153">(Q30/7)^0.5</f>
+      <c r="R31" s="132">
+        <f t="shared" ref="R31" si="156">(Q31/7)^0.5</f>
         <v>0.84515425472851657</v>
       </c>
-      <c r="S30" s="132">
-        <f t="shared" ref="S30" si="154">IF(Q30=7,1,((Q30+0.99)/7)^0.5)</f>
+      <c r="S31" s="132">
+        <f t="shared" ref="S31" si="157">IF(Q31=7,1,((Q31+0.99)/7)^0.5)</f>
         <v>0.92504826128926143</v>
       </c>
-      <c r="T30" s="32">
+      <c r="T31" s="32">
         <v>480</v>
       </c>
-      <c r="U30" s="32">
-        <f t="shared" ref="U30" si="155">T30-AS30</f>
+      <c r="U31" s="32">
+        <f t="shared" ref="U31" si="158">T31-AS31</f>
         <v>-70</v>
       </c>
-      <c r="V30" s="32">
+      <c r="V31" s="32">
         <v>270</v>
       </c>
-      <c r="W30" s="9">
-        <f t="shared" ref="W30" si="156">T30/V30</f>
+      <c r="W31" s="9">
+        <f t="shared" ref="W31" si="159">T31/V31</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="X30" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="24">
+      <c r="X31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="24">
         <v>3</v>
       </c>
-      <c r="Z30" s="23">
+      <c r="Z31" s="23">
         <v>4</v>
       </c>
-      <c r="AA30" s="24">
+      <c r="AA31" s="24">
         <v>4</v>
       </c>
-      <c r="AB30" s="23">
+      <c r="AB31" s="23">
         <f>3+(0.25*0.16*31/90)</f>
         <v>3.0137777777777779</v>
       </c>
-      <c r="AC30" s="24">
+      <c r="AC31" s="24">
         <v>4</v>
       </c>
-      <c r="AD30" s="23">
+      <c r="AD31" s="23">
         <v>1</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE31" s="10">
         <v>352</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF31" s="10">
         <v>1986</v>
       </c>
-      <c r="AG30" s="25">
-        <f t="shared" ref="AG30" ca="1" si="157">(AD30+1+(LOG(I30)*4/3)+N30)*(Q30/7)^0.5</f>
-        <v>1.4220343680244061</v>
-      </c>
-      <c r="AH30" s="25">
-        <f t="shared" ref="AH30" ca="1" si="158">(AD30+1+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>1.5577606018291406</v>
-      </c>
-      <c r="AI30" s="137">
-        <f t="shared" ref="AI30" ca="1" si="159">(Z30+N30+(LOG(I30)*4/3))*(Q30/7)^0.5</f>
-        <v>3.112342877481439</v>
-      </c>
-      <c r="AJ30" s="137">
-        <f t="shared" ref="AJ30" ca="1" si="160">(Z30+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>3.4094008013742432</v>
-      </c>
-      <c r="AK30" s="9">
-        <f t="shared" ref="AK30" ca="1" si="161">(((Y30+LOG(I30)*4/3+N30)+(AB30+LOG(I30)*4/3+N30)*2)/8)*(Q30/7)^0.5</f>
-        <v>0.85310682040974439</v>
-      </c>
-      <c r="AL30" s="9">
-        <f t="shared" ref="AL30" ca="1" si="162">(AD30+LOG(I30)*4/3+N30)*0.7+(AC30+LOG(I30)*4/3+N30)*0.3</f>
-        <v>1.5825737551084056</v>
-      </c>
-      <c r="AM30" s="9">
-        <f t="shared" ref="AM30" ca="1" si="163">(0.5*(AC30+LOG(I30)*4/3+N30)+ 0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.20460590040867244</v>
-      </c>
-      <c r="AN30" s="9">
-        <f t="shared" ref="AN30" ca="1" si="164">(0.4*(Y30+LOG(I30)*4/3+N30)+0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.12778016285758839</v>
-      </c>
-      <c r="AO30" s="22">
+      <c r="AG31" s="25">
+        <f t="shared" ref="AG31" ca="1" si="160">(AD31+1+(LOG(I31)*4/3)+N31)*(Q31/7)^0.5</f>
+        <v>1.4283642340415872</v>
+      </c>
+      <c r="AH31" s="25">
+        <f t="shared" ref="AH31" ca="1" si="161">(AD31+1+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
+        <v>1.5646946226363319</v>
+      </c>
+      <c r="AI31" s="137">
+        <f t="shared" ref="AI31" ca="1" si="162">(Z31+N31+(LOG(I31)*4/3))*(Q31/7)^0.5</f>
+        <v>3.1186727434986206</v>
+      </c>
+      <c r="AJ31" s="137">
+        <f t="shared" ref="AJ31" ca="1" si="163">(Z31+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
+        <v>3.4163348221814345</v>
+      </c>
+      <c r="AK31" s="9">
+        <f t="shared" ref="AK31" ca="1" si="164">(((Y31+LOG(I31)*4/3+N31)+(AB31+LOG(I31)*4/3+N31)*2)/8)*(Q31/7)^0.5</f>
+        <v>0.85548052016618725</v>
+      </c>
+      <c r="AL31" s="9">
+        <f t="shared" ref="AL31" ca="1" si="165">(AD31+LOG(I31)*4/3+N31)*0.7+(AC31+LOG(I31)*4/3+N31)*0.3</f>
+        <v>1.5900633535832007</v>
+      </c>
+      <c r="AM31" s="9">
+        <f t="shared" ref="AM31" ca="1" si="166">(0.5*(AC31+LOG(I31)*4/3+N31)+ 0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
+        <v>0.20520506828665605</v>
+      </c>
+      <c r="AN31" s="9">
+        <f t="shared" ref="AN31" ca="1" si="167">(0.4*(Y31+LOG(I31)*4/3+N31)+0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
+        <v>0.12830443475082404</v>
+      </c>
+      <c r="AO31" s="22">
         <v>1</v>
       </c>
-      <c r="AP30" s="22">
+      <c r="AP31" s="22">
         <v>3</v>
       </c>
-      <c r="AQ30" s="22">
+      <c r="AQ31" s="22">
         <v>1</v>
       </c>
-      <c r="AR30" s="152">
-        <f t="shared" ref="AR30" si="165">IF(AP30=4,IF(AQ30=0,0.137+0.0697,0.137+0.02),IF(AP30=3,IF(AQ30=0,0.0958+0.0697,0.0958+0.02),IF(AP30=2,IF(AQ30=0,0.0415+0.0697,0.0415+0.02),IF(AP30=1,IF(AQ30=0,0.0294+0.0697,0.0294+0.02),IF(AP30=0,IF(AQ30=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AR31" s="152">
+        <f t="shared" ref="AR31" si="168">IF(AP31=4,IF(AQ31=0,0.137+0.0697,0.137+0.02),IF(AP31=3,IF(AQ31=0,0.0958+0.0697,0.0958+0.02),IF(AP31=2,IF(AQ31=0,0.0415+0.0697,0.0415+0.02),IF(AP31=1,IF(AQ31=0,0.0294+0.0697,0.0294+0.02),IF(AP31=0,IF(AQ31=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>0.1158</v>
       </c>
-      <c r="AS30">
+      <c r="AS31">
         <v>550</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="31" t="s">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="137"/>
-      <c r="AJ31" s="137"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="22">
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="22">
         <v>4</v>
       </c>
-      <c r="AQ31" s="22">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="152">
-        <f>IF(AP31=4,IF(AQ31=0,0.137+0.0697,0.137+0.02),IF(AP31=3,IF(AQ31=0,0.0958+0.0697,0.0958+0.02),IF(AP31=2,IF(AQ31=0,0.0415+0.0697,0.0415+0.02),IF(AP31=1,IF(AQ31=0,0.0294+0.0697,0.0294+0.02),IF(AP31=0,IF(AQ31=0,0.0063+0.0697,0.0063+0.02))))))</f>
+      <c r="AQ32" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="152">
+        <f>IF(AP32=4,IF(AQ32=0,0.137+0.0697,0.137+0.02),IF(AP32=3,IF(AQ32=0,0.0958+0.0697,0.0958+0.02),IF(AP32=2,IF(AQ32=0,0.0415+0.0697,0.0415+0.02),IF(AP32=1,IF(AQ32=0,0.0294+0.0697,0.0294+0.02),IF(AP32=0,IF(AQ32=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>0.20669999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="V32" s="75"/>
-    </row>
-    <row r="34" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V34" s="75"/>
+    <row r="33" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="75"/>
+    </row>
+    <row r="35" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V35" s="75"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2">
@@ -45277,7 +45443,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C31">
+  <conditionalFormatting sqref="C4:C32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -45287,17 +45453,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I31">
+  <conditionalFormatting sqref="I4:I32">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N31">
+  <conditionalFormatting sqref="N4:N32">
     <cfRule type="cellIs" dxfId="37" priority="36" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P31">
+  <conditionalFormatting sqref="P4:P32">
     <cfRule type="cellIs" dxfId="36" priority="34" operator="greaterThan">
       <formula>90</formula>
     </cfRule>
@@ -45305,7 +45471,7 @@
       <formula>85</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:S31">
+  <conditionalFormatting sqref="R4:S32">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -45317,7 +45483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T31">
+  <conditionalFormatting sqref="T4:T32">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
@@ -45331,7 +45497,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V31">
+  <conditionalFormatting sqref="V4:V32">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
@@ -45345,7 +45511,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U31">
+  <conditionalFormatting sqref="U4:U32">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -45359,7 +45525,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W31">
+  <conditionalFormatting sqref="W4:W32">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
@@ -45386,7 +45552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4:AF31">
+  <conditionalFormatting sqref="AE4:AF32">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -45400,7 +45566,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AH31">
+  <conditionalFormatting sqref="AG4:AH32">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -45412,7 +45578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AJ31">
+  <conditionalFormatting sqref="AI4:AJ32">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -45424,7 +45590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK4:AK31">
+  <conditionalFormatting sqref="AK4:AK32">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -45436,7 +45602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AL31">
+  <conditionalFormatting sqref="AL4:AL32">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -45448,7 +45614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AN31">
+  <conditionalFormatting sqref="AM4:AN32">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -45460,7 +45626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR4:AR31">
+  <conditionalFormatting sqref="AR4:AR32">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -45472,7 +45638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19:AD31">
+  <conditionalFormatting sqref="X19:AD32">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -45512,7 +45678,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T4:T31</xm:sqref>
+          <xm:sqref>T4:T32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{10C27641-B545-40C6-AB33-61DE0C4A3523}">
@@ -45525,7 +45691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V4:V31</xm:sqref>
+          <xm:sqref>V4:V32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{865F7CB9-FE3D-4143-AA80-12651D5E426D}">
@@ -45538,7 +45704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U4:U31</xm:sqref>
+          <xm:sqref>U4:U32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC0019C4-5DF2-4032-8F76-A8A2E8FCCC3F}">
@@ -45551,7 +45717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>W4:W31</xm:sqref>
+          <xm:sqref>W4:W32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{16A029B8-9A6F-4902-9C8F-35D0EA6E393A}">
@@ -45564,7 +45730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE4:AF31</xm:sqref>
+          <xm:sqref>AE4:AF32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -45966,7 +46132,7 @@
       </c>
       <c r="C3" s="36">
         <f ca="1">PLANTILLA!F4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="69">
         <f>PLANTILLA!G4</f>
@@ -46299,7 +46465,7 @@
       </c>
       <c r="C4" s="36">
         <f ca="1">PLANTILLA!F5</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="69" t="str">
         <f>PLANTILLA!G5</f>
@@ -46632,7 +46798,7 @@
       </c>
       <c r="C5" s="36">
         <f ca="1">PLANTILLA!F6</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="69">
         <f>PLANTILLA!G6</f>
@@ -46965,7 +47131,7 @@
       </c>
       <c r="C6" s="36">
         <f ca="1">PLANTILLA!F10</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="69" t="str">
         <f>PLANTILLA!G10</f>
@@ -47298,7 +47464,7 @@
       </c>
       <c r="C7" s="36">
         <f ca="1">PLANTILLA!F8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="69">
         <f>PLANTILLA!G8</f>
@@ -47631,7 +47797,7 @@
       </c>
       <c r="C8" s="36">
         <f ca="1">PLANTILLA!F9</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="69" t="str">
         <f>PLANTILLA!G9</f>
@@ -47964,7 +48130,7 @@
       </c>
       <c r="C9" s="36">
         <f ca="1">PLANTILLA!F11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="69" t="str">
         <f>PLANTILLA!G11</f>
@@ -48297,7 +48463,7 @@
       </c>
       <c r="C10" s="36">
         <f ca="1">PLANTILLA!F13</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="69">
         <f>PLANTILLA!G13</f>
@@ -48630,7 +48796,7 @@
       </c>
       <c r="C11" s="36">
         <f ca="1">PLANTILLA!F14</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="69" t="str">
         <f>PLANTILLA!G14</f>
@@ -48963,7 +49129,7 @@
       </c>
       <c r="C12" s="36">
         <f ca="1">PLANTILLA!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="69" t="str">
         <f>PLANTILLA!G15</f>
@@ -49296,7 +49462,7 @@
       </c>
       <c r="C13" s="36">
         <f ca="1">PLANTILLA!F16</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="69" t="str">
         <f>PLANTILLA!G16</f>
@@ -49629,7 +49795,7 @@
       </c>
       <c r="C14" s="36">
         <f ca="1">PLANTILLA!F17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="69" t="str">
         <f>PLANTILLA!G17</f>
@@ -49962,7 +50128,7 @@
       </c>
       <c r="C15" s="36">
         <f ca="1">PLANTILLA!F18</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="69" t="str">
         <f>PLANTILLA!G18</f>
@@ -50295,7 +50461,7 @@
       </c>
       <c r="C16" s="36">
         <f ca="1">PLANTILLA!F12</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="69" t="str">
         <f>PLANTILLA!G12</f>
@@ -57015,7 +57181,7 @@
       <c r="C2" s="171"/>
       <c r="D2" s="172">
         <f ca="1">TODAY()</f>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="173"/>
@@ -57336,7 +57502,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">PLANTILLA!C4</f>
-        <v>2.8392857142857144</v>
+        <v>2.8303571428571428</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>PLANTILLA!D4</f>
@@ -57348,7 +57514,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">PLANTILLA!F4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="20">
         <f>PLANTILLA!G4</f>
@@ -57431,7 +57597,7 @@
       </c>
       <c r="AB4" s="189">
         <f t="shared" ref="AB4:AB18" ca="1" si="5">F4+7</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" ref="AC4:AC18" si="6">I4+$AC$2</f>
@@ -57571,7 +57737,7 @@
       </c>
       <c r="C5" s="138">
         <f ca="1">PLANTILLA!C5</f>
-        <v>1.1071428571428572</v>
+        <v>1.0982142857142858</v>
       </c>
       <c r="D5" s="31" t="str">
         <f>PLANTILLA!D5</f>
@@ -57583,7 +57749,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">PLANTILLA!F5</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>PLANTILLA!G5</f>
@@ -57665,7 +57831,7 @@
       </c>
       <c r="AB5" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC5" s="27">
         <f t="shared" si="6"/>
@@ -57809,7 +57975,7 @@
       </c>
       <c r="C6" s="138">
         <f ca="1">PLANTILLA!C6</f>
-        <v>1.3035714285714286</v>
+        <v>1.2946428571428572</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>PLANTILLA!D6</f>
@@ -57821,7 +57987,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">PLANTILLA!F6</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <f>PLANTILLA!G6</f>
@@ -57903,7 +58069,7 @@
       </c>
       <c r="AB6" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="27">
         <f t="shared" si="6"/>
@@ -58047,7 +58213,7 @@
       </c>
       <c r="C7" s="138">
         <f ca="1">PLANTILLA!C7</f>
-        <v>1.8035714285714286</v>
+        <v>1.7946428571428572</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>PLANTILLA!D7</f>
@@ -58059,7 +58225,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">PLANTILLA!F7</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4">
         <f>PLANTILLA!G7</f>
@@ -58141,7 +58307,7 @@
       </c>
       <c r="AB7" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="6"/>
@@ -58270,7 +58436,7 @@
       </c>
       <c r="C8" s="138">
         <f ca="1">PLANTILLA!C8</f>
-        <v>1.9553571428571428</v>
+        <v>1.9464285714285714</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>PLANTILLA!D8</f>
@@ -58282,7 +58448,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">PLANTILLA!F8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4">
         <f>PLANTILLA!G8</f>
@@ -58364,7 +58530,7 @@
       </c>
       <c r="AB8" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="6"/>
@@ -58492,7 +58658,7 @@
       </c>
       <c r="C9" s="138">
         <f ca="1">PLANTILLA!C9</f>
-        <v>0.49107142857142855</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>PLANTILLA!D9</f>
@@ -58504,7 +58670,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">PLANTILLA!F9</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>PLANTILLA!G9</f>
@@ -58586,7 +58752,7 @@
       </c>
       <c r="AB9" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC9" s="27">
         <f t="shared" si="6"/>
@@ -58718,7 +58884,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">PLANTILLA!C10</f>
-        <v>1.1785714285714286</v>
+        <v>1.1696428571428572</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>PLANTILLA!D10</f>
@@ -58730,7 +58896,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">PLANTILLA!F10</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="20" t="str">
         <f>PLANTILLA!G10</f>
@@ -58812,7 +58978,7 @@
       </c>
       <c r="AB10" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="27">
         <f t="shared" si="6"/>
@@ -58944,7 +59110,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">PLANTILLA!C11</f>
-        <v>0.9196428571428571</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>PLANTILLA!D11</f>
@@ -58956,7 +59122,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">PLANTILLA!F11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>PLANTILLA!G11</f>
@@ -59039,7 +59205,7 @@
       </c>
       <c r="AB11" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC11" s="27">
         <f t="shared" si="6"/>
@@ -59161,7 +59327,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">PLANTILLA!C12</f>
-        <v>3.0892857142857144</v>
+        <v>3.0803571428571428</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>PLANTILLA!D12</f>
@@ -59173,7 +59339,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">PLANTILLA!F12</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>PLANTILLA!G12</f>
@@ -59255,7 +59421,7 @@
       </c>
       <c r="AB12" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC12" s="27">
         <f t="shared" si="6"/>
@@ -59385,7 +59551,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">PLANTILLA!C13</f>
-        <v>1.3482142857142858</v>
+        <v>1.3392857142857142</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>PLANTILLA!D13</f>
@@ -59397,7 +59563,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">PLANTILLA!F13</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4">
         <f>PLANTILLA!G13</f>
@@ -59479,7 +59645,7 @@
       </c>
       <c r="AB13" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC13" s="27">
         <f t="shared" si="6"/>
@@ -59608,7 +59774,7 @@
       </c>
       <c r="C14" s="138">
         <f ca="1">PLANTILLA!C14</f>
-        <v>0.125</v>
+        <v>0.11607142857142858</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>PLANTILLA!D14</f>
@@ -59620,7 +59786,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">PLANTILLA!F14</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="20" t="str">
         <f>PLANTILLA!G14</f>
@@ -59703,7 +59869,7 @@
       </c>
       <c r="AB14" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC14" s="27">
         <f t="shared" si="6"/>
@@ -59829,7 +59995,7 @@
       </c>
       <c r="C15" s="138">
         <f ca="1">PLANTILLA!C15</f>
-        <v>3</v>
+        <v>2.9910714285714284</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>PLANTILLA!D15</f>
@@ -59841,7 +60007,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">PLANTILLA!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="20" t="str">
         <f>PLANTILLA!G15</f>
@@ -59922,7 +60088,7 @@
       </c>
       <c r="AB15" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="27">
         <f t="shared" si="6"/>
@@ -60019,7 +60185,7 @@
       </c>
       <c r="C16" s="138">
         <f ca="1">PLANTILLA!C16</f>
-        <v>3.4375</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>PLANTILLA!D16</f>
@@ -60031,7 +60197,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">PLANTILLA!F16</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="20" t="str">
         <f>PLANTILLA!G16</f>
@@ -60112,7 +60278,7 @@
       </c>
       <c r="AB16" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC16" s="27">
         <f t="shared" si="6"/>
@@ -60242,7 +60408,7 @@
       </c>
       <c r="C17" s="138">
         <f ca="1">PLANTILLA!C17</f>
-        <v>2.9821428571428572</v>
+        <v>2.9732142857142856</v>
       </c>
       <c r="D17" s="29" t="str">
         <f>PLANTILLA!D17</f>
@@ -60254,7 +60420,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">PLANTILLA!F17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="20" t="str">
         <f>PLANTILLA!G17</f>
@@ -60335,7 +60501,7 @@
       </c>
       <c r="AB17" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC17" s="27">
         <f t="shared" si="6"/>
@@ -60454,7 +60620,7 @@
       </c>
       <c r="C18" s="138">
         <f ca="1">PLANTILLA!C18</f>
-        <v>3.4732142857142856</v>
+        <v>3.4642857142857144</v>
       </c>
       <c r="D18" s="29" t="str">
         <f>PLANTILLA!D18</f>
@@ -60466,7 +60632,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">PLANTILLA!F18</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>PLANTILLA!G18</f>
@@ -60548,7 +60714,7 @@
       </c>
       <c r="AB18" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC18" s="27">
         <f t="shared" si="6"/>

--- a/projects/current/hattrick/1-V@der_Plantilla.xlsx
+++ b/projects/current/hattrick/1-V@der_Plantilla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="6" r:id="rId1"/>
@@ -2811,22 +2811,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2849,9 +2852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10310,16 +10310,16 @@
       <c r="A59" s="104">
         <v>17</v>
       </c>
-      <c r="B59" s="252" t="s">
+      <c r="B59" s="253" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="253" t="s">
+      <c r="D59" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="253" t="s">
+      <c r="E59" s="257" t="s">
         <v>148</v>
       </c>
       <c r="F59" s="106" t="s">
@@ -10334,12 +10334,12 @@
       <c r="A60" s="108">
         <v>18</v>
       </c>
-      <c r="B60" s="252"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="253"/>
-      <c r="E60" s="253"/>
+      <c r="D60" s="257"/>
+      <c r="E60" s="257"/>
       <c r="F60" s="106" t="s">
         <v>151</v>
       </c>
@@ -10352,10 +10352,10 @@
       <c r="A61" s="104">
         <v>19</v>
       </c>
-      <c r="B61" s="252"/>
+      <c r="B61" s="253"/>
       <c r="C61" s="109"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
+      <c r="D61" s="257"/>
+      <c r="E61" s="257"/>
       <c r="F61" s="110"/>
       <c r="H61" s="101" t="s">
         <v>153</v>
@@ -10367,11 +10367,11 @@
       <c r="A62" s="108">
         <v>20</v>
       </c>
-      <c r="B62" s="252"/>
+      <c r="B62" s="253"/>
       <c r="C62" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="254" t="s">
+      <c r="D62" s="258" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="106" t="s">
@@ -10393,7 +10393,7 @@
       <c r="C63" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="254"/>
+      <c r="D63" s="258"/>
       <c r="E63" s="106" t="s">
         <v>151</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="B64" s="255"/>
       <c r="C64" s="110"/>
-      <c r="D64" s="254"/>
+      <c r="D64" s="258"/>
       <c r="E64" s="110"/>
       <c r="F64" s="110"/>
       <c r="H64" s="101" t="s">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B65" s="255"/>
       <c r="C65" s="110"/>
-      <c r="D65" s="254"/>
+      <c r="D65" s="258"/>
       <c r="E65" s="110"/>
       <c r="F65" s="110"/>
       <c r="H65" s="101"/>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="B66" s="255"/>
       <c r="C66" s="110"/>
-      <c r="D66" s="254"/>
+      <c r="D66" s="258"/>
       <c r="E66" s="110"/>
       <c r="F66" s="110"/>
       <c r="H66" s="101" t="s">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B67" s="255"/>
       <c r="C67" s="110"/>
-      <c r="D67" s="253" t="s">
+      <c r="D67" s="257" t="s">
         <v>148</v>
       </c>
       <c r="E67" s="110"/>
@@ -10464,10 +10464,10 @@
         <v>26</v>
       </c>
       <c r="B68" s="255"/>
-      <c r="C68" s="253" t="s">
+      <c r="C68" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="253"/>
+      <c r="D68" s="257"/>
       <c r="E68" s="110"/>
       <c r="F68" s="110"/>
       <c r="H68" s="101"/>
@@ -10477,11 +10477,11 @@
       <c r="A69" s="104">
         <v>27</v>
       </c>
-      <c r="B69" s="252" t="s">
+      <c r="B69" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="253"/>
-      <c r="D69" s="253"/>
+      <c r="C69" s="257"/>
+      <c r="D69" s="257"/>
       <c r="E69" s="110"/>
       <c r="F69" s="110"/>
       <c r="H69" s="101"/>
@@ -10491,11 +10491,11 @@
       <c r="A70" s="108">
         <v>28</v>
       </c>
-      <c r="B70" s="252"/>
+      <c r="B70" s="253"/>
       <c r="C70" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="253"/>
+      <c r="D70" s="257"/>
       <c r="E70" s="110"/>
       <c r="F70" s="110"/>
       <c r="H70" s="101" t="s">
@@ -10507,9 +10507,9 @@
       <c r="A71" s="104">
         <v>29</v>
       </c>
-      <c r="B71" s="252"/>
+      <c r="B71" s="253"/>
       <c r="C71" s="255"/>
-      <c r="D71" s="253"/>
+      <c r="D71" s="257"/>
       <c r="E71" s="110"/>
       <c r="F71" s="110"/>
       <c r="H71" s="101"/>
@@ -10519,7 +10519,7 @@
       <c r="A72" s="108">
         <v>30</v>
       </c>
-      <c r="B72" s="252"/>
+      <c r="B72" s="253"/>
       <c r="C72" s="255"/>
       <c r="D72" s="255" t="s">
         <v>109</v>
@@ -10535,7 +10535,7 @@
       <c r="A73" s="104">
         <v>31</v>
       </c>
-      <c r="B73" s="252"/>
+      <c r="B73" s="253"/>
       <c r="C73" s="255"/>
       <c r="D73" s="255"/>
       <c r="E73" s="106" t="s">
@@ -10549,7 +10549,7 @@
       <c r="A74" s="108">
         <v>32</v>
       </c>
-      <c r="B74" s="252"/>
+      <c r="B74" s="253"/>
       <c r="C74" s="255"/>
       <c r="D74" s="255"/>
       <c r="E74" s="106" t="s">
@@ -10565,8 +10565,8 @@
       <c r="A75" s="104">
         <v>33</v>
       </c>
-      <c r="B75" s="252"/>
-      <c r="C75" s="252" t="s">
+      <c r="B75" s="253"/>
+      <c r="C75" s="253" t="s">
         <v>110</v>
       </c>
       <c r="D75" s="255"/>
@@ -10583,10 +10583,10 @@
       <c r="A76" s="108">
         <v>34</v>
       </c>
-      <c r="B76" s="257" t="s">
+      <c r="B76" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="252"/>
+      <c r="C76" s="253"/>
       <c r="D76" s="255"/>
       <c r="E76" s="105" t="s">
         <v>150</v>
@@ -10603,14 +10603,14 @@
       <c r="A77" s="104">
         <v>35</v>
       </c>
-      <c r="B77" s="257"/>
-      <c r="C77" s="257" t="s">
+      <c r="B77" s="256"/>
+      <c r="C77" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="D77" s="252" t="s">
+      <c r="D77" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="252" t="s">
+      <c r="E77" s="253" t="s">
         <v>110</v>
       </c>
       <c r="F77" s="109"/>
@@ -10621,10 +10621,10 @@
       <c r="A78" s="108">
         <v>36</v>
       </c>
-      <c r="B78" s="257"/>
-      <c r="C78" s="257"/>
-      <c r="D78" s="252"/>
-      <c r="E78" s="252"/>
+      <c r="B78" s="256"/>
+      <c r="C78" s="256"/>
+      <c r="D78" s="253"/>
+      <c r="E78" s="253"/>
       <c r="F78" s="111" t="s">
         <v>110</v>
       </c>
@@ -10634,14 +10634,14 @@
       <c r="X78" s="98"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="256" t="s">
+      <c r="A79" s="254" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="256"/>
-      <c r="C79" s="256"/>
-      <c r="D79" s="256"/>
-      <c r="E79" s="256"/>
-      <c r="F79" s="256"/>
+      <c r="B79" s="254"/>
+      <c r="C79" s="254"/>
+      <c r="D79" s="254"/>
+      <c r="E79" s="254"/>
+      <c r="F79" s="254"/>
       <c r="H79" s="101"/>
       <c r="X79" s="98"/>
     </row>
@@ -11817,6 +11817,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B69:B75"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="C70:C74"/>
@@ -11825,14 +11833,6 @@
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B69:B75"/>
   </mergeCells>
   <conditionalFormatting sqref="AA5:AT22 AA24:AT45">
     <cfRule type="colorScale" priority="21">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B2" s="73">
         <f ca="1">(N2+F2-J2)/K2</f>
-        <v>-74557.37704918033</v>
+        <v>-74155.415204678342</v>
       </c>
       <c r="C2" s="145">
         <v>22</v>
@@ -12476,18 +12476,18 @@
       </c>
       <c r="H2" s="145">
         <f ca="1">PLANTILLA!F4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="49">
         <f ca="1">E2+(H2-D2+(G2-C2)*112)</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J2" s="165">
         <v>6886000</v>
       </c>
       <c r="K2" s="40">
         <f ca="1">(I2-E2)/112</f>
-        <v>7.625</v>
+        <v>7.6339285714285712</v>
       </c>
       <c r="L2" s="74">
         <f>J2-F2</f>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="N2" s="76">
         <f ca="1">((G2-C2)*M2*16)+(H2-D2)/7*M2</f>
-        <v>2052040</v>
+        <v>2054442.857142857</v>
       </c>
       <c r="O2" s="148">
         <f>PLANTILLA!I4</f>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="B3" s="73">
         <f t="shared" ref="B3:B16" ca="1" si="0">(N3+F3-J3)/K3</f>
-        <v>146953.06194690254</v>
+        <v>147575.2599118943</v>
       </c>
       <c r="C3" s="145">
         <v>29</v>
@@ -12651,18 +12651,18 @@
       </c>
       <c r="H3" s="145">
         <f ca="1">PLANTILLA!F5</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I16" ca="1" si="1">E3+(H3-D3+(G3-C3)*112)</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J3" s="165">
         <v>3074000</v>
       </c>
       <c r="K3" s="40">
         <f t="shared" ref="K3:K16" ca="1" si="2">(I3-E3)/112</f>
-        <v>2.0178571428571428</v>
+        <v>2.0267857142857144</v>
       </c>
       <c r="L3" s="74">
         <f t="shared" ref="L3:L16" si="3">J3-F3</f>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="N3" s="76">
         <f t="shared" ref="N3:N16" ca="1" si="4">((G3-C3)*M3*16)+(H3-D3)/7*M3</f>
-        <v>581530.28571428568</v>
+        <v>584103.42857142852</v>
       </c>
       <c r="O3" s="148">
         <f>PLANTILLA!I5</f>
@@ -12742,63 +12742,63 @@
       </c>
       <c r="AE3" s="40">
         <f t="shared" ref="AE3:AE16" ca="1" si="10">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.516),((S3+(((TODAY()-E3)^0.5)/(336^0.516))+(LOG(O3)*4/3))*0.516))</f>
-        <v>8.2884774927572042</v>
+        <v>8.2893296010662443</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF16" ca="1" si="11">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*1),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>16.135829200433555</v>
+        <v>16.137641652488796</v>
       </c>
       <c r="AG3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.238),((T3+(((TODAY()-E3)^0.5)/(336^0.238))+(LOG(O3)*4/3))*0.238))</f>
-        <v>2.9014278433264882</v>
+        <v>2.9034082043708387</v>
       </c>
       <c r="AH3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.92),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.92))</f>
-        <v>14.844962864398871</v>
+        <v>14.846630320289693</v>
       </c>
       <c r="AI3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.414),((S3+(((TODAY()-E3)^0.5)/(336^0.414))+(LOG(O3)*4/3))*0.414))</f>
-        <v>6.900649094374554</v>
+        <v>6.9018865568717631</v>
       </c>
       <c r="AJ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.167),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.167))</f>
-        <v>1.5440534764724041</v>
+        <v>1.5443561559656289</v>
       </c>
       <c r="AK3" s="213">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*0.588),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.588))</f>
-        <v>7.7448675698549305</v>
+        <v>7.7459332916634116</v>
       </c>
       <c r="AL3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.4),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.4))</f>
-        <v>6.4543316801734223</v>
+        <v>6.4550566609955187</v>
       </c>
       <c r="AM3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*1),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>9.2458292004335565</v>
+        <v>9.2476416524887952</v>
       </c>
       <c r="AN3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((W3+1+(LOG(O3)*4/3))*0.21)+((V3+1+(LOG(O3)*4/3))*0.341),((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.21)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.341))</f>
-        <v>3.9995818894388897</v>
+        <v>4.0005805505213266</v>
       </c>
       <c r="AO3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.305),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.305))</f>
-        <v>2.8199779061322348</v>
+        <v>2.8205307040090823</v>
       </c>
       <c r="AP3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*1)+((V3+1+(LOG(O3)*4/3))*0.286),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.286))</f>
-        <v>15.795830637471838</v>
+        <v>15.798161450814877</v>
       </c>
       <c r="AQ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.406),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.406))</f>
-        <v>3.7538066553760241</v>
+        <v>3.7545425109104511</v>
       </c>
       <c r="AR3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.15)+((V3+1+(LOG(O3)*4/3))*0.324)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.15)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.324)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.144)+((W3+1+(LOG(O3)*4/3))*0.25)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.144)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.25)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)))</f>
-        <v>5.4752204923177104</v>
+        <v>5.4763097760029096</v>
       </c>
       <c r="AS3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)))</f>
-        <v>7.3994936796881845</v>
+        <v>7.4015345007023843</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B4" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>149961.28627450991</v>
+        <v>150224.49999999988</v>
       </c>
       <c r="C4" s="145">
         <v>29</v>
@@ -12829,18 +12829,18 @@
       </c>
       <c r="H4" s="145">
         <f ca="1">PLANTILLA!F6</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="49">
         <f ca="1">TODAY()</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J4" s="165">
         <v>2867000</v>
       </c>
       <c r="K4" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2767857142857144</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="L4" s="74">
         <f t="shared" si="3"/>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="N4" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>508429.71428571432</v>
+        <v>510370.28571428568</v>
       </c>
       <c r="O4" s="148">
         <f>PLANTILLA!I6</f>
@@ -12917,63 +12917,63 @@
       </c>
       <c r="AE4" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8031910311088648</v>
+        <v>7.8039933248320859</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>15.199886921974587</v>
+        <v>15.201593417372095</v>
       </c>
       <c r="AG4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.238),((T4+(((TODAY()-E4)^0.5)/(336^0.238))+(LOG(O4)*4/3))*0.238))</f>
-        <v>2.0130472480397894</v>
+        <v>2.0149118364010743</v>
       </c>
       <c r="AH4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.92),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.92))</f>
-        <v>13.98389596821662</v>
+        <v>13.985465943982328</v>
       </c>
       <c r="AI4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.414),((S4+(((TODAY()-E4)^0.5)/(336^0.414))+(LOG(O4)*4/3))*0.414))</f>
-        <v>6.5268840152964644</v>
+        <v>6.5280491352509316</v>
       </c>
       <c r="AJ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.167),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.167))</f>
-        <v>0.89009111596975599</v>
+        <v>0.89037610070113993</v>
       </c>
       <c r="AK4" s="213">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*0.588),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.588))</f>
-        <v>8.3397335101210555</v>
+        <v>8.3407369294147902</v>
       </c>
       <c r="AL4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.4),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.4))</f>
-        <v>6.0799547687898352</v>
+        <v>6.0806373669488387</v>
       </c>
       <c r="AM4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*1),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1))</f>
-        <v>5.3298869219745866</v>
+        <v>5.3315934173720949</v>
       </c>
       <c r="AN4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((W4+1+(LOG(O4)*4/3))*0.21)+((V4+1+(LOG(O4)*4/3))*0.341),((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.21)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.341))</f>
-        <v>5.1059176940079967</v>
+        <v>5.1068579729720236</v>
       </c>
       <c r="AO4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.305),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.305))</f>
-        <v>1.6256155112022488</v>
+        <v>1.6261359922984888</v>
       </c>
       <c r="AP4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*1)+((V4+1+(LOG(O4)*4/3))*0.286),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.286))</f>
-        <v>17.38066791499265</v>
+        <v>17.382862468073846</v>
       </c>
       <c r="AQ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.406),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.406))</f>
-        <v>2.1639340903216824</v>
+        <v>2.1646269274530705</v>
       </c>
       <c r="AR4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.15)+((V4+1+(LOG(O4)*4/3))*0.324)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.15)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.324)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.144)+((W4+1+(LOG(O4)*4/3))*0.25)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.144)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.25)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)))</f>
-        <v>5.619661086348759</v>
+        <v>5.6205501704508603</v>
       </c>
       <c r="AS4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)))</f>
-        <v>9.6618926741433846</v>
+        <v>9.6638141879609769</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-907713.35849056626</v>
+        <v>-896009.12149532686</v>
       </c>
       <c r="C5" s="145">
         <v>30</v>
@@ -13003,18 +13003,18 @@
       </c>
       <c r="H5" s="145">
         <f ca="1">PLANTILLA!F7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J5" s="165">
         <v>3864250</v>
       </c>
       <c r="K5" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9464285714285714</v>
+        <v>0.9553571428571429</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="3"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>326177.14285714284</v>
+        <v>329254.28571428574</v>
       </c>
       <c r="O5" s="148">
         <f>PLANTILLA!I7</f>
@@ -13094,63 +13094,63 @@
       </c>
       <c r="AE5" s="40">
         <f t="shared" ref="AE5" ca="1" si="17">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.516),((S5+(((TODAY()-E5)^0.5)/(336^0.516))+(LOG(O5)*4/3))*0.516))</f>
-        <v>8.141245765305607</v>
+        <v>8.1424884330668874</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" ca="1" si="18">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*1),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>15.827526014197286</v>
+        <v>15.830169194311853</v>
       </c>
       <c r="AG5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.238),((T5+(((TODAY()-E5)^0.5)/(336^0.238))+(LOG(O5)*4/3))*0.238))</f>
-        <v>2.1097401869467651</v>
+        <v>2.1126282362703073</v>
       </c>
       <c r="AH5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.92),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.92))</f>
-        <v>14.561323933061503</v>
+        <v>14.563755658766906</v>
       </c>
       <c r="AI5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.414),((S5+(((TODAY()-E5)^0.5)/(336^0.414))+(LOG(O5)*4/3))*0.414))</f>
-        <v>6.7035486648688236</v>
+        <v>6.7053533119245543</v>
       </c>
       <c r="AJ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.167),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.167))</f>
-        <v>1.1435368443709468</v>
+        <v>1.1439782554500793</v>
       </c>
       <c r="AK5" s="213">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*0.588),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.588))</f>
-        <v>6.9604652963480049</v>
+        <v>6.9620194862553682</v>
       </c>
       <c r="AL5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.4),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.4))</f>
-        <v>6.3310104056789145</v>
+        <v>6.3320676777247416</v>
       </c>
       <c r="AM5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*1),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>6.8475260141972853</v>
+        <v>6.8501691943118512</v>
       </c>
       <c r="AN5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((W5+1+(LOG(O5)*4/3))*0.21)+((V5+1+(LOG(O5)*4/3))*0.341),((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.21)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.341))</f>
-        <v>4.2982968338227048</v>
+        <v>4.29975322606583</v>
       </c>
       <c r="AO5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.305),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.305))</f>
-        <v>2.0884954343301718</v>
+        <v>2.0893016042651147</v>
       </c>
       <c r="AP5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*1)+((V5+1+(LOG(O5)*4/3))*0.286),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.286))</f>
-        <v>14.942778454257711</v>
+        <v>14.94617758388504</v>
       </c>
       <c r="AQ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.406),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.406))</f>
-        <v>2.7800955617640981</v>
+        <v>2.7811686928906116</v>
       </c>
       <c r="AR5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.15)+((V5+1+(LOG(O5)*4/3))*0.324)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.15)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.324)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.144)+((W5+1+(LOG(O5)*4/3))*0.25)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.144)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.25)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)))</f>
-        <v>4.7793510533967858</v>
+        <v>4.7807281502364747</v>
       </c>
       <c r="AS5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)))</f>
-        <v>7.5499142919861448</v>
+        <v>7.5528905127951447</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B6" s="73">
         <f t="shared" ref="B6" ca="1" si="19">(N6+F6-J6)/K6</f>
-        <v>630953.51351351361</v>
+        <v>629353.29032258061</v>
       </c>
       <c r="C6" s="145">
         <v>29</v>
@@ -13180,18 +13180,18 @@
       </c>
       <c r="H6" s="145">
         <f ca="1">PLANTILLA!F8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="49">
         <f t="shared" ref="I6" ca="1" si="20">E6+(H6-D6+(G6-C6)*112)</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J6" s="165">
         <v>1854360</v>
       </c>
       <c r="K6" s="40">
         <f t="shared" ref="K6" ca="1" si="21">(I6-E6)/112</f>
-        <v>1.6517857142857142</v>
+        <v>1.6607142857142858</v>
       </c>
       <c r="L6" s="74">
         <f t="shared" ref="L6" si="22">J6-F6</f>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="N6" s="76">
         <f t="shared" ref="N6" ca="1" si="23">((G6-C6)*M6*16)+(H6-D6)/7*M6</f>
-        <v>550560</v>
+        <v>553536</v>
       </c>
       <c r="O6" s="148">
         <f>PLANTILLA!I8</f>
@@ -13271,63 +13271,63 @@
       </c>
       <c r="AE6" s="40">
         <f t="shared" ref="AE6" ca="1" si="29">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.516),((S6+(((TODAY()-E6)^0.5)/(336^0.516))+(LOG(O6)*4/3))*0.516))</f>
-        <v>8.2051803634861464</v>
+        <v>8.2061219431633941</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" ca="1" si="30">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*1),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>15.967458506132262</v>
+        <v>15.969461265644277</v>
       </c>
       <c r="AG6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.238),((T6+(((TODAY()-E6)^0.5)/(336^0.238))+(LOG(O6)*4/3))*0.238))</f>
-        <v>1.8211773988559785</v>
+        <v>1.8233656978001249</v>
       </c>
       <c r="AH6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.92),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.92))</f>
-        <v>14.690061825641681</v>
+        <v>14.691904364392736</v>
       </c>
       <c r="AI6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.414),((S6+(((TODAY()-E6)^0.5)/(336^0.414))+(LOG(O6)*4/3))*0.414))</f>
-        <v>6.8099504232944854</v>
+        <v>6.8113178193477397</v>
       </c>
       <c r="AJ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.167),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.167))</f>
-        <v>0.83290557052408776</v>
+        <v>0.83324003136259428</v>
       </c>
       <c r="AK6" s="213">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*0.588),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.588))</f>
-        <v>2.9267456016057691</v>
+        <v>2.9279232241988349</v>
       </c>
       <c r="AL6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.4),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.4))</f>
-        <v>6.3869834024529055</v>
+        <v>6.3877845062577112</v>
       </c>
       <c r="AM6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*1),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>4.9874585061322616</v>
+        <v>4.9894612656442767</v>
       </c>
       <c r="AN6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((W6+1+(LOG(O6)*4/3))*0.21)+((V6+1+(LOG(O6)*4/3))*0.341),((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.21)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.341))</f>
-        <v>5.1274796368788769</v>
+        <v>5.1285831573699969</v>
       </c>
       <c r="AO6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.305),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.305))</f>
-        <v>1.5211748443703397</v>
+        <v>1.5217856860215044</v>
       </c>
       <c r="AP6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*1)+((V6+1+(LOG(O6)*4/3))*0.286),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.286))</f>
-        <v>8.4030116388860883</v>
+        <v>8.40558718761854</v>
       </c>
       <c r="AQ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.406),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.406))</f>
-        <v>2.0249081534896982</v>
+        <v>2.0257212738515764</v>
       </c>
       <c r="AR6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.15)+((V6+1+(LOG(O6)*4/3))*0.324)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.15)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.324)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.144)+((W6+1+(LOG(O6)*4/3))*0.25)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.144)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.25)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)))</f>
-        <v>4.3419858816949084</v>
+        <v>4.3430293194006682</v>
       </c>
       <c r="AS6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)))</f>
-        <v>9.3997882779049267</v>
+        <v>9.402043385115455</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B7" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>510026.66666666686</v>
+        <v>509519.74440894579</v>
       </c>
       <c r="C7" s="145">
         <v>29</v>
@@ -13358,18 +13358,18 @@
       </c>
       <c r="H7" s="166">
         <f ca="1">PLANTILLA!F9</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J7" s="165">
         <v>3200000</v>
       </c>
       <c r="K7" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7857142857142856</v>
+        <v>2.7946428571428572</v>
       </c>
       <c r="L7" s="74">
         <f t="shared" si="3"/>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="N7" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>978788.57142857148</v>
+        <v>981925.71428571432</v>
       </c>
       <c r="O7" s="148">
         <f>PLANTILLA!I9</f>
@@ -13449,63 +13449,63 @@
       </c>
       <c r="AE7" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>8.9215316439746282</v>
+        <v>8.922257087763942</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>17.375430870818359</v>
+        <v>17.376973904811752</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" ref="AG7:AG16" ca="1" si="31">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.238),((T7+(((TODAY()-E7)^0.5)/(336^0.238))+(LOG(O7)*4/3))*0.238))</f>
-        <v>4.2381060820463823</v>
+        <v>4.2397920656296648</v>
       </c>
       <c r="AH7" s="40">
         <f t="shared" ref="AH7:AH16" ca="1" si="32">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.92),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.92))</f>
-        <v>15.985396401152892</v>
+        <v>15.986815992426813</v>
       </c>
       <c r="AI7" s="40">
         <f t="shared" ref="AI7:AI16" ca="1" si="33">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.414),((S7+(((TODAY()-E7)^0.5)/(336^0.414))+(LOG(O7)*4/3))*0.414))</f>
-        <v>7.4524081325855169</v>
+        <v>7.4534616482871998</v>
       </c>
       <c r="AJ7" s="40">
         <f t="shared" ref="AJ7:AJ16" ca="1" si="34">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.167),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.167))</f>
-        <v>2.3959255268552373</v>
+        <v>2.3961832135321339</v>
       </c>
       <c r="AK7" s="213">
         <f t="shared" ref="AK7:AK16" ca="1" si="35">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*0.588),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.588))</f>
-        <v>2.5618333520411944</v>
+        <v>2.5627406560293089</v>
       </c>
       <c r="AL7" s="40">
         <f t="shared" ref="AL7:AL16" ca="1" si="36">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.4),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.4))</f>
-        <v>6.9501723483273441</v>
+        <v>6.9507895619247009</v>
       </c>
       <c r="AM7" s="40">
         <f t="shared" ref="AM7:AM16" ca="1" si="37">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*1),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1))</f>
-        <v>14.346859442246929</v>
+        <v>14.348402476240322</v>
       </c>
       <c r="AN7" s="40">
         <f t="shared" ref="AN7:AN16" ca="1" si="38">IF(TODAY()-E7&gt;335,((W7+1+(LOG(O7)*4/3))*0.21)+((V7+1+(LOG(O7)*4/3))*0.341),((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.21)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.341))</f>
-        <v>4.5769638383923441</v>
+        <v>4.5778140501227025</v>
       </c>
       <c r="AO7" s="40">
         <f t="shared" ref="AO7:AO16" ca="1" si="39">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.305),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.305))</f>
-        <v>4.3757921298853129</v>
+        <v>4.3762627552532978</v>
       </c>
       <c r="AP7" s="40">
         <f t="shared" ref="AP7:AP16" ca="1" si="40">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*1)+((V7+1+(LOG(O7)*4/3))*0.286),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.286))</f>
-        <v>7.0794983855866942</v>
+        <v>7.0814827273021965</v>
       </c>
       <c r="AQ7" s="40">
         <f t="shared" ref="AQ7:AQ16" ca="1" si="41">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.406),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.406))</f>
-        <v>5.8248249335522537</v>
+        <v>5.8254514053535713</v>
       </c>
       <c r="AR7" s="40">
         <f t="shared" ref="AR7:AR16" ca="1" si="42">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.15)+((V7+1+(LOG(O7)*4/3))*0.324)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.15)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.324)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.144)+((W7+1+(LOG(O7)*4/3))*0.25)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.144)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.25)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)))</f>
-        <v>3.8120980551249364</v>
+        <v>3.812901975835493</v>
       </c>
       <c r="AS7" s="40">
         <f t="shared" ref="AS7:AS16" ca="1" si="43">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)))</f>
-        <v>8.8635951605414718</v>
+        <v>8.86533261681803</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B8" s="73">
         <f ca="1">(N8+F8-J8)/K8</f>
-        <v>576503.70370370371</v>
+        <v>576223.15789473685</v>
       </c>
       <c r="C8" s="145">
         <v>30</v>
@@ -13536,18 +13536,18 @@
       </c>
       <c r="H8" s="145">
         <f ca="1">PLANTILLA!F10</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="49">
         <f ca="1">E8+(H8-D8+(G8-C8)*112)</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J8" s="165">
         <v>3160050</v>
       </c>
       <c r="K8" s="40">
         <f ca="1">(I8-E8)/112</f>
-        <v>1.6875</v>
+        <v>1.6964285714285714</v>
       </c>
       <c r="L8" s="74">
         <f>J8-F8</f>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="N8" s="76">
         <f ca="1">((G8-C8)*M8*16)+(H8-D8)/7*M8</f>
-        <v>882900</v>
+        <v>887571.42857142864</v>
       </c>
       <c r="O8" s="148">
         <f>PLANTILLA!I10</f>
@@ -13627,63 +13627,63 @@
       </c>
       <c r="AE8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.516),((S8+(((TODAY()-E8)^0.5)/(336^0.516))+(LOG(O8)*4/3))*0.516))</f>
-        <v>7.2076918941156114</v>
+        <v>7.2086234832395419</v>
       </c>
       <c r="AF8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*1),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>14.03505043646074</v>
+        <v>14.037031945858537</v>
       </c>
       <c r="AG8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.238),((T8+(((TODAY()-E8)^0.5)/(336^0.238))+(LOG(O8)*4/3))*0.238))</f>
-        <v>4.7048434235206784</v>
+        <v>4.7070085036998028</v>
       </c>
       <c r="AH8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.92),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.92))</f>
-        <v>12.91224640154388</v>
+        <v>12.914069390189855</v>
       </c>
       <c r="AI8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.414),((S8+(((TODAY()-E8)^0.5)/(336^0.414))+(LOG(O8)*4/3))*0.414))</f>
-        <v>6.012077873155687</v>
+        <v>6.0134307605661723</v>
       </c>
       <c r="AJ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.167),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.167))</f>
-        <v>2.8515334228889437</v>
+        <v>2.8518643349583757</v>
       </c>
       <c r="AK8" s="213">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*0.588),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.588))</f>
-        <v>2.3784896566389153</v>
+        <v>2.3796547841648201</v>
       </c>
       <c r="AL8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.4),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.4))</f>
-        <v>5.6140201745842964</v>
+        <v>5.6148127783434152</v>
       </c>
       <c r="AM8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*1),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>17.075050436460739</v>
+        <v>17.077031945858536</v>
       </c>
       <c r="AN8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((W8+1+(LOG(O8)*4/3))*0.21)+((V8+1+(LOG(O8)*4/3))*0.341),((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.21)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.341))</f>
-        <v>4.4232839016009784</v>
+        <v>4.424375713279165</v>
       </c>
       <c r="AO8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.305),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.305))</f>
-        <v>5.2078903831205254</v>
+        <v>5.2084947434868534</v>
       </c>
       <c r="AP8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*1)+((V8+1+(LOG(O8)*4/3))*0.286),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.286))</f>
-        <v>7.0148570835107336</v>
+        <v>7.0174053045963012</v>
       </c>
       <c r="AQ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.406),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.406))</f>
-        <v>6.9324704772030605</v>
+        <v>6.9332749700185659</v>
       </c>
       <c r="AR8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.15)+((V8+1+(LOG(O8)*4/3))*0.324)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.15)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.324)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.144)+((W8+1+(LOG(O8)*4/3))*0.25)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.144)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.25)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)))</f>
-        <v>3.7120901662849342</v>
+        <v>3.7131225326811865</v>
       </c>
       <c r="AS8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)))</f>
-        <v>8.0880801247881262</v>
+        <v>8.0903113043700472</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B9" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>535811.24050632899</v>
+        <v>535220.89589905355</v>
       </c>
       <c r="C9" s="145">
         <v>29</v>
@@ -13714,18 +13714,18 @@
       </c>
       <c r="H9" s="166">
         <f ca="1">PLANTILLA!F11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J9" s="165">
         <v>1640000</v>
       </c>
       <c r="K9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8214285714285716</v>
+        <v>2.8303571428571428</v>
       </c>
       <c r="L9" s="74">
         <f t="shared" si="3"/>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="N9" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>983753.14285714284</v>
+        <v>986866.28571428568</v>
       </c>
       <c r="O9" s="148">
         <f>PLANTILLA!I11</f>
@@ -13805,63 +13805,63 @@
       </c>
       <c r="AE9" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7486300906901091</v>
+        <v>3.7493509357344812</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3509750921074728</v>
+        <v>7.3525083444749466</v>
       </c>
       <c r="AG9" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>4.7656613164967281</v>
+        <v>4.767336612265753</v>
       </c>
       <c r="AH9" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>6.7628970847388752</v>
+        <v>6.7643076769169515</v>
       </c>
       <c r="AI9" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>3.3039382797339596</v>
+        <v>3.3049851169719546</v>
       </c>
       <c r="AJ9" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.7624083305780269</v>
+        <v>2.7626643837233953</v>
       </c>
       <c r="AK9" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>4.310843942394488</v>
+        <v>4.3117454947865621</v>
       </c>
       <c r="AL9" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.9403900368429894</v>
+        <v>2.9410033377899789</v>
       </c>
       <c r="AM9" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>16.541367248970221</v>
+        <v>16.542900501337694</v>
       </c>
       <c r="AN9" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>6.2344960525952882</v>
+        <v>6.2353408746497658</v>
       </c>
       <c r="AO9" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>5.0451170109359174</v>
+        <v>5.0455846529079968</v>
       </c>
       <c r="AP9" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>11.549077964715382</v>
+        <v>11.551049727259953</v>
       </c>
       <c r="AQ9" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>6.7157951030819101</v>
+        <v>6.7164176035431042</v>
       </c>
       <c r="AR9" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.4716805906817365</v>
+        <v>5.472479415165191</v>
       </c>
       <c r="AS9" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>11.354968569959512</v>
+        <v>11.356695012125288</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="B10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-17969.417721519174</v>
+        <v>-13095.999999999627</v>
       </c>
       <c r="C10" s="145">
         <v>29</v>
@@ -13891,18 +13891,18 @@
       </c>
       <c r="H10" s="166">
         <f ca="1">PLANTILLA!F12</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J10" s="165">
         <v>4125000</v>
       </c>
       <c r="K10" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7053571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10" s="74">
         <f t="shared" si="3"/>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="N10" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>262325.1428571429</v>
+        <v>265645.71428571432</v>
       </c>
       <c r="O10" s="148">
         <f>PLANTILLA!I12</f>
@@ -13982,63 +13982,63 @@
       </c>
       <c r="AE10" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8002740294229918</v>
+        <v>1.8017123219430182</v>
       </c>
       <c r="AF10" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5319972051195063</v>
+        <v>3.5350564831552895</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.8784323813484423</v>
+        <v>3.8817750766922372</v>
       </c>
       <c r="AH10" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>3.2494374287099461</v>
+        <v>3.2522519645028667</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>1.5925641387202085</v>
+        <v>1.5946528791240557</v>
       </c>
       <c r="AJ10" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.4306389878004122</v>
+        <v>2.431149887232388</v>
       </c>
       <c r="AK10" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.1368069492028621</v>
+        <v>9.1386058046879022</v>
       </c>
       <c r="AL10" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4127988820478026</v>
+        <v>1.414022593262116</v>
       </c>
       <c r="AM10" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.554724477846779</v>
+        <v>14.557783755882562</v>
       </c>
       <c r="AN10" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.103731848909737</v>
+        <v>4.1054175111074533</v>
       </c>
       <c r="AO10" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.4391909657432675</v>
+        <v>4.4401240455441817</v>
       </c>
       <c r="AP10" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>17.828391307018251</v>
+        <v>17.83232553857227</v>
       </c>
       <c r="AQ10" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.9092181380057927</v>
+        <v>5.910460204888321</v>
       </c>
       <c r="AR10" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.0698210994228177</v>
+        <v>5.0714149832794613</v>
       </c>
       <c r="AS10" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.1610296862978977</v>
+        <v>8.1644744333661894</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B11" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-164081.23076923078</v>
+        <v>-161727.30054644818</v>
       </c>
       <c r="C11" s="145">
         <v>30</v>
@@ -14069,18 +14069,18 @@
       </c>
       <c r="H11" s="166">
         <f ca="1">PLANTILLA!F13</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J11" s="165">
         <v>3110000</v>
       </c>
       <c r="K11" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.625</v>
+        <v>1.6339285714285714</v>
       </c>
       <c r="L11" s="74">
         <f t="shared" si="3"/>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="N11" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>433368</v>
+        <v>435749.14285714284</v>
       </c>
       <c r="O11" s="148">
         <f>PLANTILLA!I13</f>
@@ -14160,63 +14160,63 @@
       </c>
       <c r="AE11" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0564037696021722</v>
+        <v>3.0573530567736351</v>
       </c>
       <c r="AF11" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9886724090188119</v>
+        <v>5.9906915625309614</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.9637125262607373</v>
+        <v>3.9659187379762209</v>
       </c>
       <c r="AH11" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5095786162973068</v>
+        <v>5.5114362375284847</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>2.6771094302182261</v>
+        <v>2.6784880193732703</v>
       </c>
       <c r="AJ11" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.3399037468515962</v>
+        <v>2.3402409454881257</v>
       </c>
       <c r="AK11" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.440539376503061</v>
+        <v>9.4417266387682055</v>
       </c>
       <c r="AL11" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.395468963607525</v>
+        <v>2.3962766250123848</v>
       </c>
       <c r="AM11" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.011399681746084</v>
+        <v>14.013418835258236</v>
       </c>
       <c r="AN11" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.626358497369365</v>
+        <v>4.6274710509545596</v>
       </c>
       <c r="AO11" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.2734769029325559</v>
+        <v>4.2740927447537613</v>
       </c>
       <c r="AP11" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>19.055099384664857</v>
+        <v>19.057696016081483</v>
       </c>
       <c r="AQ11" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.6886282707889109</v>
+        <v>5.6894480471148441</v>
       </c>
       <c r="AR11" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.5689683250987994</v>
+        <v>5.5700203040786302</v>
       </c>
       <c r="AS11" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.6095751325551824</v>
+        <v>8.6118486994098618</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="B12" s="73">
         <f t="shared" ref="B12" ca="1" si="44">(N12+F12-J12)/K12</f>
-        <v>299630.78362573101</v>
+        <v>299584</v>
       </c>
       <c r="C12" s="145">
         <v>29</v>
@@ -14247,18 +14247,18 @@
       </c>
       <c r="H12" s="166">
         <f ca="1">PLANTILLA!F14</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="49">
         <f t="shared" ref="I12" ca="1" si="45">E12+(H12-D12+(G12-C12)*112)</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J12" s="165">
         <v>3000000</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" ref="K12" ca="1" si="46">(I12-E12)/112</f>
-        <v>3.0535714285714284</v>
+        <v>3.0625</v>
       </c>
       <c r="L12" s="74">
         <f t="shared" ref="L12" si="47">J12-F12</f>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="N12" s="76">
         <f t="shared" ref="N12" ca="1" si="48">((G12-C12)*M12*16)+(H12-D12)/7*M12</f>
-        <v>865944</v>
+        <v>868476</v>
       </c>
       <c r="O12" s="148">
         <f>PLANTILLA!I14</f>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="B13" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-4624.0248833592768</v>
+        <v>-3866.4347826086955</v>
       </c>
       <c r="C13" s="145">
         <v>24</v>
@@ -14425,18 +14425,18 @@
       </c>
       <c r="H13" s="166">
         <f ca="1">PLANTILLA!F15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J13" s="165">
         <v>5200000</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7410714285714288</v>
+        <v>5.75</v>
       </c>
       <c r="L13" s="74">
         <f t="shared" si="3"/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="N13" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>2774453.1428571427</v>
+        <v>2778768</v>
       </c>
       <c r="O13" s="148">
         <f>PLANTILLA!I15</f>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="B14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>146433.39498018497</v>
+        <v>146833.13984168868</v>
       </c>
       <c r="C14" s="145">
         <v>22</v>
@@ -14603,18 +14603,18 @@
       </c>
       <c r="H14" s="166">
         <f ca="1">PLANTILLA!F16</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J14" s="165">
         <v>4910000</v>
       </c>
       <c r="K14" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7589285714285712</v>
+        <v>6.7678571428571432</v>
       </c>
       <c r="L14" s="74">
         <f t="shared" si="3"/>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="N14" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3037732.8571428573</v>
+        <v>3041745.7142857141</v>
       </c>
       <c r="O14" s="148">
         <f>PLANTILLA!I16</f>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="B15" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>153764.45360824742</v>
+        <v>154204.82882882882</v>
       </c>
       <c r="C15" s="145">
         <v>23</v>
@@ -14781,18 +14781,18 @@
       </c>
       <c r="H15" s="166">
         <f ca="1">PLANTILLA!F17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J15" s="165">
         <v>4910760</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9285714285714288</v>
+        <v>6.9375</v>
       </c>
       <c r="L15" s="74">
         <f t="shared" si="3"/>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="N15" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3436128</v>
+        <v>3440556</v>
       </c>
       <c r="O15" s="148">
         <f>PLANTILLA!I17</f>
@@ -14938,7 +14938,7 @@
       </c>
       <c r="B16" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-126478.47522236338</v>
+        <v>-125682.03045685281</v>
       </c>
       <c r="C16" s="145">
         <v>22</v>
@@ -14959,18 +14959,18 @@
       </c>
       <c r="H16" s="166">
         <f ca="1">PLANTILLA!F18</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="J16" s="165">
         <v>7062000</v>
       </c>
       <c r="K16" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0267857142857144</v>
+        <v>7.0357142857142856</v>
       </c>
       <c r="L16" s="74">
         <f t="shared" si="3"/>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="N16" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3521262.8571428573</v>
+        <v>3525737.1428571427</v>
       </c>
       <c r="O16" s="148">
         <f>PLANTILLA!I18</f>
@@ -38943,13 +38943,13 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="119"/>
       <c r="B1" s="155"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
       <c r="V1" s="119"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -39240,7 +39240,7 @@
       </c>
       <c r="U8" s="128">
         <f ca="1">PLANTILLA!F4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V8" s="128"/>
       <c r="W8" s="123">
@@ -39334,7 +39334,7 @@
       </c>
       <c r="U9" s="128">
         <f ca="1">PLANTILLA!F5</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V9" s="128" t="str">
         <f>PLANTILLA!G5</f>
@@ -39431,7 +39431,7 @@
       </c>
       <c r="U10" s="128">
         <f ca="1">PLANTILLA!F6</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" s="128"/>
       <c r="W10" s="123">
@@ -39525,7 +39525,7 @@
       </c>
       <c r="U11" s="130">
         <f ca="1">PLANTILLA!F8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V11" s="128"/>
       <c r="W11" s="123">
@@ -39619,7 +39619,7 @@
       </c>
       <c r="U12" s="130">
         <f ca="1">PLANTILLA!F10</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V12" s="128" t="str">
         <f>PLANTILLA!G10</f>
@@ -39716,7 +39716,7 @@
       </c>
       <c r="U13" s="128">
         <f ca="1">PLANTILLA!F9</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" s="128" t="str">
         <f>PLANTILLA!G9</f>
@@ -39813,7 +39813,7 @@
       </c>
       <c r="U14" s="130">
         <f ca="1">PLANTILLA!F7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V14" s="128"/>
       <c r="W14" s="123">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="U15" s="130">
         <f ca="1">PLANTILLA!F13</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" s="128"/>
       <c r="W15" s="123">
@@ -40001,7 +40001,7 @@
       </c>
       <c r="U16" s="130">
         <f ca="1">PLANTILLA!F14</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V16" s="128" t="str">
         <f>PLANTILLA!G14</f>
@@ -40099,7 +40099,7 @@
       </c>
       <c r="U17" s="130">
         <f ca="1">PLANTILLA!F11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V17" s="128" t="str">
         <f>PLANTILLA!G11</f>
@@ -40196,7 +40196,7 @@
       </c>
       <c r="U18" s="130">
         <f ca="1">PLANTILLA!F12</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V18" s="128" t="str">
         <f>PLANTILLA!G12</f>
@@ -40293,7 +40293,7 @@
       </c>
       <c r="U19" s="130">
         <f ca="1">PLANTILLA!F18</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V19" s="128" t="str">
         <f>PLANTILLA!G18</f>
@@ -40390,7 +40390,7 @@
       </c>
       <c r="U20" s="130">
         <f ca="1">PLANTILLA!F15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20" s="128" t="str">
         <f>PLANTILLA!G15</f>
@@ -40487,7 +40487,7 @@
       </c>
       <c r="U21" s="130">
         <f ca="1">PLANTILLA!F16</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V21" s="128" t="str">
         <f>PLANTILLA!G16</f>
@@ -40584,7 +40584,7 @@
       </c>
       <c r="U22" s="130">
         <f ca="1">PLANTILLA!F17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" s="128" t="str">
         <f>PLANTILLA!G17</f>
@@ -40664,11 +40664,11 @@
   </sheetPr>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40721,7 +40721,7 @@
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" s="33">
         <f ca="1">TODAY()</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="I2" s="35">
         <f>AVERAGE(I4:I18)</f>
@@ -40730,7 +40730,7 @@
       <c r="J2" s="35"/>
       <c r="N2" s="40">
         <f ca="1">AVERAGE(N4:N18)</f>
-        <v>0.83019664181149266</v>
+        <v>0.83162013378559108</v>
       </c>
       <c r="O2" s="35">
         <f>AVERAGE(O4:O18)</f>
@@ -40933,7 +40933,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">((33*112)-(E4*112)-(F4))/112</f>
-        <v>2.8303571428571428</v>
+        <v>2.8214285714285716</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>47</v>
@@ -40943,7 +40943,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">17+D2-D1-112-112-112-112-112-112-112</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="5">
@@ -41092,7 +41092,7 @@
       </c>
       <c r="C5" s="138">
         <f t="shared" ref="C5:C18" ca="1" si="3">((33*112)-(E5*112)-(F5))/112</f>
-        <v>1.0982142857142858</v>
+        <v>1.0892857142857142</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>261</v>
@@ -41102,7 +41102,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">72+D2-D1-112-112-112-112-112+17-112-112+10</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>74</v>
@@ -41130,7 +41130,7 @@
       </c>
       <c r="N5" s="154">
         <f t="shared" ref="N5:N18" ca="1" si="5">IF((TODAY()-M5)&gt;335,1,((TODAY()-M5)^0.64)/(336^0.64))</f>
-        <v>0.77584017284391016</v>
+        <v>0.77803549598249677</v>
       </c>
       <c r="O5" s="21">
         <v>7.2</v>
@@ -41196,35 +41196,35 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="25">
         <f t="shared" ref="AG5:AG18" ca="1" si="10">(AD5+1+(LOG(I5)*4/3)+N5)*(Q5/7)^0.5</f>
-        <v>17.058114196476385</v>
+        <v>17.060146670763583</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ref="AH5:AH18" ca="1" si="11">(AD5+1+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>18.424869151865568</v>
+        <v>18.427064475004155</v>
       </c>
       <c r="AI5" s="137">
         <f t="shared" ref="AI5:AI18" ca="1" si="12">(Z5+N5+(LOG(I5)*4/3))*(Q5/7)^0.5</f>
-        <v>8.5189668095742199</v>
+        <v>8.5209992838614195</v>
       </c>
       <c r="AJ5" s="137">
         <f t="shared" ref="AJ5:AJ18" ca="1" si="13">(Z5+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>9.2015358185322356</v>
+        <v>9.2037311416708221</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" ref="AK5:AK18" ca="1" si="14">(((Y5+LOG(I5)*4/3+N5)+(AB5+LOG(I5)*4/3+N5)*2)/8)*(Q5/7)^0.5</f>
-        <v>3.9757732627734228</v>
+        <v>3.9765354406311224</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" ref="AL5:AL18" ca="1" si="15">(AD5+LOG(I5)*4/3+N5)*0.7+(AC5+LOG(I5)*4/3+N5)*0.3</f>
-        <v>13.427869151865568</v>
+        <v>13.430064475004155</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ref="AM5:AM18" ca="1" si="16">(0.5*(AC5+LOG(I5)*4/3+N5)+ 0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>0.72782286548257891</v>
+        <v>0.7279984913336659</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ref="AN5:AN18" ca="1" si="17">(0.4*(Y5+LOG(I5)*4/3+N5)+0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>1.1664075072972566</v>
+        <v>1.1665611799169575</v>
       </c>
       <c r="AO5" s="22">
         <v>2</v>
@@ -41252,7 +41252,7 @@
       </c>
       <c r="C6" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2946428571428572</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>260</v>
@@ -41262,7 +41262,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">16+D2-D1-112-51-112-112-112-112-112</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="N6" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83816317869628709</v>
+        <v>0.84026532165091627</v>
       </c>
       <c r="O6" s="27">
         <v>7.1</v>
@@ -41354,35 +41354,35 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>12.143875811923969</v>
+        <v>12.14582201812396</v>
       </c>
       <c r="AH6" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>13.116885035124412</v>
+        <v>13.11898717807904</v>
       </c>
       <c r="AI6" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9039626317026181</v>
+        <v>4.9059088379026088</v>
       </c>
       <c r="AJ6" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2968850351244123</v>
+        <v>5.2989871780790416</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3352284309002229</v>
+        <v>4.3359582582252196</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>10.319885035124411</v>
+        <v>10.32198717807904</v>
       </c>
       <c r="AM6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.66985080280995291</v>
+        <v>0.67001897424632317</v>
       </c>
       <c r="AN6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.97018195245870886</v>
+        <v>0.97032910246553283</v>
       </c>
       <c r="AO6" s="22">
         <v>3</v>
@@ -41410,7 +41410,7 @@
       </c>
       <c r="C7" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7946428571428572</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>263</v>
@@ -41420,7 +41420,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">8-659+D2-D1-112</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
@@ -41446,7 +41446,7 @@
       </c>
       <c r="N7" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47790174493713611</v>
+        <v>0.48078231046272396</v>
       </c>
       <c r="O7" s="27">
         <v>7</v>
@@ -41512,35 +41512,35 @@
       <c r="AF7" s="10"/>
       <c r="AG7" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.761048925516146</v>
+        <v>14.763715810978448</v>
       </c>
       <c r="AH7" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.943755087130352</v>
+        <v>15.946635652655941</v>
       </c>
       <c r="AI7" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2620204096041254</v>
+        <v>6.2646872950664259</v>
       </c>
       <c r="AJ7" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>6.7637550871303525</v>
+        <v>6.7666356526559399</v>
       </c>
       <c r="AK7" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3156253656182191</v>
+        <v>4.3166254476665813</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>11.286755087130352</v>
+        <v>11.28963565265594</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5860004069704281</v>
+        <v>0.58623085221247528</v>
       </c>
       <c r="AN7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0780628560991246</v>
+        <v>1.0782644956859158</v>
       </c>
       <c r="AO7" s="22">
         <v>2</v>
@@ -41568,7 +41568,7 @@
       </c>
       <c r="C8" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9464285714285714</v>
+        <v>1.9375</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>262</v>
@@ -41578,7 +41578,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">8-659-17+D2-D1-112</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
@@ -41604,7 +41604,7 @@
       </c>
       <c r="N8" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68254732455041356</v>
+        <v>0.68490627753332978</v>
       </c>
       <c r="O8" s="27">
         <v>7</v>
@@ -41668,35 +41668,35 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>16.825318040776523</v>
+        <v>16.827311719926737</v>
       </c>
       <c r="AH8" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>18.431212456263854</v>
+        <v>18.433396422349855</v>
       </c>
       <c r="AI8" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.1649073049433447</v>
+        <v>4.1669009840935605</v>
       </c>
       <c r="AJ8" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5624273616710349</v>
+        <v>4.5646113277570368</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.198721514106726</v>
+        <v>4.1994691437880567</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.707984781051843</v>
+        <v>14.71034373403476</v>
       </c>
       <c r="AM8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81263878248414767</v>
+        <v>0.81282749872278082</v>
       </c>
       <c r="AN8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2035589346736291</v>
+        <v>1.2037240613824334</v>
       </c>
       <c r="AO8" s="22">
         <v>1</v>
@@ -41724,7 +41724,7 @@
       </c>
       <c r="C9" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48214285714285715</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>259</v>
@@ -41734,7 +41734,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112-41-112-112-112</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -41762,7 +41762,7 @@
       </c>
       <c r="N9" s="154">
         <f ca="1">IF((TODAY()-M9)&gt;335,1,((TODAY()-M9)^0.64)/(336^0.64))</f>
-        <v>0.95367808443456226</v>
+        <v>0.95563322019551677</v>
       </c>
       <c r="O9" s="27">
         <v>6.9</v>
@@ -41827,35 +41827,35 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.990427838457196</v>
+        <v>14.99208022976414</v>
       </c>
       <c r="AH9" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>16.421190947552827</v>
+        <v>16.423001051538105</v>
       </c>
       <c r="AI9" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.116903372380241</v>
+        <v>12.118555763687183</v>
       </c>
       <c r="AJ9" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.273402608326155</v>
+        <v>13.275212712311431</v>
       </c>
       <c r="AK9" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8438699372442224</v>
+        <v>3.8444895839843261</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>13.61391341502206</v>
+        <v>13.615868550783013</v>
       </c>
       <c r="AM9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81845307320176486</v>
+        <v>0.81860948406264122</v>
       </c>
       <c r="AN9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1967267961944015</v>
+        <v>1.1968636556976682</v>
       </c>
       <c r="AO9" s="22">
         <v>3</v>
@@ -41883,7 +41883,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">((33*112)-(E10*112)-(F10))/112</f>
-        <v>1.1696428571428572</v>
+        <v>1.1607142857142858</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>432</v>
@@ -41893,7 +41893,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-112-30-112</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>200</v>
@@ -41921,7 +41921,7 @@
       </c>
       <c r="N10" s="154">
         <f ca="1">IF((TODAY()-M10)&gt;335,1,((TODAY()-M10)^0.64)/(336^0.64))</f>
-        <v>0.69195590067854806</v>
+        <v>0.69429680555330131</v>
       </c>
       <c r="O10" s="21">
         <v>7</v>
@@ -41987,35 +41987,35 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>10.533061142163247</v>
+        <v>10.535228398947948</v>
       </c>
       <c r="AH10" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>11.377006337139289</v>
+        <v>11.379347242014042</v>
       </c>
       <c r="AI10" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>15.754686504880436</v>
+        <v>15.756853761665139</v>
       </c>
       <c r="AJ10" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>17.017006337139289</v>
+        <v>17.019347242014042</v>
       </c>
       <c r="AK10" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0075045122970643</v>
+        <v>4.0083172335913284</v>
       </c>
       <c r="AL10" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5070063371392877</v>
+        <v>8.5093472420140408</v>
       </c>
       <c r="AM10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.51849384030447632</v>
+        <v>0.5186811126944566</v>
       </c>
       <c r="AN10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.87039044359975004</v>
+        <v>0.8705543069409829</v>
       </c>
       <c r="AO10" s="22">
         <v>2</v>
@@ -42043,7 +42043,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">((33*112)-(E11*112)-(F11))/112</f>
-        <v>0.9107142857142857</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>258</v>
@@ -42053,7 +42053,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-1-112-112-112</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="N11" s="154">
         <f ca="1">IF((TODAY()-M11)&gt;335,1,((TODAY()-M11)^0.64)/(336^0.64))</f>
-        <v>0.96148518173817332</v>
+        <v>0.96343138585877064</v>
       </c>
       <c r="O11" s="27">
         <v>6.9</v>
@@ -42148,35 +42148,35 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.102915999053469</v>
+        <v>14.104387191083088</v>
       </c>
       <c r="AH11" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.76753942742646</v>
+        <v>15.769184270119554</v>
       </c>
       <c r="AI11" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.497826870340955</v>
+        <v>12.499298062370574</v>
       </c>
       <c r="AJ11" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.972995226552914</v>
+        <v>13.974640069246005</v>
       </c>
       <c r="AK11" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4792165142650715</v>
+        <v>3.4797682112761792</v>
       </c>
       <c r="AL11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.079404247164755</v>
+        <v>14.081350451285351</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81634567310651396</v>
+        <v>0.81650136943616158</v>
       </c>
       <c r="AN11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.82339927769368981</v>
+        <v>0.8235355119821316</v>
       </c>
       <c r="AO11" s="22">
         <v>1</v>
@@ -42204,7 +42204,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">((33*112)-(E12*112)-(F12))/112</f>
-        <v>3.0803571428571428</v>
+        <v>3.0714285714285716</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>264</v>
@@ -42214,7 +42214,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">8-659-32+D2-D1</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -42242,7 +42242,7 @@
       </c>
       <c r="N12" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39593527945771984</v>
+        <v>0.39913558962999812</v>
       </c>
       <c r="O12" s="27">
         <v>7</v>
@@ -42308,35 +42308,35 @@
       <c r="AF12" s="10"/>
       <c r="AG12" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9559556937662752</v>
+        <v>1.9583749008617375</v>
       </c>
       <c r="AH12" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1868249461195766</v>
+        <v>2.1895297018781288</v>
       </c>
       <c r="AI12" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>10.93509351265922</v>
+        <v>10.937512719754681</v>
       </c>
       <c r="AJ12" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>12.225806217311487</v>
+        <v>12.228510973070039</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8214436217062746</v>
+        <v>1.8223508243670732</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0471528372498531</v>
+        <v>3.0503531474221317</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37027667142443266</v>
+        <v>0.370532696238215</v>
       </c>
       <c r="AN12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18534625416304532</v>
+        <v>0.18557027587510477</v>
       </c>
       <c r="AO12" s="22">
         <v>1</v>
@@ -42364,7 +42364,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">((33*112)-(E13*112)-(F13))/112</f>
-        <v>1.3392857142857142</v>
+        <v>1.3303571428571428</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>265</v>
@@ -42374,7 +42374,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
@@ -42400,7 +42400,7 @@
       </c>
       <c r="N13" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6754427598356405</v>
+        <v>0.67781559991681128</v>
       </c>
       <c r="O13" s="27">
         <v>7</v>
@@ -42466,35 +42466,35 @@
       <c r="AF13" s="10"/>
       <c r="AG13" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4281350966604656</v>
+        <v>8.4305079367416358</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4281350966604656</v>
+        <v>8.4305079367416358</v>
       </c>
       <c r="AI13" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>13.950862369387739</v>
+        <v>13.953235209468911</v>
       </c>
       <c r="AJ13" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.950862369387739</v>
+        <v>13.953235209468911</v>
       </c>
       <c r="AK13" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3480506612476737</v>
+        <v>3.3489404762781128</v>
       </c>
       <c r="AL13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6811350966604648</v>
+        <v>6.6835079367416359</v>
       </c>
       <c r="AM13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.46975080773283723</v>
+        <v>0.46994063493933086</v>
       </c>
       <c r="AN13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45996945676623258</v>
+        <v>0.46013555557191455</v>
       </c>
       <c r="AO13" s="22">
         <v>3</v>
@@ -42522,7 +42522,7 @@
       </c>
       <c r="C14" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11607142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>257</v>
@@ -42532,7 +42532,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">-35+D2-D1-67-112-112-112+87-112-112-112</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>0</v>
@@ -42682,7 +42682,7 @@
       </c>
       <c r="C15" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9910714285714284</v>
+        <v>2.9821428571428572</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>198</v>
@@ -42692,7 +42692,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">-35+D2-D1-67-11-112-112-112-112-112-112</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>0</v>
@@ -42841,7 +42841,7 @@
       </c>
       <c r="C16" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4285714285714284</v>
+        <v>3.4196428571428572</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>73</v>
@@ -42851,7 +42851,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">62+D2-D1-112-112-112-112-112-112-112</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>74</v>
@@ -43002,7 +43002,7 @@
       </c>
       <c r="C17" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9732142857142856</v>
+        <v>2.9642857142857144</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -43012,7 +43012,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">1+D2-D1-112-112-112-112-112-112-112</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>45</v>
@@ -43162,7 +43162,7 @@
       </c>
       <c r="C18" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4642857142857144</v>
+        <v>3.4553571428571428</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -43172,7 +43172,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">58++D2-D1-112-112-112-112-112-112-112</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
@@ -43323,7 +43323,7 @@
       </c>
       <c r="C19" s="138">
         <f ca="1">((33*112)-(E19*112)-(F19))/112</f>
-        <v>15.875</v>
+        <v>15.866071428571429</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>416</v>
@@ -43333,7 +43333,7 @@
       </c>
       <c r="F19" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-62</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>45</v>
@@ -43480,7 +43480,7 @@
       </c>
       <c r="C20" s="138">
         <f ca="1">((33*112)-(E20*112)-(F20))/112</f>
-        <v>15.839285714285714</v>
+        <v>15.830357142857142</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>435</v>
@@ -43490,7 +43490,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>418</v>
@@ -43518,7 +43518,7 @@
       </c>
       <c r="N20" s="154">
         <f ca="1">IF((TODAY()-M20)&gt;335,1,((TODAY()-M20)^0.64)/(336^0.64))</f>
-        <v>4.8809062439885115E-2</v>
+        <v>5.8676102278042847E-2</v>
       </c>
       <c r="O20" s="21">
         <v>4</v>
@@ -43581,35 +43581,35 @@
       </c>
       <c r="AG20" s="25">
         <f t="shared" ref="AG20:AG21" ca="1" si="53">(AD20+1+(LOG(I20)*4/3)+N20)*(Q20/7)^0.5</f>
-        <v>0.88640544151889533</v>
+        <v>0.89474461221969015</v>
       </c>
       <c r="AH20" s="25">
         <f t="shared" ref="AH20:AH21" ca="1" si="54">(AD20+1+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>0.97100851083045059</v>
+        <v>0.98014361463787347</v>
       </c>
       <c r="AI20" s="137">
         <f t="shared" ref="AI20" ca="1" si="55">(Z20+N20+(LOG(I20)*4/3))*(Q20/7)^0.5</f>
-        <v>2.5767139509759285</v>
+        <v>2.5850531216767232</v>
       </c>
       <c r="AJ20" s="137">
         <f t="shared" ref="AJ20" ca="1" si="56">(Z20+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>2.8226487103755535</v>
+        <v>2.8317838141829763</v>
       </c>
       <c r="AK20" s="9">
         <f t="shared" ref="AK20" ca="1" si="57">(((Y20+LOG(I20)*4/3+N20)+(AB20+LOG(I20)*4/3+N20)*2)/8)*(Q20/7)^0.5</f>
-        <v>1.7057777045034248</v>
+        <v>1.7089048935162234</v>
       </c>
       <c r="AL20" s="9">
         <f t="shared" ref="AL20:AL21" ca="1" si="58">(AD20+LOG(I20)*4/3+N20)*0.7+(AC20+LOG(I20)*4/3+N20)*0.3</f>
-        <v>0.64880906243988512</v>
+        <v>0.65867610227804285</v>
       </c>
       <c r="AM20" s="9">
         <f t="shared" ref="AM20:AM21" ca="1" si="59">(0.5*(AC20+LOG(I20)*4/3+N20)+ 0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.10390472499519081</v>
+        <v>0.10469408818224342</v>
       </c>
       <c r="AN20" s="9">
         <f t="shared" ref="AN20:AN21" ca="1" si="60">(0.4*(Y20+LOG(I20)*4/3+N20)+0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.24341663437079192</v>
+        <v>0.24410732715946301</v>
       </c>
       <c r="AO20" s="22">
         <v>2</v>
@@ -43637,7 +43637,7 @@
       </c>
       <c r="C21" s="138">
         <f ca="1">((33*112)-(E21*112)-(F21))/112</f>
-        <v>15.875</v>
+        <v>15.866071428571429</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>443</v>
@@ -43647,7 +43647,7 @@
       </c>
       <c r="F21" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25-4</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>418</v>
@@ -43675,7 +43675,7 @@
       </c>
       <c r="N21" s="154">
         <f ca="1">IF((TODAY()-M21)&gt;335,1,((TODAY()-M21)^0.64)/(336^0.64))</f>
-        <v>0</v>
+        <v>2.4162555382234736E-2</v>
       </c>
       <c r="O21" s="21">
         <v>3.5</v>
@@ -43738,35 +43738,35 @@
       </c>
       <c r="AG21" s="25">
         <f t="shared" ca="1" si="53"/>
-        <v>0.50593187921342253</v>
+        <v>0.52635296569983159</v>
       </c>
       <c r="AH21" s="25">
         <f t="shared" ca="1" si="54"/>
-        <v>0.5542206056123411</v>
+        <v>0.57659078504708139</v>
       </c>
       <c r="AI21" s="137">
         <f t="shared" ref="AI21" ca="1" si="61">(Z21+N21+(LOG(I21)*4/3))*(Q21/7)^0.5</f>
-        <v>3.8865488981274883</v>
+        <v>3.9069699846138977</v>
       </c>
       <c r="AJ21" s="137">
         <f t="shared" ref="AJ21" ca="1" si="62">(Z21+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
-        <v>4.2575010047025463</v>
+        <v>4.2798711841372867</v>
       </c>
       <c r="AK21" s="9">
         <f t="shared" ref="AK21" ca="1" si="63">(((Y21+LOG(I21)*4/3+N21)+(AB21+LOG(I21)*4/3+N21)*2)/8)*(Q21/7)^0.5</f>
-        <v>1.0348787094335499</v>
+        <v>1.0425366168659533</v>
       </c>
       <c r="AL21" s="9">
         <f t="shared" ca="1" si="58"/>
-        <v>0.49862667244802517</v>
+        <v>0.52278922783025994</v>
       </c>
       <c r="AM21" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0.11789013379584201</v>
+        <v>0.11982313822642079</v>
       </c>
       <c r="AN21" s="9">
         <f t="shared" ca="1" si="60"/>
-        <v>9.190386707136175E-2</v>
+        <v>9.3595245948118203E-2</v>
       </c>
       <c r="AO21" s="22">
         <v>2</v>
@@ -43781,7 +43781,7 @@
         <f>IF(AP21=4,IF(AQ21=0,0.137+0.0697,0.137+0.02),IF(AP21=3,IF(AQ21=0,0.0958+0.0697,0.0958+0.02),IF(AP21=2,IF(AQ21=0,0.0415+0.0697,0.0415+0.02),IF(AP21=1,IF(AQ21=0,0.0294+0.0697,0.0294+0.02),IF(AP21=0,IF(AQ21=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="AS21" s="265">
+      <c r="AS21" s="252">
         <v>760</v>
       </c>
     </row>
@@ -43794,7 +43794,7 @@
       </c>
       <c r="C22" s="138">
         <f ca="1">((33*112)-(E22*112)-(F22))/112</f>
-        <v>15.508928571428571</v>
+        <v>15.5</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>417</v>
@@ -43804,7 +43804,7 @@
       </c>
       <c r="F22" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-2-19</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>418</v>
@@ -43832,7 +43832,7 @@
       </c>
       <c r="N22" s="154">
         <f ca="1">IF((TODAY()-M22)&gt;335,1,((TODAY()-M22)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O22" s="21">
         <v>4.7</v>
@@ -43896,35 +43896,35 @@
       </c>
       <c r="AG22" s="25">
         <f ca="1">(AD22+1+(LOG(I22)*4/3)+N22)*(Q22/7)^0.5</f>
-        <v>0.58926047256457581</v>
+        <v>0.59507315484205525</v>
       </c>
       <c r="AH22" s="25">
         <f ca="1">(AD22+1+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>0.64550250613954452</v>
+        <v>0.65186998054551637</v>
       </c>
       <c r="AI22" s="137">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(Q22/7)^0.5</f>
-        <v>4.8150317462071586</v>
+        <v>4.8208444284846381</v>
       </c>
       <c r="AJ22" s="137">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>5.2746030050023007</v>
+        <v>5.280970479408273</v>
       </c>
       <c r="AK22" s="9">
         <f ca="1">(((Y22+LOG(I22)*4/3+N22)+(AB22+LOG(I22)*4/3+N22)*2)/8)*(Q22/7)^0.5</f>
-        <v>0.90766050917863561</v>
+        <v>0.90984026503269044</v>
       </c>
       <c r="AL22" s="9">
         <f ca="1">(AD22+LOG(I22)*4/3+N22)*0.7+(AC22+LOG(I22)*4/3+N22)*0.3</f>
-        <v>0.89722239374380242</v>
+        <v>0.904100052165278</v>
       </c>
       <c r="AM22" s="9">
         <f ca="1">(0.5*(AC22+LOG(I22)*4/3+N22)+ 0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.1757777914995042</v>
+        <v>0.17632800417322225</v>
       </c>
       <c r="AN22" s="9">
         <f ca="1">(0.4*(Y22+LOG(I22)*4/3+N22)+0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>9.8805567562066182E-2</v>
+        <v>9.9287003651569478E-2</v>
       </c>
       <c r="AO22" s="22">
         <v>2</v>
@@ -43952,7 +43952,7 @@
       </c>
       <c r="C23" s="138">
         <f ca="1">((33*112)-(E23*112)-(F23))/112</f>
-        <v>15.892857142857142</v>
+        <v>15.883928571428571</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>422</v>
@@ -43962,7 +43962,7 @@
       </c>
       <c r="F23" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-62</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>0</v>
@@ -43990,7 +43990,7 @@
       </c>
       <c r="N23" s="154">
         <f ca="1">IF((TODAY()-M23)&gt;335,1,((TODAY()-M23)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O23" s="27">
         <v>4.2</v>
@@ -44054,35 +44054,35 @@
       </c>
       <c r="AG23" s="25">
         <f ca="1">(AD23+1+(LOG(I23)*4/3)+N23)*(Q23/7)^0.5</f>
-        <v>3.4639456122652197</v>
+        <v>3.4697582945426992</v>
       </c>
       <c r="AH23" s="25">
         <f ca="1">(AD23+1+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>3.7945622996174091</v>
+        <v>3.8009297740233809</v>
       </c>
       <c r="AI23" s="137">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(Q23/7)^0.5</f>
-        <v>1.7736371028081863</v>
+        <v>1.7794497850856661</v>
       </c>
       <c r="AJ23" s="137">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>1.942922100072306</v>
+        <v>1.9492895744782783</v>
       </c>
       <c r="AK23" s="9">
         <f ca="1">(((Y23+LOG(I23)*4/3+N23)+(AB23+LOG(I23)*4/3+N23)*2)/8)*(Q23/7)^0.5</f>
-        <v>1.2989796045994575</v>
+        <v>1.3011593604535121</v>
       </c>
       <c r="AL23" s="9">
         <f ca="1">(AD23+LOG(I23)*4/3+N23)*0.7+(AC23+LOG(I23)*4/3+N23)*0.3</f>
-        <v>3.698595721295777</v>
+        <v>3.7054733797172528</v>
       </c>
       <c r="AM23" s="9">
         <f ca="1">(0.5*(AC23+LOG(I23)*4/3+N23)+ 0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.34788765770366215</v>
+        <v>0.34843787037738022</v>
       </c>
       <c r="AN23" s="9">
         <f ca="1">(0.4*(Y23+LOG(I23)*4/3+N23)+0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.25690170049070443</v>
+        <v>0.25738313658020773</v>
       </c>
       <c r="AO23" s="22">
         <v>1</v>
@@ -44110,7 +44110,7 @@
       </c>
       <c r="C24" s="138">
         <f t="shared" ref="C24" ca="1" si="64">((33*112)-(E24*112)-(F24))/112</f>
-        <v>15.875</v>
+        <v>15.866071428571429</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>423</v>
@@ -44120,7 +44120,7 @@
       </c>
       <c r="F24" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-60</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>418</v>
@@ -44148,7 +44148,7 @@
       </c>
       <c r="N24" s="154">
         <f t="shared" ref="N24" ca="1" si="68">IF((TODAY()-M24)&gt;335,1,((TODAY()-M24)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O24" s="27">
         <v>4.2</v>
@@ -44212,35 +44212,35 @@
       </c>
       <c r="AG24" s="25">
         <f ca="1">(AD24+1+(LOG(I24)*4/3)+N24)*(Q24/7)^0.5</f>
-        <v>0.92848284807966996</v>
+        <v>0.9342955303571493</v>
       </c>
       <c r="AH24" s="25">
         <f ca="1">(AD24+1+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>1.0171020002997548</v>
+        <v>1.0234694747057267</v>
       </c>
       <c r="AI24" s="137">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(Q24/7)^0.5</f>
-        <v>2.6187913575367028</v>
+        <v>2.6246040398141828</v>
       </c>
       <c r="AJ24" s="137">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>2.8687421998448577</v>
+        <v>2.8751096742508295</v>
       </c>
       <c r="AK24" s="9">
         <f ca="1">(((Y24+LOG(I24)*4/3+N24)+(AB24+LOG(I24)*4/3+N24)*2)/8)*(Q24/7)^0.5</f>
-        <v>0.99320279523868005</v>
+        <v>0.99538255109273477</v>
       </c>
       <c r="AL24" s="9">
         <f ca="1">(AD24+LOG(I24)*4/3+N24)*0.7+(AC24+LOG(I24)*4/3+N24)*0.3</f>
-        <v>0.99859572129577734</v>
+        <v>1.005473379717253</v>
       </c>
       <c r="AM24" s="9">
         <f ca="1">(0.5*(AC24+LOG(I24)*4/3+N24)+ 0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.1578876577036622</v>
+        <v>0.15843787037738025</v>
       </c>
       <c r="AN24" s="9">
         <f ca="1">(0.4*(Y24+LOG(I24)*4/3+N24)+0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.20690170049070442</v>
+        <v>0.20738313658020774</v>
       </c>
       <c r="AO24" s="22">
         <v>3</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="C25" s="138">
         <f t="shared" ref="C25" ca="1" si="74">((33*112)-(E25*112)-(F25))/112</f>
-        <v>15.803571428571429</v>
+        <v>15.794642857142858</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>429</v>
@@ -44278,7 +44278,7 @@
       </c>
       <c r="F25" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>45</v>
@@ -44306,7 +44306,7 @@
       </c>
       <c r="N25" s="154">
         <f t="shared" ref="N25" ca="1" si="78">IF((TODAY()-M25)&gt;335,1,((TODAY()-M25)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O25" s="21">
         <v>4.3</v>
@@ -44370,35 +44370,35 @@
       </c>
       <c r="AG25" s="25">
         <f t="shared" ref="AG25" ca="1" si="84">(AD25+1+(LOG(I25)*4/3)+N25)*(Q25/7)^0.5</f>
-        <v>1.2775678095785632</v>
+        <v>1.2829795352616711</v>
       </c>
       <c r="AH25" s="25">
         <f t="shared" ref="AH25" ca="1" si="85">(AD25+1+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4283642340415874</v>
+        <v>1.4344147272930923</v>
       </c>
       <c r="AI25" s="137">
         <f t="shared" ref="AI25" ca="1" si="86">(Z25+N25+(LOG(I25)*4/3))*(Q25/7)^0.5</f>
-        <v>1.2775678095785634</v>
+        <v>1.2829795352616709</v>
       </c>
       <c r="AJ25" s="137">
         <f t="shared" ref="AJ25" ca="1" si="87">(Z25+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4283642340415874</v>
+        <v>1.4344147272930923</v>
       </c>
       <c r="AK25" s="9">
         <f t="shared" ref="AK25" ca="1" si="88">(((Y25+LOG(I25)*4/3+N25)+(AB25+LOG(I25)*4/3+N25)*2)/8)*(Q25/7)^0.5</f>
-        <v>0.86461169106137303</v>
+        <v>0.86664108819253838</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" ref="AL25" ca="1" si="89">(AD25+LOG(I25)*4/3+N25)*0.7+(AC25+LOG(I25)*4/3+N25)*0.3</f>
-        <v>1.5900633535832007</v>
+        <v>1.5972223937438024</v>
       </c>
       <c r="AM25" s="9">
         <f t="shared" ref="AM25" ca="1" si="90">(0.5*(AC25+LOG(I25)*4/3+N25)+ 0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.20520506828665605</v>
+        <v>0.2057777914995042</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" ref="AN25" ca="1" si="91">(0.4*(Y25+LOG(I25)*4/3+N25)+0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.16830443475082407</v>
+        <v>0.16880556756206616</v>
       </c>
       <c r="AO25" s="22">
         <v>3</v>
@@ -44426,7 +44426,7 @@
       </c>
       <c r="C26" s="138">
         <f t="shared" ref="C26" ca="1" si="93">((33*112)-(E26*112)-(F26))/112</f>
-        <v>15.508928571428571</v>
+        <v>15.5</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>431</v>
@@ -44436,7 +44436,7 @@
       </c>
       <c r="F26" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>74</v>
@@ -44464,7 +44464,7 @@
       </c>
       <c r="N26" s="154">
         <f t="shared" ref="N26" ca="1" si="97">IF((TODAY()-M26)&gt;335,1,((TODAY()-M26)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O26" s="21">
         <v>4.2</v>
@@ -44528,35 +44528,35 @@
       </c>
       <c r="AG26" s="25">
         <f t="shared" ref="AG26" ca="1" si="103">(AD26+1+(LOG(I26)*4/3)+N26)*(Q26/7)^0.5</f>
-        <v>0.58320997931307073</v>
+        <v>0.58926047256457581</v>
       </c>
       <c r="AH26" s="25">
         <f t="shared" ref="AH26" ca="1" si="104">(AD26+1+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>0.63887452286378021</v>
+        <v>0.64550250613954452</v>
       </c>
       <c r="AI26" s="137">
         <f t="shared" ref="AI26" ca="1" si="105">(Z26+N26+(LOG(I26)*4/3))*(Q26/7)^0.5</f>
-        <v>1.4283642340415874</v>
+        <v>1.4344147272930923</v>
       </c>
       <c r="AJ26" s="137">
         <f t="shared" ref="AJ26" ca="1" si="106">(Z26+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>1.5646946226363319</v>
+        <v>1.5713226059120957</v>
       </c>
       <c r="AK26" s="9">
         <f t="shared" ref="AK26" ca="1" si="107">(((Y26+LOG(I26)*4/3+N26)+(AB26+LOG(I26)*4/3+N26)*2)/8)*(Q26/7)^0.5</f>
-        <v>1.3279687015735797</v>
+        <v>1.3302376365428938</v>
       </c>
       <c r="AL26" s="9">
         <f t="shared" ref="AL26" ca="1" si="108">(AD26+LOG(I26)*4/3+N26)*0.7+(AC26+LOG(I26)*4/3+N26)*0.3</f>
-        <v>1.4900633535832006</v>
+        <v>1.4972223937438023</v>
       </c>
       <c r="AM26" s="9">
         <f t="shared" ref="AM26" ca="1" si="109">(0.5*(AC26+LOG(I26)*4/3+N26)+ 0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.27520506828665603</v>
+        <v>0.27577779149950421</v>
       </c>
       <c r="AN26" s="9">
         <f t="shared" ref="AN26" ca="1" si="110">(0.4*(Y26+LOG(I26)*4/3+N26)+0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.17830443475082403</v>
+        <v>0.17880556756206617</v>
       </c>
       <c r="AO26" s="22">
         <v>2</v>
@@ -44584,7 +44584,7 @@
       </c>
       <c r="C27" s="138">
         <f ca="1">((33*112)-(E27*112)-(F27))/112</f>
-        <v>15.446428571428571</v>
+        <v>15.4375</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>427</v>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="F27" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>74</v>
@@ -44622,7 +44622,7 @@
       </c>
       <c r="N27" s="154">
         <f ca="1">IF((TODAY()-M27)&gt;335,1,((TODAY()-M27)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O27" s="27">
         <v>5.2</v>
@@ -44686,35 +44686,35 @@
       </c>
       <c r="AG27" s="25">
         <f ca="1">(AD27+1+(LOG(I27)*4/3)+N27)*(Q27/7)^0.5</f>
-        <v>3.1186727434986206</v>
+        <v>3.1247232367501256</v>
       </c>
       <c r="AH27" s="25">
         <f ca="1">(AD27+1+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4163348221814345</v>
+        <v>3.4229628054571988</v>
       </c>
       <c r="AI27" s="137">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(Q27/7)^0.5</f>
-        <v>3.1186727434986206</v>
+        <v>3.1247232367501256</v>
       </c>
       <c r="AJ27" s="137">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4163348221814345</v>
+        <v>3.4229628054571988</v>
       </c>
       <c r="AK27" s="9">
         <f ca="1">(((Y27+LOG(I27)*4/3+N27)+(AB27+LOG(I27)*4/3+N27)*2)/8)*(Q27/7)^0.5</f>
-        <v>1.1695022788119829</v>
+        <v>1.171771213781297</v>
       </c>
       <c r="AL27" s="9">
         <f ca="1">(AD27+LOG(I27)*4/3+N27)*0.7+(AC27+LOG(I27)*4/3+N27)*0.3</f>
-        <v>2.6900633535832004</v>
+        <v>2.6972223937438025</v>
       </c>
       <c r="AM27" s="9">
         <f ca="1">(0.5*(AC27+LOG(I27)*4/3+N27)+ 0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.21520506828665606</v>
+        <v>0.21577779149950418</v>
       </c>
       <c r="AN27" s="9">
         <f ca="1">(0.4*(Y27+LOG(I27)*4/3+N27)+0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.30830443475082403</v>
+        <v>0.30880556756206617</v>
       </c>
       <c r="AO27" s="22">
         <v>2</v>
@@ -44742,7 +44742,7 @@
       </c>
       <c r="C28" s="138">
         <f ca="1">((33*112)-(E28*112)-(F28))/112</f>
-        <v>15.616071428571429</v>
+        <v>15.607142857142858</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>425</v>
@@ -44752,7 +44752,7 @@
       </c>
       <c r="F28" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
@@ -44780,7 +44780,7 @@
       </c>
       <c r="N28" s="154">
         <f ca="1">IF((TODAY()-M28)&gt;335,1,((TODAY()-M28)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O28" s="27">
         <v>4.4000000000000004</v>
@@ -44844,35 +44844,35 @@
       </c>
       <c r="AG28" s="25">
         <f ca="1">(AD28+1+(LOG(I28)*4/3)+N28)*(Q28/7)^0.5</f>
-        <v>2.2735184887701041</v>
+        <v>2.2795689820216087</v>
       </c>
       <c r="AH28" s="25">
         <f ca="1">(AD28+1+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>2.4905147224088831</v>
+        <v>2.4971427056846474</v>
       </c>
       <c r="AI28" s="137">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(Q28/7)^0.5</f>
-        <v>3.963826998227137</v>
+        <v>3.9698774914786417</v>
       </c>
       <c r="AJ28" s="137">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>4.3421549219539859</v>
+        <v>4.3487829052297498</v>
       </c>
       <c r="AK28" s="9">
         <f ca="1">(((Y28+LOG(I28)*4/3+N28)+(AB28+LOG(I28)*4/3+N28)*2)/8)*(Q28/7)^0.5</f>
-        <v>0.54679262392801165</v>
+        <v>0.54906155889732611</v>
       </c>
       <c r="AL28" s="9">
         <f ca="1">(AD28+LOG(I28)*4/3+N28)*0.7+(AC28+LOG(I28)*4/3+N28)*0.3</f>
-        <v>2.5900633535832007</v>
+        <v>2.5972223937438024</v>
       </c>
       <c r="AM28" s="9">
         <f ca="1">(0.5*(AC28+LOG(I28)*4/3+N28)+ 0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.28520506828665604</v>
+        <v>0.28577779149950422</v>
       </c>
       <c r="AN28" s="9">
         <f ca="1">(0.4*(Y28+LOG(I28)*4/3+N28)+0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.11830443475082406</v>
+        <v>0.1188055675620662</v>
       </c>
       <c r="AO28" s="22">
         <v>4</v>
@@ -44900,7 +44900,7 @@
       </c>
       <c r="C29" s="138">
         <f t="shared" ref="C29" ca="1" si="112">((33*112)-(E29*112)-(F29))/112</f>
-        <v>15.901785714285714</v>
+        <v>15.892857142857142</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>430</v>
@@ -44910,7 +44910,7 @@
       </c>
       <c r="F29" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>418</v>
@@ -44938,7 +44938,7 @@
       </c>
       <c r="N29" s="154">
         <f t="shared" ref="N29" ca="1" si="116">IF((TODAY()-M29)&gt;335,1,((TODAY()-M29)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O29" s="21">
         <v>4.2</v>
@@ -45002,35 +45002,35 @@
       </c>
       <c r="AG29" s="25">
         <f t="shared" ref="AG29" ca="1" si="122">(AD29+1+(LOG(I29)*4/3)+N29)*(Q29/7)^0.5</f>
-        <v>1.4283642340415872</v>
+        <v>1.4344147272930925</v>
       </c>
       <c r="AH29" s="25">
         <f t="shared" ref="AH29" ca="1" si="123">(AD29+1+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.5646946226363319</v>
+        <v>1.5713226059120957</v>
       </c>
       <c r="AI29" s="137">
         <f t="shared" ref="AI29" ca="1" si="124">(Z29+N29+(LOG(I29)*4/3))*(Q29/7)^0.5</f>
-        <v>1.4283642340415874</v>
+        <v>1.4344147272930923</v>
       </c>
       <c r="AJ29" s="137">
         <f t="shared" ref="AJ29" ca="1" si="125">(Z29+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.5646946226363319</v>
+        <v>1.5713226059120957</v>
       </c>
       <c r="AK29" s="9">
         <f t="shared" ref="AK29" ca="1" si="126">(((Y29+LOG(I29)*4/3+N29)+(AB29+LOG(I29)*4/3+N29)*2)/8)*(Q29/7)^0.5</f>
-        <v>0.96666525767713884</v>
+        <v>0.96893419264645309</v>
       </c>
       <c r="AL29" s="9">
         <f t="shared" ref="AL29" ca="1" si="127">(AD29+LOG(I29)*4/3+N29)*0.7+(AC29+LOG(I29)*4/3+N29)*0.3</f>
-        <v>1.8900633535832005</v>
+        <v>1.8972223937438024</v>
       </c>
       <c r="AM29" s="9">
         <f t="shared" ref="AM29" ca="1" si="128">(0.5*(AC29+LOG(I29)*4/3+N29)+ 0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.25520506828665607</v>
+        <v>0.25577779149950419</v>
       </c>
       <c r="AN29" s="9">
         <f t="shared" ref="AN29" ca="1" si="129">(0.4*(Y29+LOG(I29)*4/3+N29)+0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.16830443475082407</v>
+        <v>0.16880556756206616</v>
       </c>
       <c r="AO29" s="22">
         <v>1</v>
@@ -45058,7 +45058,7 @@
       </c>
       <c r="C30" s="138">
         <f t="shared" ref="C30" ca="1" si="131">((33*112)-(E30*112)-(F30))/112</f>
-        <v>15.866071428571429</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>433</v>
@@ -45068,7 +45068,7 @@
       </c>
       <c r="F30" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44-40</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>200</v>
@@ -45096,7 +45096,7 @@
       </c>
       <c r="N30" s="154">
         <f t="shared" ref="N30" ca="1" si="135">IF((TODAY()-M30)&gt;335,1,((TODAY()-M30)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O30" s="21">
         <v>4.2</v>
@@ -45160,35 +45160,35 @@
       </c>
       <c r="AG30" s="25">
         <f t="shared" ref="AG30" ca="1" si="141">(AD30+1+(LOG(I30)*4/3)+N30)*(Q30/7)^0.5</f>
-        <v>0.92243235482816477</v>
+        <v>0.92848284807966996</v>
       </c>
       <c r="AH30" s="25">
         <f t="shared" ref="AH30" ca="1" si="142">(AD30+1+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>1.0104740170239905</v>
+        <v>1.0171020002997548</v>
       </c>
       <c r="AI30" s="137">
         <f t="shared" ref="AI30" ca="1" si="143">(Z30+N30+(LOG(I30)*4/3))*(Q30/7)^0.5</f>
-        <v>3.4578951190137146</v>
+        <v>3.4639456122652197</v>
       </c>
       <c r="AJ30" s="137">
         <f t="shared" ref="AJ30" ca="1" si="144">(Z30+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>3.7879343163416448</v>
+        <v>3.7945622996174091</v>
       </c>
       <c r="AK30" s="9">
         <f t="shared" ref="AK30" ca="1" si="145">(((Y30+LOG(I30)*4/3+N30)+(AB30+LOG(I30)*4/3+N30)*2)/8)*(Q30/7)^0.5</f>
-        <v>1.3495328105506754</v>
+        <v>1.3518017455199898</v>
       </c>
       <c r="AL30" s="9">
         <f t="shared" ref="AL30" ca="1" si="146">(AD30+LOG(I30)*4/3+N30)*0.7+(AC30+LOG(I30)*4/3+N30)*0.3</f>
-        <v>0.99143668113517558</v>
+        <v>0.99859572129577734</v>
       </c>
       <c r="AM30" s="9">
         <f t="shared" ref="AM30" ca="1" si="147">(0.5*(AC30+LOG(I30)*4/3+N30)+ 0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.15731493449081405</v>
+        <v>0.1578876577036622</v>
       </c>
       <c r="AN30" s="9">
         <f t="shared" ref="AN30" ca="1" si="148">(0.4*(Y30+LOG(I30)*4/3+N30)+0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.16640056767946229</v>
+        <v>0.16690170049070444</v>
       </c>
       <c r="AO30" s="22">
         <v>1</v>
@@ -45216,7 +45216,7 @@
       </c>
       <c r="C31" s="138">
         <f t="shared" ref="C31" ca="1" si="150">((33*112)-(E31*112)-(F31))/112</f>
-        <v>15.883928571428571</v>
+        <v>15.875</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>428</v>
@@ -45226,7 +45226,7 @@
       </c>
       <c r="F31" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>200</v>
@@ -45254,7 +45254,7 @@
       </c>
       <c r="N31" s="154">
         <f t="shared" ref="N31" ca="1" si="154">IF((TODAY()-M31)&gt;335,1,((TODAY()-M31)^0.64)/(336^0.64))</f>
-        <v>9.1436681135175488E-2</v>
+        <v>9.8595721295777455E-2</v>
       </c>
       <c r="O31" s="21">
         <v>4.2</v>
@@ -45318,35 +45318,35 @@
       </c>
       <c r="AG31" s="25">
         <f t="shared" ref="AG31" ca="1" si="160">(AD31+1+(LOG(I31)*4/3)+N31)*(Q31/7)^0.5</f>
-        <v>1.4283642340415872</v>
+        <v>1.4344147272930925</v>
       </c>
       <c r="AH31" s="25">
         <f t="shared" ref="AH31" ca="1" si="161">(AD31+1+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>1.5646946226363319</v>
+        <v>1.5713226059120957</v>
       </c>
       <c r="AI31" s="137">
         <f t="shared" ref="AI31" ca="1" si="162">(Z31+N31+(LOG(I31)*4/3))*(Q31/7)^0.5</f>
-        <v>3.1186727434986206</v>
+        <v>3.1247232367501256</v>
       </c>
       <c r="AJ31" s="137">
         <f t="shared" ref="AJ31" ca="1" si="163">(Z31+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>3.4163348221814345</v>
+        <v>3.4229628054571988</v>
       </c>
       <c r="AK31" s="9">
         <f t="shared" ref="AK31" ca="1" si="164">(((Y31+LOG(I31)*4/3+N31)+(AB31+LOG(I31)*4/3+N31)*2)/8)*(Q31/7)^0.5</f>
-        <v>0.85548052016618725</v>
+        <v>0.85774945513550149</v>
       </c>
       <c r="AL31" s="9">
         <f t="shared" ref="AL31" ca="1" si="165">(AD31+LOG(I31)*4/3+N31)*0.7+(AC31+LOG(I31)*4/3+N31)*0.3</f>
-        <v>1.5900633535832007</v>
+        <v>1.5972223937438024</v>
       </c>
       <c r="AM31" s="9">
         <f t="shared" ref="AM31" ca="1" si="166">(0.5*(AC31+LOG(I31)*4/3+N31)+ 0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.20520506828665605</v>
+        <v>0.2057777914995042</v>
       </c>
       <c r="AN31" s="9">
         <f t="shared" ref="AN31" ca="1" si="167">(0.4*(Y31+LOG(I31)*4/3+N31)+0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.12830443475082404</v>
+        <v>0.12880556756206618</v>
       </c>
       <c r="AO31" s="22">
         <v>1</v>
@@ -46132,7 +46132,7 @@
       </c>
       <c r="C3" s="36">
         <f ca="1">PLANTILLA!F4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="69">
         <f>PLANTILLA!G4</f>
@@ -46465,7 +46465,7 @@
       </c>
       <c r="C4" s="36">
         <f ca="1">PLANTILLA!F5</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="69" t="str">
         <f>PLANTILLA!G5</f>
@@ -46798,7 +46798,7 @@
       </c>
       <c r="C5" s="36">
         <f ca="1">PLANTILLA!F6</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="69">
         <f>PLANTILLA!G6</f>
@@ -47131,7 +47131,7 @@
       </c>
       <c r="C6" s="36">
         <f ca="1">PLANTILLA!F10</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="69" t="str">
         <f>PLANTILLA!G10</f>
@@ -47464,7 +47464,7 @@
       </c>
       <c r="C7" s="36">
         <f ca="1">PLANTILLA!F8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="69">
         <f>PLANTILLA!G8</f>
@@ -47797,7 +47797,7 @@
       </c>
       <c r="C8" s="36">
         <f ca="1">PLANTILLA!F9</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="69" t="str">
         <f>PLANTILLA!G9</f>
@@ -48130,7 +48130,7 @@
       </c>
       <c r="C9" s="36">
         <f ca="1">PLANTILLA!F11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="69" t="str">
         <f>PLANTILLA!G11</f>
@@ -48463,7 +48463,7 @@
       </c>
       <c r="C10" s="36">
         <f ca="1">PLANTILLA!F13</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="69">
         <f>PLANTILLA!G13</f>
@@ -48796,7 +48796,7 @@
       </c>
       <c r="C11" s="36">
         <f ca="1">PLANTILLA!F14</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="69" t="str">
         <f>PLANTILLA!G14</f>
@@ -49129,7 +49129,7 @@
       </c>
       <c r="C12" s="36">
         <f ca="1">PLANTILLA!F15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="69" t="str">
         <f>PLANTILLA!G15</f>
@@ -49462,7 +49462,7 @@
       </c>
       <c r="C13" s="36">
         <f ca="1">PLANTILLA!F16</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="69" t="str">
         <f>PLANTILLA!G16</f>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="C14" s="36">
         <f ca="1">PLANTILLA!F17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="69" t="str">
         <f>PLANTILLA!G17</f>
@@ -50128,7 +50128,7 @@
       </c>
       <c r="C15" s="36">
         <f ca="1">PLANTILLA!F18</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="69" t="str">
         <f>PLANTILLA!G18</f>
@@ -50461,7 +50461,7 @@
       </c>
       <c r="C16" s="36">
         <f ca="1">PLANTILLA!F12</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="69" t="str">
         <f>PLANTILLA!G12</f>
@@ -50987,12 +50987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="260" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
@@ -51043,16 +51043,16 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="261" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="262" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="262" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="261" t="s">
+      <c r="D2" s="262" t="s">
         <v>278</v>
       </c>
       <c r="F2" s="222" t="s">
@@ -51110,10 +51110,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="260"/>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
+      <c r="A3" s="261"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
       <c r="F3" s="222" t="s">
         <v>405</v>
       </c>
@@ -57121,14 +57121,14 @@
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
       <c r="M1" s="168"/>
-      <c r="T1" s="264"/>
-      <c r="U1" s="264"/>
-      <c r="V1" s="264"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
       <c r="W1" s="169"/>
-      <c r="X1" s="264" t="s">
+      <c r="X1" s="265" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="264"/>
+      <c r="Y1" s="265"/>
       <c r="Z1" s="131">
         <f>T2+U2+V2+W2+X2+Y2+Z2</f>
         <v>1</v>
@@ -57141,21 +57141,21 @@
       <c r="AH1" s="69"/>
       <c r="AI1" s="69"/>
       <c r="AJ1" s="69"/>
-      <c r="AS1" s="264" t="s">
+      <c r="AS1" s="265" t="s">
         <v>223</v>
       </c>
-      <c r="AT1" s="264"/>
-      <c r="AU1" s="264"/>
-      <c r="AV1" s="264"/>
-      <c r="AW1" s="264"/>
-      <c r="AX1" s="264"/>
-      <c r="AY1" s="264"/>
-      <c r="AZ1" s="264"/>
-      <c r="BA1" s="264"/>
-      <c r="BB1" s="264"/>
-      <c r="BC1" s="264"/>
-      <c r="BD1" s="264"/>
-      <c r="BE1" s="264"/>
+      <c r="AT1" s="265"/>
+      <c r="AU1" s="265"/>
+      <c r="AV1" s="265"/>
+      <c r="AW1" s="265"/>
+      <c r="AX1" s="265"/>
+      <c r="AY1" s="265"/>
+      <c r="AZ1" s="265"/>
+      <c r="BA1" s="265"/>
+      <c r="BB1" s="265"/>
+      <c r="BC1" s="265"/>
+      <c r="BD1" s="265"/>
+      <c r="BE1" s="265"/>
       <c r="BG1" s="112" t="s">
         <v>173</v>
       </c>
@@ -57181,7 +57181,7 @@
       <c r="C2" s="171"/>
       <c r="D2" s="172">
         <f ca="1">TODAY()</f>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="173"/>
@@ -57433,10 +57433,10 @@
       <c r="AQ3" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="262" t="s">
+      <c r="AS3" s="263" t="s">
         <v>245</v>
       </c>
-      <c r="AT3" s="263"/>
+      <c r="AT3" s="264"/>
       <c r="AU3" s="187" t="s">
         <v>230</v>
       </c>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">PLANTILLA!C4</f>
-        <v>2.8303571428571428</v>
+        <v>2.8214285714285716</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>PLANTILLA!D4</f>
@@ -57514,7 +57514,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">PLANTILLA!F4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="20">
         <f>PLANTILLA!G4</f>
@@ -57597,7 +57597,7 @@
       </c>
       <c r="AB4" s="189">
         <f t="shared" ref="AB4:AB18" ca="1" si="5">F4+7</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" ref="AC4:AC18" si="6">I4+$AC$2</f>
@@ -57737,7 +57737,7 @@
       </c>
       <c r="C5" s="138">
         <f ca="1">PLANTILLA!C5</f>
-        <v>1.0982142857142858</v>
+        <v>1.0892857142857142</v>
       </c>
       <c r="D5" s="31" t="str">
         <f>PLANTILLA!D5</f>
@@ -57749,7 +57749,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">PLANTILLA!F5</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>PLANTILLA!G5</f>
@@ -57831,7 +57831,7 @@
       </c>
       <c r="AB5" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC5" s="27">
         <f t="shared" si="6"/>
@@ -57975,7 +57975,7 @@
       </c>
       <c r="C6" s="138">
         <f ca="1">PLANTILLA!C6</f>
-        <v>1.2946428571428572</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>PLANTILLA!D6</f>
@@ -57987,7 +57987,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">PLANTILLA!F6</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="4">
         <f>PLANTILLA!G6</f>
@@ -58069,7 +58069,7 @@
       </c>
       <c r="AB6" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC6" s="27">
         <f t="shared" si="6"/>
@@ -58213,7 +58213,7 @@
       </c>
       <c r="C7" s="138">
         <f ca="1">PLANTILLA!C7</f>
-        <v>1.7946428571428572</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>PLANTILLA!D7</f>
@@ -58225,7 +58225,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">PLANTILLA!F7</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4">
         <f>PLANTILLA!G7</f>
@@ -58307,7 +58307,7 @@
       </c>
       <c r="AB7" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="6"/>
@@ -58436,7 +58436,7 @@
       </c>
       <c r="C8" s="138">
         <f ca="1">PLANTILLA!C8</f>
-        <v>1.9464285714285714</v>
+        <v>1.9375</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>PLANTILLA!D8</f>
@@ -58448,7 +58448,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">PLANTILLA!F8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
         <f>PLANTILLA!G8</f>
@@ -58530,7 +58530,7 @@
       </c>
       <c r="AB8" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="6"/>
@@ -58658,7 +58658,7 @@
       </c>
       <c r="C9" s="138">
         <f ca="1">PLANTILLA!C9</f>
-        <v>0.48214285714285715</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>PLANTILLA!D9</f>
@@ -58670,7 +58670,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">PLANTILLA!F9</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>PLANTILLA!G9</f>
@@ -58752,7 +58752,7 @@
       </c>
       <c r="AB9" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC9" s="27">
         <f t="shared" si="6"/>
@@ -58884,7 +58884,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">PLANTILLA!C10</f>
-        <v>1.1696428571428572</v>
+        <v>1.1607142857142858</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>PLANTILLA!D10</f>
@@ -58896,7 +58896,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">PLANTILLA!F10</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="20" t="str">
         <f>PLANTILLA!G10</f>
@@ -58978,7 +58978,7 @@
       </c>
       <c r="AB10" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC10" s="27">
         <f t="shared" si="6"/>
@@ -59110,7 +59110,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">PLANTILLA!C11</f>
-        <v>0.9107142857142857</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>PLANTILLA!D11</f>
@@ -59122,7 +59122,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">PLANTILLA!F11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>PLANTILLA!G11</f>
@@ -59205,7 +59205,7 @@
       </c>
       <c r="AB11" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC11" s="27">
         <f t="shared" si="6"/>
@@ -59327,7 +59327,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">PLANTILLA!C12</f>
-        <v>3.0803571428571428</v>
+        <v>3.0714285714285716</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>PLANTILLA!D12</f>
@@ -59339,7 +59339,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">PLANTILLA!F12</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>PLANTILLA!G12</f>
@@ -59421,7 +59421,7 @@
       </c>
       <c r="AB12" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC12" s="27">
         <f t="shared" si="6"/>
@@ -59551,7 +59551,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">PLANTILLA!C13</f>
-        <v>1.3392857142857142</v>
+        <v>1.3303571428571428</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>PLANTILLA!D13</f>
@@ -59563,7 +59563,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">PLANTILLA!F13</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4">
         <f>PLANTILLA!G13</f>
@@ -59645,7 +59645,7 @@
       </c>
       <c r="AB13" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC13" s="27">
         <f t="shared" si="6"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="C14" s="138">
         <f ca="1">PLANTILLA!C14</f>
-        <v>0.11607142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>PLANTILLA!D14</f>
@@ -59786,7 +59786,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">PLANTILLA!F14</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="20" t="str">
         <f>PLANTILLA!G14</f>
@@ -59869,7 +59869,7 @@
       </c>
       <c r="AB14" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC14" s="27">
         <f t="shared" si="6"/>
@@ -59995,7 +59995,7 @@
       </c>
       <c r="C15" s="138">
         <f ca="1">PLANTILLA!C15</f>
-        <v>2.9910714285714284</v>
+        <v>2.9821428571428572</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>PLANTILLA!D15</f>
@@ -60007,7 +60007,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">PLANTILLA!F15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="20" t="str">
         <f>PLANTILLA!G15</f>
@@ -60088,7 +60088,7 @@
       </c>
       <c r="AB15" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC15" s="27">
         <f t="shared" si="6"/>
@@ -60185,7 +60185,7 @@
       </c>
       <c r="C16" s="138">
         <f ca="1">PLANTILLA!C16</f>
-        <v>3.4285714285714284</v>
+        <v>3.4196428571428572</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>PLANTILLA!D16</f>
@@ -60197,7 +60197,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">PLANTILLA!F16</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="20" t="str">
         <f>PLANTILLA!G16</f>
@@ -60278,7 +60278,7 @@
       </c>
       <c r="AB16" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" s="27">
         <f t="shared" si="6"/>
@@ -60408,7 +60408,7 @@
       </c>
       <c r="C17" s="138">
         <f ca="1">PLANTILLA!C17</f>
-        <v>2.9732142857142856</v>
+        <v>2.9642857142857144</v>
       </c>
       <c r="D17" s="29" t="str">
         <f>PLANTILLA!D17</f>
@@ -60420,7 +60420,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">PLANTILLA!F17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="20" t="str">
         <f>PLANTILLA!G17</f>
@@ -60501,7 +60501,7 @@
       </c>
       <c r="AB17" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="27">
         <f t="shared" si="6"/>
@@ -60564,10 +60564,10 @@
         <v>0</v>
       </c>
       <c r="AR17" s="197"/>
-      <c r="AS17" s="262" t="s">
+      <c r="AS17" s="263" t="s">
         <v>244</v>
       </c>
-      <c r="AT17" s="263"/>
+      <c r="AT17" s="264"/>
       <c r="AU17" s="187" t="s">
         <v>230</v>
       </c>
@@ -60620,7 +60620,7 @@
       </c>
       <c r="C18" s="138">
         <f ca="1">PLANTILLA!C18</f>
-        <v>3.4642857142857144</v>
+        <v>3.4553571428571428</v>
       </c>
       <c r="D18" s="29" t="str">
         <f>PLANTILLA!D18</f>
@@ -60632,7 +60632,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">PLANTILLA!F18</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>PLANTILLA!G18</f>
@@ -60714,7 +60714,7 @@
       </c>
       <c r="AB18" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC18" s="27">
         <f t="shared" si="6"/>
@@ -61804,10 +61804,10 @@
       <c r="AH31" s="69"/>
       <c r="AI31" s="69"/>
       <c r="AJ31" s="69"/>
-      <c r="AS31" s="262" t="s">
+      <c r="AS31" s="263" t="s">
         <v>243</v>
       </c>
-      <c r="AT31" s="263"/>
+      <c r="AT31" s="264"/>
       <c r="AU31" s="187" t="s">
         <v>230</v>
       </c>
@@ -63617,8 +63617,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/current/hattrick/1-V@der_Plantilla.xlsx
+++ b/projects/current/hattrick/1-V@der_Plantilla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="6" r:id="rId1"/>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B2" s="73">
         <f ca="1">(N2+F2-J2)/K2</f>
-        <v>-74155.415204678342</v>
+        <v>-73754.39252336444</v>
       </c>
       <c r="C2" s="145">
         <v>22</v>
@@ -12476,18 +12476,18 @@
       </c>
       <c r="H2" s="145">
         <f ca="1">PLANTILLA!F4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="49">
         <f ca="1">E2+(H2-D2+(G2-C2)*112)</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J2" s="165">
         <v>6886000</v>
       </c>
       <c r="K2" s="40">
         <f ca="1">(I2-E2)/112</f>
-        <v>7.6339285714285712</v>
+        <v>7.6428571428571432</v>
       </c>
       <c r="L2" s="74">
         <f>J2-F2</f>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="N2" s="76">
         <f ca="1">((G2-C2)*M2*16)+(H2-D2)/7*M2</f>
-        <v>2054442.857142857</v>
+        <v>2056845.7142857143</v>
       </c>
       <c r="O2" s="148">
         <f>PLANTILLA!I4</f>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="V2" s="150">
         <f>PLANTILLA!AB4</f>
-        <v>2.3199999999999998</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="W2" s="150">
         <f>PLANTILLA!AC4</f>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="AA2" s="9">
         <f>((S2+1)+(V2+1)*2)/8</f>
-        <v>2.3383333333333334</v>
+        <v>2.3408333333333333</v>
       </c>
       <c r="AB2" s="9">
         <f>X2*0.7+W2*0.3</f>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="AN2" s="40">
         <f ca="1">IF(TODAY()-E2&gt;335,((W2+1+(LOG(O2)*4/3))*0.21)+((V2+1+(LOG(O2)*4/3))*0.341),((W2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.21)+((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.341))</f>
-        <v>2.4754780423478513</v>
+        <v>2.478888042347851</v>
       </c>
       <c r="AO2" s="40">
         <f ca="1">IF(TODAY()-E2&gt;335,((T2+1+(LOG(O2)*4/3))*0.305),((T2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.305))</f>
@@ -12608,7 +12608,7 @@
       </c>
       <c r="AP2" s="40">
         <f ca="1">IF(TODAY()-E2&gt;335,((U2+1+(LOG(O2)*4/3))*1)+((V2+1+(LOG(O2)*4/3))*0.286),((U2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*1)+((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.286))</f>
-        <v>3.7175777903073257</v>
+        <v>3.7204377903073254</v>
       </c>
       <c r="AQ2" s="40">
         <f ca="1">IF(TODAY()-E2&gt;335,((T2+1+(LOG(O2)*4/3))*0.406),((T2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.406))</f>
@@ -12616,11 +12616,11 @@
       </c>
       <c r="AR2" s="40">
         <f ca="1">IF(Q2="TEC",IF(TODAY()-E2&gt;335,((V2+1+(LOG(O2)*4/3))*0.15)+((V2+1+(LOG(O2)*4/3))*0.324)+((W2+1+(LOG(O2)*4/3))*0.127),((U2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.15)+((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.324)+((W2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.127)),IF(TODAY()-E2&gt;335,((V2+1+(LOG(O2)*4/3))*0.144)+((W2+1+(LOG(O2)*4/3))*0.25)+((W2+1+(LOG(O2)*4/3))*0.127),((U2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.144)+((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.25)+((W2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.127)))</f>
-        <v>2.2496958077372602</v>
+        <v>2.2511358077372607</v>
       </c>
       <c r="AS2" s="40">
         <f ca="1">IF(Q2="TEC",IF(TODAY()-E2&gt;335,((V2+1+(LOG(O2)*4/3))*0.543)+((W2+1+(LOG(O2)*4/3))*0.583),((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.543)+((W2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.583)),IF(TODAY()-E2&gt;335,((V2+1+(LOG(O2)*4/3))*0.543)+((W2+1+(LOG(O2)*4/3))*0.583),((V2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.543)+((W2+(((TODAY()-E2)^0.5)/(336^0.5))+(LOG(O2)*4/3))*0.583)))</f>
-        <v>4.9803158723841747</v>
+        <v>4.9857458723841752</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="B3" s="73">
         <f t="shared" ref="B3:B16" ca="1" si="0">(N3+F3-J3)/K3</f>
-        <v>147575.2599118943</v>
+        <v>148191.99999999997</v>
       </c>
       <c r="C3" s="145">
         <v>29</v>
@@ -12651,18 +12651,18 @@
       </c>
       <c r="H3" s="145">
         <f ca="1">PLANTILLA!F5</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I16" ca="1" si="1">E3+(H3-D3+(G3-C3)*112)</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J3" s="165">
         <v>3074000</v>
       </c>
       <c r="K3" s="40">
         <f t="shared" ref="K3:K16" ca="1" si="2">(I3-E3)/112</f>
-        <v>2.0267857142857144</v>
+        <v>2.0357142857142856</v>
       </c>
       <c r="L3" s="74">
         <f t="shared" ref="L3:L16" si="3">J3-F3</f>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="N3" s="76">
         <f t="shared" ref="N3:N16" ca="1" si="4">((G3-C3)*M3*16)+(H3-D3)/7*M3</f>
-        <v>584103.42857142852</v>
+        <v>586676.57142857148</v>
       </c>
       <c r="O3" s="148">
         <f>PLANTILLA!I5</f>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="V3" s="150">
         <f>PLANTILLA!AB5</f>
-        <v>7.0399999999999991</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="W3" s="150">
         <f>PLANTILLA!AC5</f>
@@ -12726,7 +12726,7 @@
       </c>
       <c r="AA3" s="9">
         <f t="shared" ref="AA3:AA16" si="6">((S3+1)+(V3+1)*2)/8</f>
-        <v>3.8849999999999998</v>
+        <v>3.8874999999999997</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" ref="AB3:AB16" si="7">X3*0.7+W3*0.3</f>
@@ -12742,63 +12742,63 @@
       </c>
       <c r="AE3" s="40">
         <f t="shared" ref="AE3:AE16" ca="1" si="10">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.516),((S3+(((TODAY()-E3)^0.5)/(336^0.516))+(LOG(O3)*4/3))*0.516))</f>
-        <v>8.2893296010662443</v>
+        <v>8.2901798345427107</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF16" ca="1" si="11">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*1),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>16.137641652488796</v>
+        <v>16.139450116736242</v>
       </c>
       <c r="AG3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.238),((T3+(((TODAY()-E3)^0.5)/(336^0.238))+(LOG(O3)*4/3))*0.238))</f>
-        <v>2.9034082043708387</v>
+        <v>2.9053842081693309</v>
       </c>
       <c r="AH3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.92),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.92))</f>
-        <v>14.846630320289693</v>
+        <v>14.848294107397344</v>
       </c>
       <c r="AI3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.414),((S3+(((TODAY()-E3)^0.5)/(336^0.414))+(LOG(O3)*4/3))*0.414))</f>
-        <v>6.9018865568717631</v>
+        <v>6.9031212966693118</v>
       </c>
       <c r="AJ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.167),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.167))</f>
-        <v>1.5443561559656289</v>
+        <v>1.5446581694949522</v>
       </c>
       <c r="AK3" s="213">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*0.588),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.588))</f>
-        <v>7.7459332916634116</v>
+        <v>7.7469966686409091</v>
       </c>
       <c r="AL3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.4),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.4))</f>
-        <v>6.4550566609955187</v>
+        <v>6.455780046694497</v>
       </c>
       <c r="AM3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*1),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>9.2476416524887952</v>
+        <v>9.2494501167362397</v>
       </c>
       <c r="AN3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((W3+1+(LOG(O3)*4/3))*0.21)+((V3+1+(LOG(O3)*4/3))*0.341),((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.21)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.341))</f>
-        <v>4.0005805505213266</v>
+        <v>4.0049870143216681</v>
       </c>
       <c r="AO3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.305),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.305))</f>
-        <v>2.8205307040090823</v>
+        <v>2.821082285604553</v>
       </c>
       <c r="AP3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*1)+((V3+1+(LOG(O3)*4/3))*0.286),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.286))</f>
-        <v>15.798161450814877</v>
+        <v>15.803347135837091</v>
       </c>
       <c r="AQ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.406),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.406))</f>
-        <v>3.7545425109104511</v>
+        <v>3.7552767473949138</v>
       </c>
       <c r="AR3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.15)+((V3+1+(LOG(O3)*4/3))*0.324)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.15)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.324)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.144)+((W3+1+(LOG(O3)*4/3))*0.25)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.144)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.25)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)))</f>
-        <v>5.4763097760029096</v>
+        <v>5.4806366630156234</v>
       </c>
       <c r="AS3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)))</f>
-        <v>7.4015345007023843</v>
+        <v>7.409000831445006</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B4" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>150224.49999999988</v>
+        <v>150485.66536964985</v>
       </c>
       <c r="C4" s="145">
         <v>29</v>
@@ -12829,18 +12829,18 @@
       </c>
       <c r="H4" s="145">
         <f ca="1">PLANTILLA!F6</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="49">
         <f ca="1">TODAY()</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J4" s="165">
         <v>2867000</v>
       </c>
       <c r="K4" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2857142857142856</v>
+        <v>2.2946428571428572</v>
       </c>
       <c r="L4" s="74">
         <f t="shared" si="3"/>
@@ -12852,7 +12852,7 @@
       </c>
       <c r="N4" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>510370.28571428568</v>
+        <v>512310.85714285716</v>
       </c>
       <c r="O4" s="148">
         <f>PLANTILLA!I6</f>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="V4" s="150">
         <f>PLANTILLA!AB6</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="W4" s="150">
         <f>PLANTILLA!AC6</f>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="6"/>
-        <v>4.2637499999999999</v>
+        <v>4.2662499999999994</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="7"/>
@@ -12917,63 +12917,63 @@
       </c>
       <c r="AE4" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8039933248320859</v>
+        <v>7.8047940530996636</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>15.201593417372095</v>
+        <v>15.203296583012968</v>
       </c>
       <c r="AG4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.238),((T4+(((TODAY()-E4)^0.5)/(336^0.238))+(LOG(O4)*4/3))*0.238))</f>
-        <v>2.0149118364010743</v>
+        <v>2.0167727865307676</v>
       </c>
       <c r="AH4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.92),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.92))</f>
-        <v>13.985465943982328</v>
+        <v>13.987032856371931</v>
       </c>
       <c r="AI4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.414),((S4+(((TODAY()-E4)^0.5)/(336^0.414))+(LOG(O4)*4/3))*0.414))</f>
-        <v>6.5280491352509316</v>
+        <v>6.529211981794111</v>
       </c>
       <c r="AJ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.167),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.167))</f>
-        <v>0.89037610070113993</v>
+        <v>0.89066052936316564</v>
       </c>
       <c r="AK4" s="213">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*0.588),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.588))</f>
-        <v>8.3407369294147902</v>
+        <v>8.3417383908116243</v>
       </c>
       <c r="AL4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.4),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.4))</f>
-        <v>6.0806373669488387</v>
+        <v>6.0813186332051874</v>
       </c>
       <c r="AM4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*1),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1))</f>
-        <v>5.3315934173720949</v>
+        <v>5.3332965830129675</v>
       </c>
       <c r="AN4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((W4+1+(LOG(O4)*4/3))*0.21)+((V4+1+(LOG(O4)*4/3))*0.341),((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.21)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.341))</f>
-        <v>5.1068579729720236</v>
+        <v>5.1112064172401448</v>
       </c>
       <c r="AO4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.305),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.305))</f>
-        <v>1.6261359922984888</v>
+        <v>1.6266554578189552</v>
       </c>
       <c r="AP4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*1)+((V4+1+(LOG(O4)*4/3))*0.286),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.286))</f>
-        <v>17.382862468073846</v>
+        <v>17.387912739088009</v>
       </c>
       <c r="AQ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.406),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.406))</f>
-        <v>2.1646269274530705</v>
+        <v>2.165318412703265</v>
       </c>
       <c r="AR4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.15)+((V4+1+(LOG(O4)*4/3))*0.324)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.15)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.324)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.144)+((W4+1+(LOG(O4)*4/3))*0.25)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.144)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.25)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)))</f>
-        <v>5.6205501704508603</v>
+        <v>5.6239375197497559</v>
       </c>
       <c r="AS4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)))</f>
-        <v>9.6638141879609769</v>
+        <v>9.6711619524726</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="B5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-896009.12149532686</v>
+        <v>-884521.62962962955</v>
       </c>
       <c r="C5" s="145">
         <v>30</v>
@@ -13003,18 +13003,18 @@
       </c>
       <c r="H5" s="145">
         <f ca="1">PLANTILLA!F7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J5" s="165">
         <v>3864250</v>
       </c>
       <c r="K5" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9553571428571429</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="3"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>329254.28571428574</v>
+        <v>332331.42857142858</v>
       </c>
       <c r="O5" s="148">
         <f>PLANTILLA!I7</f>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="V5" s="150">
         <f>PLANTILLA!AB7</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="W5" s="150">
         <f>PLANTILLA!AC7</f>
@@ -13078,7 +13078,7 @@
       </c>
       <c r="AA5" s="9">
         <f t="shared" ref="AA5" si="13">((S5+1)+(V5+1)*2)/8</f>
-        <v>4.3825000000000003</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" ref="AB5" si="14">X5*0.7+W5*0.3</f>
@@ -13094,63 +13094,63 @@
       </c>
       <c r="AE5" s="40">
         <f t="shared" ref="AE5" ca="1" si="17">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.516),((S5+(((TODAY()-E5)^0.5)/(336^0.516))+(LOG(O5)*4/3))*0.516))</f>
-        <v>8.1424884330668874</v>
+        <v>8.1437253074106124</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" ca="1" si="18">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*1),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>15.830169194311853</v>
+        <v>15.832800051707059</v>
       </c>
       <c r="AG5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.238),((T5+(((TODAY()-E5)^0.5)/(336^0.238))+(LOG(O5)*4/3))*0.238))</f>
-        <v>2.1126282362703073</v>
+        <v>2.1155028212744429</v>
       </c>
       <c r="AH5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.92),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.92))</f>
-        <v>14.563755658766906</v>
+        <v>14.566176047570496</v>
       </c>
       <c r="AI5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.414),((S5+(((TODAY()-E5)^0.5)/(336^0.414))+(LOG(O5)*4/3))*0.414))</f>
-        <v>6.7053533119245543</v>
+        <v>6.7071495455698305</v>
       </c>
       <c r="AJ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.167),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.167))</f>
-        <v>1.1439782554500793</v>
+        <v>1.1444176086350786</v>
       </c>
       <c r="AK5" s="213">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*0.588),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.588))</f>
-        <v>6.9620194862553682</v>
+        <v>6.9635664304037501</v>
       </c>
       <c r="AL5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.4),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.4))</f>
-        <v>6.3320676777247416</v>
+        <v>6.3331200206828235</v>
       </c>
       <c r="AM5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*1),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>6.8501691943118512</v>
+        <v>6.8528000517070575</v>
       </c>
       <c r="AN5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((W5+1+(LOG(O5)*4/3))*0.21)+((V5+1+(LOG(O5)*4/3))*0.341),((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.21)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.341))</f>
-        <v>4.29975322606583</v>
+        <v>4.3046128284905887</v>
       </c>
       <c r="AO5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.305),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.305))</f>
-        <v>2.0893016042651147</v>
+        <v>2.0901040157706525</v>
       </c>
       <c r="AP5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*1)+((V5+1+(LOG(O5)*4/3))*0.286),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.286))</f>
-        <v>14.94617758388504</v>
+        <v>14.952420866495277</v>
       </c>
       <c r="AQ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.406),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.406))</f>
-        <v>2.7811686928906116</v>
+        <v>2.7822368209930657</v>
       </c>
       <c r="AR5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.15)+((V5+1+(LOG(O5)*4/3))*0.324)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.15)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.324)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.144)+((W5+1+(LOG(O5)*4/3))*0.25)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.144)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.25)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)))</f>
-        <v>4.7807281502364747</v>
+        <v>4.7845988269393764</v>
       </c>
       <c r="AS5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)))</f>
-        <v>7.5528905127951447</v>
+        <v>7.5612828582221479</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B6" s="73">
         <f t="shared" ref="B6" ca="1" si="19">(N6+F6-J6)/K6</f>
-        <v>629353.29032258061</v>
+        <v>627770.18181818177</v>
       </c>
       <c r="C6" s="145">
         <v>29</v>
@@ -13180,18 +13180,18 @@
       </c>
       <c r="H6" s="145">
         <f ca="1">PLANTILLA!F8</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="49">
         <f t="shared" ref="I6" ca="1" si="20">E6+(H6-D6+(G6-C6)*112)</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J6" s="165">
         <v>1854360</v>
       </c>
       <c r="K6" s="40">
         <f t="shared" ref="K6" ca="1" si="21">(I6-E6)/112</f>
-        <v>1.6607142857142858</v>
+        <v>1.6696428571428572</v>
       </c>
       <c r="L6" s="74">
         <f t="shared" ref="L6" si="22">J6-F6</f>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="N6" s="76">
         <f t="shared" ref="N6" ca="1" si="23">((G6-C6)*M6*16)+(H6-D6)/7*M6</f>
-        <v>553536</v>
+        <v>556512</v>
       </c>
       <c r="O6" s="148">
         <f>PLANTILLA!I8</f>
@@ -13271,63 +13271,63 @@
       </c>
       <c r="AE6" s="40">
         <f t="shared" ref="AE6" ca="1" si="29">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.516),((S6+(((TODAY()-E6)^0.5)/(336^0.516))+(LOG(O6)*4/3))*0.516))</f>
-        <v>8.2061219431633941</v>
+        <v>8.207060995096283</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" ca="1" si="30">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*1),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>15.969461265644277</v>
+        <v>15.971458648591589</v>
       </c>
       <c r="AG6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.238),((T6+(((TODAY()-E6)^0.5)/(336^0.238))+(LOG(O6)*4/3))*0.238))</f>
-        <v>1.8233656978001249</v>
+        <v>1.8255481220844372</v>
       </c>
       <c r="AH6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.92),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.92))</f>
-        <v>14.691904364392736</v>
+        <v>14.693741956704264</v>
       </c>
       <c r="AI6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.414),((S6+(((TODAY()-E6)^0.5)/(336^0.414))+(LOG(O6)*4/3))*0.414))</f>
-        <v>6.8113178193477397</v>
+        <v>6.8126815445192364</v>
       </c>
       <c r="AJ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.167),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.167))</f>
-        <v>0.83324003136259428</v>
+        <v>0.83357359431479539</v>
       </c>
       <c r="AK6" s="213">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*0.588),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.588))</f>
-        <v>2.9279232241988349</v>
+        <v>2.929097685371854</v>
       </c>
       <c r="AL6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.4),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.4))</f>
-        <v>6.3877845062577112</v>
+        <v>6.388583459436636</v>
       </c>
       <c r="AM6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*1),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>4.9894612656442767</v>
+        <v>4.9914586485915891</v>
       </c>
       <c r="AN6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((W6+1+(LOG(O6)*4/3))*0.21)+((V6+1+(LOG(O6)*4/3))*0.341),((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.21)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.341))</f>
-        <v>5.1285831573699969</v>
+        <v>5.1296837153739663</v>
       </c>
       <c r="AO6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.305),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.305))</f>
-        <v>1.5217856860215044</v>
+        <v>1.5223948878204345</v>
       </c>
       <c r="AP6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*1)+((V6+1+(LOG(O6)*4/3))*0.286),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.286))</f>
-        <v>8.40558718761854</v>
+        <v>8.4081558220887835</v>
       </c>
       <c r="AQ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.406),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.406))</f>
-        <v>2.0257212738515764</v>
+        <v>2.0265322113281852</v>
       </c>
       <c r="AR6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.15)+((V6+1+(LOG(O6)*4/3))*0.324)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.15)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.324)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.144)+((W6+1+(LOG(O6)*4/3))*0.25)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.144)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.25)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)))</f>
-        <v>4.3430293194006682</v>
+        <v>4.3440699559162175</v>
       </c>
       <c r="AS6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)))</f>
-        <v>9.402043385115455</v>
+        <v>9.4042924383141298</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B7" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>509519.74440894579</v>
+        <v>509016.05095541407</v>
       </c>
       <c r="C7" s="145">
         <v>29</v>
@@ -13358,18 +13358,18 @@
       </c>
       <c r="H7" s="166">
         <f ca="1">PLANTILLA!F9</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J7" s="165">
         <v>3200000</v>
       </c>
       <c r="K7" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7946428571428572</v>
+        <v>2.8035714285714284</v>
       </c>
       <c r="L7" s="74">
         <f t="shared" si="3"/>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="N7" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>981925.71428571432</v>
+        <v>985062.85714285716</v>
       </c>
       <c r="O7" s="148">
         <f>PLANTILLA!I9</f>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="V7" s="150">
         <f>PLANTILLA!AB9</f>
-        <v>7.1728571428571426</v>
+        <v>7.1828571428571424</v>
       </c>
       <c r="W7" s="150">
         <f>PLANTILLA!AC9</f>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="6"/>
-        <v>4.0467857142857149</v>
+        <v>4.0492857142857144</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="7"/>
@@ -13449,63 +13449,63 @@
       </c>
       <c r="AE7" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>8.922257087763942</v>
+        <v>8.9229813736200132</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>17.376973904811752</v>
+        <v>17.378514475857109</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" ref="AG7:AG16" ca="1" si="31">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.238),((T7+(((TODAY()-E7)^0.5)/(336^0.238))+(LOG(O7)*4/3))*0.238))</f>
-        <v>4.2397920656296648</v>
+        <v>4.2414753580927451</v>
       </c>
       <c r="AH7" s="40">
         <f t="shared" ref="AH7:AH16" ca="1" si="32">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.92),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.92))</f>
-        <v>15.986815992426813</v>
+        <v>15.988233317788541</v>
       </c>
       <c r="AI7" s="40">
         <f t="shared" ref="AI7:AI16" ca="1" si="33">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.414),((S7+(((TODAY()-E7)^0.5)/(336^0.414))+(LOG(O7)*4/3))*0.414))</f>
-        <v>7.4534616482871998</v>
+        <v>7.454513482396357</v>
       </c>
       <c r="AJ7" s="40">
         <f t="shared" ref="AJ7:AJ16" ca="1" si="34">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.167),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.167))</f>
-        <v>2.3961832135321339</v>
+        <v>2.3964404888967086</v>
       </c>
       <c r="AK7" s="213">
         <f t="shared" ref="AK7:AK16" ca="1" si="35">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*0.588),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.588))</f>
-        <v>2.5627406560293089</v>
+        <v>2.5636465118039786</v>
       </c>
       <c r="AL7" s="40">
         <f t="shared" ref="AL7:AL16" ca="1" si="36">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.4),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.4))</f>
-        <v>6.9507895619247009</v>
+        <v>6.9514057903428439</v>
       </c>
       <c r="AM7" s="40">
         <f t="shared" ref="AM7:AM16" ca="1" si="37">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*1),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1))</f>
-        <v>14.348402476240322</v>
+        <v>14.349943047285679</v>
       </c>
       <c r="AN7" s="40">
         <f t="shared" ref="AN7:AN16" ca="1" si="38">IF(TODAY()-E7&gt;335,((W7+1+(LOG(O7)*4/3))*0.21)+((V7+1+(LOG(O7)*4/3))*0.341),((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.21)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.341))</f>
-        <v>4.5778140501227025</v>
+        <v>4.5820729047686948</v>
       </c>
       <c r="AO7" s="40">
         <f t="shared" ref="AO7:AO16" ca="1" si="39">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.305),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.305))</f>
-        <v>4.3762627552532978</v>
+        <v>4.3767326294221318</v>
       </c>
       <c r="AP7" s="40">
         <f t="shared" ref="AP7:AP16" ca="1" si="40">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*1)+((V7+1+(LOG(O7)*4/3))*0.286),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.286))</f>
-        <v>7.0814827273021965</v>
+        <v>7.0863239016665247</v>
       </c>
       <c r="AQ7" s="40">
         <f t="shared" ref="AQ7:AQ16" ca="1" si="41">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.406),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.406))</f>
-        <v>5.8254514053535713</v>
+        <v>5.8260768771979858</v>
       </c>
       <c r="AR7" s="40">
         <f t="shared" ref="AR7:AR16" ca="1" si="42">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.15)+((V7+1+(LOG(O7)*4/3))*0.324)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.15)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.324)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.144)+((W7+1+(LOG(O7)*4/3))*0.25)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.144)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.25)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)))</f>
-        <v>3.812901975835493</v>
+        <v>3.816204613350124</v>
       </c>
       <c r="AS7" s="40">
         <f t="shared" ref="AS7:AS16" ca="1" si="43">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)))</f>
-        <v>8.86533261681803</v>
+        <v>8.8724972998151017</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B8" s="73">
         <f ca="1">(N8+F8-J8)/K8</f>
-        <v>576223.15789473685</v>
+        <v>575945.54973821994</v>
       </c>
       <c r="C8" s="145">
         <v>30</v>
@@ -13536,18 +13536,18 @@
       </c>
       <c r="H8" s="145">
         <f ca="1">PLANTILLA!F10</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" s="49">
         <f ca="1">E8+(H8-D8+(G8-C8)*112)</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J8" s="165">
         <v>3160050</v>
       </c>
       <c r="K8" s="40">
         <f ca="1">(I8-E8)/112</f>
-        <v>1.6964285714285714</v>
+        <v>1.7053571428571428</v>
       </c>
       <c r="L8" s="74">
         <f>J8-F8</f>
@@ -13559,7 +13559,7 @@
       </c>
       <c r="N8" s="76">
         <f ca="1">((G8-C8)*M8*16)+(H8-D8)/7*M8</f>
-        <v>887571.42857142864</v>
+        <v>892242.85714285716</v>
       </c>
       <c r="O8" s="148">
         <f>PLANTILLA!I10</f>
@@ -13627,63 +13627,63 @@
       </c>
       <c r="AE8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.516),((S8+(((TODAY()-E8)^0.5)/(336^0.516))+(LOG(O8)*4/3))*0.516))</f>
-        <v>7.2086234832395419</v>
+        <v>7.2095526240219314</v>
       </c>
       <c r="AF8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*1),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>14.037031945858537</v>
+        <v>14.039008247583073</v>
       </c>
       <c r="AG8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.238),((T8+(((TODAY()-E8)^0.5)/(336^0.238))+(LOG(O8)*4/3))*0.238))</f>
-        <v>4.7070085036998028</v>
+        <v>4.7091678937569581</v>
       </c>
       <c r="AH8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.92),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.92))</f>
-        <v>12.914069390189855</v>
+        <v>12.915887587776428</v>
       </c>
       <c r="AI8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.414),((S8+(((TODAY()-E8)^0.5)/(336^0.414))+(LOG(O8)*4/3))*0.414))</f>
-        <v>6.0134307605661723</v>
+        <v>6.0147800924065429</v>
       </c>
       <c r="AJ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.167),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.167))</f>
-        <v>2.8518643349583757</v>
+        <v>2.8521943773463732</v>
       </c>
       <c r="AK8" s="213">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*0.588),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.588))</f>
-        <v>2.3796547841648201</v>
+        <v>2.3808168495788471</v>
       </c>
       <c r="AL8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.4),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.4))</f>
-        <v>5.6148127783434152</v>
+        <v>5.6156032990332294</v>
       </c>
       <c r="AM8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*1),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>17.077031945858536</v>
+        <v>17.079008247583072</v>
       </c>
       <c r="AN8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((W8+1+(LOG(O8)*4/3))*0.21)+((V8+1+(LOG(O8)*4/3))*0.341),((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.21)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.341))</f>
-        <v>4.424375713279165</v>
+        <v>4.4254646555293844</v>
       </c>
       <c r="AO8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.305),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.305))</f>
-        <v>5.2084947434868534</v>
+        <v>5.2090975155128367</v>
       </c>
       <c r="AP8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*1)+((V8+1+(LOG(O8)*4/3))*0.286),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.286))</f>
-        <v>7.0174053045963012</v>
+        <v>7.0199468286140547</v>
       </c>
       <c r="AQ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.406),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.406))</f>
-        <v>6.9332749700185659</v>
+        <v>6.9340773485187279</v>
       </c>
       <c r="AR8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.15)+((V8+1+(LOG(O8)*4/3))*0.324)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.15)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.324)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.144)+((W8+1+(LOG(O8)*4/3))*0.25)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.144)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.25)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)))</f>
-        <v>3.7131225326811865</v>
+        <v>3.7141521858796702</v>
       </c>
       <c r="AS8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)))</f>
-        <v>8.0903113043700472</v>
+        <v>8.0925366201118756</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B9" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>535220.89589905355</v>
+        <v>534634.26415094337</v>
       </c>
       <c r="C9" s="145">
         <v>29</v>
@@ -13714,18 +13714,18 @@
       </c>
       <c r="H9" s="166">
         <f ca="1">PLANTILLA!F11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J9" s="165">
         <v>1640000</v>
       </c>
       <c r="K9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8303571428571428</v>
+        <v>2.8392857142857144</v>
       </c>
       <c r="L9" s="74">
         <f t="shared" si="3"/>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="N9" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>986866.28571428568</v>
+        <v>989979.42857142852</v>
       </c>
       <c r="O9" s="148">
         <f>PLANTILLA!I11</f>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="V9" s="150">
         <f>PLANTILLA!AB11</f>
-        <v>12.415873015873014</v>
+        <v>12.487301587301586</v>
       </c>
       <c r="W9" s="150">
         <f>PLANTILLA!AC11</f>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="6"/>
-        <v>4.1064192343604109</v>
+        <v>4.1242763772175532</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="7"/>
@@ -13805,63 +13805,63 @@
       </c>
       <c r="AE9" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7493509357344812</v>
+        <v>3.7500706446931344</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3525083444749466</v>
+        <v>7.3540391803645226</v>
       </c>
       <c r="AG9" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>4.767336612265753</v>
+        <v>4.7690092676897935</v>
       </c>
       <c r="AH9" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>6.7643076769169515</v>
+        <v>6.7657160459353607</v>
       </c>
       <c r="AI9" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>3.3049851169719546</v>
+        <v>3.3060303043451897</v>
       </c>
       <c r="AJ9" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.7626643837233953</v>
+        <v>2.7629200333169543</v>
       </c>
       <c r="AK9" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>4.3117454947865621</v>
+        <v>4.3126456262896333</v>
       </c>
       <c r="AL9" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.9410033377899789</v>
+        <v>2.9416156721458093</v>
       </c>
       <c r="AM9" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>16.542900501337694</v>
+        <v>16.54443133722727</v>
       </c>
       <c r="AN9" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>6.2353408746497658</v>
+        <v>6.2605415080820652</v>
       </c>
       <c r="AO9" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>5.0455846529079968</v>
+        <v>5.0460515578543168</v>
       </c>
       <c r="AP9" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>11.551049727259953</v>
+        <v>11.57344695364252</v>
       </c>
       <c r="AQ9" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>6.7164176035431042</v>
+        <v>6.7170391229142723</v>
       </c>
       <c r="AR9" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.472479415165191</v>
+        <v>5.4911341235208031</v>
       </c>
       <c r="AS9" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>11.356695012125288</v>
+        <v>11.397204447622665</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="B10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-13095.999999999627</v>
+        <v>-8342.9135802472811</v>
       </c>
       <c r="C10" s="145">
         <v>29</v>
@@ -13891,18 +13891,18 @@
       </c>
       <c r="H10" s="166">
         <f ca="1">PLANTILLA!F12</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I10" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J10" s="165">
         <v>4125000</v>
       </c>
       <c r="K10" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7142857142857143</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="L10" s="74">
         <f t="shared" si="3"/>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="N10" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>265645.71428571432</v>
+        <v>268966.28571428568</v>
       </c>
       <c r="O10" s="148">
         <f>PLANTILLA!I12</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="V10" s="150">
         <f>PLANTILLA!AB12</f>
-        <v>6.4736111111111114</v>
+        <v>6.9986111111111118</v>
       </c>
       <c r="W10" s="150">
         <f>PLANTILLA!AC12</f>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="Y10" s="149">
         <f>PLANTILLA!AE12</f>
-        <v>1360</v>
+        <v>1396</v>
       </c>
       <c r="Z10" s="149">
         <f t="shared" si="5"/>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="6"/>
-        <v>2.2434027777777779</v>
+        <v>2.3746527777777779</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="7"/>
@@ -13982,63 +13982,63 @@
       </c>
       <c r="AE10" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8017123219430182</v>
+        <v>1.8031416528771926</v>
       </c>
       <c r="AF10" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5350564831552895</v>
+        <v>3.5380966997120056</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.8817750766922372</v>
+        <v>3.8850969446654635</v>
       </c>
       <c r="AH10" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>3.2522519645028667</v>
+        <v>3.2550489637350455</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>1.5946528791240557</v>
+        <v>1.5967286051888927</v>
       </c>
       <c r="AJ10" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.431149887232388</v>
+        <v>2.4316576033973596</v>
       </c>
       <c r="AK10" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.1386058046879022</v>
+        <v>9.1403934520232504</v>
       </c>
       <c r="AL10" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>1.414022593262116</v>
+        <v>1.4152386798848022</v>
       </c>
       <c r="AM10" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.557783755882562</v>
+        <v>14.560823972439279</v>
       </c>
       <c r="AN10" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.1054175111074533</v>
+        <v>4.2861176704302038</v>
       </c>
       <c r="AO10" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.4401240455441817</v>
+        <v>4.4410513115939798</v>
       </c>
       <c r="AP10" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>17.83232553857227</v>
+        <v>17.986385257064207</v>
       </c>
       <c r="AQ10" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.910460204888321</v>
+        <v>5.9116945328103476</v>
       </c>
       <c r="AR10" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.0714149832794613</v>
+        <v>5.2042489361055093</v>
       </c>
       <c r="AS10" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.1644744333661894</v>
+        <v>8.4529727172090521</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B11" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-161727.30054644818</v>
+        <v>-159398.95652173902</v>
       </c>
       <c r="C11" s="145">
         <v>30</v>
@@ -14069,18 +14069,18 @@
       </c>
       <c r="H11" s="166">
         <f ca="1">PLANTILLA!F13</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J11" s="165">
         <v>3110000</v>
       </c>
       <c r="K11" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6339285714285714</v>
+        <v>1.6428571428571428</v>
       </c>
       <c r="L11" s="74">
         <f t="shared" si="3"/>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="N11" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>435749.14285714284</v>
+        <v>438130.28571428574</v>
       </c>
       <c r="O11" s="148">
         <f>PLANTILLA!I13</f>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="V11" s="150">
         <f>PLANTILLA!AB13</f>
-        <v>8.4999999999999982</v>
+        <v>8.5999999999999979</v>
       </c>
       <c r="W11" s="150">
         <f>PLANTILLA!AC13</f>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="6"/>
-        <v>2.9999999999999996</v>
+        <v>3.0249999999999995</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="7"/>
@@ -14160,63 +14160,63 @@
       </c>
       <c r="AE11" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0573530567736351</v>
+        <v>3.0582997537882664</v>
       </c>
       <c r="AF11" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9906915625309614</v>
+        <v>5.9927052067257796</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.9659187379762209</v>
+        <v>3.9681189299807889</v>
       </c>
       <c r="AH11" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5114362375284847</v>
+        <v>5.5132887901877172</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>2.6784880193732703</v>
+        <v>2.6798628470089061</v>
       </c>
       <c r="AJ11" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.3402409454881257</v>
+        <v>2.3405772240686602</v>
       </c>
       <c r="AK11" s="213">
         <f t="shared" ca="1" si="35"/>
-        <v>9.4417266387682055</v>
+        <v>9.4429106615547589</v>
       </c>
       <c r="AL11" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.3962766250123848</v>
+        <v>2.3970820826903121</v>
       </c>
       <c r="AM11" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.013418835258236</v>
+        <v>14.015432479453054</v>
       </c>
       <c r="AN11" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6274710509545596</v>
+        <v>4.6626805689059037</v>
       </c>
       <c r="AO11" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.2740927447537613</v>
+        <v>4.2747069062331811</v>
       </c>
       <c r="AP11" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>19.057696016081483</v>
+        <v>19.088885562516019</v>
       </c>
       <c r="AQ11" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.6894480471148441</v>
+        <v>5.6902655866579401</v>
       </c>
       <c r="AR11" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.5700203040786302</v>
+        <v>5.5960694127041304</v>
       </c>
       <c r="AS11" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.6118486994098618</v>
+        <v>8.6684160627732272</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="B12" s="73">
         <f t="shared" ref="B12" ca="1" si="44">(N12+F12-J12)/K12</f>
-        <v>299584</v>
+        <v>299537.48837209301</v>
       </c>
       <c r="C12" s="145">
         <v>29</v>
@@ -14247,18 +14247,18 @@
       </c>
       <c r="H12" s="166">
         <f ca="1">PLANTILLA!F14</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="49">
         <f t="shared" ref="I12" ca="1" si="45">E12+(H12-D12+(G12-C12)*112)</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J12" s="165">
         <v>3000000</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" ref="K12" ca="1" si="46">(I12-E12)/112</f>
-        <v>3.0625</v>
+        <v>3.0714285714285716</v>
       </c>
       <c r="L12" s="74">
         <f t="shared" ref="L12" si="47">J12-F12</f>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="N12" s="76">
         <f t="shared" ref="N12" ca="1" si="48">((G12-C12)*M12*16)+(H12-D12)/7*M12</f>
-        <v>868476</v>
+        <v>871008</v>
       </c>
       <c r="O12" s="148">
         <f>PLANTILLA!I14</f>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="V12" s="150">
         <f>PLANTILLA!AB14</f>
-        <v>10.856666666666666</v>
+        <v>10.936666666666666</v>
       </c>
       <c r="W12" s="150">
         <f>PLANTILLA!AC14</f>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="AA12" s="9">
         <f t="shared" ref="AA12" si="50">((S12+1)+(V12+1)*2)/8</f>
-        <v>3.2187962962962962</v>
+        <v>3.2387962962962962</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" ref="AB12" si="51">X12*0.7+W12*0.3</f>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="AN12" s="40">
         <f t="shared" ref="AN12" ca="1" si="63">IF(TODAY()-E12&gt;335,((W12+1+(LOG(O12)*4/3))*0.21)+((V12+1+(LOG(O12)*4/3))*0.341),((W12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.21)+((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.341))</f>
-        <v>5.6325082595210887</v>
+        <v>5.659788259521088</v>
       </c>
       <c r="AO12" s="40">
         <f t="shared" ref="AO12" ca="1" si="64">IF(TODAY()-E12&gt;335,((T12+1+(LOG(O12)*4/3))*0.305),((T12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.305))</f>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="AP12" s="40">
         <f t="shared" ref="AP12" ca="1" si="65">IF(TODAY()-E12&gt;335,((U12+1+(LOG(O12)*4/3))*1)+((V12+1+(LOG(O12)*4/3))*0.286),((U12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*1)+((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.286))</f>
-        <v>20.178938279699615</v>
+        <v>20.201818279699616</v>
       </c>
       <c r="AQ12" s="40">
         <f t="shared" ref="AQ12" ca="1" si="66">IF(TODAY()-E12&gt;335,((T12+1+(LOG(O12)*4/3))*0.406),((T12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.406))</f>
@@ -14390,11 +14390,11 @@
       </c>
       <c r="AR12" s="40">
         <f t="shared" ref="AR12" ca="1" si="67">IF(Q12="TEC",IF(TODAY()-E12&gt;335,((V12+1+(LOG(O12)*4/3))*0.15)+((V12+1+(LOG(O12)*4/3))*0.324)+((W12+1+(LOG(O12)*4/3))*0.127),((U12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.15)+((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.324)+((W12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.127)),IF(TODAY()-E12&gt;335,((V12+1+(LOG(O12)*4/3))*0.144)+((W12+1+(LOG(O12)*4/3))*0.25)+((W12+1+(LOG(O12)*4/3))*0.127),((U12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.144)+((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.25)+((W12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.127)))</f>
-        <v>3.931080919317278</v>
+        <v>3.9426009193172784</v>
       </c>
       <c r="AS12" s="40">
         <f t="shared" ref="AS12" ca="1" si="68">IF(Q12="TEC",IF(TODAY()-E12&gt;335,((V12+1+(LOG(O12)*4/3))*0.543)+((W12+1+(LOG(O12)*4/3))*0.583),((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.543)+((W12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.583)),IF(TODAY()-E12&gt;335,((V12+1+(LOG(O12)*4/3))*0.543)+((W12+1+(LOG(O12)*4/3))*0.583),((V12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.543)+((W12+(((TODAY()-E12)^0.5)/(336^0.5))+(LOG(O12)*4/3))*0.583)))</f>
-        <v>10.307735057871891</v>
+        <v>10.351175057871892</v>
       </c>
     </row>
     <row r="13" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="B13" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-3866.4347826086955</v>
+        <v>-3111.1937984495894</v>
       </c>
       <c r="C13" s="145">
         <v>24</v>
@@ -14425,18 +14425,18 @@
       </c>
       <c r="H13" s="166">
         <f ca="1">PLANTILLA!F15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J13" s="165">
         <v>5200000</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.75</v>
+        <v>5.7589285714285712</v>
       </c>
       <c r="L13" s="74">
         <f t="shared" si="3"/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="N13" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>2778768</v>
+        <v>2783082.8571428573</v>
       </c>
       <c r="O13" s="148">
         <f>PLANTILLA!I15</f>
@@ -14480,7 +14480,7 @@
       </c>
       <c r="V13" s="150">
         <f>PLANTILLA!AB15</f>
-        <v>14.410000000000004</v>
+        <v>14.460000000000004</v>
       </c>
       <c r="W13" s="150">
         <f>PLANTILLA!AC15</f>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="AA13" s="9">
         <f t="shared" si="6"/>
-        <v>4.2275000000000009</v>
+        <v>4.2400000000000011</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="7"/>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="AN13" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>7.8785354728709578</v>
+        <v>7.8955854728709589</v>
       </c>
       <c r="AO13" s="40">
         <f t="shared" ca="1" si="39"/>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="AP13" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>9.19288542912048</v>
+        <v>9.2071854291204822</v>
       </c>
       <c r="AQ13" s="40">
         <f t="shared" ca="1" si="41"/>
@@ -14568,11 +14568,11 @@
       </c>
       <c r="AR13" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>6.3246910438176887</v>
+        <v>6.3318910438176887</v>
       </c>
       <c r="AS13" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>15.130314177873419</v>
+        <v>15.157464177873422</v>
       </c>
     </row>
     <row r="14" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="B14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>146833.13984168868</v>
+        <v>147231.83135704868</v>
       </c>
       <c r="C14" s="145">
         <v>22</v>
@@ -14603,18 +14603,18 @@
       </c>
       <c r="H14" s="166">
         <f ca="1">PLANTILLA!F16</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J14" s="165">
         <v>4910000</v>
       </c>
       <c r="K14" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7678571428571432</v>
+        <v>6.7767857142857144</v>
       </c>
       <c r="L14" s="74">
         <f t="shared" si="3"/>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="N14" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3041745.7142857141</v>
+        <v>3045758.5714285714</v>
       </c>
       <c r="O14" s="148">
         <f>PLANTILLA!I16</f>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="V14" s="150">
         <f>PLANTILLA!AB16</f>
-        <v>14.092888888888881</v>
+        <v>14.142888888888882</v>
       </c>
       <c r="W14" s="150">
         <f>PLANTILLA!AC16</f>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="AA14" s="9">
         <f t="shared" si="6"/>
-        <v>4.1732222222222202</v>
+        <v>4.1857222222222203</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="7"/>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="AN14" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>7.997112293271238</v>
+        <v>8.0141622932712373</v>
       </c>
       <c r="AO14" s="40">
         <f t="shared" ca="1" si="39"/>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="AP14" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>8.2313971047229924</v>
+        <v>8.2456971047229928</v>
       </c>
       <c r="AQ14" s="40">
         <f t="shared" ca="1" si="41"/>
@@ -14746,11 +14746,11 @@
       </c>
       <c r="AR14" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>9.2078651345642495</v>
+        <v>9.2315651345642511</v>
       </c>
       <c r="AS14" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>15.611309968140898</v>
+        <v>15.6384599681409</v>
       </c>
     </row>
     <row r="15" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="B15" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>154204.82882882882</v>
+        <v>154644.07197943446</v>
       </c>
       <c r="C15" s="145">
         <v>23</v>
@@ -14781,18 +14781,18 @@
       </c>
       <c r="H15" s="166">
         <f ca="1">PLANTILLA!F17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J15" s="165">
         <v>4910760</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9375</v>
+        <v>6.9464285714285712</v>
       </c>
       <c r="L15" s="74">
         <f t="shared" si="3"/>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="N15" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3440556</v>
+        <v>3444984</v>
       </c>
       <c r="O15" s="148">
         <f>PLANTILLA!I17</f>
@@ -14836,7 +14836,7 @@
       </c>
       <c r="V15" s="150">
         <f>PLANTILLA!AB17</f>
-        <v>14.215999999999999</v>
+        <v>14.266</v>
       </c>
       <c r="W15" s="150">
         <f>PLANTILLA!AC17</f>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="6"/>
-        <v>4.3289999999999997</v>
+        <v>4.3414999999999999</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="7"/>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AN15" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>8.0378767569420848</v>
+        <v>8.0549267569420842</v>
       </c>
       <c r="AO15" s="40">
         <f t="shared" ca="1" si="39"/>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="AP15" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>9.3513983111207288</v>
+        <v>9.365698311120731</v>
       </c>
       <c r="AQ15" s="40">
         <f t="shared" ca="1" si="41"/>
@@ -14924,11 +14924,11 @@
       </c>
       <c r="AR15" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>6.6873757139143848</v>
+        <v>6.694575713914384</v>
       </c>
       <c r="AS15" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>15.63874874830633</v>
+        <v>15.665898748306329</v>
       </c>
     </row>
     <row r="16" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="B16" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-125682.03045685281</v>
+        <v>-124887.60456273757</v>
       </c>
       <c r="C16" s="145">
         <v>22</v>
@@ -14959,18 +14959,18 @@
       </c>
       <c r="H16" s="166">
         <f ca="1">PLANTILLA!F18</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="J16" s="165">
         <v>7062000</v>
       </c>
       <c r="K16" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0357142857142856</v>
+        <v>7.0446428571428568</v>
       </c>
       <c r="L16" s="74">
         <f t="shared" si="3"/>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="N16" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3525737.1428571427</v>
+        <v>3530211.4285714286</v>
       </c>
       <c r="O16" s="148">
         <f>PLANTILLA!I18</f>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="V16" s="150">
         <f>PLANTILLA!AB18</f>
-        <v>14.302222222222222</v>
+        <v>14.352222222222222</v>
       </c>
       <c r="W16" s="150">
         <f>PLANTILLA!AC18</f>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="6"/>
-        <v>4.2053632478632474</v>
+        <v>4.2178632478632476</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="7"/>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="AN16" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>8.2663787197966521</v>
+        <v>8.2834287197966514</v>
       </c>
       <c r="AO16" s="40">
         <f t="shared" ca="1" si="39"/>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="AP16" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>11.152905630757498</v>
+        <v>11.167205630757499</v>
       </c>
       <c r="AQ16" s="40">
         <f t="shared" ca="1" si="41"/>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="AR16" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>7.0656526644739861</v>
+        <v>7.0728526644739853</v>
       </c>
       <c r="AS16" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>16.24557503940699</v>
+        <v>16.272725039406989</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -39240,7 +39240,7 @@
       </c>
       <c r="U8" s="128">
         <f ca="1">PLANTILLA!F4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V8" s="128"/>
       <c r="W8" s="123">
@@ -39261,7 +39261,7 @@
       </c>
       <c r="AA8" s="123">
         <f>PLANTILLA!AB4</f>
-        <v>2.3199999999999998</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="AB8" s="123">
         <f>PLANTILLA!AC4</f>
@@ -39334,7 +39334,7 @@
       </c>
       <c r="U9" s="128">
         <f ca="1">PLANTILLA!F5</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V9" s="128" t="str">
         <f>PLANTILLA!G5</f>
@@ -39358,7 +39358,7 @@
       </c>
       <c r="AA9" s="123">
         <f>PLANTILLA!AB5</f>
-        <v>7.0399999999999991</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="AB9" s="123">
         <f>PLANTILLA!AC5</f>
@@ -39431,7 +39431,7 @@
       </c>
       <c r="U10" s="128">
         <f ca="1">PLANTILLA!F6</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" s="128"/>
       <c r="W10" s="123">
@@ -39452,7 +39452,7 @@
       </c>
       <c r="AA10" s="123">
         <f>PLANTILLA!AB6</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="AB10" s="123">
         <f>PLANTILLA!AC6</f>
@@ -39525,7 +39525,7 @@
       </c>
       <c r="U11" s="130">
         <f ca="1">PLANTILLA!F8</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V11" s="128"/>
       <c r="W11" s="123">
@@ -39619,7 +39619,7 @@
       </c>
       <c r="U12" s="130">
         <f ca="1">PLANTILLA!F10</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V12" s="128" t="str">
         <f>PLANTILLA!G10</f>
@@ -39716,7 +39716,7 @@
       </c>
       <c r="U13" s="128">
         <f ca="1">PLANTILLA!F9</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" s="128" t="str">
         <f>PLANTILLA!G9</f>
@@ -39740,7 +39740,7 @@
       </c>
       <c r="AA13" s="123">
         <f>PLANTILLA!AB9</f>
-        <v>7.1728571428571426</v>
+        <v>7.1828571428571424</v>
       </c>
       <c r="AB13" s="123">
         <f>PLANTILLA!AC9</f>
@@ -39813,7 +39813,7 @@
       </c>
       <c r="U14" s="130">
         <f ca="1">PLANTILLA!F7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V14" s="128"/>
       <c r="W14" s="123">
@@ -39834,7 +39834,7 @@
       </c>
       <c r="AA14" s="123">
         <f>PLANTILLA!AB7</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="AB14" s="123">
         <f>PLANTILLA!AC7</f>
@@ -39907,7 +39907,7 @@
       </c>
       <c r="U15" s="130">
         <f ca="1">PLANTILLA!F13</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" s="128"/>
       <c r="W15" s="123">
@@ -39928,7 +39928,7 @@
       </c>
       <c r="AA15" s="123">
         <f>PLANTILLA!AB13</f>
-        <v>8.4999999999999982</v>
+        <v>8.5999999999999979</v>
       </c>
       <c r="AB15" s="123">
         <f>PLANTILLA!AC13</f>
@@ -40001,7 +40001,7 @@
       </c>
       <c r="U16" s="130">
         <f ca="1">PLANTILLA!F14</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V16" s="128" t="str">
         <f>PLANTILLA!G14</f>
@@ -40025,7 +40025,7 @@
       </c>
       <c r="AA16" s="123">
         <f>PLANTILLA!AB14</f>
-        <v>10.856666666666666</v>
+        <v>10.936666666666666</v>
       </c>
       <c r="AB16" s="123">
         <f>PLANTILLA!AC14</f>
@@ -40099,7 +40099,7 @@
       </c>
       <c r="U17" s="130">
         <f ca="1">PLANTILLA!F11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V17" s="128" t="str">
         <f>PLANTILLA!G11</f>
@@ -40123,7 +40123,7 @@
       </c>
       <c r="AA17" s="123">
         <f>PLANTILLA!AB11</f>
-        <v>12.415873015873014</v>
+        <v>12.487301587301586</v>
       </c>
       <c r="AB17" s="123">
         <f>PLANTILLA!AC11</f>
@@ -40196,7 +40196,7 @@
       </c>
       <c r="U18" s="130">
         <f ca="1">PLANTILLA!F12</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V18" s="128" t="str">
         <f>PLANTILLA!G12</f>
@@ -40220,7 +40220,7 @@
       </c>
       <c r="AA18" s="123">
         <f>PLANTILLA!AB12</f>
-        <v>6.4736111111111114</v>
+        <v>6.9986111111111118</v>
       </c>
       <c r="AB18" s="123">
         <f>PLANTILLA!AC12</f>
@@ -40293,7 +40293,7 @@
       </c>
       <c r="U19" s="130">
         <f ca="1">PLANTILLA!F18</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V19" s="128" t="str">
         <f>PLANTILLA!G18</f>
@@ -40317,7 +40317,7 @@
       </c>
       <c r="AA19" s="123">
         <f>PLANTILLA!AB18</f>
-        <v>14.302222222222222</v>
+        <v>14.352222222222222</v>
       </c>
       <c r="AB19" s="123">
         <f>PLANTILLA!AC18</f>
@@ -40390,7 +40390,7 @@
       </c>
       <c r="U20" s="130">
         <f ca="1">PLANTILLA!F15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" s="128" t="str">
         <f>PLANTILLA!G15</f>
@@ -40414,7 +40414,7 @@
       </c>
       <c r="AA20" s="123">
         <f>PLANTILLA!AB15</f>
-        <v>14.410000000000004</v>
+        <v>14.460000000000004</v>
       </c>
       <c r="AB20" s="123">
         <f>PLANTILLA!AC15</f>
@@ -40487,7 +40487,7 @@
       </c>
       <c r="U21" s="130">
         <f ca="1">PLANTILLA!F16</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V21" s="128" t="str">
         <f>PLANTILLA!G16</f>
@@ -40511,7 +40511,7 @@
       </c>
       <c r="AA21" s="123">
         <f>PLANTILLA!AB16</f>
-        <v>14.092888888888881</v>
+        <v>14.142888888888882</v>
       </c>
       <c r="AB21" s="123">
         <f>PLANTILLA!AC16</f>
@@ -40584,7 +40584,7 @@
       </c>
       <c r="U22" s="130">
         <f ca="1">PLANTILLA!F17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" s="128" t="str">
         <f>PLANTILLA!G17</f>
@@ -40608,7 +40608,7 @@
       </c>
       <c r="AA22" s="123">
         <f>PLANTILLA!AB17</f>
-        <v>14.215999999999999</v>
+        <v>14.266</v>
       </c>
       <c r="AB22" s="123">
         <f>PLANTILLA!AC17</f>
@@ -40664,11 +40664,11 @@
   </sheetPr>
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40721,7 +40721,7 @@
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" s="33">
         <f ca="1">TODAY()</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="I2" s="35">
         <f>AVERAGE(I4:I18)</f>
@@ -40730,7 +40730,7 @@
       <c r="J2" s="35"/>
       <c r="N2" s="40">
         <f ca="1">AVERAGE(N4:N18)</f>
-        <v>0.83162013378559108</v>
+        <v>0.83304038641775924</v>
       </c>
       <c r="O2" s="35">
         <f>AVERAGE(O4:O18)</f>
@@ -40738,23 +40738,23 @@
       </c>
       <c r="Q2" s="35">
         <f>AVERAGE(Q4:Q18)</f>
-        <v>5.4666666666666668</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="R2" s="133">
         <f>AVERAGE(R4:R18)</f>
-        <v>0.88022163037364909</v>
+        <v>0.88573758796654745</v>
       </c>
       <c r="S2" s="133">
         <f>AVERAGE(S4:S18)</f>
-        <v>0.94858878877236519</v>
+        <v>0.9490699172458571</v>
       </c>
       <c r="T2" s="41">
         <f>SUM(T4:T18)</f>
-        <v>1864910</v>
+        <v>1847600</v>
       </c>
       <c r="U2" s="41">
         <f>SUM(U4:U18)</f>
-        <v>-24480</v>
+        <v>-17310</v>
       </c>
       <c r="V2" s="41">
         <f>SUM(V4:V18)</f>
@@ -40762,7 +40762,7 @@
       </c>
       <c r="W2" s="42">
         <f>T2/V2</f>
-        <v>5.3979321882796985</v>
+        <v>5.3478288555831499</v>
       </c>
       <c r="AD2" s="40">
         <f>AVERAGE(AD4:AD18)</f>
@@ -40770,7 +40770,7 @@
       </c>
       <c r="AE2" s="36">
         <f>AVERAGE(AE4:AE18)</f>
-        <v>1604.8666666666666</v>
+        <v>1607.2666666666667</v>
       </c>
       <c r="AF2" s="36"/>
       <c r="AK2" s="35"/>
@@ -40933,7 +40933,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">((33*112)-(E4*112)-(F4))/112</f>
-        <v>2.8214285714285716</v>
+        <v>2.8125</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>47</v>
@@ -40943,7 +40943,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">17+D2-D1-112-112-112-112-112-112-112</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="5">
@@ -40979,29 +40979,29 @@
         <v>98</v>
       </c>
       <c r="Q4" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4" s="132">
         <f>(Q4/7)^0.5</f>
-        <v>0.92582009977255142</v>
+        <v>1</v>
       </c>
       <c r="S4" s="132">
         <f>IF(Q4=7,1,((Q4+0.99)/7)^0.5)</f>
-        <v>0.99928545900129484</v>
+        <v>1</v>
       </c>
       <c r="T4" s="32">
-        <v>55950</v>
+        <v>54020</v>
       </c>
       <c r="U4" s="32">
         <f>T4-AS4</f>
-        <v>1040</v>
+        <v>-1930</v>
       </c>
       <c r="V4" s="32">
         <v>16820</v>
       </c>
       <c r="W4" s="9">
         <f t="shared" ref="W4:W8" si="2">T4/V4</f>
-        <v>3.3263971462544588</v>
+        <v>3.211652794292509</v>
       </c>
       <c r="X4" s="23">
         <v>14</v>
@@ -41019,8 +41019,8 @@
         <v>0.01</v>
       </c>
       <c r="AB4" s="23">
-        <f>0.74+0.09+0.09+0.09+0.09+0.09+0.08+0.08+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.03+0.03+0.02+0.02+0.02+0.02+0.02+0.01</f>
-        <v>2.3199999999999998</v>
+        <f>0.74+0.09+0.09+0.09+0.09+0.09+0.08+0.08+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.05+0.03+0.03+0.02+0.02+0.02+0.02+0.02+0.01+0.01</f>
+        <v>2.3299999999999996</v>
       </c>
       <c r="AC4" s="24">
         <f>0.12+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.05+0.05+0.05+0.05+0.05+0.03+0.03+0.03+0.03+0.03+0.01</f>
@@ -41036,7 +41036,7 @@
       <c r="AF4" s="10"/>
       <c r="AG4" s="25">
         <f ca="1">(AD4+1+(LOG(I4)*4/3)+N4)*(Q4/7)^0.5</f>
-        <v>20.846760148158541</v>
+        <v>22.517074487019691</v>
       </c>
       <c r="AH4" s="25">
         <f ca="1">(AD4+1+N4+(LOG(I4)*4/3))*(IF(Q4=7, (Q4/7)^0.5, ((Q4+1)/7)^0.5))</f>
@@ -41044,7 +41044,7 @@
       </c>
       <c r="AI4" s="137">
         <f ca="1">(Z4+N4+(LOG(I4)*4/3))*(Q4/7)^0.5</f>
-        <v>2.3581327557006926</v>
+        <v>2.5470744870196933</v>
       </c>
       <c r="AJ4" s="137">
         <f ca="1">(Z4+N4+(LOG(I4)*4/3))*(IF(Q4=7, (Q4/7)^0.5, ((Q4+1)/7)^0.5))</f>
@@ -41052,7 +41052,7 @@
       </c>
       <c r="AK4" s="9">
         <f ca="1">(((Y4+LOG(I4)*4/3+N4)+(AB4+LOG(I4)*4/3+N4)*2)/8)*(Q4/7)^0.5</f>
-        <v>2.6395003892065549</v>
+        <v>2.8534862659657181</v>
       </c>
       <c r="AL4" s="9">
         <f ca="1">(AD4+LOG(I4)*4/3+N4)*0.7+(AC4+LOG(I4)*4/3+N4)*0.3</f>
@@ -41080,7 +41080,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS4">
-        <v>54910</v>
+        <v>55950</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -41092,7 +41092,7 @@
       </c>
       <c r="C5" s="138">
         <f t="shared" ref="C5:C18" ca="1" si="3">((33*112)-(E5*112)-(F5))/112</f>
-        <v>1.0892857142857142</v>
+        <v>1.0803571428571428</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>261</v>
@@ -41102,7 +41102,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">72+D2-D1-112-112-112-112-112+17-112-112+10</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>74</v>
@@ -41130,7 +41130,7 @@
       </c>
       <c r="N5" s="154">
         <f t="shared" ref="N5:N18" ca="1" si="5">IF((TODAY()-M5)&gt;335,1,((TODAY()-M5)^0.64)/(336^0.64))</f>
-        <v>0.77803549598249677</v>
+        <v>0.78022734029733887</v>
       </c>
       <c r="O5" s="21">
         <v>7.2</v>
@@ -41140,29 +41140,29 @@
         <v>91</v>
       </c>
       <c r="Q5" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="132">
         <f t="shared" ref="R5:R18" si="7">(Q5/7)^0.5</f>
-        <v>0.92582009977255142</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="S5" s="132">
         <f t="shared" ref="S5:S18" si="8">IF(Q5=7,1,((Q5+0.99)/7)^0.5)</f>
-        <v>0.99928545900129484</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="T5" s="32">
-        <v>80550</v>
+        <v>79620</v>
       </c>
       <c r="U5" s="32">
         <f t="shared" ref="U5:U18" si="9">T5-AS5</f>
-        <v>-1450</v>
+        <v>-930</v>
       </c>
       <c r="V5" s="32">
         <v>18012</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="2"/>
-        <v>4.4720186542305127</v>
+        <v>4.420386409060626</v>
       </c>
       <c r="X5" s="23">
         <v>0</v>
@@ -41179,8 +41179,8 @@
         <v>11.035714285714286</v>
       </c>
       <c r="AB5" s="23">
-        <f>7+0.01+0.01+0.01+0.01</f>
-        <v>7.0399999999999991</v>
+        <f>7+0.01+0.01+0.01+0.01+0.01</f>
+        <v>7.0499999999999989</v>
       </c>
       <c r="AC5" s="24">
         <f>2+0.01</f>
@@ -41196,35 +41196,35 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="25">
         <f t="shared" ref="AG5:AG18" ca="1" si="10">(AD5+1+(LOG(I5)*4/3)+N5)*(Q5/7)^0.5</f>
-        <v>17.060146670763583</v>
+        <v>15.575564389754852</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ref="AH5:AH18" ca="1" si="11">(AD5+1+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>18.427064475004155</v>
+        <v>17.062175924285839</v>
       </c>
       <c r="AI5" s="137">
         <f t="shared" ref="AI5:AI18" ca="1" si="12">(Z5+N5+(LOG(I5)*4/3))*(Q5/7)^0.5</f>
-        <v>8.5209992838614195</v>
+        <v>7.7804249803088341</v>
       </c>
       <c r="AJ5" s="137">
         <f t="shared" ref="AJ5:AJ18" ca="1" si="13">(Z5+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>9.2037311416708221</v>
+        <v>8.5230285373836718</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" ref="AK5:AK18" ca="1" si="14">(((Y5+LOG(I5)*4/3+N5)+(AB5+LOG(I5)*4/3+N5)*2)/8)*(Q5/7)^0.5</f>
-        <v>3.9765354406311224</v>
+        <v>3.6328711556798199</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" ref="AL5:AL18" ca="1" si="15">(AD5+LOG(I5)*4/3+N5)*0.7+(AC5+LOG(I5)*4/3+N5)*0.3</f>
-        <v>13.430064475004155</v>
+        <v>13.432256319318997</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ref="AM5:AM18" ca="1" si="16">(0.5*(AC5+LOG(I5)*4/3+N5)+ 0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>0.7279984913336659</v>
+        <v>0.72817383887885323</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ref="AN5:AN18" ca="1" si="17">(0.4*(Y5+LOG(I5)*4/3+N5)+0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>1.1665611799169575</v>
+        <v>1.1667146090189966</v>
       </c>
       <c r="AO5" s="22">
         <v>2</v>
@@ -41240,7 +41240,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AS5">
-        <v>82000</v>
+        <v>80550</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -41252,7 +41252,7 @@
       </c>
       <c r="C6" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2857142857142858</v>
+        <v>1.2767857142857142</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>260</v>
@@ -41262,7 +41262,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">16+D2-D1-112-51-112-112-112-112-112</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
@@ -41288,7 +41288,7 @@
       </c>
       <c r="N6" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84026532165091627</v>
+        <v>0.84236451053571759</v>
       </c>
       <c r="O6" s="27">
         <v>7.1</v>
@@ -41309,18 +41309,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="T6" s="32">
-        <v>82030</v>
+        <v>82940</v>
       </c>
       <c r="U6" s="32">
         <f t="shared" si="9"/>
-        <v>2570</v>
+        <v>910</v>
       </c>
       <c r="V6" s="8">
         <v>13584</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="2"/>
-        <v>6.0387220259128389</v>
+        <v>6.1057126030624262</v>
       </c>
       <c r="X6" s="23">
         <v>0</v>
@@ -41338,8 +41338,8 @@
         <v>12.033333333333333</v>
       </c>
       <c r="AB6" s="23">
-        <f>9+0.01+0.01+0.01</f>
-        <v>9.0299999999999994</v>
+        <f>9+0.01+0.01+0.01+0.01</f>
+        <v>9.0399999999999991</v>
       </c>
       <c r="AC6" s="24">
         <f>4+0.01</f>
@@ -41354,35 +41354,35 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>12.14582201812396</v>
+        <v>12.147765489386726</v>
       </c>
       <c r="AH6" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>13.11898717807904</v>
+        <v>13.121086366963841</v>
       </c>
       <c r="AI6" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9059088379026088</v>
+        <v>4.907852309165377</v>
       </c>
       <c r="AJ6" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2989871780790416</v>
+        <v>5.3010863669638431</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3359582582252196</v>
+        <v>4.3390016101981885</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>10.32198717807904</v>
+        <v>10.32408636696384</v>
       </c>
       <c r="AM6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.67001897424632317</v>
+        <v>0.67018690935710734</v>
       </c>
       <c r="AN6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.97032910246553283</v>
+        <v>0.97047604568746881</v>
       </c>
       <c r="AO6" s="22">
         <v>3</v>
@@ -41398,7 +41398,7 @@
         <v>2.63E-2</v>
       </c>
       <c r="AS6">
-        <v>79460</v>
+        <v>82030</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -41410,7 +41410,7 @@
       </c>
       <c r="C7" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7857142857142858</v>
+        <v>1.7767857142857142</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>263</v>
@@ -41420,7 +41420,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">8-659+D2-D1-112</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
@@ -41446,7 +41446,7 @@
       </c>
       <c r="N7" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48078231046272396</v>
+        <v>0.48365320048545096</v>
       </c>
       <c r="O7" s="27">
         <v>7</v>
@@ -41467,18 +41467,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="T7" s="32">
-        <v>87660</v>
+        <v>89240</v>
       </c>
       <c r="U7" s="32">
         <f t="shared" si="9"/>
-        <v>2490</v>
+        <v>1580</v>
       </c>
       <c r="V7" s="8">
         <v>21540</v>
       </c>
       <c r="W7" s="9">
         <f t="shared" si="2"/>
-        <v>4.0696378830083564</v>
+        <v>4.1429897864438257</v>
       </c>
       <c r="X7" s="23">
         <v>0</v>
@@ -41495,8 +41495,8 @@
         <v>10.01</v>
       </c>
       <c r="AB7" s="23">
-        <f>9+0.01+0.01+0.01</f>
-        <v>9.0299999999999994</v>
+        <f>9+0.01+0.01+0.01+0.01</f>
+        <v>9.0399999999999991</v>
       </c>
       <c r="AC7" s="24">
         <f>1+0.01</f>
@@ -41512,35 +41512,35 @@
       <c r="AF7" s="10"/>
       <c r="AG7" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.763715810978448</v>
+        <v>14.766373738665726</v>
       </c>
       <c r="AH7" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.946635652655941</v>
+        <v>15.949506542678668</v>
       </c>
       <c r="AI7" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2646872950664259</v>
+        <v>6.2673452227537032</v>
       </c>
       <c r="AJ7" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>6.7666356526559399</v>
+        <v>6.7695065426786671</v>
       </c>
       <c r="AK7" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3166254476665813</v>
+        <v>4.3199367207987427</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>11.28963565265594</v>
+        <v>11.292506542678666</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.58623085221247528</v>
+        <v>0.58646052341429344</v>
       </c>
       <c r="AN7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0782644956859158</v>
+        <v>1.0784654579875066</v>
       </c>
       <c r="AO7" s="22">
         <v>2</v>
@@ -41556,7 +41556,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS7">
-        <v>85170</v>
+        <v>87660</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -41568,7 +41568,7 @@
       </c>
       <c r="C8" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9375</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>262</v>
@@ -41578,7 +41578,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">8-659-17+D2-D1-112</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
@@ -41604,7 +41604,7 @@
       </c>
       <c r="N8" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68490627753332978</v>
+        <v>0.68726066919047513</v>
       </c>
       <c r="O8" s="27">
         <v>7</v>
@@ -41625,18 +41625,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T8" s="32">
-        <v>61060</v>
+        <v>63860</v>
       </c>
       <c r="U8" s="32">
         <f t="shared" si="9"/>
-        <v>-8320</v>
+        <v>2800</v>
       </c>
       <c r="V8" s="8">
         <v>20832</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="2"/>
-        <v>2.9310675883256527</v>
+        <v>3.0654761904761907</v>
       </c>
       <c r="X8" s="23">
         <v>0</v>
@@ -41668,35 +41668,35 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>16.827311719926737</v>
+        <v>16.829301544053074</v>
       </c>
       <c r="AH8" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>18.433396422349855</v>
+        <v>18.435576165468778</v>
       </c>
       <c r="AI8" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>4.1669009840935605</v>
+        <v>4.1688908082198939</v>
       </c>
       <c r="AJ8" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5646113277570368</v>
+        <v>4.5667910708759587</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.1994691437880567</v>
+        <v>4.2002153278354317</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.71034373403476</v>
+        <v>14.712698125691906</v>
       </c>
       <c r="AM8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81282749872278082</v>
+        <v>0.8130158500553526</v>
       </c>
       <c r="AN8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2037240613824334</v>
+        <v>1.2038888687984337</v>
       </c>
       <c r="AO8" s="22">
         <v>1</v>
@@ -41712,7 +41712,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS8">
-        <v>69380</v>
+        <v>61060</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -41724,7 +41724,7 @@
       </c>
       <c r="C9" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4732142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>259</v>
@@ -41734,7 +41734,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112-41-112-112-112</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -41762,7 +41762,7 @@
       </c>
       <c r="N9" s="154">
         <f ca="1">IF((TODAY()-M9)&gt;335,1,((TODAY()-M9)^0.64)/(336^0.64))</f>
-        <v>0.95563322019551677</v>
+        <v>0.95758610852621273</v>
       </c>
       <c r="O9" s="27">
         <v>6.9</v>
@@ -41772,29 +41772,29 @@
         <v>88</v>
       </c>
       <c r="Q9" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" s="132">
         <f t="shared" ref="R9" si="30">(Q9/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="S9" s="132">
         <f t="shared" ref="S9" si="31">IF(Q9=7,1,((Q9+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="T9" s="32">
-        <v>83330</v>
+        <v>81390</v>
       </c>
       <c r="U9" s="32">
         <f t="shared" si="9"/>
-        <v>10510</v>
+        <v>-1940</v>
       </c>
       <c r="V9" s="8">
         <v>21960</v>
       </c>
       <c r="W9" s="9">
         <f>T9/V9</f>
-        <v>3.7946265938069215</v>
+        <v>3.7062841530054644</v>
       </c>
       <c r="X9" s="23">
         <v>0</v>
@@ -41811,8 +41811,8 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="AB9" s="23">
-        <f>7+1/7+0.01+0.01+0.01</f>
-        <v>7.1728571428571426</v>
+        <f>7+1/7+0.01+0.01+0.01+0.01</f>
+        <v>7.1828571428571424</v>
       </c>
       <c r="AC9" s="24">
         <v>3.99</v>
@@ -41827,35 +41827,35 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.99208022976414</v>
+        <v>13.410800451970825</v>
       </c>
       <c r="AH9" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>16.423001051538105</v>
+        <v>14.993730721645836</v>
       </c>
       <c r="AI9" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.118555763687183</v>
+        <v>10.840642035508083</v>
       </c>
       <c r="AJ9" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.275212712311431</v>
+        <v>12.120206255568881</v>
       </c>
       <c r="AK9" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8444895839843261</v>
+        <v>3.4410594336031499</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>13.615868550783013</v>
+        <v>13.617821439113708</v>
       </c>
       <c r="AM9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81860948406264122</v>
+        <v>0.81876571512909668</v>
       </c>
       <c r="AN9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1968636556976682</v>
+        <v>1.1970003578808168</v>
       </c>
       <c r="AO9" s="22">
         <v>3</v>
@@ -41871,7 +41871,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS9">
-        <v>72820</v>
+        <v>83330</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -41883,7 +41883,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">((33*112)-(E10*112)-(F10))/112</f>
-        <v>1.1607142857142858</v>
+        <v>1.1517857142857142</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>432</v>
@@ -41893,7 +41893,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-112-30-112</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>200</v>
@@ -41921,7 +41921,7 @@
       </c>
       <c r="N10" s="154">
         <f ca="1">IF((TODAY()-M10)&gt;335,1,((TODAY()-M10)^0.64)/(336^0.64))</f>
-        <v>0.69429680555330131</v>
+        <v>0.69663327920453078</v>
       </c>
       <c r="O10" s="21">
         <v>7</v>
@@ -41942,18 +41942,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="T10" s="32">
-        <v>108550</v>
+        <v>122250</v>
       </c>
       <c r="U10" s="32">
         <f t="shared" si="9"/>
-        <v>-32350</v>
+        <v>13700</v>
       </c>
       <c r="V10" s="32">
         <v>32700</v>
       </c>
       <c r="W10" s="9">
         <f>T10/V10</f>
-        <v>3.3195718654434252</v>
+        <v>3.738532110091743</v>
       </c>
       <c r="X10" s="23">
         <v>0</v>
@@ -41987,35 +41987,35 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>10.535228398947948</v>
+        <v>10.537391553216844</v>
       </c>
       <c r="AH10" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>11.379347242014042</v>
+        <v>11.38168371566527</v>
       </c>
       <c r="AI10" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>15.756853761665139</v>
+        <v>15.759016915934033</v>
       </c>
       <c r="AJ10" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>17.019347242014042</v>
+        <v>17.021683715665269</v>
       </c>
       <c r="AK10" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0083172335913284</v>
+        <v>4.0091284164421639</v>
       </c>
       <c r="AL10" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5093472420140408</v>
+        <v>8.5116837156652689</v>
       </c>
       <c r="AM10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5186811126944566</v>
+        <v>0.51886803058655495</v>
       </c>
       <c r="AN10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.8705543069409829</v>
+        <v>0.87071786009656882</v>
       </c>
       <c r="AO10" s="22">
         <v>2</v>
@@ -42031,7 +42031,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS10">
-        <v>140900</v>
+        <v>108550</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">((33*112)-(E11*112)-(F11))/112</f>
-        <v>0.9017857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>258</v>
@@ -42053,7 +42053,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-1-112-112-112</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="N11" s="154">
         <f ca="1">IF((TODAY()-M11)&gt;335,1,((TODAY()-M11)^0.64)/(336^0.64))</f>
-        <v>0.96343138585877064</v>
+        <v>0.96537538102931275</v>
       </c>
       <c r="O11" s="27">
         <v>6.9</v>
@@ -42091,29 +42091,29 @@
         <v>88</v>
       </c>
       <c r="Q11" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R11" s="132">
         <f t="shared" si="32"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="S11" s="132">
         <f t="shared" si="33"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="T11" s="32">
-        <v>62820</v>
+        <v>69580</v>
       </c>
       <c r="U11" s="32">
         <f t="shared" si="9"/>
-        <v>-1880</v>
+        <v>6760</v>
       </c>
       <c r="V11" s="8">
         <v>21792</v>
       </c>
       <c r="W11" s="9">
         <f>T11/V11</f>
-        <v>2.8827092511013217</v>
+        <v>3.1929148311306901</v>
       </c>
       <c r="X11" s="23">
         <v>0</v>
@@ -42131,8 +42131,8 @@
         <v>5</v>
       </c>
       <c r="AB11" s="23">
-        <f>12+1/14+1/14+1/14+1/14*30/90+1/14+1/14+1/14*44/90</f>
-        <v>12.415873015873014</v>
+        <f>12+1/14+1/14+1/14+1/14*30/90+1/14+1/14+1/14*44/90+1/14</f>
+        <v>12.487301587301586</v>
       </c>
       <c r="AC11" s="24">
         <f>3+1/5+1/5+0.01</f>
@@ -42148,35 +42148,35 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.104387191083088</v>
+        <v>15.770827245909107</v>
       </c>
       <c r="AH11" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.769184270119554</v>
+        <v>17.276075666202981</v>
       </c>
       <c r="AI11" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.499298062370574</v>
+        <v>13.976283045035562</v>
       </c>
       <c r="AJ11" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.974640069246005</v>
+        <v>15.310250987685937</v>
       </c>
       <c r="AK11" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4797682112761792</v>
+        <v>3.9062072893622863</v>
       </c>
       <c r="AL11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.081350451285351</v>
+        <v>14.083294446455895</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81650136943616158</v>
+        <v>0.81665688904980505</v>
       </c>
       <c r="AN11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.8235355119821316</v>
+        <v>0.82367159164406956</v>
       </c>
       <c r="AO11" s="22">
         <v>1</v>
@@ -42192,7 +42192,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS11">
-        <v>64700</v>
+        <v>62820</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -42204,7 +42204,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">((33*112)-(E12*112)-(F12))/112</f>
-        <v>3.0714285714285716</v>
+        <v>3.0625</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>264</v>
@@ -42214,7 +42214,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">8-659-32+D2-D1</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -42242,7 +42242,7 @@
       </c>
       <c r="N12" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39913558962999812</v>
+        <v>0.40232153032050472</v>
       </c>
       <c r="O12" s="27">
         <v>7</v>
@@ -42252,29 +42252,29 @@
         <v>89</v>
       </c>
       <c r="Q12" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="132">
         <f>(Q12/7)^0.5</f>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="S12" s="132">
         <f>IF(Q12=7,1,((Q12+0.99)/7)^0.5)</f>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="T12" s="32">
-        <v>121960</v>
+        <v>127260</v>
       </c>
       <c r="U12" s="32">
         <f t="shared" si="9"/>
-        <v>-2300</v>
+        <v>5300</v>
       </c>
       <c r="V12" s="8">
         <v>23244</v>
       </c>
       <c r="W12" s="9">
         <f>T12/V12</f>
-        <v>5.2469454482877298</v>
+        <v>5.4749612803304082</v>
       </c>
       <c r="X12" s="23">
         <v>0</v>
@@ -42291,8 +42291,8 @@
         <v>14.00679012345679</v>
       </c>
       <c r="AB12" s="23">
-        <f>6+(1/8*65/90)+1/8+1/8+1/8+(1/8*6/90)</f>
-        <v>6.4736111111111114</v>
+        <f>6.4+(1/8*65/90)+1/8+1/8+1/8+(1/8*6/90)+1/8</f>
+        <v>6.9986111111111118</v>
       </c>
       <c r="AC12" s="24">
         <f>5+0.01</f>
@@ -42303,40 +42303,40 @@
         <v>0.14444444444444443</v>
       </c>
       <c r="AE12" s="10">
-        <v>1360</v>
+        <v>1396</v>
       </c>
       <c r="AF12" s="10"/>
       <c r="AG12" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>1.9583749008617375</v>
+        <v>2.1922223132080227</v>
       </c>
       <c r="AH12" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1895297018781288</v>
+        <v>2.4014592240203791</v>
       </c>
       <c r="AI12" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>10.937512719754681</v>
+        <v>12.231203584399934</v>
       </c>
       <c r="AJ12" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>12.228510973070039</v>
+        <v>13.398612217227772</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8223508243670732</v>
+        <v>2.149386386250606</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0503531474221317</v>
+        <v>3.0535390881126379</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.370532696238215</v>
+        <v>0.37078757149345548</v>
       </c>
       <c r="AN12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18557027587510477</v>
+        <v>0.18579329172344025</v>
       </c>
       <c r="AO12" s="22">
         <v>1</v>
@@ -42352,7 +42352,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS12">
-        <v>124260</v>
+        <v>121960</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -42364,7 +42364,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">((33*112)-(E13*112)-(F13))/112</f>
-        <v>1.3303571428571428</v>
+        <v>1.3214285714285714</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>265</v>
@@ -42374,7 +42374,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
@@ -42400,7 +42400,7 @@
       </c>
       <c r="N13" s="154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67781559991681128</v>
+        <v>0.68018377667684582</v>
       </c>
       <c r="O13" s="27">
         <v>7</v>
@@ -42421,18 +42421,18 @@
         <v>1</v>
       </c>
       <c r="T13" s="8">
-        <v>99610</v>
+        <v>100320</v>
       </c>
       <c r="U13" s="32">
         <f t="shared" si="9"/>
-        <v>1910</v>
+        <v>710</v>
       </c>
       <c r="V13" s="8">
         <v>16668</v>
       </c>
       <c r="W13" s="9">
         <f>T13/V13</f>
-        <v>5.9761219102471799</v>
+        <v>6.018718502519798</v>
       </c>
       <c r="X13" s="23">
         <v>0</v>
@@ -42449,8 +42449,8 @@
         <v>14.066666666666666</v>
       </c>
       <c r="AB13" s="23">
-        <f>8+0.1+0.1+0.1+0.1+0.1</f>
-        <v>8.4999999999999982</v>
+        <f>8+0.1+0.1+0.1+0.1+0.1+0.1</f>
+        <v>8.5999999999999979</v>
       </c>
       <c r="AC13" s="24">
         <f>3+0.01</f>
@@ -42466,35 +42466,35 @@
       <c r="AF13" s="10"/>
       <c r="AG13" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4305079367416358</v>
+        <v>8.4328761135016705</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4305079367416358</v>
+        <v>8.4328761135016705</v>
       </c>
       <c r="AI13" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>13.953235209468911</v>
+        <v>13.955603386228944</v>
       </c>
       <c r="AJ13" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.953235209468911</v>
+        <v>13.955603386228944</v>
       </c>
       <c r="AK13" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3489404762781128</v>
+        <v>3.3748285425631259</v>
       </c>
       <c r="AL13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6835079367416359</v>
+        <v>6.6858761135016707</v>
       </c>
       <c r="AM13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.46994063493933086</v>
+        <v>0.47013008908013365</v>
       </c>
       <c r="AN13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46013555557191455</v>
+        <v>0.46030132794511686</v>
       </c>
       <c r="AO13" s="22">
         <v>3</v>
@@ -42510,7 +42510,7 @@
         <v>0.157</v>
       </c>
       <c r="AS13">
-        <v>97700</v>
+        <v>99610</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -42522,7 +42522,7 @@
       </c>
       <c r="C14" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10714285714285714</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>257</v>
@@ -42532,7 +42532,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">-35+D2-D1-67-112-112-112+87-112-112-112</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>0</v>
@@ -42570,29 +42570,29 @@
         <v>88</v>
       </c>
       <c r="Q14" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" s="132">
         <f t="shared" si="7"/>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="S14" s="132">
         <f t="shared" si="8"/>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="T14" s="32">
-        <v>87510</v>
+        <v>83910</v>
       </c>
       <c r="U14" s="32">
         <f t="shared" si="9"/>
-        <v>1510</v>
+        <v>-3600</v>
       </c>
       <c r="V14" s="32">
         <v>17724</v>
       </c>
       <c r="W14" s="9">
         <f t="shared" ref="W14" si="36">T14/V14</f>
-        <v>4.9373730534867972</v>
+        <v>4.7342586323628977</v>
       </c>
       <c r="X14" s="23">
         <v>0</v>
@@ -42610,8 +42610,8 @@
         <v>14.058518518518518</v>
       </c>
       <c r="AB14" s="23">
-        <f>10+1/8+1/8+1/8+1/8+0.1+0.1*40/90+0.1*20/90+0.1+0.09</f>
-        <v>10.856666666666666</v>
+        <f>10+1/8+1/8+1/8+1/8+0.1+0.1*40/90+0.1*20/90+0.1+0.09+0.08</f>
+        <v>10.936666666666666</v>
       </c>
       <c r="AC14" s="24">
         <f>3+0.03+0.01</f>
@@ -42626,23 +42626,23 @@
       <c r="AF14" s="10"/>
       <c r="AG14" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>11.278414692054861</v>
+        <v>10.087720771946811</v>
       </c>
       <c r="AH14" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>12.354884279472259</v>
+        <v>11.278414692054861</v>
       </c>
       <c r="AI14" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>13.163877002149206</v>
+        <v>11.774129529700708</v>
       </c>
       <c r="AJ14" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>14.420304756601205</v>
+        <v>13.163877002149206</v>
       </c>
       <c r="AK14" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.1465907481614539</v>
+        <v>2.8295149030247417</v>
       </c>
       <c r="AL14" s="9">
         <f t="shared" ca="1" si="15"/>
@@ -42670,7 +42670,7 @@
         <v>0.11119999999999999</v>
       </c>
       <c r="AS14">
-        <v>86000</v>
+        <v>87510</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -42682,7 +42682,7 @@
       </c>
       <c r="C15" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9821428571428572</v>
+        <v>2.9732142857142856</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>198</v>
@@ -42692,7 +42692,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">-35+D2-D1-67-11-112-112-112-112-112-112</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>0</v>
@@ -42730,29 +42730,29 @@
         <v>98</v>
       </c>
       <c r="Q15" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" s="132">
         <f t="shared" si="7"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="S15" s="132">
         <f t="shared" si="8"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="T15" s="32">
-        <v>186460</v>
+        <v>178430</v>
       </c>
       <c r="U15" s="32">
         <f t="shared" si="9"/>
-        <v>-24930</v>
+        <v>-8030</v>
       </c>
       <c r="V15" s="32">
         <v>30204</v>
       </c>
       <c r="W15" s="9">
         <f t="shared" ref="W15" si="40">T15/V15</f>
-        <v>6.1733545225797908</v>
+        <v>5.9074956959343137</v>
       </c>
       <c r="X15" s="23">
         <v>0</v>
@@ -42769,8 +42769,8 @@
         <v>2.125</v>
       </c>
       <c r="AB15" s="23">
-        <f>12+0.1+0.1+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.08+0.08+0.08+0.08+0.08+0.07+0.07+0.07+0.06+0.06+0.06+0.05+0.05+0.05+0.05+0.05</f>
-        <v>14.410000000000004</v>
+        <f>12+0.1+0.1+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.09+0.08+0.08+0.08+0.08+0.08+0.07+0.07+0.07+0.06+0.06+0.06+0.05+0.05+0.05+0.05+0.05+0.05</f>
+        <v>14.460000000000004</v>
       </c>
       <c r="AC15" s="24">
         <f>4.9+0.22+0.22+0.22+0.22+0.22+0.22+0.22+(0.22*76/90)+0.22+0.21+0.21+0.21+0.15+0.15+0.12+0.11+0.1</f>
@@ -42785,23 +42785,23 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>13.071002195678231</v>
+        <v>14.613824721792767</v>
       </c>
       <c r="AH15" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>14.613824721792767</v>
+        <v>16.008642903105116</v>
       </c>
       <c r="AI15" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>12.365468512727674</v>
+        <v>13.825014084046153</v>
       </c>
       <c r="AJ15" s="137">
         <f t="shared" ca="1" si="13"/>
-        <v>13.825014084046153</v>
+        <v>15.144544143317399</v>
       </c>
       <c r="AK15" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5617417665616267</v>
+        <v>3.9927127823501003</v>
       </c>
       <c r="AL15" s="9">
         <f t="shared" ca="1" si="15"/>
@@ -42829,7 +42829,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS15">
-        <v>211390</v>
+        <v>186460</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="C16" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4196428571428572</v>
+        <v>3.4107142857142856</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>73</v>
@@ -42851,7 +42851,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">62+D2-D1-112-112-112-112-112-112-112</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>74</v>
@@ -42889,29 +42889,29 @@
         <v>98</v>
       </c>
       <c r="Q16" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16" s="132">
         <f t="shared" si="7"/>
-        <v>0.92582009977255142</v>
+        <v>1</v>
       </c>
       <c r="S16" s="132">
         <f t="shared" si="8"/>
-        <v>0.99928545900129484</v>
+        <v>1</v>
       </c>
       <c r="T16" s="32">
-        <v>253930</v>
+        <v>256340</v>
       </c>
       <c r="U16" s="32">
         <f t="shared" si="9"/>
-        <v>4700</v>
+        <v>2410</v>
       </c>
       <c r="V16" s="32">
         <v>28090</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" ref="W16:W18" si="42">T16/V16</f>
-        <v>9.0398718405126388</v>
+        <v>9.12566749733001</v>
       </c>
       <c r="X16" s="23">
         <v>0</v>
@@ -42929,8 +42929,8 @@
         <v>1.33</v>
       </c>
       <c r="AB16" s="23">
-        <f>11.05+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.09+0.09+0.09+0.09+0.08+0.08*82/90+0.08+0.08+0.08+0.07+0.05+0.05</f>
-        <v>14.092888888888881</v>
+        <f>11.05+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.09+0.09+0.09+0.09+0.08+0.08*82/90+0.08+0.08+0.08+0.07+0.05+0.05+0.05</f>
+        <v>14.142888888888882</v>
       </c>
       <c r="AC16" s="24">
         <f>4.25+0.25+0.25+0.25+0.24+0.24+0.23+0.22+0.22+0.21+0.21+0.21+0.21+0.21+0.21+0.2+0.2+0.2+0.18+0.18+0.17+0.17+0.17+0.13+0.12+0.11+0.1</f>
@@ -42946,7 +42946,7 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>17.065060837207238</v>
+        <v>18.432372381415842</v>
       </c>
       <c r="AH16" s="25">
         <f t="shared" ca="1" si="11"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="AI16" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>15.398584657616643</v>
+        <v>16.632372381415841</v>
       </c>
       <c r="AJ16" s="137">
         <f t="shared" ca="1" si="13"/>
@@ -42962,7 +42962,7 @@
       </c>
       <c r="AK16" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2915111845705614</v>
+        <v>4.6478618652531623</v>
       </c>
       <c r="AL16" s="9">
         <f t="shared" ca="1" si="15"/>
@@ -42990,7 +42990,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS16">
-        <v>249230</v>
+        <v>253930</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -43002,7 +43002,7 @@
       </c>
       <c r="C17" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9642857142857144</v>
+        <v>2.9553571428571428</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -43012,7 +43012,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">1+D2-D1-112-112-112-112-112-112-112</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>45</v>
@@ -43050,29 +43050,29 @@
         <v>91</v>
       </c>
       <c r="Q17" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17" s="132">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="S17" s="132">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="T17" s="32">
-        <v>251760</v>
+        <v>207820</v>
       </c>
       <c r="U17" s="32">
         <f t="shared" si="9"/>
-        <v>9400</v>
+        <v>-43940</v>
       </c>
       <c r="V17" s="8">
         <v>30996</v>
       </c>
       <c r="W17" s="9">
         <f t="shared" si="42"/>
-        <v>8.1223383662408057</v>
+        <v>6.7047360949799977</v>
       </c>
       <c r="X17" s="23">
         <v>0</v>
@@ -43090,8 +43090,8 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB17" s="23">
-        <f>11.3+0.11+0.11+0.11+0.11+(0.11*54/90)+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.09+0.09+0.09+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.06+0.06+0.05+0.05</f>
-        <v>14.215999999999999</v>
+        <f>11.3+0.11+0.11+0.11+0.11+(0.11*54/90)+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.09+0.09+0.09+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.08+0.06+0.06+0.05+0.05+0.05</f>
+        <v>14.266</v>
       </c>
       <c r="AC17" s="24">
         <f>4.1+0.25+0.25+0.25+0.25+0.24+0.24+0.24+0.23+0.23+(0.05*36/90)+0.22+0.2+0.2+0.2+0.18+0.18+0.18+0.18+0.18+0.18+0.18+0.14+0.12+0.12+0.12+0.12+0.1</f>
@@ -43106,7 +43106,7 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>19.021634767589994</v>
+        <v>17.610611798367202</v>
       </c>
       <c r="AH17" s="25">
         <f t="shared" ca="1" si="11"/>
@@ -43114,7 +43114,7 @@
       </c>
       <c r="AI17" s="137">
         <f t="shared" ca="1" si="12"/>
-        <v>16.721634767589993</v>
+        <v>15.481225568890332</v>
       </c>
       <c r="AJ17" s="137">
         <f t="shared" ca="1" si="13"/>
@@ -43122,7 +43122,7 @@
       </c>
       <c r="AK17" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.8246130378462473</v>
+        <v>4.4782964753099224</v>
       </c>
       <c r="AL17" s="9">
         <f t="shared" ca="1" si="15"/>
@@ -43150,7 +43150,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS17">
-        <v>242360</v>
+        <v>251760</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -43162,7 +43162,7 @@
       </c>
       <c r="C18" s="138">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4553571428571428</v>
+        <v>3.4464285714285716</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -43172,7 +43172,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">58++D2-D1-112-112-112-112-112-112-112</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
@@ -43221,18 +43221,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T18" s="32">
-        <v>241730</v>
+        <v>250620</v>
       </c>
       <c r="U18" s="32">
         <f t="shared" si="9"/>
-        <v>12620</v>
+        <v>8890</v>
       </c>
       <c r="V18" s="8">
         <v>31320</v>
       </c>
       <c r="W18" s="9">
         <f t="shared" si="42"/>
-        <v>7.7180715197956573</v>
+        <v>8.0019157088122608</v>
       </c>
       <c r="X18" s="23">
         <v>0</v>
@@ -43250,8 +43250,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AB18" s="23">
-        <f>11.45+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.08+0.08+0.08+0.08+0.07+0.07+0.07+0.07*80/90+0.07+0.07+0.07+0.07+0.07+0.06+0.06+0.06+0.06+0.05+0.05</f>
-        <v>14.302222222222222</v>
+        <f>11.45+0.11+0.11+0.11+0.11+0.11+0.11+0.11+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.1+0.08+0.08+0.08+0.08+0.07+0.07+0.07+0.07*80/90+0.07+0.07+0.07+0.07+0.07+0.06+0.06+0.06+0.06+0.05+0.05+0.05</f>
+        <v>14.352222222222222</v>
       </c>
       <c r="AC18" s="24">
         <f>5.21+(72/90)*0.24+0.23+0.23+0.23+0.23+0.23+0.23+0.22+0.22+0.2+0.2+0.19+0.19+0.18+0.18+0.18+0.17+0.17+0.16+0.14+0.14+0.14+0.11+0.11+0.11+0.11+0.11+1/12</f>
@@ -43283,7 +43283,7 @@
       </c>
       <c r="AK18" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.967344274089744</v>
+        <v>3.9779087022738504</v>
       </c>
       <c r="AL18" s="9">
         <f t="shared" ca="1" si="15"/>
@@ -43311,7 +43311,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AS18">
-        <v>229110</v>
+        <v>241730</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -43323,7 +43323,7 @@
       </c>
       <c r="C19" s="138">
         <f ca="1">((33*112)-(E19*112)-(F19))/112</f>
-        <v>15.866071428571429</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>416</v>
@@ -43333,7 +43333,7 @@
       </c>
       <c r="F19" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-62</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>45</v>
@@ -43363,11 +43363,11 @@
         <v>1.5</v>
       </c>
       <c r="O19" s="21">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P19" s="22">
         <f>O19*10+19</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="22">
         <v>5</v>
@@ -43381,18 +43381,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T19" s="32">
-        <v>1480</v>
+        <v>1720</v>
       </c>
       <c r="U19" s="32">
         <f t="shared" ref="U19" si="44">T19-AS19</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="V19" s="32">
         <v>350</v>
       </c>
       <c r="W19" s="9">
         <f>T19/V19</f>
-        <v>4.2285714285714286</v>
+        <v>4.9142857142857146</v>
       </c>
       <c r="X19" s="23">
         <v>0</v>
@@ -43407,8 +43407,8 @@
         <v>5.5</v>
       </c>
       <c r="AB19" s="23">
-        <f>4.75+0.25</f>
-        <v>5</v>
+        <f>4.75+0.25+0.25</f>
+        <v>5.25</v>
       </c>
       <c r="AC19" s="24">
         <v>3</v>
@@ -43440,7 +43440,7 @@
       </c>
       <c r="AK19" s="9">
         <f t="shared" ref="AK19" si="49">(((Y19+LOG(I19)*4/3+N19)+(AB19+LOG(I19)*4/3+N19)*2)/8)*(Q19/7)^0.5</f>
-        <v>1.7431306503775654</v>
+        <v>1.7959527912980977</v>
       </c>
       <c r="AL19" s="9">
         <f t="shared" ref="AL19" si="50">(AD19+LOG(I19)*4/3+N19)*0.7+(AC19+LOG(I19)*4/3+N19)*0.3</f>
@@ -43468,7 +43468,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS19">
-        <v>1300</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -43480,7 +43480,7 @@
       </c>
       <c r="C20" s="138">
         <f ca="1">((33*112)-(E20*112)-(F20))/112</f>
-        <v>15.830357142857142</v>
+        <v>15.821428571428571</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>435</v>
@@ -43490,7 +43490,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>418</v>
@@ -43518,14 +43518,14 @@
       </c>
       <c r="N20" s="154">
         <f ca="1">IF((TODAY()-M20)&gt;335,1,((TODAY()-M20)^0.64)/(336^0.64))</f>
-        <v>5.8676102278042847E-2</v>
+        <v>6.7683633516304187E-2</v>
       </c>
       <c r="O20" s="21">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P20" s="22">
         <f>O20*10+19</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="28">
         <v>5</v>
@@ -43539,18 +43539,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T20" s="32">
-        <v>1120</v>
+        <v>1300</v>
       </c>
       <c r="U20" s="32">
         <f>T20-AS20</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="V20" s="32">
         <v>330</v>
       </c>
       <c r="W20" s="9">
         <f>T20/V20</f>
-        <v>3.393939393939394</v>
+        <v>3.9393939393939394</v>
       </c>
       <c r="X20" s="23">
         <v>0</v>
@@ -43565,7 +43565,8 @@
         <v>3</v>
       </c>
       <c r="AB20" s="23">
-        <v>5</v>
+        <f>5+0.2</f>
+        <v>5.2</v>
       </c>
       <c r="AC20" s="24">
         <v>2</v>
@@ -43581,35 +43582,35 @@
       </c>
       <c r="AG20" s="25">
         <f t="shared" ref="AG20:AG21" ca="1" si="53">(AD20+1+(LOG(I20)*4/3)+N20)*(Q20/7)^0.5</f>
-        <v>0.89474461221969015</v>
+        <v>0.90235736557030677</v>
       </c>
       <c r="AH20" s="25">
         <f t="shared" ref="AH20:AH21" ca="1" si="54">(AD20+1+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>0.98014361463787347</v>
+        <v>0.98848296810758507</v>
       </c>
       <c r="AI20" s="137">
         <f t="shared" ref="AI20" ca="1" si="55">(Z20+N20+(LOG(I20)*4/3))*(Q20/7)^0.5</f>
-        <v>2.5850531216767232</v>
+        <v>2.5926658750273397</v>
       </c>
       <c r="AJ20" s="137">
         <f t="shared" ref="AJ20" ca="1" si="56">(Z20+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>2.8317838141829763</v>
+        <v>2.8401231676526875</v>
       </c>
       <c r="AK20" s="9">
         <f t="shared" ref="AK20" ca="1" si="57">(((Y20+LOG(I20)*4/3+N20)+(AB20+LOG(I20)*4/3+N20)*2)/8)*(Q20/7)^0.5</f>
-        <v>1.7089048935162234</v>
+        <v>1.7540173887591302</v>
       </c>
       <c r="AL20" s="9">
         <f t="shared" ref="AL20:AL21" ca="1" si="58">(AD20+LOG(I20)*4/3+N20)*0.7+(AC20+LOG(I20)*4/3+N20)*0.3</f>
-        <v>0.65867610227804285</v>
+        <v>0.66768363351630411</v>
       </c>
       <c r="AM20" s="9">
         <f t="shared" ref="AM20:AM21" ca="1" si="59">(0.5*(AC20+LOG(I20)*4/3+N20)+ 0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.10469408818224342</v>
+        <v>0.10541469068130434</v>
       </c>
       <c r="AN20" s="9">
         <f t="shared" ref="AN20:AN21" ca="1" si="60">(0.4*(Y20+LOG(I20)*4/3+N20)+0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.24410732715946301</v>
+        <v>0.24473785434614129</v>
       </c>
       <c r="AO20" s="22">
         <v>2</v>
@@ -43637,7 +43638,7 @@
       </c>
       <c r="C21" s="138">
         <f ca="1">((33*112)-(E21*112)-(F21))/112</f>
-        <v>15.866071428571429</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>443</v>
@@ -43647,7 +43648,7 @@
       </c>
       <c r="F21" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25-4</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>418</v>
@@ -43675,14 +43676,14 @@
       </c>
       <c r="N21" s="154">
         <f ca="1">IF((TODAY()-M21)&gt;335,1,((TODAY()-M21)^0.64)/(336^0.64))</f>
-        <v>2.4162555382234736E-2</v>
+        <v>3.7653214615844956E-2</v>
       </c>
       <c r="O21" s="21">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="22">
         <f>O21*10+19</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="28">
         <v>5</v>
@@ -43696,18 +43697,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T21" s="32">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="U21" s="32">
         <f>T21-AS21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V21" s="32">
         <v>290</v>
       </c>
       <c r="W21" s="9">
         <f>T21/V21</f>
-        <v>2.6206896551724137</v>
+        <v>2.6896551724137931</v>
       </c>
       <c r="X21" s="23">
         <v>0</v>
@@ -43738,35 +43739,35 @@
       </c>
       <c r="AG21" s="25">
         <f t="shared" ca="1" si="53"/>
-        <v>0.52635296569983159</v>
+        <v>0.53775465375020981</v>
       </c>
       <c r="AH21" s="25">
         <f t="shared" ca="1" si="54"/>
-        <v>0.57659078504708139</v>
+        <v>0.58908070852474004</v>
       </c>
       <c r="AI21" s="137">
         <f t="shared" ref="AI21" ca="1" si="61">(Z21+N21+(LOG(I21)*4/3))*(Q21/7)^0.5</f>
-        <v>3.9069699846138977</v>
+        <v>3.9183716726642754</v>
       </c>
       <c r="AJ21" s="137">
         <f t="shared" ref="AJ21" ca="1" si="62">(Z21+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
-        <v>4.2798711841372867</v>
+        <v>4.292361107614945</v>
       </c>
       <c r="AK21" s="9">
         <f t="shared" ref="AK21" ca="1" si="63">(((Y21+LOG(I21)*4/3+N21)+(AB21+LOG(I21)*4/3+N21)*2)/8)*(Q21/7)^0.5</f>
-        <v>1.0425366168659533</v>
+        <v>1.0468122498848453</v>
       </c>
       <c r="AL21" s="9">
         <f t="shared" ca="1" si="58"/>
-        <v>0.52278922783025994</v>
+        <v>0.53627988706387009</v>
       </c>
       <c r="AM21" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0.11982313822642079</v>
+        <v>0.1209023909651096</v>
       </c>
       <c r="AN21" s="9">
         <f t="shared" ca="1" si="60"/>
-        <v>9.3595245948118203E-2</v>
+        <v>9.4539592094470895E-2</v>
       </c>
       <c r="AO21" s="22">
         <v>2</v>
@@ -43794,7 +43795,7 @@
       </c>
       <c r="C22" s="138">
         <f ca="1">((33*112)-(E22*112)-(F22))/112</f>
-        <v>15.5</v>
+        <v>15.491071428571429</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>417</v>
@@ -43804,7 +43805,7 @@
       </c>
       <c r="F22" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-2-19</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>418</v>
@@ -43832,39 +43833,39 @@
       </c>
       <c r="N22" s="154">
         <f ca="1">IF((TODAY()-M22)&gt;335,1,((TODAY()-M22)^0.64)/(336^0.64))</f>
-        <v>0.10547337971725297</v>
+        <v>0.11210737430592951</v>
       </c>
       <c r="O22" s="21">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="P22" s="22">
         <f>O22*10+19</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" s="132">
         <f>(Q22/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="S22" s="132">
         <f>IF(Q22=7,1,((Q22+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="T22" s="32">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="U22" s="32">
         <f>T22-AS22</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V22" s="32">
         <v>370</v>
       </c>
       <c r="W22" s="9">
         <f>T22/V22</f>
-        <v>2.5135135135135136</v>
+        <v>2.5675675675675675</v>
       </c>
       <c r="X22" s="23">
         <v>0</v>
@@ -43879,8 +43880,8 @@
         <v>3</v>
       </c>
       <c r="AB22" s="23">
-        <f>3+0.25</f>
-        <v>3.25</v>
+        <f>3+0.25+0.25</f>
+        <v>3.5</v>
       </c>
       <c r="AC22" s="24">
         <v>4</v>
@@ -43896,35 +43897,35 @@
       </c>
       <c r="AG22" s="25">
         <f ca="1">(AD22+1+(LOG(I22)*4/3)+N22)*(Q22/7)^0.5</f>
-        <v>0.59507315484205525</v>
+        <v>0.53726443886214781</v>
       </c>
       <c r="AH22" s="25">
         <f ca="1">(AD22+1+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>0.65186998054551637</v>
+        <v>0.60067990359452128</v>
       </c>
       <c r="AI22" s="137">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(Q22/7)^0.5</f>
-        <v>4.8208444284846381</v>
+        <v>4.3169091689544192</v>
       </c>
       <c r="AJ22" s="137">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>5.280970479408273</v>
+        <v>4.8264511772371037</v>
       </c>
       <c r="AK22" s="9">
         <f ca="1">(((Y22+LOG(I22)*4/3+N22)+(AB22+LOG(I22)*4/3+N22)*2)/8)*(Q22/7)^0.5</f>
-        <v>0.90984026503269044</v>
+        <v>0.86291199233945304</v>
       </c>
       <c r="AL22" s="9">
         <f ca="1">(AD22+LOG(I22)*4/3+N22)*0.7+(AC22+LOG(I22)*4/3+N22)*0.3</f>
-        <v>0.904100052165278</v>
+        <v>0.91073404675395442</v>
       </c>
       <c r="AM22" s="9">
         <f ca="1">(0.5*(AC22+LOG(I22)*4/3+N22)+ 0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.17632800417322225</v>
+        <v>0.17685872374031636</v>
       </c>
       <c r="AN22" s="9">
         <f ca="1">(0.4*(Y22+LOG(I22)*4/3+N22)+0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>9.9287003651569478E-2</v>
+        <v>9.9751383272776828E-2</v>
       </c>
       <c r="AO22" s="22">
         <v>2</v>
@@ -43952,7 +43953,7 @@
       </c>
       <c r="C23" s="138">
         <f ca="1">((33*112)-(E23*112)-(F23))/112</f>
-        <v>15.883928571428571</v>
+        <v>15.875</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>422</v>
@@ -43962,7 +43963,7 @@
       </c>
       <c r="F23" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-62</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>0</v>
@@ -43990,14 +43991,14 @@
       </c>
       <c r="N23" s="154">
         <f ca="1">IF((TODAY()-M23)&gt;335,1,((TODAY()-M23)^0.64)/(336^0.64))</f>
-        <v>0.10547337971725297</v>
+        <v>0.11210737430592951</v>
       </c>
       <c r="O23" s="27">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="22">
         <f>O23*10+19</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="28">
         <v>5</v>
@@ -44011,18 +44012,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T23" s="32">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="U23" s="32">
         <f>T23-AS23</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="V23" s="8">
         <v>310</v>
       </c>
       <c r="W23" s="9">
         <f>T23/V23</f>
-        <v>2.2903225806451615</v>
+        <v>2.6129032258064515</v>
       </c>
       <c r="X23" s="23">
         <v>1</v>
@@ -44037,8 +44038,8 @@
         <v>3</v>
       </c>
       <c r="AB23" s="23">
-        <f>3.75+0.25</f>
-        <v>4</v>
+        <f>3.75+0.25+0.25</f>
+        <v>4.25</v>
       </c>
       <c r="AC23" s="24">
         <v>5</v>
@@ -44054,35 +44055,35 @@
       </c>
       <c r="AG23" s="25">
         <f ca="1">(AD23+1+(LOG(I23)*4/3)+N23)*(Q23/7)^0.5</f>
-        <v>3.4697582945426992</v>
+        <v>3.4753650432951648</v>
       </c>
       <c r="AH23" s="25">
         <f ca="1">(AD23+1+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>3.8009297740233809</v>
+        <v>3.8070716595553598</v>
       </c>
       <c r="AI23" s="137">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(Q23/7)^0.5</f>
-        <v>1.7794497850856661</v>
+        <v>1.7850565338381317</v>
       </c>
       <c r="AJ23" s="137">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>1.9492895744782783</v>
+        <v>1.9554314600102571</v>
       </c>
       <c r="AK23" s="9">
         <f ca="1">(((Y23+LOG(I23)*4/3+N23)+(AB23+LOG(I23)*4/3+N23)*2)/8)*(Q23/7)^0.5</f>
-        <v>1.3011593604535121</v>
+        <v>1.3560840321562191</v>
       </c>
       <c r="AL23" s="9">
         <f ca="1">(AD23+LOG(I23)*4/3+N23)*0.7+(AC23+LOG(I23)*4/3+N23)*0.3</f>
-        <v>3.7054733797172528</v>
+        <v>3.712107374305929</v>
       </c>
       <c r="AM23" s="9">
         <f ca="1">(0.5*(AC23+LOG(I23)*4/3+N23)+ 0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.34843787037738022</v>
+        <v>0.34896858994447433</v>
       </c>
       <c r="AN23" s="9">
         <f ca="1">(0.4*(Y23+LOG(I23)*4/3+N23)+0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.25738313658020773</v>
+        <v>0.25784751620141505</v>
       </c>
       <c r="AO23" s="22">
         <v>1</v>
@@ -44098,7 +44099,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AS23">
-        <v>620</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -44110,7 +44111,7 @@
       </c>
       <c r="C24" s="138">
         <f t="shared" ref="C24" ca="1" si="64">((33*112)-(E24*112)-(F24))/112</f>
-        <v>15.866071428571429</v>
+        <v>15.857142857142858</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>423</v>
@@ -44120,7 +44121,7 @@
       </c>
       <c r="F24" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-60</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>418</v>
@@ -44148,14 +44149,14 @@
       </c>
       <c r="N24" s="154">
         <f t="shared" ref="N24" ca="1" si="68">IF((TODAY()-M24)&gt;335,1,((TODAY()-M24)^0.64)/(336^0.64))</f>
-        <v>0.10547337971725297</v>
+        <v>0.11210737430592951</v>
       </c>
       <c r="O24" s="27">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" ref="P24" si="69">O24*10+19</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="28">
         <v>5</v>
@@ -44169,18 +44170,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T24" s="32">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="U24" s="32">
         <f>T24-AS24</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="V24" s="8">
         <v>330</v>
       </c>
       <c r="W24" s="9">
         <f t="shared" ref="W24" si="72">T24/V24</f>
-        <v>2.4848484848484849</v>
+        <v>2.6969696969696968</v>
       </c>
       <c r="X24" s="23">
         <v>0</v>
@@ -44195,8 +44196,8 @@
         <v>4</v>
       </c>
       <c r="AB24" s="23">
-        <f>2+(0.33*0.16)</f>
-        <v>2.0528</v>
+        <f>2+(0.33*0.16)+0.33</f>
+        <v>2.3828</v>
       </c>
       <c r="AC24" s="24">
         <v>3</v>
@@ -44212,35 +44213,35 @@
       </c>
       <c r="AG24" s="25">
         <f ca="1">(AD24+1+(LOG(I24)*4/3)+N24)*(Q24/7)^0.5</f>
-        <v>0.9342955303571493</v>
+        <v>0.93990227910961532</v>
       </c>
       <c r="AH24" s="25">
         <f ca="1">(AD24+1+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>1.0234694747057267</v>
+        <v>1.0296113602377059</v>
       </c>
       <c r="AI24" s="137">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(Q24/7)^0.5</f>
-        <v>2.6246040398141828</v>
+        <v>2.6302107885666484</v>
       </c>
       <c r="AJ24" s="137">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>2.8751096742508295</v>
+        <v>2.8812515597828083</v>
       </c>
       <c r="AK24" s="9">
         <f ca="1">(((Y24+LOG(I24)*4/3+N24)+(AB24+LOG(I24)*4/3+N24)*2)/8)*(Q24/7)^0.5</f>
-        <v>0.99538255109273477</v>
+        <v>1.0672103078900121</v>
       </c>
       <c r="AL24" s="9">
         <f ca="1">(AD24+LOG(I24)*4/3+N24)*0.7+(AC24+LOG(I24)*4/3+N24)*0.3</f>
-        <v>1.005473379717253</v>
+        <v>1.0121073743059295</v>
       </c>
       <c r="AM24" s="9">
         <f ca="1">(0.5*(AC24+LOG(I24)*4/3+N24)+ 0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.15843787037738025</v>
+        <v>0.15896858994447435</v>
       </c>
       <c r="AN24" s="9">
         <f ca="1">(0.4*(Y24+LOG(I24)*4/3+N24)+0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.20738313658020774</v>
+        <v>0.20784751620141506</v>
       </c>
       <c r="AO24" s="22">
         <v>3</v>
@@ -44256,7 +44257,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AS24">
-        <v>770</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
@@ -44268,7 +44269,7 @@
       </c>
       <c r="C25" s="138">
         <f t="shared" ref="C25" ca="1" si="74">((33*112)-(E25*112)-(F25))/112</f>
-        <v>15.794642857142858</v>
+        <v>15.785714285714286</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>429</v>
@@ -44278,7 +44279,7 @@
       </c>
       <c r="F25" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>45</v>
@@ -44306,14 +44307,14 @@
       </c>
       <c r="N25" s="154">
         <f t="shared" ref="N25" ca="1" si="78">IF((TODAY()-M25)&gt;335,1,((TODAY()-M25)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O25" s="21">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" ref="P25" si="79">O25*10+19</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="28">
         <v>4</v>
@@ -44327,18 +44328,18 @@
         <v>0.84430867747355465</v>
       </c>
       <c r="T25" s="32">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="U25" s="32">
         <f t="shared" ref="U25" si="82">T25-AS25</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V25" s="32">
         <v>270</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" ref="W25" si="83">T25/V25</f>
-        <v>1.7037037037037037</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="X25" s="23">
         <v>0</v>
@@ -44353,8 +44354,8 @@
         <v>5</v>
       </c>
       <c r="AB25" s="23">
-        <f>3+(0.25*0.16)</f>
-        <v>3.04</v>
+        <f>3+(0.25*0.16)+0.25</f>
+        <v>3.29</v>
       </c>
       <c r="AC25" s="24">
         <v>4</v>
@@ -44370,35 +44371,35 @@
       </c>
       <c r="AG25" s="25">
         <f t="shared" ref="AG25" ca="1" si="84">(AD25+1+(LOG(I25)*4/3)+N25)*(Q25/7)^0.5</f>
-        <v>1.2829795352616711</v>
+        <v>1.2881785563432917</v>
       </c>
       <c r="AH25" s="25">
         <f t="shared" ref="AH25" ca="1" si="85">(AD25+1+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4344147272930923</v>
+        <v>1.440227409570572</v>
       </c>
       <c r="AI25" s="137">
         <f t="shared" ref="AI25" ca="1" si="86">(Z25+N25+(LOG(I25)*4/3))*(Q25/7)^0.5</f>
-        <v>1.2829795352616709</v>
+        <v>1.2881785563432919</v>
       </c>
       <c r="AJ25" s="137">
         <f t="shared" ref="AJ25" ca="1" si="87">(Z25+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4344147272930923</v>
+        <v>1.440227409570572</v>
       </c>
       <c r="AK25" s="9">
         <f t="shared" ref="AK25" ca="1" si="88">(((Y25+LOG(I25)*4/3+N25)+(AB25+LOG(I25)*4/3+N25)*2)/8)*(Q25/7)^0.5</f>
-        <v>0.86664108819253838</v>
+        <v>0.91583628022429964</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" ref="AL25" ca="1" si="89">(AD25+LOG(I25)*4/3+N25)*0.7+(AC25+LOG(I25)*4/3+N25)*0.3</f>
-        <v>1.5972223937438024</v>
+        <v>1.604100052165278</v>
       </c>
       <c r="AM25" s="9">
         <f t="shared" ref="AM25" ca="1" si="90">(0.5*(AC25+LOG(I25)*4/3+N25)+ 0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.2057777914995042</v>
+        <v>0.20632800417322228</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" ref="AN25" ca="1" si="91">(0.4*(Y25+LOG(I25)*4/3+N25)+0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.16880556756206616</v>
+        <v>0.16928700365156948</v>
       </c>
       <c r="AO25" s="22">
         <v>3</v>
@@ -44426,7 +44427,7 @@
       </c>
       <c r="C26" s="138">
         <f t="shared" ref="C26" ca="1" si="93">((33*112)-(E26*112)-(F26))/112</f>
-        <v>15.5</v>
+        <v>15.491071428571429</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>431</v>
@@ -44436,7 +44437,7 @@
       </c>
       <c r="F26" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>74</v>
@@ -44464,39 +44465,39 @@
       </c>
       <c r="N26" s="154">
         <f t="shared" ref="N26" ca="1" si="97">IF((TODAY()-M26)&gt;335,1,((TODAY()-M26)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O26" s="21">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" ref="P26" si="98">O26*10+19</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" s="132">
         <f t="shared" ref="R26" si="99">(Q26/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="S26" s="132">
         <f t="shared" ref="S26" si="100">IF(Q26=7,1,((Q26+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="T26" s="32">
-        <v>1450</v>
+        <v>1710</v>
       </c>
       <c r="U26" s="32">
         <f t="shared" ref="U26" si="101">T26-AS26</f>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="V26" s="32">
         <v>370</v>
       </c>
       <c r="W26" s="9">
         <f t="shared" ref="W26" si="102">T26/V26</f>
-        <v>3.9189189189189189</v>
+        <v>4.6216216216216219</v>
       </c>
       <c r="X26" s="23">
         <v>0</v>
@@ -44511,8 +44512,8 @@
         <v>3</v>
       </c>
       <c r="AB26" s="23">
-        <f>4+0.25</f>
-        <v>4.25</v>
+        <f>4+0.25+0.25</f>
+        <v>4.5</v>
       </c>
       <c r="AC26" s="24">
         <v>6</v>
@@ -44528,35 +44529,35 @@
       </c>
       <c r="AG26" s="25">
         <f t="shared" ref="AG26" ca="1" si="103">(AD26+1+(LOG(I26)*4/3)+N26)*(Q26/7)^0.5</f>
-        <v>0.58926047256457581</v>
+        <v>0.65186998054551648</v>
       </c>
       <c r="AH26" s="25">
         <f t="shared" ref="AH26" ca="1" si="104">(AD26+1+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>0.64550250613954452</v>
+        <v>0.70410005216527805</v>
       </c>
       <c r="AI26" s="137">
         <f t="shared" ref="AI26" ca="1" si="105">(Z26+N26+(LOG(I26)*4/3))*(Q26/7)^0.5</f>
-        <v>1.4344147272930923</v>
+        <v>1.577690080318068</v>
       </c>
       <c r="AJ26" s="137">
         <f t="shared" ref="AJ26" ca="1" si="106">(Z26+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>1.5713226059120957</v>
+        <v>1.7041000521652783</v>
       </c>
       <c r="AK26" s="9">
         <f t="shared" ref="AK26" ca="1" si="107">(((Y26+LOG(I26)*4/3+N26)+(AB26+LOG(I26)*4/3+N26)*2)/8)*(Q26/7)^0.5</f>
-        <v>1.3302376365428938</v>
+        <v>1.5174538798918269</v>
       </c>
       <c r="AL26" s="9">
         <f t="shared" ref="AL26" ca="1" si="108">(AD26+LOG(I26)*4/3+N26)*0.7+(AC26+LOG(I26)*4/3+N26)*0.3</f>
-        <v>1.4972223937438023</v>
+        <v>1.5041000521652779</v>
       </c>
       <c r="AM26" s="9">
         <f t="shared" ref="AM26" ca="1" si="109">(0.5*(AC26+LOG(I26)*4/3+N26)+ 0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.27577779149950421</v>
+        <v>0.27632800417322223</v>
       </c>
       <c r="AN26" s="9">
         <f t="shared" ref="AN26" ca="1" si="110">(0.4*(Y26+LOG(I26)*4/3+N26)+0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.17880556756206617</v>
+        <v>0.17928700365156947</v>
       </c>
       <c r="AO26" s="22">
         <v>2</v>
@@ -44572,7 +44573,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS26">
-        <v>1280</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
@@ -44584,7 +44585,7 @@
       </c>
       <c r="C27" s="138">
         <f ca="1">((33*112)-(E27*112)-(F27))/112</f>
-        <v>15.4375</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>427</v>
@@ -44594,7 +44595,7 @@
       </c>
       <c r="F27" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>74</v>
@@ -44622,14 +44623,14 @@
       </c>
       <c r="N27" s="154">
         <f ca="1">IF((TODAY()-M27)&gt;335,1,((TODAY()-M27)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O27" s="27">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="P27" s="22">
         <f>O27*10+19</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="28">
         <v>5</v>
@@ -44643,18 +44644,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T27" s="32">
-        <v>1770</v>
+        <v>1840</v>
       </c>
       <c r="U27" s="32">
         <f>T27-AS27</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="V27" s="8">
         <v>450</v>
       </c>
       <c r="W27" s="9">
         <f>T27/V27</f>
-        <v>3.9333333333333331</v>
+        <v>4.0888888888888886</v>
       </c>
       <c r="X27" s="23">
         <v>0</v>
@@ -44669,8 +44670,8 @@
         <v>4</v>
       </c>
       <c r="AB27" s="23">
-        <f>2.67+0.33</f>
-        <v>3</v>
+        <f>2.67+0.33+0.33*0.16</f>
+        <v>3.0528</v>
       </c>
       <c r="AC27" s="24">
         <v>3</v>
@@ -44686,35 +44687,35 @@
       </c>
       <c r="AG27" s="25">
         <f ca="1">(AD27+1+(LOG(I27)*4/3)+N27)*(Q27/7)^0.5</f>
-        <v>3.1247232367501256</v>
+        <v>3.1305359190276052</v>
       </c>
       <c r="AH27" s="25">
         <f ca="1">(AD27+1+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4229628054571988</v>
+        <v>3.4293302798631706</v>
       </c>
       <c r="AI27" s="137">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(Q27/7)^0.5</f>
-        <v>3.1247232367501256</v>
+        <v>3.1305359190276052</v>
       </c>
       <c r="AJ27" s="137">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4229628054571988</v>
+        <v>3.4293302798631706</v>
       </c>
       <c r="AK27" s="9">
         <f ca="1">(((Y27+LOG(I27)*4/3+N27)+(AB27+LOG(I27)*4/3+N27)*2)/8)*(Q27/7)^0.5</f>
-        <v>1.171771213781297</v>
+        <v>1.1851070057977682</v>
       </c>
       <c r="AL27" s="9">
         <f ca="1">(AD27+LOG(I27)*4/3+N27)*0.7+(AC27+LOG(I27)*4/3+N27)*0.3</f>
-        <v>2.6972223937438025</v>
+        <v>2.7041000521652783</v>
       </c>
       <c r="AM27" s="9">
         <f ca="1">(0.5*(AC27+LOG(I27)*4/3+N27)+ 0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.21577779149950418</v>
+        <v>0.21632800417322223</v>
       </c>
       <c r="AN27" s="9">
         <f ca="1">(0.4*(Y27+LOG(I27)*4/3+N27)+0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.30880556756206617</v>
+        <v>0.30928700365156947</v>
       </c>
       <c r="AO27" s="22">
         <v>2</v>
@@ -44730,7 +44731,7 @@
         <v>2.63E-2</v>
       </c>
       <c r="AS27">
-        <v>1650</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -44742,7 +44743,7 @@
       </c>
       <c r="C28" s="138">
         <f ca="1">((33*112)-(E28*112)-(F28))/112</f>
-        <v>15.607142857142858</v>
+        <v>15.598214285714286</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>425</v>
@@ -44752,7 +44753,7 @@
       </c>
       <c r="F28" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
@@ -44780,14 +44781,14 @@
       </c>
       <c r="N28" s="154">
         <f ca="1">IF((TODAY()-M28)&gt;335,1,((TODAY()-M28)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O28" s="27">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="P28" s="22">
         <f>O28*10+19</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="28">
         <v>5</v>
@@ -44801,18 +44802,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T28" s="32">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="U28" s="32">
         <f>T28-AS28</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="V28" s="8">
         <v>330</v>
       </c>
       <c r="W28" s="9">
         <f>T28/V28</f>
-        <v>2.6969696969696968</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="X28" s="23">
         <v>0</v>
@@ -44827,8 +44828,8 @@
         <v>3</v>
       </c>
       <c r="AB28" s="23">
-        <f>2+(0.33*0.16)</f>
-        <v>2.0528</v>
+        <f>2+(0.33*0.16)+(0.33*0.16)</f>
+        <v>2.1055999999999999</v>
       </c>
       <c r="AC28" s="24">
         <v>5</v>
@@ -44844,35 +44845,35 @@
       </c>
       <c r="AG28" s="25">
         <f ca="1">(AD28+1+(LOG(I28)*4/3)+N28)*(Q28/7)^0.5</f>
-        <v>2.2795689820216087</v>
+        <v>2.2853816642990887</v>
       </c>
       <c r="AH28" s="25">
         <f ca="1">(AD28+1+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>2.4971427056846474</v>
+        <v>2.5035101800906192</v>
       </c>
       <c r="AI28" s="137">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(Q28/7)^0.5</f>
-        <v>3.9698774914786417</v>
+        <v>3.9756901737561212</v>
       </c>
       <c r="AJ28" s="137">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>4.3487829052297498</v>
+        <v>4.355150379635722</v>
       </c>
       <c r="AK28" s="9">
         <f ca="1">(((Y28+LOG(I28)*4/3+N28)+(AB28+LOG(I28)*4/3+N28)*2)/8)*(Q28/7)^0.5</f>
-        <v>0.54906155889732611</v>
+        <v>0.56239735091379728</v>
       </c>
       <c r="AL28" s="9">
         <f ca="1">(AD28+LOG(I28)*4/3+N28)*0.7+(AC28+LOG(I28)*4/3+N28)*0.3</f>
-        <v>2.5972223937438024</v>
+        <v>2.6041000521652782</v>
       </c>
       <c r="AM28" s="9">
         <f ca="1">(0.5*(AC28+LOG(I28)*4/3+N28)+ 0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.28577779149950422</v>
+        <v>0.28632800417322224</v>
       </c>
       <c r="AN28" s="9">
         <f ca="1">(0.4*(Y28+LOG(I28)*4/3+N28)+0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.1188055675620662</v>
+        <v>0.11928700365156945</v>
       </c>
       <c r="AO28" s="22">
         <v>4</v>
@@ -44888,7 +44889,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS28">
-        <v>820</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
@@ -44900,7 +44901,7 @@
       </c>
       <c r="C29" s="138">
         <f t="shared" ref="C29" ca="1" si="112">((33*112)-(E29*112)-(F29))/112</f>
-        <v>15.892857142857142</v>
+        <v>15.883928571428571</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>430</v>
@@ -44910,7 +44911,7 @@
       </c>
       <c r="F29" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>418</v>
@@ -44938,7 +44939,7 @@
       </c>
       <c r="N29" s="154">
         <f t="shared" ref="N29" ca="1" si="116">IF((TODAY()-M29)&gt;335,1,((TODAY()-M29)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O29" s="21">
         <v>4.2</v>
@@ -44959,18 +44960,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T29" s="32">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="U29" s="32">
         <f t="shared" ref="U29" si="120">T29-AS29</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V29" s="32">
         <v>290</v>
       </c>
       <c r="W29" s="9">
         <f t="shared" ref="W29" si="121">T29/V29</f>
-        <v>1.7931034482758621</v>
+        <v>1.8620689655172413</v>
       </c>
       <c r="X29" s="23">
         <v>0</v>
@@ -44985,8 +44986,8 @@
         <v>2</v>
       </c>
       <c r="AB29" s="23">
-        <f>3+(0.25*0.16)</f>
-        <v>3.04</v>
+        <f>3+(0.25*0.16)+(0.25*0.16*3/90)</f>
+        <v>3.0413333333333332</v>
       </c>
       <c r="AC29" s="24">
         <v>5</v>
@@ -45002,35 +45003,35 @@
       </c>
       <c r="AG29" s="25">
         <f t="shared" ref="AG29" ca="1" si="122">(AD29+1+(LOG(I29)*4/3)+N29)*(Q29/7)^0.5</f>
-        <v>1.4344147272930925</v>
+        <v>1.4402274095705718</v>
       </c>
       <c r="AH29" s="25">
         <f t="shared" ref="AH29" ca="1" si="123">(AD29+1+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.5713226059120957</v>
+        <v>1.577690080318068</v>
       </c>
       <c r="AI29" s="137">
         <f t="shared" ref="AI29" ca="1" si="124">(Z29+N29+(LOG(I29)*4/3))*(Q29/7)^0.5</f>
-        <v>1.4344147272930923</v>
+        <v>1.440227409570572</v>
       </c>
       <c r="AJ29" s="137">
         <f t="shared" ref="AJ29" ca="1" si="125">(Z29+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.5713226059120957</v>
+        <v>1.577690080318068</v>
       </c>
       <c r="AK29" s="9">
         <f t="shared" ref="AK29" ca="1" si="126">(((Y29+LOG(I29)*4/3+N29)+(AB29+LOG(I29)*4/3+N29)*2)/8)*(Q29/7)^0.5</f>
-        <v>0.96893419264645309</v>
+        <v>0.97139566658541743</v>
       </c>
       <c r="AL29" s="9">
         <f t="shared" ref="AL29" ca="1" si="127">(AD29+LOG(I29)*4/3+N29)*0.7+(AC29+LOG(I29)*4/3+N29)*0.3</f>
-        <v>1.8972223937438024</v>
+        <v>1.904100052165278</v>
       </c>
       <c r="AM29" s="9">
         <f t="shared" ref="AM29" ca="1" si="128">(0.5*(AC29+LOG(I29)*4/3+N29)+ 0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.25577779149950419</v>
+        <v>0.25632800417322221</v>
       </c>
       <c r="AN29" s="9">
         <f t="shared" ref="AN29" ca="1" si="129">(0.4*(Y29+LOG(I29)*4/3+N29)+0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.16880556756206616</v>
+        <v>0.16928700365156948</v>
       </c>
       <c r="AO29" s="22">
         <v>1</v>
@@ -45046,7 +45047,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AS29">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
@@ -45058,7 +45059,7 @@
       </c>
       <c r="C30" s="138">
         <f t="shared" ref="C30" ca="1" si="131">((33*112)-(E30*112)-(F30))/112</f>
-        <v>15.857142857142858</v>
+        <v>15.848214285714286</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>433</v>
@@ -45068,7 +45069,7 @@
       </c>
       <c r="F30" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44-40</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>200</v>
@@ -45096,7 +45097,7 @@
       </c>
       <c r="N30" s="154">
         <f t="shared" ref="N30" ca="1" si="135">IF((TODAY()-M30)&gt;335,1,((TODAY()-M30)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O30" s="21">
         <v>4.2</v>
@@ -45106,29 +45107,29 @@
         <v>61</v>
       </c>
       <c r="Q30" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R30" s="132">
         <f t="shared" ref="R30" si="137">(Q30/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="S30" s="132">
         <f t="shared" ref="S30" si="138">IF(Q30=7,1,((Q30+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="T30" s="32">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="U30" s="32">
         <f t="shared" ref="U30" si="139">T30-AS30</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="V30" s="32">
         <v>250</v>
       </c>
       <c r="W30" s="9">
         <f t="shared" ref="W30" si="140">T30/V30</f>
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X30" s="23">
         <v>0</v>
@@ -45143,8 +45144,8 @@
         <v>3</v>
       </c>
       <c r="AB30" s="23">
-        <f>4+0.25</f>
-        <v>4.25</v>
+        <f>4+0.25+(0.25*0.16*3/90)</f>
+        <v>4.2513333333333332</v>
       </c>
       <c r="AC30" s="24">
         <v>3</v>
@@ -45160,35 +45161,35 @@
       </c>
       <c r="AG30" s="25">
         <f t="shared" ref="AG30" ca="1" si="141">(AD30+1+(LOG(I30)*4/3)+N30)*(Q30/7)^0.5</f>
-        <v>0.92848284807966996</v>
+        <v>1.0234694747057267</v>
       </c>
       <c r="AH30" s="25">
         <f t="shared" ref="AH30" ca="1" si="142">(AD30+1+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>1.0171020002997548</v>
+        <v>1.1054733797172529</v>
       </c>
       <c r="AI30" s="137">
         <f t="shared" ref="AI30" ca="1" si="143">(Z30+N30+(LOG(I30)*4/3))*(Q30/7)^0.5</f>
-        <v>3.4639456122652197</v>
+        <v>3.8009297740233809</v>
       </c>
       <c r="AJ30" s="137">
         <f t="shared" ref="AJ30" ca="1" si="144">(Z30+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>3.7945622996174091</v>
+        <v>4.1054733797172531</v>
       </c>
       <c r="AK30" s="9">
         <f t="shared" ref="AK30" ca="1" si="145">(((Y30+LOG(I30)*4/3+N30)+(AB30+LOG(I30)*4/3+N30)*2)/8)*(Q30/7)^0.5</f>
-        <v>1.3518017455199898</v>
+        <v>1.4835210281944766</v>
       </c>
       <c r="AL30" s="9">
         <f t="shared" ref="AL30" ca="1" si="146">(AD30+LOG(I30)*4/3+N30)*0.7+(AC30+LOG(I30)*4/3+N30)*0.3</f>
-        <v>0.99859572129577734</v>
+        <v>1.005473379717253</v>
       </c>
       <c r="AM30" s="9">
         <f t="shared" ref="AM30" ca="1" si="147">(0.5*(AC30+LOG(I30)*4/3+N30)+ 0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.1578876577036622</v>
+        <v>0.15843787037738025</v>
       </c>
       <c r="AN30" s="9">
         <f t="shared" ref="AN30" ca="1" si="148">(0.4*(Y30+LOG(I30)*4/3+N30)+0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.16690170049070444</v>
+        <v>0.1673831365802077</v>
       </c>
       <c r="AO30" s="22">
         <v>1</v>
@@ -45204,7 +45205,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AS30">
-        <v>410</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
@@ -45216,7 +45217,7 @@
       </c>
       <c r="C31" s="138">
         <f t="shared" ref="C31" ca="1" si="150">((33*112)-(E31*112)-(F31))/112</f>
-        <v>15.875</v>
+        <v>15.866071428571429</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>428</v>
@@ -45226,7 +45227,7 @@
       </c>
       <c r="F31" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>200</v>
@@ -45254,7 +45255,7 @@
       </c>
       <c r="N31" s="154">
         <f t="shared" ref="N31" ca="1" si="154">IF((TODAY()-M31)&gt;335,1,((TODAY()-M31)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O31" s="21">
         <v>4.2</v>
@@ -45275,18 +45276,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="T31" s="32">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="U31" s="32">
         <f t="shared" ref="U31" si="158">T31-AS31</f>
-        <v>-70</v>
+        <v>130</v>
       </c>
       <c r="V31" s="32">
         <v>270</v>
       </c>
       <c r="W31" s="9">
         <f t="shared" ref="W31" si="159">T31/V31</f>
-        <v>1.7777777777777777</v>
+        <v>2.2592592592592591</v>
       </c>
       <c r="X31" s="23">
         <v>0</v>
@@ -45301,8 +45302,8 @@
         <v>4</v>
       </c>
       <c r="AB31" s="23">
-        <f>3+(0.25*0.16*31/90)</f>
-        <v>3.0137777777777779</v>
+        <f>3+(0.25*0.16*31/90)+(0.25*0.16*3/90)</f>
+        <v>3.0151111111111111</v>
       </c>
       <c r="AC31" s="24">
         <v>4</v>
@@ -45318,35 +45319,35 @@
       </c>
       <c r="AG31" s="25">
         <f t="shared" ref="AG31" ca="1" si="160">(AD31+1+(LOG(I31)*4/3)+N31)*(Q31/7)^0.5</f>
-        <v>1.4344147272930925</v>
+        <v>1.4402274095705718</v>
       </c>
       <c r="AH31" s="25">
         <f t="shared" ref="AH31" ca="1" si="161">(AD31+1+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>1.5713226059120957</v>
+        <v>1.577690080318068</v>
       </c>
       <c r="AI31" s="137">
         <f t="shared" ref="AI31" ca="1" si="162">(Z31+N31+(LOG(I31)*4/3))*(Q31/7)^0.5</f>
-        <v>3.1247232367501256</v>
+        <v>3.1305359190276052</v>
       </c>
       <c r="AJ31" s="137">
         <f t="shared" ref="AJ31" ca="1" si="163">(Z31+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>3.4229628054571988</v>
+        <v>3.4293302798631706</v>
       </c>
       <c r="AK31" s="9">
         <f t="shared" ref="AK31" ca="1" si="164">(((Y31+LOG(I31)*4/3+N31)+(AB31+LOG(I31)*4/3+N31)*2)/8)*(Q31/7)^0.5</f>
-        <v>0.85774945513550149</v>
+        <v>0.86021092907446595</v>
       </c>
       <c r="AL31" s="9">
         <f t="shared" ref="AL31" ca="1" si="165">(AD31+LOG(I31)*4/3+N31)*0.7+(AC31+LOG(I31)*4/3+N31)*0.3</f>
-        <v>1.5972223937438024</v>
+        <v>1.604100052165278</v>
       </c>
       <c r="AM31" s="9">
         <f t="shared" ref="AM31" ca="1" si="166">(0.5*(AC31+LOG(I31)*4/3+N31)+ 0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.2057777914995042</v>
+        <v>0.20632800417322228</v>
       </c>
       <c r="AN31" s="9">
         <f t="shared" ref="AN31" ca="1" si="167">(0.4*(Y31+LOG(I31)*4/3+N31)+0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.12880556756206618</v>
+        <v>0.12928700365156948</v>
       </c>
       <c r="AO31" s="22">
         <v>1</v>
@@ -45362,7 +45363,7 @@
         <v>0.1158</v>
       </c>
       <c r="AS31">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -46132,7 +46133,7 @@
       </c>
       <c r="C3" s="36">
         <f ca="1">PLANTILLA!F4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="69">
         <f>PLANTILLA!G4</f>
@@ -46143,15 +46144,15 @@
       </c>
       <c r="F3" s="51">
         <f>PLANTILLA!Q4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="52">
         <f>(F3/7)^0.5</f>
-        <v>0.92582009977255142</v>
+        <v>1</v>
       </c>
       <c r="H3" s="52">
         <f>IF(F3=7,1,((F3+0.99)/7)^0.5)</f>
-        <v>0.99928545900129484</v>
+        <v>1</v>
       </c>
       <c r="I3" s="55">
         <f ca="1">IF(TODAY()-E3&gt;335,1,((TODAY()-E3)^0.5)/336^0.5)</f>
@@ -46179,7 +46180,7 @@
       </c>
       <c r="O3" s="50">
         <f>PLANTILLA!AB4</f>
-        <v>2.3199999999999998</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="P3" s="50">
         <f>PLANTILLA!AC4</f>
@@ -46191,7 +46192,7 @@
       </c>
       <c r="R3" s="50">
         <f>((2*(O3+1))+(L3+1))/8</f>
-        <v>2.3383333333333334</v>
+        <v>2.3408333333333333</v>
       </c>
       <c r="S3" s="50">
         <f>(0.5*P3+ 0.3*Q3)/10</f>
@@ -46203,11 +46204,11 @@
       </c>
       <c r="U3" s="50">
         <f t="shared" ref="U3" ca="1" si="0">IF(TODAY()-E3&gt;335,(Q3+1+(LOG(J3)*4/3))*(F3/7)^0.5,(Q3+((TODAY()-E3)^0.5)/(336^0.5)+(LOG(J3)*4/3))*(F3/7)^0.5)</f>
-        <v>19.92094004838599</v>
+        <v>21.517074487019691</v>
       </c>
       <c r="V3" s="50">
         <f t="shared" ref="V3" ca="1" si="1">IF(F3=7,U3,IF(TODAY()-E3&gt;335,(Q3+1+(LOG(J3)*4/3))*((F3+0.99)/7)^0.5,(Q3+((TODAY()-E3)^0.5)/(336^0.5)+(LOG(J3)*4/3))*((F3+0.99)/7)^0.5))</f>
-        <v>21.501699655126522</v>
+        <v>21.517074487019691</v>
       </c>
       <c r="W3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((K3+1+(LOG(J3)*4/3))*0.597)+((L3+1+(LOG(J3)*4/3))*0.276),((K3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.597)+((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.276))</f>
@@ -46283,7 +46284,7 @@
       </c>
       <c r="AO3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((R3+1+(LOG(J3)*4/3))*0.288),((R3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.288))</f>
-        <v>1.3551574522616718</v>
+        <v>1.3558774522616717</v>
       </c>
       <c r="AP3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.27),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.27))</f>
@@ -46303,15 +46304,15 @@
       </c>
       <c r="AT3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.13),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.13))</f>
-        <v>0.60931968331256015</v>
+        <v>0.61061968331256011</v>
       </c>
       <c r="AU3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((P3+1+(LOG(J3)*4/3))*0.173)+((O3+1+(LOG(J3)*4/3))*0.12),((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.173)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.12))</f>
-        <v>1.28508282469677</v>
+        <v>1.2862828246967701</v>
       </c>
       <c r="AV3" s="40">
         <f ca="1">AT3/2</f>
-        <v>0.30465984165628007</v>
+        <v>0.30530984165628006</v>
       </c>
       <c r="AW3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.189),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.189))</f>
@@ -46331,15 +46332,15 @@
       </c>
       <c r="BA3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.253),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.253))</f>
-        <v>1.1858298452159823</v>
+        <v>1.1883598452159823</v>
       </c>
       <c r="BB3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((P3+1+(LOG(J3)*4/3))*0.21)+((O3+1+(LOG(J3)*4/3))*0.341),((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.21)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.341))</f>
-        <v>2.4754780423478513</v>
+        <v>2.478888042347851</v>
       </c>
       <c r="BC3" s="40">
         <f ca="1">BA3/2</f>
-        <v>0.59291492260799117</v>
+        <v>0.59417992260799113</v>
       </c>
       <c r="BD3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.291),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.291))</f>
@@ -46355,11 +46356,11 @@
       </c>
       <c r="BG3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*0.574)+((O3+1+(LOG(J3)*4/3))*0.315),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.574)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.315))</f>
-        <v>2.8408692189605071</v>
+        <v>2.8440192189605069</v>
       </c>
       <c r="BH3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.241),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.241))</f>
-        <v>1.129584951371746</v>
+        <v>1.131994951371746</v>
       </c>
       <c r="BI3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.485),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.485))</f>
@@ -46375,11 +46376,11 @@
       </c>
       <c r="BL3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*0.673)+((O3+1+(LOG(J3)*4/3))*0.201),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.673)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.201))</f>
-        <v>2.5418731016552121</v>
+        <v>2.5438831016552124</v>
       </c>
       <c r="BM3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.052),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.052))</f>
-        <v>0.24372787332502402</v>
+        <v>0.24424787332502401</v>
       </c>
       <c r="BN3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.18),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.18))</f>
@@ -46395,11 +46396,11 @@
       </c>
       <c r="BQ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*1)+((O3+1+(LOG(J3)*4/3))*0.286),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*1)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.286))</f>
-        <v>3.7175777903073257</v>
+        <v>3.7204377903073254</v>
       </c>
       <c r="BR3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.135),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.135))</f>
-        <v>0.63275505574765856</v>
+        <v>0.63410505574765852</v>
       </c>
       <c r="BS3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((L3+1+(LOG(J3)*4/3))*0.284),((L3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.284))</f>
@@ -46415,11 +46416,11 @@
       </c>
       <c r="BV3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*0.702)+((O3+1+(LOG(J3)*4/3))*0.193),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.702)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.193))</f>
-        <v>2.5733116658826254</v>
+        <v>2.5752416658826256</v>
       </c>
       <c r="BW3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.148),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.148))</f>
-        <v>0.69368702407891447</v>
+        <v>0.69516702407891451</v>
       </c>
       <c r="BX3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((M3+1+(LOG(J3)*4/3))*0.406),((M3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.406))</f>
@@ -46427,27 +46428,27 @@
       </c>
       <c r="BY3" s="40">
         <f ca="1">IF(D3="TEC",IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*0.15)+((O3+1+(LOG(J3)*4/3))*0.324)+((P3+1+(LOG(J3)*4/3))*0.127),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.15)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.324)+((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.127)),IF(TODAY()-E3&gt;335,((N3+1+(LOG(J3)*4/3))*0.144)+((O3+1+(LOG(J3)*4/3))*0.25)+((P3+1+(LOG(J3)*4/3))*0.127),((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.144)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.25)+((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.127)))</f>
-        <v>2.0445558077372601</v>
+        <v>2.0470558077372605</v>
       </c>
       <c r="BZ3" s="40">
         <f ca="1">IF(D3="TEC",IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.543)+((P3+1+(LOG(J3)*4/3))*0.583),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.543)+((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.583)),IF(TODAY()-E3&gt;335,((O3+1+(LOG(J3)*4/3))*0.543)+((P3+1+(LOG(J3)*4/3))*0.583),((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.543)+((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.583)))</f>
-        <v>4.9803158723841747</v>
+        <v>4.9857458723841752</v>
       </c>
       <c r="CA3" s="40">
         <f ca="1">BY3</f>
-        <v>2.0445558077372601</v>
+        <v>2.0470558077372605</v>
       </c>
       <c r="CB3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((P3+1+(LOG(J3)*4/3))*0.26)+((N3+1+(LOG(J3)*4/3))*0.221)+((O3+1+(LOG(J3)*4/3))*0.142),((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.26)+((N3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.221)+((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.142))</f>
-        <v>2.2769374054132689</v>
+        <v>2.2783574054132689</v>
       </c>
       <c r="CC3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((P3+1+(LOG(J3)*4/3))*1)+((O3+1+(LOG(J3)*4/3))*0.369),((P3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*1)+((O3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.369))</f>
-        <v>5.9066049727299603</v>
+        <v>5.910294972729961</v>
       </c>
       <c r="CD3" s="40">
         <f ca="1">CB3</f>
-        <v>2.2769374054132689</v>
+        <v>2.2783574054132689</v>
       </c>
       <c r="CE3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((M3+1+(LOG(J3)*4/3))*0.25),((M3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(J3)*4/3))*0.25))</f>
@@ -46465,7 +46466,7 @@
       </c>
       <c r="C4" s="36">
         <f ca="1">PLANTILLA!F5</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="69" t="str">
         <f>PLANTILLA!G5</f>
@@ -46476,15 +46477,15 @@
       </c>
       <c r="F4" s="51">
         <f>PLANTILLA!Q5</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="52">
         <f t="shared" ref="G4:G7" si="4">(F4/7)^0.5</f>
-        <v>0.92582009977255142</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="H4" s="52">
         <f t="shared" ref="H4:H7" si="5">IF(F4=7,1,((F4+0.99)/7)^0.5)</f>
-        <v>0.99928545900129484</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="I4" s="55">
         <f t="shared" ref="I4:I16" ca="1" si="6">IF(TODAY()-E4&gt;335,1,((TODAY()-E4)^0.5)/336^0.5)</f>
@@ -46512,7 +46513,7 @@
       </c>
       <c r="O4" s="50">
         <f>PLANTILLA!AB5</f>
-        <v>7.0399999999999991</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="P4" s="50">
         <f>PLANTILLA!AC5</f>
@@ -46524,7 +46525,7 @@
       </c>
       <c r="R4" s="50">
         <f t="shared" ref="R4:R7" si="7">((2*(O4+1))+(L4+1))/8</f>
-        <v>3.8849999999999998</v>
+        <v>3.8874999999999997</v>
       </c>
       <c r="S4" s="50">
         <f t="shared" ref="S4:S7" si="8">(0.5*P4+ 0.3*Q4)/10</f>
@@ -46536,11 +46537,11 @@
       </c>
       <c r="U4" s="50">
         <f t="shared" ref="U4:U7" ca="1" si="10">IF(TODAY()-E4&gt;335,(Q4+1+(LOG(J4)*4/3))*(F4/7)^0.5,(Q4+((TODAY()-E4)^0.5)/(336^0.5)+(LOG(J4)*4/3))*(F4/7)^0.5)</f>
-        <v>16.339825770246481</v>
+        <v>14.916151933447042</v>
       </c>
       <c r="V4" s="50">
         <f t="shared" ref="V4:V7" ca="1" si="11">IF(F4=7,U4,IF(TODAY()-E4&gt;335,(Q4+1+(LOG(J4)*4/3))*((F4+0.99)/7)^0.5,(Q4+((TODAY()-E4)^0.5)/(336^0.5)+(LOG(J4)*4/3))*((F4+0.99)/7)^0.5))</f>
-        <v>17.63641802422881</v>
+        <v>16.326203570487774</v>
       </c>
       <c r="W4" s="40">
         <f t="shared" ref="W4:W7" ca="1" si="12">IF(TODAY()-E4&gt;335,((K4+1+(LOG(J4)*4/3))*0.597)+((L4+1+(LOG(J4)*4/3))*0.276),((K4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.597)+((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.276))</f>
@@ -46616,7 +46617,7 @@
       </c>
       <c r="AO4" s="40">
         <f t="shared" ref="AO4:AO7" ca="1" si="30">IF(TODAY()-E4&gt;335,((R4+1+(LOG(J4)*4/3))*0.288),((R4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.288))</f>
-        <v>1.7858003459582379</v>
+        <v>1.7865203459582377</v>
       </c>
       <c r="AP4" s="40">
         <f t="shared" ref="AP4:AP7" ca="1" si="31">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.27),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.27))</f>
@@ -46636,15 +46637,15 @@
       </c>
       <c r="AT4" s="40">
         <f t="shared" ref="AT4:AT7" ca="1" si="35">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.13),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.13))</f>
-        <v>1.2162404339394823</v>
+        <v>1.2175404339394822</v>
       </c>
       <c r="AU4" s="40">
         <f t="shared" ref="AU4:AU7" ca="1" si="36">IF(TODAY()-E4&gt;335,((P4+1+(LOG(J4)*4/3))*0.173)+((O4+1+(LOG(J4)*4/3))*0.12),((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.173)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.12))</f>
-        <v>1.8710288241866793</v>
+        <v>1.8722288241866794</v>
       </c>
       <c r="AV4" s="40">
         <f t="shared" ref="AV4:AV7" ca="1" si="37">AT4/2</f>
-        <v>0.60812021696974117</v>
+        <v>0.6087702169697411</v>
       </c>
       <c r="AW4" s="40">
         <f t="shared" ref="AW4:AW7" ca="1" si="38">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.189),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.189))</f>
@@ -46664,15 +46665,15 @@
       </c>
       <c r="BA4" s="40">
         <f t="shared" ref="BA4:BA7" ca="1" si="42">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.253),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.253))</f>
-        <v>2.3669909983591464</v>
+        <v>2.3695209983591461</v>
       </c>
       <c r="BB4" s="40">
         <f t="shared" ref="BB4:BB7" ca="1" si="43">IF(TODAY()-E4&gt;335,((P4+1+(LOG(J4)*4/3))*0.21)+((O4+1+(LOG(J4)*4/3))*0.341),((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.21)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.341))</f>
-        <v>4.0986883007742669</v>
+        <v>4.1020983007742675</v>
       </c>
       <c r="BC4" s="40">
         <f t="shared" ref="BC4:BC7" ca="1" si="44">BA4/2</f>
-        <v>1.1834954991795732</v>
+        <v>1.184760499179573</v>
       </c>
       <c r="BD4" s="40">
         <f t="shared" ref="BD4:BD7" ca="1" si="45">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.291),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.291))</f>
@@ -46688,11 +46689,11 @@
       </c>
       <c r="BG4" s="40">
         <f t="shared" ref="BG4:BG7" ca="1" si="48">IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*0.574)+((O4+1+(LOG(J4)*4/3))*0.315),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.574)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.315))</f>
-        <v>10.610753429016921</v>
+        <v>10.613903429016922</v>
       </c>
       <c r="BH4" s="40">
         <f t="shared" ref="BH4:BH7" ca="1" si="49">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.241),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.241))</f>
-        <v>2.2547226506108862</v>
+        <v>2.257132650610886</v>
       </c>
       <c r="BI4" s="40">
         <f t="shared" ref="BI4:BI7" ca="1" si="50">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.485),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.485))</f>
@@ -46708,11 +46709,11 @@
       </c>
       <c r="BL4" s="40">
         <f t="shared" ref="BL4:BL7" ca="1" si="53">IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*0.673)+((O4+1+(LOG(J4)*4/3))*0.201),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.673)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.201))</f>
-        <v>10.865993708617312</v>
+        <v>10.868003708617312</v>
       </c>
       <c r="BM4" s="40">
         <f t="shared" ref="BM4:BM7" ca="1" si="54">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.052),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.052))</f>
-        <v>0.48649617357579289</v>
+        <v>0.48701617357579285</v>
       </c>
       <c r="BN4" s="40">
         <f t="shared" ref="BN4:BN7" ca="1" si="55">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.18),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.18))</f>
@@ -46728,11 +46729,11 @@
       </c>
       <c r="BQ4" s="40">
         <f t="shared" ref="BQ4:BQ7" ca="1" si="58">IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*1)+((O4+1+(LOG(J4)*4/3))*0.286),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*1)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.286))</f>
-        <v>16.027138886069473</v>
+        <v>16.029998886069471</v>
       </c>
       <c r="BR4" s="40">
         <f t="shared" ref="BR4:BR7" ca="1" si="59">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.135),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.135))</f>
-        <v>1.2630189121679238</v>
+        <v>1.264368912167924</v>
       </c>
       <c r="BS4" s="40">
         <f t="shared" ref="BS4:BS7" ca="1" si="60">IF(TODAY()-E4&gt;335,((L4+1+(LOG(J4)*4/3))*0.284),((L4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.284))</f>
@@ -46748,11 +46749,11 @@
       </c>
       <c r="BV4" s="40">
         <f t="shared" ref="BV4:BV7" ca="1" si="63">IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*0.702)+((O4+1+(LOG(J4)*4/3))*0.193),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.702)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.193))</f>
-        <v>11.17833903146248</v>
+        <v>11.18026903146248</v>
       </c>
       <c r="BW4" s="40">
         <f t="shared" ref="BW4:BW7" ca="1" si="64">IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.148),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.148))</f>
-        <v>1.384642955561872</v>
+        <v>1.3861229555618719</v>
       </c>
       <c r="BX4" s="40">
         <f t="shared" ref="BX4:BX7" ca="1" si="65">IF(TODAY()-E4&gt;335,((M4+1+(LOG(J4)*4/3))*0.406),((M4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.406))</f>
@@ -46760,27 +46761,27 @@
       </c>
       <c r="BY4" s="40">
         <f t="shared" ref="BY4:BY7" ca="1" si="66">IF(D4="TEC",IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*0.15)+((O4+1+(LOG(J4)*4/3))*0.324)+((P4+1+(LOG(J4)*4/3))*0.127),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.15)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.324)+((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.127)),IF(TODAY()-E4&gt;335,((N4+1+(LOG(J4)*4/3))*0.144)+((O4+1+(LOG(J4)*4/3))*0.25)+((P4+1+(LOG(J4)*4/3))*0.127),((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.144)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.25)+((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.127)))</f>
-        <v>5.583320225915827</v>
+        <v>5.5865602259158269</v>
       </c>
       <c r="BZ4" s="40">
         <f t="shared" ref="BZ4:BZ7" ca="1" si="67">IF(D4="TEC",IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.543)+((P4+1+(LOG(J4)*4/3))*0.583),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.543)+((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.583)),IF(TODAY()-E4&gt;335,((O4+1+(LOG(J4)*4/3))*0.543)+((P4+1+(LOG(J4)*4/3))*0.583),((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.543)+((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.583)))</f>
-        <v>7.6020232970450552</v>
+        <v>7.6074532970450548</v>
       </c>
       <c r="CA4" s="40">
         <f t="shared" ref="CA4:CA7" ca="1" si="68">BY4</f>
-        <v>5.583320225915827</v>
+        <v>5.5865602259158269</v>
       </c>
       <c r="CB4" s="40">
         <f t="shared" ref="CB4:CB7" ca="1" si="69">IF(TODAY()-E4&gt;335,((P4+1+(LOG(J4)*4/3))*0.26)+((N4+1+(LOG(J4)*4/3))*0.221)+((O4+1+(LOG(J4)*4/3))*0.142),((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.26)+((N4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.221)+((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.142))</f>
-        <v>5.4038512444066846</v>
+        <v>5.4052712444066842</v>
       </c>
       <c r="CC4" s="40">
         <f t="shared" ref="CC4:CC7" ca="1" si="70">IF(TODAY()-E4&gt;335,((P4+1+(LOG(J4)*4/3))*1)+((O4+1+(LOG(J4)*4/3))*0.369),((P4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*1)+((O4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.369))</f>
-        <v>7.7779473389473184</v>
+        <v>7.7816373389473181</v>
       </c>
       <c r="CD4" s="40">
         <f t="shared" ref="CD4:CD7" ca="1" si="71">CB4</f>
-        <v>5.4038512444066846</v>
+        <v>5.4052712444066842</v>
       </c>
       <c r="CE4" s="40">
         <f t="shared" ref="CE4:CE7" ca="1" si="72">IF(TODAY()-E4&gt;335,((M4+1+(LOG(J4)*4/3))*0.25),((M4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(J4)*4/3))*0.25))</f>
@@ -46798,7 +46799,7 @@
       </c>
       <c r="C5" s="36">
         <f ca="1">PLANTILLA!F6</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="69">
         <f>PLANTILLA!G6</f>
@@ -46845,7 +46846,7 @@
       </c>
       <c r="O5" s="50">
         <f>PLANTILLA!AB6</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="P5" s="50">
         <f>PLANTILLA!AC6</f>
@@ -46857,7 +46858,7 @@
       </c>
       <c r="R5" s="50">
         <f t="shared" si="7"/>
-        <v>4.2637499999999999</v>
+        <v>4.2662499999999994</v>
       </c>
       <c r="S5" s="50">
         <f t="shared" si="8"/>
@@ -46949,7 +46950,7 @@
       </c>
       <c r="AO5" s="40">
         <f t="shared" ca="1" si="30"/>
-        <v>1.8842318946512997</v>
+        <v>1.8849518946512998</v>
       </c>
       <c r="AP5" s="40">
         <f t="shared" ca="1" si="31"/>
@@ -46969,15 +46970,15 @@
       </c>
       <c r="AT5" s="40">
         <f t="shared" ca="1" si="35"/>
-        <v>1.4701338413356562</v>
+        <v>1.471433841335656</v>
       </c>
       <c r="AU5" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.4449955039334403</v>
+        <v>2.4461955039334402</v>
       </c>
       <c r="AV5" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>0.73506692066782808</v>
+        <v>0.73571692066782801</v>
       </c>
       <c r="AW5" s="40">
         <f t="shared" ca="1" si="38"/>
@@ -46997,15 +46998,15 @@
       </c>
       <c r="BA5" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>2.861106629676315</v>
+        <v>2.8636366296763152</v>
       </c>
       <c r="BB5" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>5.1769057428918961</v>
+        <v>5.1803157428918967</v>
       </c>
       <c r="BC5" s="40">
         <f t="shared" ca="1" si="44"/>
-        <v>1.4305533148381575</v>
+        <v>1.4318183148381576</v>
       </c>
       <c r="BD5" s="40">
         <f t="shared" ca="1" si="45"/>
@@ -47021,11 +47022,11 @@
       </c>
       <c r="BG5" s="40">
         <f t="shared" ca="1" si="48"/>
-        <v>11.777367063697934</v>
+        <v>11.780517063697935</v>
       </c>
       <c r="BH5" s="40">
         <f t="shared" ca="1" si="49"/>
-        <v>2.7254019673991778</v>
+        <v>2.7278119673991776</v>
       </c>
       <c r="BI5" s="40">
         <f t="shared" ca="1" si="50"/>
@@ -47041,11 +47042,11 @@
       </c>
       <c r="BL5" s="40">
         <f t="shared" ca="1" si="53"/>
-        <v>11.905066235851514</v>
+        <v>11.907076235851514</v>
       </c>
       <c r="BM5" s="40">
         <f t="shared" ca="1" si="54"/>
-        <v>0.5880535365342624</v>
+        <v>0.58857353653426236</v>
       </c>
       <c r="BN5" s="40">
         <f t="shared" ca="1" si="55"/>
@@ -47061,11 +47062,11 @@
       </c>
       <c r="BQ5" s="40">
         <f t="shared" ca="1" si="58"/>
-        <v>17.546349640699901</v>
+        <v>17.5492096406999</v>
       </c>
       <c r="BR5" s="40">
         <f t="shared" ca="1" si="59"/>
-        <v>1.5266774506177967</v>
+        <v>1.5280274506177967</v>
       </c>
       <c r="BS5" s="40">
         <f t="shared" ca="1" si="60"/>
@@ -47081,11 +47082,11 @@
       </c>
       <c r="BV5" s="40">
         <f t="shared" ca="1" si="63"/>
-        <v>12.229646061503171</v>
+        <v>12.231576061503171</v>
       </c>
       <c r="BW5" s="40">
         <f t="shared" ca="1" si="64"/>
-        <v>1.6736908347513622</v>
+        <v>1.6751708347513621</v>
       </c>
       <c r="BX5" s="40">
         <f t="shared" ca="1" si="65"/>
@@ -47093,27 +47094,27 @@
       </c>
       <c r="BY5" s="40">
         <f t="shared" ca="1" si="66"/>
-        <v>5.6867840871990518</v>
+        <v>5.6892840871990522</v>
       </c>
       <c r="BZ5" s="40">
         <f t="shared" ca="1" si="67"/>
-        <v>9.8069608103380688</v>
+        <v>9.8123908103380675</v>
       </c>
       <c r="CA5" s="40">
         <f t="shared" ca="1" si="68"/>
-        <v>5.6867840871990518</v>
+        <v>5.6892840871990522</v>
       </c>
       <c r="CB5" s="40">
         <f t="shared" ca="1" si="69"/>
-        <v>6.4038703832213884</v>
+        <v>6.4052903832213879</v>
       </c>
       <c r="CC5" s="40">
         <f t="shared" ca="1" si="70"/>
-        <v>10.461640221450102</v>
+        <v>10.465330221450102</v>
       </c>
       <c r="CD5" s="40">
         <f t="shared" ca="1" si="71"/>
-        <v>6.4038703832213884</v>
+        <v>6.4052903832213879</v>
       </c>
       <c r="CE5" s="40">
         <f t="shared" ca="1" si="72"/>
@@ -47131,7 +47132,7 @@
       </c>
       <c r="C6" s="36">
         <f ca="1">PLANTILLA!F10</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="69" t="str">
         <f>PLANTILLA!G10</f>
@@ -47464,7 +47465,7 @@
       </c>
       <c r="C7" s="36">
         <f ca="1">PLANTILLA!F8</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="69">
         <f>PLANTILLA!G8</f>
@@ -47797,7 +47798,7 @@
       </c>
       <c r="C8" s="36">
         <f ca="1">PLANTILLA!F9</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="69" t="str">
         <f>PLANTILLA!G9</f>
@@ -47808,15 +47809,15 @@
       </c>
       <c r="F8" s="51">
         <f>PLANTILLA!Q9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="52">
         <f t="shared" ref="G8:G16" si="73">(F8/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="H8" s="52">
         <f t="shared" ref="H8:H16" si="74">IF(F8=7,1,((F8+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="I8" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -47844,7 +47845,7 @@
       </c>
       <c r="O8" s="50">
         <f>PLANTILLA!AB9</f>
-        <v>7.1728571428571426</v>
+        <v>7.1828571428571424</v>
       </c>
       <c r="P8" s="50">
         <f>PLANTILLA!AC9</f>
@@ -47856,7 +47857,7 @@
       </c>
       <c r="R8" s="50">
         <f t="shared" ref="R8:R16" si="75">((2*(O8+1))+(L8+1))/8</f>
-        <v>4.0467857142857149</v>
+        <v>4.0492857142857144</v>
       </c>
       <c r="S8" s="50">
         <f t="shared" ref="S8:S16" si="76">(0.5*P8+ 0.3*Q8)/10</f>
@@ -47868,11 +47869,11 @@
       </c>
       <c r="U8" s="50">
         <f t="shared" ref="U8:U16" ca="1" si="78">IF(TODAY()-E8&gt;335,(Q8+1+(LOG(J8)*4/3))*(F8/7)^0.5,(Q8+((TODAY()-E8)^0.5)/(336^0.5)+(LOG(J8)*4/3))*(F8/7)^0.5)</f>
-        <v>14.184422747755985</v>
+        <v>12.686933394230694</v>
       </c>
       <c r="V8" s="50">
         <f t="shared" ref="V8:V16" ca="1" si="79">IF(F8=7,U8,IF(TODAY()-E8&gt;335,(Q8+1+(LOG(J8)*4/3))*((F8+0.99)/7)^0.5,(Q8+((TODAY()-E8)^0.5)/(336^0.5)+(LOG(J8)*4/3))*((F8+0.99)/7)^0.5))</f>
-        <v>15.525302661368467</v>
+        <v>14.170231225695767</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" ref="W8:W16" ca="1" si="80">IF(TODAY()-E8&gt;335,((K8+1+(LOG(J8)*4/3))*0.597)+((L8+1+(LOG(J8)*4/3))*0.276),((K8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.597)+((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.276))</f>
@@ -47948,7 +47949,7 @@
       </c>
       <c r="AO8" s="40">
         <f t="shared" ref="AO8:AO16" ca="1" si="98">IF(TODAY()-E8&gt;335,((R8+1+(LOG(J8)*4/3))*0.288),((R8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.288))</f>
-        <v>1.851846060923485</v>
+        <v>1.8525660609234851</v>
       </c>
       <c r="AP8" s="40">
         <f t="shared" ref="AP8:AP16" ca="1" si="99">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.27),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.27))</f>
@@ -47968,15 +47969,15 @@
       </c>
       <c r="AT8" s="40">
         <f t="shared" ref="AT8:AT16" ca="1" si="103">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.13),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.13))</f>
-        <v>1.2422920215478035</v>
+        <v>1.2435920215478031</v>
       </c>
       <c r="AU8" s="40">
         <f t="shared" ref="AU8:AU16" ca="1" si="104">IF(TODAY()-E8&gt;335,((P8+1+(LOG(J8)*4/3))*0.173)+((O8+1+(LOG(J8)*4/3))*0.12),((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.173)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.12))</f>
-        <v>2.249300809004994</v>
+        <v>2.2505008090049938</v>
       </c>
       <c r="AV8" s="40">
         <f t="shared" ref="AV8:AV16" ca="1" si="105">AT8/2</f>
-        <v>0.62114601077390175</v>
+        <v>0.62179601077390156</v>
       </c>
       <c r="AW8" s="40">
         <f t="shared" ref="AW8:AW16" ca="1" si="106">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.189),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.189))</f>
@@ -47996,15 +47997,15 @@
       </c>
       <c r="BA8" s="40">
         <f t="shared" ref="BA8:BA16" ca="1" si="110">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.253),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.253))</f>
-        <v>2.4176913957814943</v>
+        <v>2.420221395781494</v>
       </c>
       <c r="BB8" s="40">
         <f t="shared" ref="BB8:BB16" ca="1" si="111">IF(TODAY()-E8&gt;335,((P8+1+(LOG(J8)*4/3))*0.21)+((O8+1+(LOG(J8)*4/3))*0.341),((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.21)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.341))</f>
-        <v>4.5970069528679973</v>
+        <v>4.600416952867997</v>
       </c>
       <c r="BC8" s="40">
         <f t="shared" ref="BC8:BC16" ca="1" si="112">BA8/2</f>
-        <v>1.2088456978907471</v>
+        <v>1.210110697890747</v>
       </c>
       <c r="BD8" s="40">
         <f t="shared" ref="BD8:BD16" ca="1" si="113">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.291),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.291))</f>
@@ -48020,11 +48021,11 @@
       </c>
       <c r="BG8" s="40">
         <f t="shared" ref="BG8:BG16" ca="1" si="116">IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*0.574)+((O8+1+(LOG(J8)*4/3))*0.315),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.574)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.315))</f>
-        <v>5.5318862088922849</v>
+        <v>5.5350362088922846</v>
       </c>
       <c r="BH8" s="40">
         <f t="shared" ref="BH8:BH16" ca="1" si="117">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.241),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.241))</f>
-        <v>2.3030182861001585</v>
+        <v>2.3054282861001578</v>
       </c>
       <c r="BI8" s="40">
         <f t="shared" ref="BI8:BI16" ca="1" si="118">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.485),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.485))</f>
@@ -48040,11 +48041,11 @@
       </c>
       <c r="BL8" s="40">
         <f t="shared" ref="BL8:BL16" ca="1" si="121">IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*0.673)+((O8+1+(LOG(J8)*4/3))*0.201),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.673)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.201))</f>
-        <v>4.877421964647759</v>
+        <v>4.8794319646477584</v>
       </c>
       <c r="BM8" s="40">
         <f t="shared" ref="BM8:BM16" ca="1" si="122">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.052),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.052))</f>
-        <v>0.4969168086191213</v>
+        <v>0.49743680861912121</v>
       </c>
       <c r="BN8" s="40">
         <f t="shared" ref="BN8:BN16" ca="1" si="123">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.18),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.18))</f>
@@ -48060,11 +48061,11 @@
       </c>
       <c r="BQ8" s="40">
         <f t="shared" ref="BQ8:BQ16" ca="1" si="126">IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*1)+((O8+1+(LOG(J8)*4/3))*0.286),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*1)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.286))</f>
-        <v>7.1262777779926649</v>
+        <v>7.1291377779926641</v>
       </c>
       <c r="BR8" s="40">
         <f t="shared" ref="BR8:BR16" ca="1" si="127">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.135),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.135))</f>
-        <v>1.2900724839150266</v>
+        <v>1.2914224839150263</v>
       </c>
       <c r="BS8" s="40">
         <f t="shared" ref="BS8:BS16" ca="1" si="128">IF(TODAY()-E8&gt;335,((L8+1+(LOG(J8)*4/3))*0.284),((L8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.284))</f>
@@ -48080,11 +48081,11 @@
       </c>
       <c r="BV8" s="40">
         <f t="shared" ref="BV8:BV16" ca="1" si="131">IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*0.702)+((O8+1+(LOG(J8)*4/3))*0.193),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.702)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.193))</f>
-        <v>4.9283770494472394</v>
+        <v>4.9303070494472383</v>
       </c>
       <c r="BW8" s="40">
         <f t="shared" ref="BW8:BW16" ca="1" si="132">IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.148),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.148))</f>
-        <v>1.4143016860698068</v>
+        <v>1.4157816860698065</v>
       </c>
       <c r="BX8" s="40">
         <f t="shared" ref="BX8:BX16" ca="1" si="133">IF(TODAY()-E8&gt;335,((M8+1+(LOG(J8)*4/3))*0.406),((M8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.406))</f>
@@ -48092,27 +48093,27 @@
       </c>
       <c r="BY8" s="40">
         <f t="shared" ref="BY8:BY16" ca="1" si="134">IF(D8="TEC",IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*0.15)+((O8+1+(LOG(J8)*4/3))*0.324)+((P8+1+(LOG(J8)*4/3))*0.127),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.15)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.324)+((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.127)),IF(TODAY()-E8&gt;335,((N8+1+(LOG(J8)*4/3))*0.144)+((O8+1+(LOG(J8)*4/3))*0.25)+((P8+1+(LOG(J8)*4/3))*0.127),((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.144)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.25)+((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.127)))</f>
-        <v>3.831049892950372</v>
+        <v>3.8335498929503715</v>
       </c>
       <c r="BZ8" s="40">
         <f t="shared" ref="BZ8:BZ16" ca="1" si="135">IF(D8="TEC",IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.543)+((P8+1+(LOG(J8)*4/3))*0.583),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.543)+((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.583)),IF(TODAY()-E8&gt;335,((O8+1+(LOG(J8)*4/3))*0.543)+((P8+1+(LOG(J8)*4/3))*0.583),((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.543)+((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.583)))</f>
-        <v>8.9045544108129526</v>
+        <v>8.9099844108129496</v>
       </c>
       <c r="CA8" s="40">
         <f t="shared" ref="CA8:CA16" ca="1" si="136">BY8</f>
-        <v>3.831049892950372</v>
+        <v>3.8335498929503715</v>
       </c>
       <c r="CB8" s="40">
         <f t="shared" ref="CB8:CB16" ca="1" si="137">IF(TODAY()-E8&gt;335,((P8+1+(LOG(J8)*4/3))*0.26)+((N8+1+(LOG(J8)*4/3))*0.221)+((O8+1+(LOG(J8)*4/3))*0.142),((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.26)+((N8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.221)+((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.142))</f>
-        <v>3.9849113252417254</v>
+        <v>3.986331325241725</v>
       </c>
       <c r="CC8" s="40">
         <f t="shared" ref="CC8:CC16" ca="1" si="138">IF(TODAY()-E8&gt;335,((P8+1+(LOG(J8)*4/3))*1)+((O8+1+(LOG(J8)*4/3))*0.369),((P8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*1)+((O8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.369))</f>
-        <v>9.8994334532885713</v>
+        <v>9.9031234532885701</v>
       </c>
       <c r="CD8" s="40">
         <f t="shared" ref="CD8:CD16" ca="1" si="139">CB8</f>
-        <v>3.9849113252417254</v>
+        <v>3.986331325241725</v>
       </c>
       <c r="CE8" s="40">
         <f t="shared" ref="CE8:CE16" ca="1" si="140">IF(TODAY()-E8&gt;335,((M8+1+(LOG(J8)*4/3))*0.25),((M8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(J8)*4/3))*0.25))</f>
@@ -48130,7 +48131,7 @@
       </c>
       <c r="C9" s="36">
         <f ca="1">PLANTILLA!F11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="69" t="str">
         <f>PLANTILLA!G11</f>
@@ -48141,15 +48142,15 @@
       </c>
       <c r="F9" s="51">
         <f>PLANTILLA!Q11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="52">
         <f t="shared" si="73"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="H9" s="52">
         <f t="shared" si="74"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="I9" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -48177,7 +48178,7 @@
       </c>
       <c r="O9" s="50">
         <f>PLANTILLA!AB11</f>
-        <v>12.415873015873014</v>
+        <v>12.487301587301586</v>
       </c>
       <c r="P9" s="50">
         <f>PLANTILLA!AC11</f>
@@ -48189,7 +48190,7 @@
       </c>
       <c r="R9" s="50">
         <f t="shared" si="75"/>
-        <v>4.1064192343604109</v>
+        <v>4.1242763772175532</v>
       </c>
       <c r="S9" s="50">
         <f t="shared" si="76"/>
@@ -48201,11 +48202,11 @@
       </c>
       <c r="U9" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>13.376101519009771</v>
+        <v>14.954936135222022</v>
       </c>
       <c r="V9" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>14.939973714131906</v>
+        <v>16.368654115127061</v>
       </c>
       <c r="W9" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -48281,7 +48282,7 @@
       </c>
       <c r="AO9" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.8627854303386544</v>
+        <v>1.8679282874815113</v>
       </c>
       <c r="AP9" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -48301,15 +48302,15 @@
       </c>
       <c r="AT9" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>1.9210696372356144</v>
+        <v>1.930355351521329</v>
       </c>
       <c r="AU9" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>2.7717793814080842</v>
+        <v>2.7803508099795127</v>
       </c>
       <c r="AV9" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>0.96053481861780721</v>
+        <v>0.96517767576066449</v>
       </c>
       <c r="AW9" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -48329,15 +48330,15 @@
       </c>
       <c r="BA9" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>3.738697063235465</v>
+        <v>3.756768491806894</v>
       </c>
       <c r="BB9" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>6.2511464367960796</v>
+        <v>6.2755035796532228</v>
       </c>
       <c r="BC9" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>1.8693485316177325</v>
+        <v>1.878384245903447</v>
       </c>
       <c r="BD9" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -48353,11 +48354,11 @@
       </c>
       <c r="BG9" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>8.880449715830899</v>
+        <v>8.9029497158308999</v>
       </c>
       <c r="BH9" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>3.5613675582598696</v>
+        <v>3.5785818439741557</v>
       </c>
       <c r="BI9" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -48373,11 +48374,11 @@
       </c>
       <c r="BL9" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>7.9246164060399771</v>
+        <v>7.9389735488971205</v>
       </c>
       <c r="BM9" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.7684278548942457</v>
+        <v>0.77214214060853148</v>
       </c>
       <c r="BN9" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -48393,11 +48394,11 @@
       </c>
       <c r="BQ9" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>11.587938934011602</v>
+        <v>11.608367505440174</v>
       </c>
       <c r="BR9" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>1.9949569309754458</v>
+        <v>2.0045997881183033</v>
       </c>
       <c r="BS9" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -48413,11 +48414,11 @@
       </c>
       <c r="BV9" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>8.0198827222869511</v>
+        <v>8.0336684365726647</v>
       </c>
       <c r="BW9" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>2.1870638946990071</v>
+        <v>2.1976353232704358</v>
       </c>
       <c r="BX9" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -48425,27 +48426,27 @@
       </c>
       <c r="BY9" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>5.4874244203888365</v>
+        <v>5.5052815632459797</v>
       </c>
       <c r="BZ9" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>11.388994581956048</v>
+        <v>11.427780296241764</v>
       </c>
       <c r="CA9" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>5.4874244203888365</v>
+        <v>5.5052815632459797</v>
       </c>
       <c r="CB9" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>5.2259218793480624</v>
+        <v>5.2360647364909205</v>
       </c>
       <c r="CC9" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>11.224468010092803</v>
+        <v>11.250825152949947</v>
       </c>
       <c r="CD9" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>5.2259218793480624</v>
+        <v>5.2360647364909205</v>
       </c>
       <c r="CE9" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -48463,7 +48464,7 @@
       </c>
       <c r="C10" s="36">
         <f ca="1">PLANTILLA!F13</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="69">
         <f>PLANTILLA!G13</f>
@@ -48510,7 +48511,7 @@
       </c>
       <c r="O10" s="50">
         <f>PLANTILLA!AB13</f>
-        <v>8.4999999999999982</v>
+        <v>8.5999999999999979</v>
       </c>
       <c r="P10" s="50">
         <f>PLANTILLA!AC13</f>
@@ -48522,7 +48523,7 @@
       </c>
       <c r="R10" s="50">
         <f t="shared" si="75"/>
-        <v>2.9999999999999996</v>
+        <v>3.0249999999999995</v>
       </c>
       <c r="S10" s="50">
         <f t="shared" si="76"/>
@@ -48614,7 +48615,7 @@
       </c>
       <c r="AO10" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.5127753930055492</v>
+        <v>1.5199753930055493</v>
       </c>
       <c r="AP10" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -48634,15 +48635,15 @@
       </c>
       <c r="AT10" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>1.3978500037872268</v>
+        <v>1.4108500037872271</v>
       </c>
       <c r="AU10" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>2.2007688546896733</v>
+        <v>2.2127688546896733</v>
       </c>
       <c r="AV10" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>0.6989250018936134</v>
+        <v>0.70542500189361357</v>
       </c>
       <c r="AW10" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -48662,15 +48663,15 @@
       </c>
       <c r="BA10" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>2.72043116121668</v>
+        <v>2.7457311612166801</v>
       </c>
       <c r="BB10" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>4.7718334775904774</v>
+        <v>4.8059334775904778</v>
       </c>
       <c r="BC10" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>1.36021558060834</v>
+        <v>1.3728655806083401</v>
       </c>
       <c r="BD10" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -48686,11 +48687,11 @@
       </c>
       <c r="BG10" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>12.754410154103935</v>
+        <v>12.785910154103936</v>
       </c>
       <c r="BH10" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>2.5913988531747818</v>
+        <v>2.6154988531747825</v>
       </c>
       <c r="BI10" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -48706,11 +48707,11 @@
       </c>
       <c r="BL10" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>13.144219769051565</v>
+        <v>13.164319769051565</v>
       </c>
       <c r="BM10" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.55914000151489074</v>
+        <v>0.56434000151489083</v>
       </c>
       <c r="BN10" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -48726,11 +48727,11 @@
       </c>
       <c r="BQ10" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>19.39462901182339</v>
+        <v>19.423229011823391</v>
       </c>
       <c r="BR10" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>1.4516134654713511</v>
+        <v>1.4651134654713514</v>
       </c>
       <c r="BS10" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -48746,11 +48747,11 @@
       </c>
       <c r="BV10" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>13.531459641458218</v>
+        <v>13.550759641458217</v>
       </c>
       <c r="BW10" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>1.5913984658500735</v>
+        <v>1.6061984658500739</v>
       </c>
       <c r="BX10" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -48758,27 +48759,27 @@
       </c>
       <c r="BY10" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>5.7065227074857319</v>
+        <v>5.7315227074857322</v>
       </c>
       <c r="BZ10" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>8.9068615712647503</v>
+        <v>8.9611615712647517</v>
       </c>
       <c r="CA10" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>5.7065227074857319</v>
+        <v>5.7315227074857322</v>
       </c>
       <c r="CB10" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.5017606591751989</v>
+        <v>6.5159606591751986</v>
       </c>
       <c r="CC10" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>9.2304358091131835</v>
+        <v>9.2673358091131846</v>
       </c>
       <c r="CD10" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.5017606591751989</v>
+        <v>6.5159606591751986</v>
       </c>
       <c r="CE10" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -48796,7 +48797,7 @@
       </c>
       <c r="C11" s="36">
         <f ca="1">PLANTILLA!F14</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="69" t="str">
         <f>PLANTILLA!G14</f>
@@ -48807,15 +48808,15 @@
       </c>
       <c r="F11" s="51">
         <f>PLANTILLA!Q14</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="52">
         <f t="shared" si="73"/>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="H11" s="52">
         <f t="shared" si="74"/>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="I11" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -48843,7 +48844,7 @@
       </c>
       <c r="O11" s="50">
         <f>PLANTILLA!AB14</f>
-        <v>10.856666666666666</v>
+        <v>10.936666666666666</v>
       </c>
       <c r="P11" s="50">
         <f>PLANTILLA!AC14</f>
@@ -48855,7 +48856,7 @@
       </c>
       <c r="R11" s="50">
         <f t="shared" si="75"/>
-        <v>3.2187962962962962</v>
+        <v>3.2387962962962962</v>
       </c>
       <c r="S11" s="50">
         <f t="shared" si="76"/>
@@ -48867,11 +48868,11 @@
       </c>
       <c r="U11" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>10.433260437326345</v>
+        <v>9.3317918259283559</v>
       </c>
       <c r="V11" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>11.419535987814426</v>
+        <v>10.422821955035641</v>
       </c>
       <c r="W11" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -48947,7 +48948,7 @@
       </c>
       <c r="AO11" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.6023157992899095</v>
+        <v>1.6080757992899097</v>
       </c>
       <c r="AP11" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -48967,15 +48968,15 @@
       </c>
       <c r="AT11" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>1.7161906964387323</v>
+        <v>1.7265906964387323</v>
       </c>
       <c r="AU11" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>2.5157464671016552</v>
+        <v>2.5253464671016554</v>
       </c>
       <c r="AV11" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>0.85809534821936617</v>
+        <v>0.86329534821936615</v>
       </c>
       <c r="AW11" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -48995,15 +48996,15 @@
       </c>
       <c r="BA11" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>3.3399711246076866</v>
+        <v>3.3602111246076865</v>
       </c>
       <c r="BB11" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>5.6325082595210887</v>
+        <v>5.659788259521088</v>
       </c>
       <c r="BC11" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>1.6699855623038433</v>
+        <v>1.6801055623038432</v>
       </c>
       <c r="BD11" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -49019,11 +49020,11 @@
       </c>
       <c r="BG11" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>13.573967033224754</v>
+        <v>13.599167033224752</v>
       </c>
       <c r="BH11" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>3.1815535218594957</v>
+        <v>3.2008335218594959</v>
       </c>
       <c r="BI11" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -49039,11 +49040,11 @@
       </c>
       <c r="BL11" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>13.692928363122849</v>
+        <v>13.70900836312285</v>
       </c>
       <c r="BM11" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.68647627857549287</v>
+        <v>0.69063627857549281</v>
       </c>
       <c r="BN11" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -49059,11 +49060,11 @@
       </c>
       <c r="BQ11" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>20.178938279699615</v>
+        <v>20.201818279699616</v>
       </c>
       <c r="BR11" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>1.782198030917145</v>
+        <v>1.7929980309171452</v>
       </c>
       <c r="BS11" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -49079,11 +49080,11 @@
       </c>
       <c r="BV11" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>14.063012871635886</v>
+        <v>14.078452871635886</v>
       </c>
       <c r="BW11" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>1.9538171005610181</v>
+        <v>1.9656571005610182</v>
       </c>
       <c r="BX11" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -49091,27 +49092,27 @@
       </c>
       <c r="BY11" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>6.3463142526506111</v>
+        <v>6.3663142526506107</v>
       </c>
       <c r="BZ11" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>10.307735057871891</v>
+        <v>10.351175057871892</v>
       </c>
       <c r="CA11" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>6.3463142526506111</v>
+        <v>6.3663142526506107</v>
       </c>
       <c r="CB11" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.8997898019361577</v>
+        <v>6.9111498019361575</v>
       </c>
       <c r="CC11" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>10.256141513522753</v>
+        <v>10.285661513522752</v>
       </c>
       <c r="CD11" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.8997898019361577</v>
+        <v>6.9111498019361575</v>
       </c>
       <c r="CE11" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -49129,7 +49130,7 @@
       </c>
       <c r="C12" s="36">
         <f ca="1">PLANTILLA!F15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="69" t="str">
         <f>PLANTILLA!G15</f>
@@ -49140,15 +49141,15 @@
       </c>
       <c r="F12" s="51">
         <f>PLANTILLA!Q15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="52">
         <f t="shared" si="73"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="H12" s="52">
         <f t="shared" si="74"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="I12" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -49176,7 +49177,7 @@
       </c>
       <c r="O12" s="50">
         <f>PLANTILLA!AB15</f>
-        <v>14.410000000000004</v>
+        <v>14.460000000000004</v>
       </c>
       <c r="P12" s="50">
         <f>PLANTILLA!AC15</f>
@@ -49188,7 +49189,7 @@
       </c>
       <c r="R12" s="50">
         <f t="shared" si="75"/>
-        <v>4.2275000000000009</v>
+        <v>4.2400000000000011</v>
       </c>
       <c r="S12" s="50">
         <f t="shared" si="76"/>
@@ -49200,11 +49201,11 @@
       </c>
       <c r="U12" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>12.315073249659777</v>
+        <v>13.768670467064251</v>
       </c>
       <c r="V12" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>13.754894905369001</v>
+        <v>15.070248542869741</v>
       </c>
       <c r="W12" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -49280,7 +49281,7 @@
       </c>
       <c r="AO12" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.8774174522447111</v>
+        <v>1.8810174522447114</v>
       </c>
       <c r="AP12" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -49300,15 +49301,15 @@
       </c>
       <c r="AT12" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>2.1711703777493492</v>
+        <v>2.1776703777493491</v>
       </c>
       <c r="AU12" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>3.8028535607906262</v>
+        <v>3.8088535607906264</v>
       </c>
       <c r="AV12" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0855851888746746</v>
+        <v>1.0888351888746746</v>
       </c>
       <c r="AW12" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -49328,15 +49329,15 @@
       </c>
       <c r="BA12" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>4.2254315813121952</v>
+        <v>4.238081581312195</v>
       </c>
       <c r="BB12" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>7.8785354728709578</v>
+        <v>7.8955854728709589</v>
       </c>
       <c r="BC12" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>2.1127157906560976</v>
+        <v>2.1190407906560975</v>
       </c>
       <c r="BD12" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -49352,11 +49353,11 @@
       </c>
       <c r="BG12" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>7.7958751216859321</v>
+        <v>7.8116251216859318</v>
       </c>
       <c r="BH12" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>4.025015854135332</v>
+        <v>4.0370658541353324</v>
       </c>
       <c r="BI12" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -49372,11 +49373,11 @@
       </c>
       <c r="BL12" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>6.3291404627148529</v>
+        <v>6.3391904627148534</v>
       </c>
       <c r="BM12" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.86846815109973963</v>
+        <v>0.87106815109973967</v>
       </c>
       <c r="BN12" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -49392,11 +49393,11 @@
       </c>
       <c r="BQ12" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>9.19288542912048</v>
+        <v>9.2071854291204822</v>
       </c>
       <c r="BR12" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>2.2546769307397088</v>
+        <v>2.261426930739709</v>
       </c>
       <c r="BS12" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -49412,11 +49413,11 @@
       </c>
       <c r="BV12" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>6.3236029852743627</v>
+        <v>6.3332529852743633</v>
       </c>
       <c r="BW12" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>2.4717939685146435</v>
+        <v>2.4791939685146436</v>
       </c>
       <c r="BX12" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -49424,27 +49425,27 @@
       </c>
       <c r="BY12" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>6.1317065993732447</v>
+        <v>6.1442065993732449</v>
       </c>
       <c r="BZ12" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>15.130314177873419</v>
+        <v>15.157464177873422</v>
       </c>
       <c r="CA12" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>6.1317065993732447</v>
+        <v>6.1442065993732449</v>
       </c>
       <c r="CB12" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.0508337248210236</v>
+        <v>6.0579337248210248</v>
       </c>
       <c r="CC12" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>16.559871986538226</v>
+        <v>16.578321986538228</v>
       </c>
       <c r="CD12" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.0508337248210236</v>
+        <v>6.0579337248210248</v>
       </c>
       <c r="CE12" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -49462,7 +49463,7 @@
       </c>
       <c r="C13" s="36">
         <f ca="1">PLANTILLA!F16</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="69" t="str">
         <f>PLANTILLA!G16</f>
@@ -49473,15 +49474,15 @@
       </c>
       <c r="F13" s="51">
         <f>PLANTILLA!Q16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="52">
         <f t="shared" si="73"/>
-        <v>0.92582009977255142</v>
+        <v>1</v>
       </c>
       <c r="H13" s="52">
         <f t="shared" si="74"/>
-        <v>0.99928545900129484</v>
+        <v>1</v>
       </c>
       <c r="I13" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -49509,7 +49510,7 @@
       </c>
       <c r="O13" s="50">
         <f>PLANTILLA!AB16</f>
-        <v>14.092888888888881</v>
+        <v>14.142888888888882</v>
       </c>
       <c r="P13" s="50">
         <f>PLANTILLA!AC16</f>
@@ -49521,7 +49522,7 @@
       </c>
       <c r="R13" s="50">
         <f t="shared" si="75"/>
-        <v>4.1732222222222202</v>
+        <v>4.1857222222222203</v>
       </c>
       <c r="S13" s="50">
         <f t="shared" si="76"/>
@@ -49533,11 +49534,11 @@
       </c>
       <c r="U13" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>16.139240737434683</v>
+        <v>17.432372381415842</v>
       </c>
       <c r="V13" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>17.419916236644625</v>
+        <v>17.432372381415842</v>
       </c>
       <c r="W13" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -49613,7 +49614,7 @@
       </c>
       <c r="AO13" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.8448112458477619</v>
+        <v>1.8484112458477617</v>
       </c>
       <c r="AP13" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -49633,15 +49634,15 @@
       </c>
       <c r="AT13" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>2.1222839651396139</v>
+        <v>2.1287839651396139</v>
       </c>
       <c r="AU13" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>3.9610517744215068</v>
+        <v>3.967051774421507</v>
       </c>
       <c r="AV13" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>1.061141982569807</v>
+        <v>1.0643919825698069</v>
       </c>
       <c r="AW13" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -49661,15 +49662,15 @@
       </c>
       <c r="BA13" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>4.1302911013870949</v>
+        <v>4.1429411013870947</v>
       </c>
       <c r="BB13" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>7.997112293271238</v>
+        <v>8.0141622932712373</v>
       </c>
       <c r="BC13" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>2.0651455506935474</v>
+        <v>2.0714705506935474</v>
       </c>
       <c r="BD13" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -49685,11 +49686,11 @@
       </c>
       <c r="BG13" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>7.1872590470786806</v>
+        <v>7.2030090470786812</v>
       </c>
       <c r="BH13" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>3.9343879661434378</v>
+        <v>3.9464379661434381</v>
       </c>
       <c r="BI13" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -49705,11 +49706,11 @@
       </c>
       <c r="BL13" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>5.6788541280241116</v>
+        <v>5.6889041280241113</v>
       </c>
       <c r="BM13" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.84891358605584555</v>
+        <v>0.85151358605584559</v>
       </c>
       <c r="BN13" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -49725,11 +49726,11 @@
       </c>
       <c r="BQ13" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>8.2313971047229924</v>
+        <v>8.2456971047229928</v>
       </c>
       <c r="BR13" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>2.2039102714911376</v>
+        <v>2.2106602714911379</v>
       </c>
       <c r="BS13" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -49745,11 +49746,11 @@
       </c>
       <c r="BV13" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>5.6515608369227328</v>
+        <v>5.6612108369227325</v>
       </c>
       <c r="BW13" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>2.4161386680050989</v>
+        <v>2.423538668005099</v>
       </c>
       <c r="BX13" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -49757,27 +49758,27 @@
       </c>
       <c r="BY13" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>7.2934318012309181</v>
+        <v>7.3096318012309185</v>
       </c>
       <c r="BZ13" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>15.611309968140898</v>
+        <v>15.6384599681409</v>
       </c>
       <c r="CA13" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>7.2934318012309181</v>
+        <v>7.3096318012309185</v>
       </c>
       <c r="CB13" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.1142882158442902</v>
+        <v>6.1213882158442896</v>
       </c>
       <c r="CC13" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>17.596393790158281</v>
+        <v>17.614843790158282</v>
       </c>
       <c r="CD13" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.1142882158442902</v>
+        <v>6.1213882158442896</v>
       </c>
       <c r="CE13" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -49795,7 +49796,7 @@
       </c>
       <c r="C14" s="36">
         <f ca="1">PLANTILLA!F17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="69" t="str">
         <f>PLANTILLA!G17</f>
@@ -49806,15 +49807,15 @@
       </c>
       <c r="F14" s="51">
         <f>PLANTILLA!Q17</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="52">
         <f t="shared" si="73"/>
-        <v>1</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="H14" s="52">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="I14" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -49842,7 +49843,7 @@
       </c>
       <c r="O14" s="50">
         <f>PLANTILLA!AB17</f>
-        <v>14.215999999999999</v>
+        <v>14.266</v>
       </c>
       <c r="P14" s="50">
         <f>PLANTILLA!AC17</f>
@@ -49854,7 +49855,7 @@
       </c>
       <c r="R14" s="50">
         <f t="shared" si="75"/>
-        <v>4.3289999999999997</v>
+        <v>4.3414999999999999</v>
       </c>
       <c r="S14" s="50">
         <f t="shared" si="76"/>
@@ -49866,11 +49867,11 @@
       </c>
       <c r="U14" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>18.021634767589994</v>
+        <v>16.684791698594651</v>
       </c>
       <c r="V14" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>18.021634767589994</v>
+        <v>18.00875757068486</v>
       </c>
       <c r="W14" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -49946,7 +49947,7 @@
       </c>
       <c r="AO14" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.9153828130659176</v>
+        <v>1.9189828130659177</v>
       </c>
       <c r="AP14" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -49966,15 +49967,15 @@
       </c>
       <c r="AT14" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>2.1498925197866989</v>
+        <v>2.1563925197866993</v>
       </c>
       <c r="AU14" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>3.9604589869038671</v>
+        <v>3.9664589869038673</v>
       </c>
       <c r="AV14" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0749462598933495</v>
+        <v>1.0781962598933497</v>
       </c>
       <c r="AW14" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -49994,15 +49995,15 @@
       </c>
       <c r="BA14" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>4.1840215962002683</v>
+        <v>4.1966715962002681</v>
       </c>
       <c r="BB14" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>8.0378767569420848</v>
+        <v>8.0549267569420842</v>
       </c>
       <c r="BC14" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>2.0920107981001341</v>
+        <v>2.098335798100134</v>
       </c>
       <c r="BD14" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -50018,11 +50019,11 @@
       </c>
       <c r="BG14" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>7.8621733083875025</v>
+        <v>7.8779233083875031</v>
       </c>
       <c r="BH14" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>3.9855699789891879</v>
+        <v>3.9976199789891882</v>
       </c>
       <c r="BI14" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -50038,11 +50039,11 @@
       </c>
       <c r="BL14" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>6.4344247868736542</v>
+        <v>6.4444747868736538</v>
       </c>
       <c r="BM14" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.85995700791467955</v>
+        <v>0.8625570079146796</v>
       </c>
       <c r="BN14" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -50058,11 +50059,11 @@
       </c>
       <c r="BQ14" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>9.3513983111207288</v>
+        <v>9.365698311120731</v>
       </c>
       <c r="BR14" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>2.2325806936246493</v>
+        <v>2.2393306936246491</v>
       </c>
       <c r="BS14" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -50078,11 +50079,11 @@
       </c>
       <c r="BV14" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>6.4361511169930434</v>
+        <v>6.4458011169930431</v>
       </c>
       <c r="BW14" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>2.4475699456033189</v>
+        <v>2.4549699456033189</v>
       </c>
       <c r="BX14" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -50090,27 +50091,27 @@
       </c>
       <c r="BY14" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>6.2504717139143864</v>
+        <v>6.2629717139143857</v>
       </c>
       <c r="BZ14" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>15.63874874830633</v>
+        <v>15.665898748306329</v>
       </c>
       <c r="CA14" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>6.2504717139143864</v>
+        <v>6.2629717139143857</v>
       </c>
       <c r="CB14" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.3393504602085642</v>
+        <v>6.3464504602085645</v>
       </c>
       <c r="CC14" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>17.524021996830697</v>
+        <v>17.542471996830695</v>
       </c>
       <c r="CD14" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.3393504602085642</v>
+        <v>6.3464504602085645</v>
       </c>
       <c r="CE14" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -50128,7 +50129,7 @@
       </c>
       <c r="C15" s="36">
         <f ca="1">PLANTILLA!F18</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="69" t="str">
         <f>PLANTILLA!G18</f>
@@ -50175,7 +50176,7 @@
       </c>
       <c r="O15" s="50">
         <f>PLANTILLA!AB18</f>
-        <v>14.302222222222222</v>
+        <v>14.352222222222222</v>
       </c>
       <c r="P15" s="50">
         <f>PLANTILLA!AC18</f>
@@ -50187,7 +50188,7 @@
       </c>
       <c r="R15" s="50">
         <f t="shared" si="75"/>
-        <v>4.2053632478632474</v>
+        <v>4.2178632478632476</v>
       </c>
       <c r="S15" s="50">
         <f t="shared" si="76"/>
@@ -50279,7 +50280,7 @@
       </c>
       <c r="AO15" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.8745904798155326</v>
+        <v>1.8781904798155327</v>
       </c>
       <c r="AP15" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -50299,15 +50300,15 @@
       </c>
       <c r="AT15" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>2.1587609804722891</v>
+        <v>2.1652609804722891</v>
       </c>
       <c r="AU15" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>4.1377233551328425</v>
+        <v>4.1437233551328427</v>
       </c>
       <c r="AV15" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>1.0793804902361446</v>
+        <v>1.0826304902361445</v>
       </c>
       <c r="AW15" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -50327,15 +50328,15 @@
       </c>
       <c r="BA15" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>4.2012809850729935</v>
+        <v>4.2139309850729934</v>
       </c>
       <c r="BB15" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>8.2663787197966521</v>
+        <v>8.2834287197966514</v>
       </c>
       <c r="BC15" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>2.1006404925364968</v>
+        <v>2.1069654925364967</v>
       </c>
       <c r="BD15" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -50351,11 +50352,11 @@
       </c>
       <c r="BG15" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>8.9065283801357129</v>
+        <v>8.9222783801357135</v>
       </c>
       <c r="BH15" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>4.0020107407217047</v>
+        <v>4.014060740721705</v>
       </c>
       <c r="BI15" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -50371,11 +50372,11 @@
       </c>
       <c r="BL15" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>7.6474205746966035</v>
+        <v>7.6574705746966032</v>
       </c>
       <c r="BM15" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.8635043921889155</v>
+        <v>0.86610439218891555</v>
       </c>
       <c r="BN15" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -50391,11 +50392,11 @@
       </c>
       <c r="BQ15" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>11.152905630757498</v>
+        <v>11.167205630757499</v>
       </c>
       <c r="BR15" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>2.2417902489519927</v>
+        <v>2.2485402489519926</v>
       </c>
       <c r="BS15" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -50411,11 +50412,11 @@
       </c>
       <c r="BV15" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>7.7002790578669131</v>
+        <v>7.7099290578669137</v>
       </c>
       <c r="BW15" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>2.457666346999221</v>
+        <v>2.4650663469992211</v>
       </c>
       <c r="BX15" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -50423,27 +50424,27 @@
       </c>
       <c r="BY15" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>6.6482548866962077</v>
+        <v>6.6607548866962079</v>
       </c>
       <c r="BZ15" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>16.24557503940699</v>
+        <v>16.272725039406989</v>
       </c>
       <c r="CA15" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>6.6482548866962077</v>
+        <v>6.6607548866962079</v>
       </c>
       <c r="CB15" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.9969646303488249</v>
+        <v>7.0040646303488252</v>
       </c>
       <c r="CC15" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>18.526524820853908</v>
+        <v>18.544974820853909</v>
       </c>
       <c r="CD15" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.9969646303488249</v>
+        <v>7.0040646303488252</v>
       </c>
       <c r="CE15" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -50461,7 +50462,7 @@
       </c>
       <c r="C16" s="36">
         <f ca="1">PLANTILLA!F12</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="69" t="str">
         <f>PLANTILLA!G12</f>
@@ -50472,15 +50473,15 @@
       </c>
       <c r="F16" s="51">
         <f>PLANTILLA!Q12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="52">
         <f t="shared" si="73"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="H16" s="52">
         <f t="shared" si="74"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="I16" s="55">
         <f t="shared" ca="1" si="6"/>
@@ -50508,7 +50509,7 @@
       </c>
       <c r="O16" s="50">
         <f>PLANTILLA!AB12</f>
-        <v>6.4736111111111114</v>
+        <v>6.9986111111111118</v>
       </c>
       <c r="P16" s="50">
         <f>PLANTILLA!AC12</f>
@@ -50520,7 +50521,7 @@
       </c>
       <c r="R16" s="50">
         <f t="shared" si="75"/>
-        <v>2.2434027777777779</v>
+        <v>2.3746527777777779</v>
       </c>
       <c r="S16" s="50">
         <f t="shared" si="76"/>
@@ -50532,11 +50533,11 @@
       </c>
       <c r="U16" s="50">
         <f t="shared" ca="1" si="78"/>
-        <v>1.6566567552742788</v>
+        <v>1.8521985600887605</v>
       </c>
       <c r="V16" s="50">
         <f t="shared" ca="1" si="79"/>
-        <v>1.8503454345021333</v>
+        <v>2.0272903413625447</v>
       </c>
       <c r="W16" s="40">
         <f t="shared" ca="1" si="80"/>
@@ -50612,7 +50613,7 @@
       </c>
       <c r="AO16" s="40">
         <f t="shared" ca="1" si="98"/>
-        <v>1.2356666566441343</v>
+        <v>1.2734666566441344</v>
       </c>
       <c r="AP16" s="40">
         <f t="shared" ca="1" si="99"/>
@@ -50632,15 +50633,15 @@
       </c>
       <c r="AT16" s="40">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1076932825129775</v>
+        <v>1.1759432825129774</v>
       </c>
       <c r="AU16" s="40">
         <f t="shared" ca="1" si="104"/>
-        <v>2.2433655222108726</v>
+        <v>2.3063655222108728</v>
       </c>
       <c r="AV16" s="40">
         <f t="shared" ca="1" si="105"/>
-        <v>0.55384664125648875</v>
+        <v>0.58797164125648871</v>
       </c>
       <c r="AW16" s="40">
         <f t="shared" ca="1" si="106"/>
@@ -50660,15 +50661,15 @@
       </c>
       <c r="BA16" s="40">
         <f t="shared" ca="1" si="110"/>
-        <v>2.1557415421214099</v>
+        <v>2.2885665421214099</v>
       </c>
       <c r="BB16" s="40">
         <f t="shared" ca="1" si="111"/>
-        <v>4.3875570410101323</v>
+        <v>4.5665820410101325</v>
       </c>
       <c r="BC16" s="40">
         <f t="shared" ca="1" si="112"/>
-        <v>1.0778707710607049</v>
+        <v>1.1442832710607049</v>
       </c>
       <c r="BD16" s="40">
         <f t="shared" ca="1" si="113"/>
@@ -50684,11 +50685,11 @@
       </c>
       <c r="BG16" s="40">
         <f t="shared" ca="1" si="116"/>
-        <v>11.898962661963626</v>
+        <v>12.064337661963625</v>
       </c>
       <c r="BH16" s="40">
         <f t="shared" ca="1" si="117"/>
-        <v>2.053492931427904</v>
+        <v>2.1800179314279045</v>
       </c>
       <c r="BI16" s="40">
         <f t="shared" ca="1" si="118"/>
@@ -50704,11 +50705,11 @@
       </c>
       <c r="BL16" s="40">
         <f t="shared" ca="1" si="121"/>
-        <v>12.516936620818967</v>
+        <v>12.622461620818967</v>
       </c>
       <c r="BM16" s="40">
         <f t="shared" ca="1" si="122"/>
-        <v>0.44307731300519093</v>
+        <v>0.47037731300519092</v>
       </c>
       <c r="BN16" s="40">
         <f t="shared" ca="1" si="123"/>
@@ -50724,11 +50725,11 @@
       </c>
       <c r="BQ16" s="40">
         <f t="shared" ca="1" si="126"/>
-        <v>18.490821791666363</v>
+        <v>18.640971791666363</v>
       </c>
       <c r="BR16" s="40">
         <f t="shared" ca="1" si="127"/>
-        <v>1.1502968703019381</v>
+        <v>1.2211718703019381</v>
       </c>
       <c r="BS16" s="40">
         <f t="shared" ca="1" si="128"/>
@@ -50744,11 +50745,11 @@
       </c>
       <c r="BV16" s="40">
         <f t="shared" ca="1" si="131"/>
-        <v>12.914333880890625</v>
+        <v>13.015658880890625</v>
       </c>
       <c r="BW16" s="40">
         <f t="shared" ca="1" si="132"/>
-        <v>1.2610661985532357</v>
+        <v>1.3387661985532358</v>
       </c>
       <c r="BX16" s="40">
         <f t="shared" ca="1" si="133"/>
@@ -50756,27 +50757,27 @@
       </c>
       <c r="BY16" s="40">
         <f t="shared" ca="1" si="134"/>
-        <v>5.3381930142763681</v>
+        <v>5.4694430142763686</v>
       </c>
       <c r="BZ16" s="40">
         <f t="shared" ca="1" si="135"/>
-        <v>8.7410426922961655</v>
+        <v>9.0261176922961646</v>
       </c>
       <c r="CA16" s="40">
         <f t="shared" ca="1" si="136"/>
-        <v>5.3381930142763681</v>
+        <v>5.4694430142763686</v>
       </c>
       <c r="CB16" s="40">
         <f t="shared" ca="1" si="137"/>
-        <v>6.5927007113440057</v>
+        <v>6.667250711344006</v>
       </c>
       <c r="CC16" s="40">
         <f t="shared" ca="1" si="138"/>
-        <v>10.201251225506319</v>
+        <v>10.394976225506319</v>
       </c>
       <c r="CD16" s="40">
         <f t="shared" ca="1" si="139"/>
-        <v>6.5927007113440057</v>
+        <v>6.667250711344006</v>
       </c>
       <c r="CE16" s="40">
         <f t="shared" ca="1" si="140"/>
@@ -50824,11 +50825,11 @@
       </c>
       <c r="AH21" s="40">
         <f ca="1">AG8*G8</f>
-        <v>4.680080226516905</v>
+        <v>4.1859910106577649</v>
       </c>
       <c r="AI21" s="40">
         <f ca="1">AG8*H8</f>
-        <v>5.1224969311955828</v>
+        <v>4.6753978039073063</v>
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
@@ -50864,11 +50865,11 @@
       <c r="AA23" s="40"/>
       <c r="AH23" s="135">
         <f ca="1">(AI19-AH21)/AI19</f>
-        <v>-1.5052234258312553</v>
+        <v>-1.2407399515934356</v>
       </c>
       <c r="AI23" s="135">
         <f ca="1">(AH19-AI21)/AH19</f>
-        <v>-2.0012576641458439</v>
+        <v>-1.7393034452501634</v>
       </c>
       <c r="BV23" s="40"/>
       <c r="BW23" s="40"/>
@@ -57181,7 +57182,7 @@
       <c r="C2" s="171"/>
       <c r="D2" s="172">
         <f ca="1">TODAY()</f>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="173"/>
@@ -57275,7 +57276,7 @@
       </c>
       <c r="BD2" s="182">
         <f t="shared" ref="BD2:BE2" si="0">SUM(BD4:BD14)</f>
-        <v>12.254017857142857</v>
+        <v>12.261517857142856</v>
       </c>
       <c r="BE2" s="182">
         <f t="shared" si="0"/>
@@ -57502,7 +57503,7 @@
       </c>
       <c r="C4" s="138">
         <f ca="1">PLANTILLA!C4</f>
-        <v>2.8214285714285716</v>
+        <v>2.8125</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>PLANTILLA!D4</f>
@@ -57514,7 +57515,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">PLANTILLA!F4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="20">
         <f>PLANTILLA!G4</f>
@@ -57558,7 +57559,7 @@
       </c>
       <c r="Q4" s="23">
         <f>PLANTILLA!AB4</f>
-        <v>2.3199999999999998</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="R4" s="23">
         <f>PLANTILLA!AC4</f>
@@ -57597,7 +57598,7 @@
       </c>
       <c r="AB4" s="189">
         <f t="shared" ref="AB4:AB18" ca="1" si="5">F4+7</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" ref="AC4:AC18" si="6">I4+$AC$2</f>
@@ -57621,7 +57622,7 @@
       </c>
       <c r="AH4" s="191">
         <f t="shared" si="7"/>
-        <v>2.3199999999999998</v>
+        <v>2.3299999999999996</v>
       </c>
       <c r="AI4" s="191">
         <f>R4</f>
@@ -57737,7 +57738,7 @@
       </c>
       <c r="C5" s="138">
         <f ca="1">PLANTILLA!C5</f>
-        <v>1.0892857142857142</v>
+        <v>1.0803571428571428</v>
       </c>
       <c r="D5" s="31" t="str">
         <f>PLANTILLA!D5</f>
@@ -57749,7 +57750,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">PLANTILLA!F5</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>PLANTILLA!G5</f>
@@ -57793,7 +57794,7 @@
       </c>
       <c r="Q5" s="23">
         <f>PLANTILLA!AB5</f>
-        <v>7.0399999999999991</v>
+        <v>7.0499999999999989</v>
       </c>
       <c r="R5" s="23">
         <f>PLANTILLA!AC5</f>
@@ -57831,7 +57832,7 @@
       </c>
       <c r="AB5" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC5" s="27">
         <f t="shared" si="6"/>
@@ -57855,7 +57856,7 @@
       </c>
       <c r="AH5" s="191">
         <f>Q5+(X$2/10)</f>
-        <v>7.1399999999999988</v>
+        <v>7.1499999999999986</v>
       </c>
       <c r="AI5" s="191">
         <f>R5+(Y$2/40)</f>
@@ -57936,7 +57937,7 @@
       </c>
       <c r="BD5" s="201">
         <f>((AE5+1)+(AH5+1)*2)/8</f>
-        <v>3.9099999999999997</v>
+        <v>3.9124999999999996</v>
       </c>
       <c r="BE5" s="201">
         <f>((AL5)+(AO5)*2)/8</f>
@@ -57975,7 +57976,7 @@
       </c>
       <c r="C6" s="138">
         <f ca="1">PLANTILLA!C6</f>
-        <v>1.2857142857142858</v>
+        <v>1.2767857142857142</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>PLANTILLA!D6</f>
@@ -57987,7 +57988,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">PLANTILLA!F6</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="4">
         <f>PLANTILLA!G6</f>
@@ -58031,7 +58032,7 @@
       </c>
       <c r="Q6" s="23">
         <f>PLANTILLA!AB6</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="R6" s="23">
         <f>PLANTILLA!AC6</f>
@@ -58069,7 +58070,7 @@
       </c>
       <c r="AB6" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC6" s="27">
         <f t="shared" si="6"/>
@@ -58093,7 +58094,7 @@
       </c>
       <c r="AH6" s="191">
         <f>Q6+(X$2/16)</f>
-        <v>9.0924999999999994</v>
+        <v>9.1024999999999991</v>
       </c>
       <c r="AI6" s="191">
         <f>R6+(Y$2/40)</f>
@@ -58174,7 +58175,7 @@
       </c>
       <c r="BD6" s="201">
         <f>((AE9+1)+(AH9+1)*2)/8</f>
-        <v>4.0646428571428572</v>
+        <v>4.0671428571428567</v>
       </c>
       <c r="BE6" s="201">
         <f>((AL9)+(AO9)*2)/8</f>
@@ -58213,7 +58214,7 @@
       </c>
       <c r="C7" s="138">
         <f ca="1">PLANTILLA!C7</f>
-        <v>1.7857142857142858</v>
+        <v>1.7767857142857142</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>PLANTILLA!D7</f>
@@ -58225,7 +58226,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">PLANTILLA!F7</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4">
         <f>PLANTILLA!G7</f>
@@ -58269,7 +58270,7 @@
       </c>
       <c r="Q7" s="23">
         <f>PLANTILLA!AB7</f>
-        <v>9.0299999999999994</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="R7" s="23">
         <f>PLANTILLA!AC7</f>
@@ -58307,7 +58308,7 @@
       </c>
       <c r="AB7" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="6"/>
@@ -58331,7 +58332,7 @@
       </c>
       <c r="AH7" s="191">
         <f>Q7+(X$2/7)</f>
-        <v>9.1728571428571417</v>
+        <v>9.1828571428571415</v>
       </c>
       <c r="AI7" s="191">
         <f>R7+(Y$2/32)</f>
@@ -58411,7 +58412,7 @@
       </c>
       <c r="BD7" s="201">
         <f>((AE6+1)+(AH6+1)*2)/8</f>
-        <v>4.2793749999999999</v>
+        <v>4.2818749999999994</v>
       </c>
       <c r="BE7" s="201">
         <f>((AL6)+(AO6)*2)/8</f>
@@ -58436,7 +58437,7 @@
       </c>
       <c r="C8" s="138">
         <f ca="1">PLANTILLA!C8</f>
-        <v>1.9375</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>PLANTILLA!D8</f>
@@ -58448,7 +58449,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">PLANTILLA!F8</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <f>PLANTILLA!G8</f>
@@ -58530,7 +58531,7 @@
       </c>
       <c r="AB8" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="6"/>
@@ -58658,7 +58659,7 @@
       </c>
       <c r="C9" s="138">
         <f ca="1">PLANTILLA!C9</f>
-        <v>0.4732142857142857</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>PLANTILLA!D9</f>
@@ -58670,7 +58671,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">PLANTILLA!F9</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>PLANTILLA!G9</f>
@@ -58714,7 +58715,7 @@
       </c>
       <c r="Q9" s="23">
         <f>PLANTILLA!AB9</f>
-        <v>7.1728571428571426</v>
+        <v>7.1828571428571424</v>
       </c>
       <c r="R9" s="23">
         <f>PLANTILLA!AC9</f>
@@ -58752,7 +58753,7 @@
       </c>
       <c r="AB9" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC9" s="27">
         <f t="shared" si="6"/>
@@ -58776,7 +58777,7 @@
       </c>
       <c r="AH9" s="191">
         <f>Q9+(X$2/14)</f>
-        <v>7.2442857142857138</v>
+        <v>7.2542857142857136</v>
       </c>
       <c r="AI9" s="191">
         <f>R9+(Y$2/45)</f>
@@ -58884,7 +58885,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">PLANTILLA!C10</f>
-        <v>1.1607142857142858</v>
+        <v>1.1517857142857142</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>PLANTILLA!D10</f>
@@ -58896,7 +58897,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">PLANTILLA!F10</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="20" t="str">
         <f>PLANTILLA!G10</f>
@@ -58978,7 +58979,7 @@
       </c>
       <c r="AB10" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC10" s="27">
         <f t="shared" si="6"/>
@@ -59110,7 +59111,7 @@
       </c>
       <c r="C11" s="138">
         <f ca="1">PLANTILLA!C11</f>
-        <v>0.9017857142857143</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>PLANTILLA!D11</f>
@@ -59122,7 +59123,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">PLANTILLA!F11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>PLANTILLA!G11</f>
@@ -59166,7 +59167,7 @@
       </c>
       <c r="Q11" s="23">
         <f>PLANTILLA!AB11</f>
-        <v>12.415873015873014</v>
+        <v>12.487301587301586</v>
       </c>
       <c r="R11" s="23">
         <f>PLANTILLA!AC11</f>
@@ -59205,7 +59206,7 @@
       </c>
       <c r="AB11" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC11" s="27">
         <f t="shared" si="6"/>
@@ -59229,7 +59230,7 @@
       </c>
       <c r="AH11" s="191">
         <f>Q11+(X$2/16)</f>
-        <v>12.478373015873014</v>
+        <v>12.549801587301586</v>
       </c>
       <c r="AI11" s="191">
         <f>R11+(Y$2/7)</f>
@@ -59327,7 +59328,7 @@
       </c>
       <c r="C12" s="138">
         <f ca="1">PLANTILLA!C12</f>
-        <v>3.0714285714285716</v>
+        <v>3.0625</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>PLANTILLA!D12</f>
@@ -59339,7 +59340,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">PLANTILLA!F12</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>PLANTILLA!G12</f>
@@ -59383,7 +59384,7 @@
       </c>
       <c r="Q12" s="23">
         <f>PLANTILLA!AB12</f>
-        <v>6.4736111111111114</v>
+        <v>6.9986111111111118</v>
       </c>
       <c r="R12" s="23">
         <f>PLANTILLA!AC12</f>
@@ -59421,7 +59422,7 @@
       </c>
       <c r="AB12" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC12" s="27">
         <f t="shared" si="6"/>
@@ -59445,7 +59446,7 @@
       </c>
       <c r="AH12" s="191">
         <f>Q12+(X$2/9)</f>
-        <v>6.5847222222222221</v>
+        <v>7.1097222222222225</v>
       </c>
       <c r="AI12" s="191">
         <f>R12+(Y$2/6)</f>
@@ -59551,7 +59552,7 @@
       </c>
       <c r="C13" s="138">
         <f ca="1">PLANTILLA!C13</f>
-        <v>1.3303571428571428</v>
+        <v>1.3214285714285714</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>PLANTILLA!D13</f>
@@ -59563,7 +59564,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">PLANTILLA!F13</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4">
         <f>PLANTILLA!G13</f>
@@ -59607,7 +59608,7 @@
       </c>
       <c r="Q13" s="23">
         <f>PLANTILLA!AB13</f>
-        <v>8.4999999999999982</v>
+        <v>8.5999999999999979</v>
       </c>
       <c r="R13" s="23">
         <f>PLANTILLA!AC13</f>
@@ -59645,7 +59646,7 @@
       </c>
       <c r="AB13" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC13" s="27">
         <f t="shared" si="6"/>
@@ -59669,7 +59670,7 @@
       </c>
       <c r="AH13" s="191">
         <f>Q13+(X$2/6)</f>
-        <v>8.6666666666666643</v>
+        <v>8.7666666666666639</v>
       </c>
       <c r="AI13" s="191">
         <f>R13+(Y$2/8)</f>
@@ -59774,7 +59775,7 @@
       </c>
       <c r="C14" s="138">
         <f ca="1">PLANTILLA!C14</f>
-        <v>0.10714285714285714</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>PLANTILLA!D14</f>
@@ -59786,7 +59787,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">PLANTILLA!F14</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="20" t="str">
         <f>PLANTILLA!G14</f>
@@ -59830,7 +59831,7 @@
       </c>
       <c r="Q14" s="23">
         <f>PLANTILLA!AB14</f>
-        <v>10.856666666666666</v>
+        <v>10.936666666666666</v>
       </c>
       <c r="R14" s="23">
         <f>PLANTILLA!AC14</f>
@@ -59869,7 +59870,7 @@
       </c>
       <c r="AB14" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC14" s="27">
         <f t="shared" si="6"/>
@@ -59893,7 +59894,7 @@
       </c>
       <c r="AH14" s="191">
         <f>Q14+(X$2/16)</f>
-        <v>10.919166666666666</v>
+        <v>10.999166666666666</v>
       </c>
       <c r="AI14" s="191">
         <f>R14+(Y$2/45)</f>
@@ -59995,7 +59996,7 @@
       </c>
       <c r="C15" s="138">
         <f ca="1">PLANTILLA!C15</f>
-        <v>2.9821428571428572</v>
+        <v>2.9732142857142856</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>PLANTILLA!D15</f>
@@ -60007,7 +60008,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">PLANTILLA!F15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="20" t="str">
         <f>PLANTILLA!G15</f>
@@ -60051,7 +60052,7 @@
       </c>
       <c r="Q15" s="23">
         <f>PLANTILLA!AB15</f>
-        <v>14.410000000000004</v>
+        <v>14.460000000000004</v>
       </c>
       <c r="R15" s="23">
         <f>PLANTILLA!AC15</f>
@@ -60088,7 +60089,7 @@
       </c>
       <c r="AB15" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC15" s="27">
         <f t="shared" si="6"/>
@@ -60112,7 +60113,7 @@
       </c>
       <c r="AH15" s="191">
         <f>Q15+(X$2/12)</f>
-        <v>14.493333333333338</v>
+        <v>14.543333333333338</v>
       </c>
       <c r="AI15" s="191">
         <f>R15+(Y$2/8.5)</f>
@@ -60185,7 +60186,7 @@
       </c>
       <c r="C16" s="138">
         <f ca="1">PLANTILLA!C16</f>
-        <v>3.4196428571428572</v>
+        <v>3.4107142857142856</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>PLANTILLA!D16</f>
@@ -60197,7 +60198,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">PLANTILLA!F16</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="20" t="str">
         <f>PLANTILLA!G16</f>
@@ -60241,7 +60242,7 @@
       </c>
       <c r="Q16" s="23">
         <f>PLANTILLA!AB16</f>
-        <v>14.092888888888881</v>
+        <v>14.142888888888882</v>
       </c>
       <c r="R16" s="23">
         <f>PLANTILLA!AC16</f>
@@ -60278,7 +60279,7 @@
       </c>
       <c r="AB16" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" s="27">
         <f t="shared" si="6"/>
@@ -60302,7 +60303,7 @@
       </c>
       <c r="AH16" s="191">
         <f>Q16+(X$2/13)</f>
-        <v>14.169811965811958</v>
+        <v>14.219811965811958</v>
       </c>
       <c r="AI16" s="191">
         <f>R16+(Y$2/10)</f>
@@ -60381,7 +60382,7 @@
       </c>
       <c r="BD16" s="182">
         <f t="shared" ref="BD16:BE16" si="55">SUM(BD18:BD28)</f>
-        <v>8.1893750000000001</v>
+        <v>8.1943749999999991</v>
       </c>
       <c r="BE16" s="182">
         <f t="shared" si="55"/>
@@ -60408,7 +60409,7 @@
       </c>
       <c r="C17" s="138">
         <f ca="1">PLANTILLA!C17</f>
-        <v>2.9642857142857144</v>
+        <v>2.9553571428571428</v>
       </c>
       <c r="D17" s="29" t="str">
         <f>PLANTILLA!D17</f>
@@ -60420,7 +60421,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">PLANTILLA!F17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="20" t="str">
         <f>PLANTILLA!G17</f>
@@ -60464,7 +60465,7 @@
       </c>
       <c r="Q17" s="23">
         <f>PLANTILLA!AB17</f>
-        <v>14.215999999999999</v>
+        <v>14.266</v>
       </c>
       <c r="R17" s="23">
         <f>PLANTILLA!AC17</f>
@@ -60501,7 +60502,7 @@
       </c>
       <c r="AB17" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC17" s="27">
         <f t="shared" si="6"/>
@@ -60525,7 +60526,7 @@
       </c>
       <c r="AH17" s="191">
         <f>Q17+(X$2/13)</f>
-        <v>14.292923076923076</v>
+        <v>14.342923076923077</v>
       </c>
       <c r="AI17" s="191">
         <f>R17+(Y$2/9)</f>
@@ -60620,7 +60621,7 @@
       </c>
       <c r="C18" s="138">
         <f ca="1">PLANTILLA!C18</f>
-        <v>3.4553571428571428</v>
+        <v>3.4464285714285716</v>
       </c>
       <c r="D18" s="29" t="str">
         <f>PLANTILLA!D18</f>
@@ -60632,7 +60633,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">PLANTILLA!F18</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>PLANTILLA!G18</f>
@@ -60676,7 +60677,7 @@
       </c>
       <c r="Q18" s="23">
         <f>PLANTILLA!AB18</f>
-        <v>14.302222222222222</v>
+        <v>14.352222222222222</v>
       </c>
       <c r="R18" s="23">
         <f>PLANTILLA!AC18</f>
@@ -60714,7 +60715,7 @@
       </c>
       <c r="AB18" s="189">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC18" s="27">
         <f t="shared" si="6"/>
@@ -60738,7 +60739,7 @@
       </c>
       <c r="AH18" s="191">
         <f>Q18+(X$2/13)</f>
-        <v>14.379145299145298</v>
+        <v>14.429145299145299</v>
       </c>
       <c r="AI18" s="191">
         <f>R18+(Y$2/10)</f>
@@ -60912,7 +60913,7 @@
       </c>
       <c r="BD19" s="196">
         <f t="shared" si="56"/>
-        <v>3.9099999999999997</v>
+        <v>3.9124999999999996</v>
       </c>
       <c r="BE19" s="196">
         <f t="shared" si="56"/>
@@ -60997,7 +60998,7 @@
       </c>
       <c r="BD20" s="196">
         <f t="shared" si="57"/>
-        <v>4.2793749999999999</v>
+        <v>4.2818749999999994</v>
       </c>
       <c r="BE20" s="196">
         <f t="shared" si="57"/>
@@ -61772,7 +61773,7 @@
       </c>
       <c r="BD30" s="182">
         <f t="shared" ref="BD30:BE30" si="65">SUM(BD32:BD42)</f>
-        <v>20.684454365079368</v>
+        <v>20.694454365079363</v>
       </c>
       <c r="BE30" s="182">
         <f t="shared" si="65"/>
@@ -61985,7 +61986,7 @@
       </c>
       <c r="BD33" s="201">
         <f>((AE5+1)+(AH5+1)*2)/8</f>
-        <v>3.9099999999999997</v>
+        <v>3.9124999999999996</v>
       </c>
       <c r="BE33" s="201">
         <f>((AL5)+(AO5)*2)/8</f>
@@ -62062,7 +62063,7 @@
       </c>
       <c r="BD34" s="196">
         <f t="shared" si="67"/>
-        <v>4.0646428571428572</v>
+        <v>4.0671428571428567</v>
       </c>
       <c r="BE34" s="196">
         <f t="shared" si="67"/>
@@ -62210,7 +62211,7 @@
       </c>
       <c r="BD36" s="201">
         <f>((AE7+1)+(AH7+1)*2)/8</f>
-        <v>4.418214285714285</v>
+        <v>4.4207142857142854</v>
       </c>
       <c r="BE36" s="201">
         <f>((AL7)+(AO7)*2)/8</f>
@@ -62287,7 +62288,7 @@
       </c>
       <c r="BD37" s="202">
         <f t="shared" si="68"/>
-        <v>4.2793749999999999</v>
+        <v>4.2818749999999994</v>
       </c>
       <c r="BE37" s="202">
         <f t="shared" si="68"/>
@@ -63617,7 +63618,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>

--- a/projects/current/hattrick/1-V@der_Plantilla.xlsx
+++ b/projects/current/hattrick/1-V@der_Plantilla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resistencia" sheetId="6" r:id="rId1"/>
@@ -2804,19 +2804,19 @@
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10300,10 +10300,10 @@
       <c r="C59" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="252" t="s">
+      <c r="D59" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="252" t="s">
+      <c r="E59" s="249" t="s">
         <v>148</v>
       </c>
       <c r="F59" s="106" t="s">
@@ -10322,8 +10322,8 @@
       <c r="C60" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="252"/>
-      <c r="E60" s="252"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
       <c r="F60" s="106" t="s">
         <v>151</v>
       </c>
@@ -10338,8 +10338,8 @@
       </c>
       <c r="B61" s="248"/>
       <c r="C61" s="109"/>
-      <c r="D61" s="252"/>
-      <c r="E61" s="252"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
       <c r="F61" s="110"/>
       <c r="H61" s="101" t="s">
         <v>153</v>
@@ -10355,7 +10355,7 @@
       <c r="C62" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="253" t="s">
+      <c r="D62" s="250" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="106" t="s">
@@ -10371,13 +10371,13 @@
       <c r="A63" s="104">
         <v>21</v>
       </c>
-      <c r="B63" s="250" t="s">
+      <c r="B63" s="251" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="253"/>
+      <c r="D63" s="250"/>
       <c r="E63" s="106" t="s">
         <v>151</v>
       </c>
@@ -10391,9 +10391,9 @@
       <c r="A64" s="108">
         <v>22</v>
       </c>
-      <c r="B64" s="250"/>
+      <c r="B64" s="251"/>
       <c r="C64" s="110"/>
-      <c r="D64" s="253"/>
+      <c r="D64" s="250"/>
       <c r="E64" s="110"/>
       <c r="F64" s="110"/>
       <c r="H64" s="101" t="s">
@@ -10405,9 +10405,9 @@
       <c r="A65" s="104">
         <v>23</v>
       </c>
-      <c r="B65" s="250"/>
+      <c r="B65" s="251"/>
       <c r="C65" s="110"/>
-      <c r="D65" s="253"/>
+      <c r="D65" s="250"/>
       <c r="E65" s="110"/>
       <c r="F65" s="110"/>
       <c r="H65" s="101"/>
@@ -10417,9 +10417,9 @@
       <c r="A66" s="108">
         <v>24</v>
       </c>
-      <c r="B66" s="250"/>
+      <c r="B66" s="251"/>
       <c r="C66" s="110"/>
-      <c r="D66" s="253"/>
+      <c r="D66" s="250"/>
       <c r="E66" s="110"/>
       <c r="F66" s="110"/>
       <c r="H66" s="101" t="s">
@@ -10431,9 +10431,9 @@
       <c r="A67" s="104">
         <v>25</v>
       </c>
-      <c r="B67" s="250"/>
+      <c r="B67" s="251"/>
       <c r="C67" s="110"/>
-      <c r="D67" s="252" t="s">
+      <c r="D67" s="249" t="s">
         <v>148</v>
       </c>
       <c r="E67" s="110"/>
@@ -10447,11 +10447,11 @@
       <c r="A68" s="108">
         <v>26</v>
       </c>
-      <c r="B68" s="250"/>
-      <c r="C68" s="252" t="s">
+      <c r="B68" s="251"/>
+      <c r="C68" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="252"/>
+      <c r="D68" s="249"/>
       <c r="E68" s="110"/>
       <c r="F68" s="110"/>
       <c r="H68" s="101"/>
@@ -10464,8 +10464,8 @@
       <c r="B69" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="252"/>
-      <c r="D69" s="252"/>
+      <c r="C69" s="249"/>
+      <c r="D69" s="249"/>
       <c r="E69" s="110"/>
       <c r="F69" s="110"/>
       <c r="H69" s="101"/>
@@ -10476,10 +10476,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="248"/>
-      <c r="C70" s="250" t="s">
+      <c r="C70" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="252"/>
+      <c r="D70" s="249"/>
       <c r="E70" s="110"/>
       <c r="F70" s="110"/>
       <c r="H70" s="101" t="s">
@@ -10492,8 +10492,8 @@
         <v>29</v>
       </c>
       <c r="B71" s="248"/>
-      <c r="C71" s="250"/>
-      <c r="D71" s="252"/>
+      <c r="C71" s="251"/>
+      <c r="D71" s="249"/>
       <c r="E71" s="110"/>
       <c r="F71" s="110"/>
       <c r="H71" s="101"/>
@@ -10504,8 +10504,8 @@
         <v>30</v>
       </c>
       <c r="B72" s="248"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="250" t="s">
+      <c r="C72" s="251"/>
+      <c r="D72" s="251" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="110"/>
@@ -10520,8 +10520,8 @@
         <v>31</v>
       </c>
       <c r="B73" s="248"/>
-      <c r="C73" s="250"/>
-      <c r="D73" s="250"/>
+      <c r="C73" s="251"/>
+      <c r="D73" s="251"/>
       <c r="E73" s="106" t="s">
         <v>148</v>
       </c>
@@ -10534,8 +10534,8 @@
         <v>32</v>
       </c>
       <c r="B74" s="248"/>
-      <c r="C74" s="250"/>
-      <c r="D74" s="250"/>
+      <c r="C74" s="251"/>
+      <c r="D74" s="251"/>
       <c r="E74" s="106" t="s">
         <v>155</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="C75" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="250"/>
+      <c r="D75" s="251"/>
       <c r="E75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10567,11 +10567,11 @@
       <c r="A76" s="108">
         <v>34</v>
       </c>
-      <c r="B76" s="251" t="s">
+      <c r="B76" s="253" t="s">
         <v>163</v>
       </c>
       <c r="C76" s="248"/>
-      <c r="D76" s="250"/>
+      <c r="D76" s="251"/>
       <c r="E76" s="105" t="s">
         <v>150</v>
       </c>
@@ -10587,8 +10587,8 @@
       <c r="A77" s="104">
         <v>35</v>
       </c>
-      <c r="B77" s="251"/>
-      <c r="C77" s="251" t="s">
+      <c r="B77" s="253"/>
+      <c r="C77" s="253" t="s">
         <v>163</v>
       </c>
       <c r="D77" s="248" t="s">
@@ -10605,8 +10605,8 @@
       <c r="A78" s="108">
         <v>36</v>
       </c>
-      <c r="B78" s="251"/>
-      <c r="C78" s="251"/>
+      <c r="B78" s="253"/>
+      <c r="C78" s="253"/>
       <c r="D78" s="248"/>
       <c r="E78" s="248"/>
       <c r="F78" s="111" t="s">
@@ -10618,14 +10618,14 @@
       <c r="X78" s="98"/>
     </row>
     <row r="79" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="249" t="s">
+      <c r="A79" s="252" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="249"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-      <c r="F79" s="249"/>
+      <c r="B79" s="252"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="252"/>
+      <c r="E79" s="252"/>
+      <c r="F79" s="252"/>
       <c r="H79" s="101"/>
       <c r="X79" s="98"/>
     </row>
@@ -11801,6 +11801,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="E59:E61"/>
@@ -11809,14 +11817,6 @@
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B69:B75"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="AA5:AT22 AA24:AT45">
     <cfRule type="colorScale" priority="21">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="B2" s="73">
         <f ca="1">(N2+F2-J2)/K2</f>
-        <v>-72159.627906976762</v>
+        <v>-71763.252032520322</v>
       </c>
       <c r="C2" s="139">
         <v>22</v>
@@ -12903,18 +12903,18 @@
       </c>
       <c r="H2" s="139">
         <f ca="1">PLANTILLA!F4</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="49">
         <f ca="1">E2+(H2-D2+(G2-C2)*112)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J2" s="155">
         <v>6886000</v>
       </c>
       <c r="K2" s="40">
         <f ca="1">(I2-E2)/112</f>
-        <v>7.6785714285714288</v>
+        <v>7.6875</v>
       </c>
       <c r="L2" s="74">
         <f>J2-F2</f>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="N2" s="76">
         <f ca="1">((G2-C2)*M2*16)+(H2-D2)/7*M2</f>
-        <v>2066457.142857143</v>
+        <v>2068860</v>
       </c>
       <c r="O2" s="142">
         <f>PLANTILLA!I4</f>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="B3" s="73">
         <f t="shared" ref="B3:B16" ca="1" si="0">(N3+F3-J3)/K3</f>
-        <v>150605.7931034482</v>
+        <v>151196.29184549343</v>
       </c>
       <c r="C3" s="139">
         <v>29</v>
@@ -13078,18 +13078,18 @@
       </c>
       <c r="H3" s="139">
         <f ca="1">PLANTILLA!F5</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I3" s="49">
         <f t="shared" ref="I3:I16" ca="1" si="1">E3+(H3-D3+(G3-C3)*112)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J3" s="155">
         <v>3074000</v>
       </c>
       <c r="K3" s="40">
         <f t="shared" ref="K3:K16" ca="1" si="2">(I3-E3)/112</f>
-        <v>2.0714285714285716</v>
+        <v>2.0803571428571428</v>
       </c>
       <c r="L3" s="74">
         <f t="shared" ref="L3:L16" si="3">J3-F3</f>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="N3" s="76">
         <f t="shared" ref="N3:N16" ca="1" si="4">((G3-C3)*M3*16)+(H3-D3)/7*M3</f>
-        <v>596969.14285714284</v>
+        <v>599542.28571428568</v>
       </c>
       <c r="O3" s="142">
         <f>PLANTILLA!I5</f>
@@ -13169,63 +13169,63 @@
       </c>
       <c r="AE3" s="40">
         <f t="shared" ref="AE3:AE16" ca="1" si="10">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.516),((S3+(((TODAY()-E3)^0.5)/(336^0.516))+(LOG(O3)*4/3))*0.516))</f>
-        <v>8.2935622645393483</v>
+        <v>8.2944033060109046</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF16" ca="1" si="11">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*1),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>16.146644615527144</v>
+        <v>16.148433528189404</v>
       </c>
       <c r="AG3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.238),((T3+(((TODAY()-E3)^0.5)/(336^0.238))+(LOG(O3)*4/3))*0.238))</f>
-        <v>2.9132452189463827</v>
+        <v>2.9151998598638333</v>
       </c>
       <c r="AH3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.92),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.92))</f>
-        <v>14.854913046284974</v>
+        <v>14.856558845934252</v>
       </c>
       <c r="AI3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.414),((S3+(((TODAY()-E3)^0.5)/(336^0.414))+(LOG(O3)*4/3))*0.414))</f>
-        <v>6.908033383813474</v>
+        <v>6.9092547746491277</v>
       </c>
       <c r="AJ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.167),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.167))</f>
-        <v>1.5458596507930327</v>
+        <v>1.5461583992076309</v>
       </c>
       <c r="AK3" s="203">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*0.588),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.588))</f>
-        <v>7.7512270339299594</v>
+        <v>7.7522789145753697</v>
       </c>
       <c r="AL3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((S3+1+(LOG(O3)*4/3))*0.4),((S3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.4))</f>
-        <v>6.4586578462108584</v>
+        <v>6.4593734112757621</v>
       </c>
       <c r="AM3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*1),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1))</f>
-        <v>9.2566446155271418</v>
+        <v>9.2584335281894052</v>
       </c>
       <c r="AN3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((W3+1+(LOG(O3)*4/3))*0.21)+((V3+1+(LOG(O3)*4/3))*0.341),((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.21)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.341))</f>
-        <v>4.008951183155455</v>
+        <v>4.0099368740323627</v>
       </c>
       <c r="AO3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.305),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.305))</f>
-        <v>2.823276607735778</v>
+        <v>2.8238222260977683</v>
       </c>
       <c r="AP3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((U3+1+(LOG(O3)*4/3))*1)+((V3+1+(LOG(O3)*4/3))*0.286),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*1)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.286))</f>
-        <v>15.812599261282191</v>
+        <v>15.81489980296586</v>
       </c>
       <c r="AQ3" s="40">
         <f ca="1">IF(TODAY()-E3&gt;335,((T3+1+(LOG(O3)*4/3))*0.406),((T3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.406))</f>
-        <v>3.7581977139040199</v>
+        <v>3.7589240124448988</v>
       </c>
       <c r="AR3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.15)+((V3+1+(LOG(O3)*4/3))*0.324)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.15)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.324)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.144)+((W3+1+(LOG(O3)*4/3))*0.25)+((W3+1+(LOG(O3)*4/3))*0.127),((U3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.144)+((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.25)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.127)))</f>
-        <v>5.4849605567889554</v>
+        <v>5.4860356932989749</v>
       </c>
       <c r="AS3" s="40">
         <f ca="1">IF(Q3="TEC",IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)),IF(TODAY()-E3&gt;335,((V3+1+(LOG(O3)*4/3))*0.543)+((W3+1+(LOG(O3)*4/3))*0.583),((V3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.543)+((W3+(((TODAY()-E3)^0.5)/(336^0.5))+(LOG(O3)*4/3))*0.583)))</f>
-        <v>7.4171018370835622</v>
+        <v>7.419116152741271</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="B4" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>151510.31417624516</v>
+        <v>151761.58778625965</v>
       </c>
       <c r="C4" s="139">
         <v>29</v>
@@ -13256,18 +13256,18 @@
       </c>
       <c r="H4" s="139">
         <f ca="1">PLANTILLA!F6</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" s="49">
         <f ca="1">TODAY()</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J4" s="155">
         <v>2867000</v>
       </c>
       <c r="K4" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3303571428571428</v>
+        <v>2.3392857142857144</v>
       </c>
       <c r="L4" s="74">
         <f t="shared" si="3"/>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="N4" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>520073.14285714284</v>
+        <v>522013.71428571432</v>
       </c>
       <c r="O4" s="142">
         <f>PLANTILLA!I6</f>
@@ -13344,63 +13344,63 @@
       </c>
       <c r="AE4" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8079814928565101</v>
+        <v>7.8087745290173141</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>15.210076333517629</v>
+        <v>15.211763137887777</v>
       </c>
       <c r="AG4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.238),((T4+(((TODAY()-E4)^0.5)/(336^0.238))+(LOG(O4)*4/3))*0.238))</f>
-        <v>2.0241806259552821</v>
+        <v>2.0260236990751603</v>
       </c>
       <c r="AH4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.92),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.92))</f>
-        <v>13.993270226836218</v>
+        <v>13.994822086856756</v>
       </c>
       <c r="AI4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.414),((S4+(((TODAY()-E4)^0.5)/(336^0.414))+(LOG(O4)*4/3))*0.414))</f>
-        <v>6.5338408970615207</v>
+        <v>6.5349925728491094</v>
       </c>
       <c r="AJ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.167),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.167))</f>
-        <v>0.8917927476974441</v>
+        <v>0.89207444402725877</v>
       </c>
       <c r="AK4" s="203">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*0.588),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.588))</f>
-        <v>8.345724884108364</v>
+        <v>8.3467167250780125</v>
       </c>
       <c r="AL4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((S4+1+(LOG(O4)*4/3))*0.4),((S4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.4))</f>
-        <v>6.0840305334070521</v>
+        <v>6.0847052551551108</v>
       </c>
       <c r="AM4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*1),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1))</f>
-        <v>5.3400763335176293</v>
+        <v>5.341763137887777</v>
       </c>
       <c r="AN4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((W4+1+(LOG(O4)*4/3))*0.21)+((V4+1+(LOG(O4)*4/3))*0.341),((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.21)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.341))</f>
-        <v>5.1149420597682136</v>
+        <v>5.1158714889761647</v>
       </c>
       <c r="AO4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.305),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.305))</f>
-        <v>1.6287232817228769</v>
+        <v>1.6292377570557719</v>
       </c>
       <c r="AP4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((U4+1+(LOG(O4)*4/3))*1)+((V4+1+(LOG(O4)*4/3))*0.286),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*1)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.286))</f>
-        <v>17.396631498237003</v>
+        <v>17.398800728657012</v>
       </c>
       <c r="AQ4" s="40">
         <f ca="1">IF(TODAY()-E4&gt;335,((T4+1+(LOG(O4)*4/3))*0.406),((T4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.406))</f>
-        <v>2.1680709914081575</v>
+        <v>2.1687558339824378</v>
       </c>
       <c r="AR4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.15)+((V4+1+(LOG(O4)*4/3))*0.324)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.15)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.324)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.144)+((W4+1+(LOG(O4)*4/3))*0.25)+((W4+1+(LOG(O4)*4/3))*0.127),((U4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.144)+((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.25)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.127)))</f>
-        <v>5.6274697697626843</v>
+        <v>5.6283485948395313</v>
       </c>
       <c r="AS4" s="40">
         <f ca="1">IF(Q4="TEC",IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)),IF(TODAY()-E4&gt;335,((V4+1+(LOG(O4)*4/3))*0.543)+((W4+1+(LOG(O4)*4/3))*0.583),((V4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.543)+((W4+(((TODAY()-E4)^0.5)/(336^0.5))+(LOG(O4)*4/3))*0.583)))</f>
-        <v>9.6787959515408488</v>
+        <v>9.6806952932616355</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="B5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-840623</v>
+        <v>-830133.94690265507</v>
       </c>
       <c r="C5" s="139">
         <v>30</v>
@@ -13430,18 +13430,18 @@
       </c>
       <c r="H5" s="139">
         <f ca="1">PLANTILLA!F7</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J5" s="155">
         <v>3864250</v>
       </c>
       <c r="K5" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>1.0089285714285714</v>
       </c>
       <c r="L5" s="74">
         <f t="shared" si="3"/>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="N5" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>344640</v>
+        <v>347717.14285714284</v>
       </c>
       <c r="O5" s="142">
         <f>PLANTILLA!I7</f>
@@ -13521,63 +13521,63 @@
       </c>
       <c r="AE5" s="40">
         <f t="shared" ref="AE5" ca="1" si="17">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.516),((S5+(((TODAY()-E5)^0.5)/(336^0.516))+(LOG(O5)*4/3))*0.516))</f>
-        <v>8.1486164490094826</v>
+        <v>8.1498255245901579</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" ref="AF5" ca="1" si="18">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*1),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>15.843203611382844</v>
+        <v>15.845775340232199</v>
       </c>
       <c r="AG5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.238),((T5+(((TODAY()-E5)^0.5)/(336^0.238))+(LOG(O5)*4/3))*0.238))</f>
-        <v>2.1268701864110469</v>
+        <v>2.1296801650889225</v>
       </c>
       <c r="AH5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.92),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.92))</f>
-        <v>14.575747322472218</v>
+        <v>14.578113313013624</v>
       </c>
       <c r="AI5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.414),((S5+(((TODAY()-E5)^0.5)/(336^0.414))+(LOG(O5)*4/3))*0.414))</f>
-        <v>6.7142526382552532</v>
+        <v>6.7160085015316726</v>
       </c>
       <c r="AJ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.167),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.167))</f>
-        <v>1.1461550031009347</v>
+        <v>1.1465844818187769</v>
       </c>
       <c r="AK5" s="203">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*0.588),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.588))</f>
-        <v>6.9696837234931115</v>
+        <v>6.9711959000565331</v>
       </c>
       <c r="AL5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((S5+1+(LOG(O5)*4/3))*0.4),((S5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.4))</f>
-        <v>6.3372814445531382</v>
+        <v>6.33831013609288</v>
       </c>
       <c r="AM5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*1),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1))</f>
-        <v>6.8632036113828425</v>
+        <v>6.8657753402321973</v>
       </c>
       <c r="AN5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((W5+1+(LOG(O5)*4/3))*0.21)+((V5+1+(LOG(O5)*4/3))*0.341),((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.21)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.341))</f>
-        <v>4.3103451898719465</v>
+        <v>4.3117622124679418</v>
       </c>
       <c r="AO5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.305),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.305))</f>
-        <v>2.093277101471767</v>
+        <v>2.0940614787708203</v>
       </c>
       <c r="AP5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((U5+1+(LOG(O5)*4/3))*1)+((V5+1+(LOG(O5)*4/3))*0.286),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*1)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.286))</f>
-        <v>14.965799844238337</v>
+        <v>14.969107087538607</v>
       </c>
       <c r="AQ5" s="40">
         <f ca="1">IF(TODAY()-E5&gt;335,((T5+1+(LOG(O5)*4/3))*0.406),((T5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.406))</f>
-        <v>2.7864606662214344</v>
+        <v>2.7875047881342723</v>
       </c>
       <c r="AR5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.15)+((V5+1+(LOG(O5)*4/3))*0.324)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.15)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.324)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.144)+((W5+1+(LOG(O5)*4/3))*0.25)+((W5+1+(LOG(O5)*4/3))*0.127),((U5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.144)+((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.25)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.127)))</f>
-        <v>4.7900190815304615</v>
+        <v>4.7913589522609756</v>
       </c>
       <c r="AS5" s="40">
         <f ca="1">IF(Q5="TEC",IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)),IF(TODAY()-E5&gt;335,((V5+1+(LOG(O5)*4/3))*0.543)+((W5+1+(LOG(O5)*4/3))*0.583),((V5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.543)+((W5+(((TODAY()-E5)^0.5)/(336^0.5))+(LOG(O5)*4/3))*0.583)))</f>
-        <v>7.5729972664170813</v>
+        <v>7.5758930331014565</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="B6" s="73">
         <f t="shared" ref="B6" ca="1" si="19">(N6+F6-J6)/K6</f>
-        <v>621603.5183246074</v>
+        <v>620102</v>
       </c>
       <c r="C6" s="139">
         <v>29</v>
@@ -13607,18 +13607,18 @@
       </c>
       <c r="H6" s="139">
         <f ca="1">PLANTILLA!F8</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="49">
         <f t="shared" ref="I6" ca="1" si="20">E6+(H6-D6+(G6-C6)*112)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J6" s="155">
         <v>1854360</v>
       </c>
       <c r="K6" s="40">
         <f t="shared" ref="K6" ca="1" si="21">(I6-E6)/112</f>
-        <v>1.7053571428571428</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="L6" s="74">
         <f t="shared" ref="L6" si="22">J6-F6</f>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="N6" s="76">
         <f t="shared" ref="N6" ca="1" si="23">((G6-C6)*M6*16)+(H6-D6)/7*M6</f>
-        <v>568416</v>
+        <v>571392</v>
       </c>
       <c r="O6" s="142">
         <f>PLANTILLA!I8</f>
@@ -13698,63 +13698,63 @@
       </c>
       <c r="AE6" s="40">
         <f t="shared" ref="AE6" ca="1" si="29">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.516),((S6+(((TODAY()-E6)^0.5)/(336^0.516))+(LOG(O6)*4/3))*0.516))</f>
-        <v>8.2107923263629292</v>
+        <v>8.2117190380066223</v>
       </c>
       <c r="AF6" s="40">
         <f t="shared" ref="AF6" ca="1" si="30">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*1),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>15.979395267623765</v>
+        <v>15.981366402519885</v>
       </c>
       <c r="AG6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.238),((T6+(((TODAY()-E6)^0.5)/(336^0.238))+(LOG(O6)*4/3))*0.238))</f>
-        <v>1.8342200045266426</v>
+        <v>1.8363737490906169</v>
       </c>
       <c r="AH6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.92),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.92))</f>
-        <v>14.701043646213865</v>
+        <v>14.702857090318295</v>
       </c>
       <c r="AI6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.414),((S6+(((TODAY()-E6)^0.5)/(336^0.414))+(LOG(O6)*4/3))*0.414))</f>
-        <v>6.8181003187033893</v>
+        <v>6.8194461228607119</v>
       </c>
       <c r="AJ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.167),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.167))</f>
-        <v>0.83489900969316888</v>
+        <v>0.83522818922082098</v>
       </c>
       <c r="AK6" s="203">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*0.588),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.588))</f>
-        <v>2.9337644173627742</v>
+        <v>2.9349234446816928</v>
       </c>
       <c r="AL6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((S6+1+(LOG(O6)*4/3))*0.4),((S6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.4))</f>
-        <v>6.3917581070495064</v>
+        <v>6.3925465610079542</v>
       </c>
       <c r="AM6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*1),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1))</f>
-        <v>4.9993952676237656</v>
+        <v>5.0013664025198858</v>
       </c>
       <c r="AN6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((W6+1+(LOG(O6)*4/3))*0.21)+((V6+1+(LOG(O6)*4/3))*0.341),((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.21)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.341))</f>
-        <v>5.1340567924606946</v>
+        <v>5.135142887788458</v>
       </c>
       <c r="AO6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.305),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.305))</f>
-        <v>1.5248155566252486</v>
+        <v>1.5254167527685651</v>
       </c>
       <c r="AP6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((U6+1+(LOG(O6)*4/3))*1)+((V6+1+(LOG(O6)*4/3))*0.286),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*1)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.286))</f>
-        <v>8.4183623141641633</v>
+        <v>8.4208971936405739</v>
       </c>
       <c r="AQ6" s="40">
         <f ca="1">IF(TODAY()-E6&gt;335,((T6+1+(LOG(O6)*4/3))*0.406),((T6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.406))</f>
-        <v>2.0297544786552488</v>
+        <v>2.0305547594230737</v>
       </c>
       <c r="AR6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.15)+((V6+1+(LOG(O6)*4/3))*0.324)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.15)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.324)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.144)+((W6+1+(LOG(O6)*4/3))*0.25)+((W6+1+(LOG(O6)*4/3))*0.127),((U6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.144)+((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.25)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.127)))</f>
-        <v>4.3482049344319815</v>
+        <v>4.34923189571286</v>
       </c>
       <c r="AS6" s="40">
         <f ca="1">IF(Q6="TEC",IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)),IF(TODAY()-E6&gt;335,((V6+1+(LOG(O6)*4/3))*0.543)+((W6+1+(LOG(O6)*4/3))*0.583),((V6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.543)+((W6+(((TODAY()-E6)^0.5)/(336^0.5))+(LOG(O6)*4/3))*0.583)))</f>
-        <v>9.4132290713443609</v>
+        <v>9.415448569237391</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="B7" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>507032.9559748426</v>
+        <v>506544.95297805656</v>
       </c>
       <c r="C7" s="139">
         <v>29</v>
@@ -13785,18 +13785,18 @@
       </c>
       <c r="H7" s="156">
         <f ca="1">PLANTILLA!F9</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J7" s="155">
         <v>3200000</v>
       </c>
       <c r="K7" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8392857142857144</v>
+        <v>2.8482142857142856</v>
       </c>
       <c r="L7" s="74">
         <f t="shared" si="3"/>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="N7" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>997611.42857142852</v>
+        <v>1000748.5714285715</v>
       </c>
       <c r="O7" s="142">
         <f>PLANTILLA!I9</f>
@@ -13876,63 +13876,63 @@
       </c>
       <c r="AE7" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>8.9258670476001996</v>
+        <v>8.9265856258278369</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>17.384652364292943</v>
+        <v>17.386180795094184</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" ref="AG7:AG16" ca="1" si="31">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.238),((T7+(((TODAY()-E7)^0.5)/(336^0.238))+(LOG(O7)*4/3))*0.238))</f>
-        <v>4.2481818721314246</v>
+        <v>4.2498518996551935</v>
       </c>
       <c r="AH7" s="40">
         <f t="shared" ref="AH7:AH16" ca="1" si="32">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.92),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.92))</f>
-        <v>15.993880175149508</v>
+        <v>15.99528633148665</v>
       </c>
       <c r="AI7" s="40">
         <f t="shared" ref="AI7:AI16" ca="1" si="33">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.414),((S7+(((TODAY()-E7)^0.5)/(336^0.414))+(LOG(O7)*4/3))*0.414))</f>
-        <v>7.4587041624915562</v>
+        <v>7.4597477077763239</v>
       </c>
       <c r="AJ7" s="40">
         <f t="shared" ref="AJ7:AJ16" ca="1" si="34">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.167),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.167))</f>
-        <v>2.397465516265493</v>
+        <v>2.3977207642093004</v>
       </c>
       <c r="AK7" s="203">
         <f t="shared" ref="AK7:AK16" ca="1" si="35">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*0.588),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.588))</f>
-        <v>2.5672555902042506</v>
+        <v>2.5681543075153797</v>
       </c>
       <c r="AL7" s="40">
         <f t="shared" ref="AL7:AL16" ca="1" si="36">IF(TODAY()-E7&gt;335,((S7+1+(LOG(O7)*4/3))*0.4),((S7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.4))</f>
-        <v>6.9538609457171781</v>
+        <v>6.9544723180376735</v>
       </c>
       <c r="AM7" s="40">
         <f t="shared" ref="AM7:AM16" ca="1" si="37">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*1),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1))</f>
-        <v>14.356080935721515</v>
+        <v>14.357609366522755</v>
       </c>
       <c r="AN7" s="40">
         <f t="shared" ref="AN7:AN16" ca="1" si="38">IF(TODAY()-E7&gt;335,((W7+1+(LOG(O7)*4/3))*0.21)+((V7+1+(LOG(O7)*4/3))*0.341),((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.21)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.341))</f>
-        <v>4.5854548812968403</v>
+        <v>4.5862970466683244</v>
       </c>
       <c r="AO7" s="40">
         <f t="shared" ref="AO7:AO16" ca="1" si="39">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.305),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.305))</f>
-        <v>4.3786046853950618</v>
+        <v>4.3790708567894399</v>
       </c>
       <c r="AP7" s="40">
         <f t="shared" ref="AP7:AP16" ca="1" si="40">IF(TODAY()-E7&gt;335,((U7+1+(LOG(O7)*4/3))*1)+((V7+1+(LOG(O7)*4/3))*0.286),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*1)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.286))</f>
-        <v>7.0942172261950098</v>
+        <v>7.0961827882054056</v>
       </c>
       <c r="AQ7" s="40">
         <f t="shared" ref="AQ7:AQ16" ca="1" si="41">IF(TODAY()-E7&gt;335,((T7+1+(LOG(O7)*4/3))*0.406),((T7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.406))</f>
-        <v>5.8285688599029353</v>
+        <v>5.8291894028082387</v>
       </c>
       <c r="AR7" s="40">
         <f t="shared" ref="AR7:AR16" ca="1" si="42">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.15)+((V7+1+(LOG(O7)*4/3))*0.324)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.15)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.324)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.144)+((W7+1+(LOG(O7)*4/3))*0.25)+((W7+1+(LOG(O7)*4/3))*0.127),((U7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.144)+((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.25)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.127)))</f>
-        <v>3.8194024532251944</v>
+        <v>3.8201987656726408</v>
       </c>
       <c r="AS7" s="40">
         <f t="shared" ref="AS7:AS16" ca="1" si="43">IF(Q7="TEC",IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)),IF(TODAY()-E7&gt;335,((V7+1+(LOG(O7)*4/3))*0.543)+((W7+1+(LOG(O7)*4/3))*0.583),((V7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.543)+((W7+(((TODAY()-E7)^0.5)/(336^0.5))+(LOG(O7)*4/3))*0.583)))</f>
-        <v>8.8794085621938539</v>
+        <v>8.8811295752760504</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="B8" s="73">
         <f ca="1">(N8+F8-J8)/K8</f>
-        <v>574863.58974358975</v>
+        <v>574600</v>
       </c>
       <c r="C8" s="139">
         <v>30</v>
@@ -13963,18 +13963,18 @@
       </c>
       <c r="H8" s="139">
         <f ca="1">PLANTILLA!F10</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="49">
         <f ca="1">E8+(H8-D8+(G8-C8)*112)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J8" s="155">
         <v>3160050</v>
       </c>
       <c r="K8" s="40">
         <f ca="1">(I8-E8)/112</f>
-        <v>1.7410714285714286</v>
+        <v>1.75</v>
       </c>
       <c r="L8" s="74">
         <f>J8-F8</f>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="N8" s="76">
         <f ca="1">((G8-C8)*M8*16)+(H8-D8)/7*M8</f>
-        <v>910928.57142857136</v>
+        <v>915600</v>
       </c>
       <c r="O8" s="142">
         <f>PLANTILLA!I10</f>
@@ -14054,63 +14054,63 @@
       </c>
       <c r="AE8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.516),((S8+(((TODAY()-E8)^0.5)/(336^0.516))+(LOG(O8)*4/3))*0.516))</f>
-        <v>7.213245084074261</v>
+        <v>7.214162266264518</v>
       </c>
       <c r="AF8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*1),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>14.046862186735794</v>
+        <v>14.048813052286713</v>
       </c>
       <c r="AG8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.238),((T8+(((TODAY()-E8)^0.5)/(336^0.238))+(LOG(O8)*4/3))*0.238))</f>
-        <v>4.7177494366991732</v>
+        <v>4.7198810341274395</v>
       </c>
       <c r="AH8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.92),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.92))</f>
-        <v>12.923113211796931</v>
+        <v>12.924908008103776</v>
       </c>
       <c r="AI8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.414),((S8+(((TODAY()-E8)^0.5)/(336^0.414))+(LOG(O8)*4/3))*0.414))</f>
-        <v>6.0201424164077499</v>
+        <v>6.0214743815482228</v>
       </c>
       <c r="AJ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.167),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.167))</f>
-        <v>2.8535059851848774</v>
+        <v>2.8538317797318813</v>
       </c>
       <c r="AK8" s="203">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*0.588),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.588))</f>
-        <v>2.3854349658006475</v>
+        <v>2.3865820747445872</v>
       </c>
       <c r="AL8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((S8+1+(LOG(O8)*4/3))*0.4),((S8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.4))</f>
-        <v>5.6187448746943183</v>
+        <v>5.6195252209146851</v>
       </c>
       <c r="AM8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*1),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1))</f>
-        <v>17.086862186735793</v>
+        <v>17.088813052286714</v>
       </c>
       <c r="AN8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((W8+1+(LOG(O8)*4/3))*0.21)+((V8+1+(LOG(O8)*4/3))*0.341),((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.21)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.341))</f>
-        <v>4.4297921760025334</v>
+        <v>4.4308671029210904</v>
       </c>
       <c r="AO8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.305),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.305))</f>
-        <v>5.2114929669544168</v>
+        <v>5.2120879809474472</v>
       </c>
       <c r="AP8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((U8+1+(LOG(O8)*4/3))*1)+((V8+1+(LOG(O8)*4/3))*0.286),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*1)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.286))</f>
-        <v>7.0300469943644543</v>
+        <v>7.0325558074629351</v>
       </c>
       <c r="AQ8" s="40">
         <f ca="1">IF(TODAY()-E8&gt;335,((T8+1+(LOG(O8)*4/3))*0.406),((T8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.406))</f>
-        <v>6.9372660478147328</v>
+        <v>6.9380580992284058</v>
       </c>
       <c r="AR8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.15)+((V8+1+(LOG(O8)*4/3))*0.324)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.15)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.324)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.144)+((W8+1+(LOG(O8)*4/3))*0.25)+((W8+1+(LOG(O8)*4/3))*0.127),((U8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.144)+((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.25)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.127)))</f>
-        <v>3.7182440881782375</v>
+        <v>3.7192604891302663</v>
       </c>
       <c r="AS8" s="40">
         <f ca="1">IF(Q8="TEC",IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)),IF(TODAY()-E8&gt;335,((V8+1+(LOG(O8)*4/3))*0.543)+((W8+1+(LOG(O8)*4/3))*0.583),((V8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.543)+((W8+(((TODAY()-E8)^0.5)/(336^0.5))+(LOG(O8)*4/3))*0.583)))</f>
-        <v>8.1013801555978375</v>
+        <v>8.1035768302081728</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="B9" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>532324.17391304346</v>
+        <v>531755.59133126924</v>
       </c>
       <c r="C9" s="139">
         <v>29</v>
@@ -14141,18 +14141,18 @@
       </c>
       <c r="H9" s="156">
         <f ca="1">PLANTILLA!F11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J9" s="155">
         <v>1640000</v>
       </c>
       <c r="K9" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>2.875</v>
+        <v>2.8839285714285716</v>
       </c>
       <c r="L9" s="74">
         <f t="shared" si="3"/>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="N9" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>1002432</v>
+        <v>1005545.1428571428</v>
       </c>
       <c r="O9" s="142">
         <f>PLANTILLA!I11</f>
@@ -14232,63 +14232,63 @@
       </c>
       <c r="AE9" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.752938226138363</v>
+        <v>3.7536523341571462</v>
       </c>
       <c r="AF9" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3601385856030666</v>
+        <v>7.3616575081773137</v>
       </c>
       <c r="AG9" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>4.7756737333749406</v>
+        <v>4.7773333718115705</v>
       </c>
       <c r="AH9" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>6.7713274987548218</v>
+        <v>6.7727249075231288</v>
       </c>
       <c r="AI9" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>3.3101947098069258</v>
+        <v>3.3112317632927604</v>
       </c>
       <c r="AJ9" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.7639386339917911</v>
+        <v>2.7641922940616905</v>
       </c>
       <c r="AK9" s="203">
         <f t="shared" ca="1" si="35"/>
-        <v>4.3162320765698974</v>
+        <v>4.3171252030435543</v>
       </c>
       <c r="AL9" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.9440554342412266</v>
+        <v>2.9446630032709256</v>
       </c>
       <c r="AM9" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>16.550530742465813</v>
+        <v>16.552049665040062</v>
       </c>
       <c r="AN9" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>6.2639022803685034</v>
+        <v>6.2647392067069134</v>
       </c>
       <c r="AO9" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>5.0479118764520727</v>
+        <v>5.048375147837219</v>
       </c>
       <c r="AP9" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>11.581290788779286</v>
+        <v>11.58324412320977</v>
       </c>
       <c r="AQ9" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>6.7195154814411211</v>
+        <v>6.7201321640062659</v>
       </c>
       <c r="AR9" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.4943119136500842</v>
+        <v>5.4951032723112672</v>
       </c>
       <c r="AS9" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>11.404072377921263</v>
+        <v>11.405782684739867</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="B10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>9551.0588235293253</v>
+        <v>13764.465116278896</v>
       </c>
       <c r="C10" s="139">
         <v>29</v>
@@ -14318,18 +14318,18 @@
       </c>
       <c r="H10" s="156">
         <f ca="1">PLANTILLA!F12</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J10" s="155">
         <v>4125000</v>
       </c>
       <c r="K10" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7589285714285714</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="L10" s="74">
         <f t="shared" si="3"/>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="N10" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>282248.57142857142</v>
+        <v>285569.1428571429</v>
       </c>
       <c r="O10" s="142">
         <f>PLANTILLA!I12</f>
@@ -14409,63 +14409,63 @@
       </c>
       <c r="AE10" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>1.8087725956249256</v>
+        <v>1.8101595029375186</v>
       </c>
       <c r="AF10" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5500738317828704</v>
+        <v>3.5530238124161602</v>
       </c>
       <c r="AG10" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.8981836609223759</v>
+        <v>3.9014069333454269</v>
       </c>
       <c r="AH10" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>3.2660679252402409</v>
+        <v>3.2687819074228677</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>1.6049060638526731</v>
+        <v>1.606920180800282</v>
       </c>
       <c r="AJ10" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.4336577844531941</v>
+        <v>2.4341504312189537</v>
       </c>
       <c r="AK10" s="203">
         <f t="shared" ca="1" si="35"/>
-        <v>9.1474360056809196</v>
+        <v>9.1491705942932953</v>
       </c>
       <c r="AL10" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>1.4200295327131482</v>
+        <v>1.4212095249664642</v>
       </c>
       <c r="AM10" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.572801104510143</v>
+        <v>14.575751085143434</v>
       </c>
       <c r="AN10" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.2927170702012516</v>
+        <v>4.2943425095301935</v>
       </c>
       <c r="AO10" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.4447043368755939</v>
+        <v>4.4456040809687476</v>
       </c>
       <c r="AP10" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>18.001787848907338</v>
+        <v>18.005581524001752</v>
       </c>
       <c r="AQ10" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.9165572484311184</v>
+        <v>5.9177549405682344</v>
       </c>
       <c r="AR10" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.210489021914432</v>
+        <v>5.2120259618243754</v>
       </c>
       <c r="AS10" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.4664589679208468</v>
+        <v>8.4697806461139304</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="B11" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-150333.2765957446</v>
+        <v>-148126.8148148148</v>
       </c>
       <c r="C11" s="139">
         <v>30</v>
@@ -14496,18 +14496,18 @@
       </c>
       <c r="H11" s="156">
         <f ca="1">PLANTILLA!F13</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J11" s="155">
         <v>3110000</v>
       </c>
       <c r="K11" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6785714285714286</v>
+        <v>1.6875</v>
       </c>
       <c r="L11" s="74">
         <f t="shared" si="3"/>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="N11" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>447654.85714285716</v>
+        <v>450036</v>
       </c>
       <c r="O11" s="142">
         <f>PLANTILLA!I13</f>
@@ -14587,63 +14587,63 @@
       </c>
       <c r="AE11" s="40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.0620610577808192</v>
+        <v>3.0629951147034795</v>
       </c>
       <c r="AF11" s="40">
         <f t="shared" ca="1" si="11"/>
-        <v>6.0007055783679206</v>
+        <v>6.0026923368248246</v>
       </c>
       <c r="AG11" s="40">
         <f t="shared" ca="1" si="31"/>
-        <v>3.9768604711954203</v>
+        <v>3.9790312867164221</v>
       </c>
       <c r="AH11" s="40">
         <f t="shared" ca="1" si="32"/>
-        <v>5.5206491320984874</v>
+        <v>5.5224769498788389</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" ca="1" si="33"/>
-        <v>2.6853251486693872</v>
+        <v>2.6866816199064187</v>
       </c>
       <c r="AJ11" s="40">
         <f t="shared" ca="1" si="34"/>
-        <v>2.3419132861328977</v>
+        <v>2.3422450747952008</v>
       </c>
       <c r="AK11" s="203">
         <f t="shared" ca="1" si="35"/>
-        <v>9.4476148800803372</v>
+        <v>9.4487830940529971</v>
       </c>
       <c r="AL11" s="40">
         <f t="shared" ca="1" si="36"/>
-        <v>2.4002822313471683</v>
+        <v>2.4010769347299301</v>
       </c>
       <c r="AM11" s="40">
         <f t="shared" ca="1" si="37"/>
-        <v>14.023432851095194</v>
+        <v>14.025419609552099</v>
       </c>
       <c r="AN11" s="40">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6670887736807236</v>
+        <v>4.6681834775904782</v>
       </c>
       <c r="AO11" s="40">
         <f t="shared" ca="1" si="39"/>
-        <v>4.2771470195840342</v>
+        <v>4.2777529809133901</v>
       </c>
       <c r="AP11" s="40">
         <f t="shared" ca="1" si="40"/>
-        <v>19.09917404044781</v>
+        <v>19.101729011823391</v>
       </c>
       <c r="AQ11" s="40">
         <f t="shared" ca="1" si="41"/>
-        <v>5.6935137375446487</v>
+        <v>5.6943203614781526</v>
       </c>
       <c r="AR11" s="40">
         <f t="shared" ca="1" si="42"/>
-        <v>5.6002376063296859</v>
+        <v>5.6012727074857329</v>
       </c>
       <c r="AS11" s="40">
         <f t="shared" ca="1" si="43"/>
-        <v>8.6774244812422765</v>
+        <v>8.6796615712647522</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="B12" s="73">
         <f t="shared" ref="B12" ca="1" si="44">(N12+F12-J12)/K12</f>
-        <v>299354.11494252871</v>
+        <v>299308.92836676218</v>
       </c>
       <c r="C12" s="139">
         <v>29</v>
@@ -14674,18 +14674,18 @@
       </c>
       <c r="H12" s="156">
         <f ca="1">PLANTILLA!F14</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I12" s="49">
         <f t="shared" ref="I12" ca="1" si="45">E12+(H12-D12+(G12-C12)*112)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J12" s="155">
         <v>3000000</v>
       </c>
       <c r="K12" s="40">
         <f t="shared" ref="K12" ca="1" si="46">(I12-E12)/112</f>
-        <v>3.1071428571428572</v>
+        <v>3.1160714285714284</v>
       </c>
       <c r="L12" s="74">
         <f t="shared" ref="L12" si="47">J12-F12</f>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="N12" s="76">
         <f t="shared" ref="N12" ca="1" si="48">((G12-C12)*M12*16)+(H12-D12)/7*M12</f>
-        <v>881136</v>
+        <v>883668</v>
       </c>
       <c r="O12" s="142">
         <f>PLANTILLA!I14</f>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B13" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-113.5038520801692</v>
+        <v>630.15384615382322</v>
       </c>
       <c r="C13" s="139">
         <v>24</v>
@@ -14852,18 +14852,18 @@
       </c>
       <c r="H13" s="156">
         <f ca="1">PLANTILLA!F15</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J13" s="155">
         <v>5200000</v>
       </c>
       <c r="K13" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7946428571428568</v>
+        <v>5.8035714285714288</v>
       </c>
       <c r="L13" s="74">
         <f t="shared" si="3"/>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="N13" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>2800342.2857142859</v>
+        <v>2804657.1428571427</v>
       </c>
       <c r="O13" s="142">
         <f>PLANTILLA!I15</f>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="B14" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>148816.14678899082</v>
+        <v>149209.63350785343</v>
       </c>
       <c r="C14" s="139">
         <v>22</v>
@@ -15030,18 +15030,18 @@
       </c>
       <c r="H14" s="156">
         <f ca="1">PLANTILLA!F16</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J14" s="155">
         <v>4910000</v>
       </c>
       <c r="K14" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8125</v>
+        <v>6.8214285714285712</v>
       </c>
       <c r="L14" s="74">
         <f t="shared" si="3"/>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="N14" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3061810</v>
+        <v>3065822.8571428573</v>
       </c>
       <c r="O14" s="142">
         <f>PLANTILLA!I16</f>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="B15" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>156389.81074168798</v>
+        <v>156823.45849297574</v>
       </c>
       <c r="C15" s="139">
         <v>23</v>
@@ -15208,18 +15208,18 @@
       </c>
       <c r="H15" s="156">
         <f ca="1">PLANTILLA!F17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J15" s="155">
         <v>4910760</v>
       </c>
       <c r="K15" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9821428571428568</v>
+        <v>6.9910714285714288</v>
       </c>
       <c r="L15" s="74">
         <f t="shared" si="3"/>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="N15" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3462696</v>
+        <v>3467124</v>
       </c>
       <c r="O15" s="142">
         <f>PLANTILLA!I17</f>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B16" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>-121729.93694829768</v>
+        <v>-120945.49118387907</v>
       </c>
       <c r="C16" s="139">
         <v>22</v>
@@ -15386,18 +15386,18 @@
       </c>
       <c r="H16" s="156">
         <f ca="1">PLANTILLA!F18</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="J16" s="155">
         <v>7062000</v>
       </c>
       <c r="K16" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0803571428571432</v>
+        <v>7.0892857142857144</v>
       </c>
       <c r="L16" s="74">
         <f t="shared" si="3"/>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="N16" s="76">
         <f t="shared" ca="1" si="4"/>
-        <v>3548108.5714285714</v>
+        <v>3552582.8571428573</v>
       </c>
       <c r="O16" s="142">
         <f>PLANTILLA!I18</f>
@@ -39332,11 +39332,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AT165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -49734,7 +49736,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -50225,7 +50227,7 @@
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" s="33">
         <f ca="1">TODAY()</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="I2" s="35">
         <f>AVERAGE(I4:I18)</f>
@@ -50234,7 +50236,7 @@
       <c r="J2" s="35"/>
       <c r="N2" s="40">
         <f ca="1">AVERAGE(N4:N18)</f>
-        <v>0.83868968174142011</v>
+        <v>0.8400942400076209</v>
       </c>
       <c r="O2" s="35">
         <f>AVERAGE(O4:O18)</f>
@@ -50437,7 +50439,7 @@
       </c>
       <c r="C4" s="132">
         <f ca="1">((33*112)-(E4*112)-(F4))/112</f>
-        <v>2.7767857142857144</v>
+        <v>2.7678571428571428</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>47</v>
@@ -50447,7 +50449,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">17+D2-D1-112-112-112-112-112-112-112</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="5">
@@ -50596,7 +50598,7 @@
       </c>
       <c r="C5" s="132">
         <f t="shared" ref="C5:C18" ca="1" si="3">((33*112)-(E5*112)-(F5))/112</f>
-        <v>1.0446428571428572</v>
+        <v>1.0357142857142858</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>245</v>
@@ -50606,7 +50608,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">72+D2-D1-112-112-112-112-112+17-112-112+10</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>74</v>
@@ -50634,7 +50636,7 @@
       </c>
       <c r="N5" s="147">
         <f t="shared" ref="N5:N18" ca="1" si="5">IF((TODAY()-M5)&gt;335,1,((TODAY()-M5)^0.64)/(336^0.64))</f>
-        <v>0.78896034082788147</v>
+        <v>0.79113509781959868</v>
       </c>
       <c r="O5" s="21">
         <v>7.2</v>
@@ -50700,35 +50702,35 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="25">
         <f t="shared" ref="AG5:AG18" ca="1" si="10">(AD5+1+(LOG(I5)*4/3)+N5)*(Q5/7)^0.5</f>
-        <v>15.582945122309786</v>
+        <v>15.584783127434335</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ref="AH5:AH18" ca="1" si="11">(AD5+1+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>17.070261111708337</v>
+        <v>17.072274545443392</v>
       </c>
       <c r="AI5" s="131">
         <f t="shared" ref="AI5:AI18" ca="1" si="12">(Z5+N5+(LOG(I5)*4/3))*(Q5/7)^0.5</f>
-        <v>7.7878057128637694</v>
+        <v>7.7896437179883184</v>
       </c>
       <c r="AJ5" s="131">
         <f t="shared" ref="AJ5:AJ18" ca="1" si="13">(Z5+N5+(LOG(I5)*4/3))*(IF(Q5=7, (Q5/7)^0.5, ((Q5+1)/7)^0.5))</f>
-        <v>8.5311137248061737</v>
+        <v>8.5331271585412249</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" ref="AK5:AK18" ca="1" si="14">(((Y5+LOG(I5)*4/3+N5)+(AB5+LOG(I5)*4/3+N5)*2)/8)*(Q5/7)^0.5</f>
-        <v>3.6356389303879197</v>
+        <v>3.6363281823096263</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" ref="AL5:AL18" ca="1" si="15">(AD5+LOG(I5)*4/3+N5)*0.7+(AC5+LOG(I5)*4/3+N5)*0.3</f>
-        <v>13.440989319849539</v>
+        <v>13.443164076841255</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" ref="AM5:AM18" ca="1" si="16">(0.5*(AC5+LOG(I5)*4/3+N5)+ 0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>0.72887247892129658</v>
+        <v>0.72904645948063396</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" ref="AN5:AN18" ca="1" si="17">(0.4*(Y5+LOG(I5)*4/3+N5)+0.3*(AD5+LOG(I5)*4/3+N5))/10</f>
-        <v>1.1673259190561345</v>
+        <v>1.1674781520455546</v>
       </c>
       <c r="AO5" s="22">
         <v>2</v>
@@ -50756,7 +50758,7 @@
       </c>
       <c r="C6" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2410714285714286</v>
+        <v>1.2321428571428572</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>244</v>
@@ -50766,7 +50768,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">16+D2-D1-112-51-112-112-112-112-112</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
@@ -50792,7 +50794,7 @@
       </c>
       <c r="N6" s="147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85073203567711786</v>
+        <v>0.85281668570794278</v>
       </c>
       <c r="O6" s="27">
         <v>7.1</v>
@@ -50858,35 +50860,35 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>12.155512312347987</v>
+        <v>12.157442323247517</v>
       </c>
       <c r="AH6" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>13.129453892105241</v>
+        <v>13.131538542136067</v>
       </c>
       <c r="AI6" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>4.915599132126637</v>
+        <v>4.9175291430261669</v>
       </c>
       <c r="AJ6" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>5.3094538921052425</v>
+        <v>5.3115385421360681</v>
       </c>
       <c r="AK6" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3419066688086616</v>
+        <v>4.3426304228959847</v>
       </c>
       <c r="AL6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>10.332453892105242</v>
+        <v>10.334538542136066</v>
       </c>
       <c r="AM6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.67085631136841939</v>
+        <v>0.67102308337088545</v>
       </c>
       <c r="AN6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.97106177244736691</v>
+        <v>0.97120769794952477</v>
       </c>
       <c r="AO6" s="22">
         <v>3</v>
@@ -50914,7 +50916,7 @@
       </c>
       <c r="C7" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7410714285714286</v>
+        <v>1.7321428571428572</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>247</v>
@@ -50924,7 +50926,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">8-659+D2-D1-112</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
@@ -50950,7 +50952,7 @@
       </c>
       <c r="N7" s="147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49504239939036226</v>
+        <v>0.49786668509877713</v>
       </c>
       <c r="O7" s="27">
         <v>7</v>
@@ -51016,35 +51018,35 @@
       <c r="AF7" s="10"/>
       <c r="AG7" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>14.7769180879322</v>
+        <v>14.779532868408552</v>
       </c>
       <c r="AH7" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.960895741583579</v>
+        <v>15.963720027291995</v>
       </c>
       <c r="AI7" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>6.2778895720201779</v>
+        <v>6.2805043524965285</v>
       </c>
       <c r="AJ7" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>6.7808957415835787</v>
+        <v>6.7837200272919933</v>
       </c>
       <c r="AK7" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3238908517736698</v>
+        <v>4.3248713944523018</v>
       </c>
       <c r="AL7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>11.303895741583577</v>
+        <v>11.306720027291993</v>
       </c>
       <c r="AM7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.58737165932668634</v>
+        <v>0.58759760218335955</v>
       </c>
       <c r="AN7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0792627019108505</v>
+        <v>1.0794604019104397</v>
       </c>
       <c r="AO7" s="22">
         <v>2</v>
@@ -51072,7 +51074,7 @@
       </c>
       <c r="C8" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8928571428571428</v>
+        <v>1.8839285714285714</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>246</v>
@@ -51082,7 +51084,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">8-659-17+D2-D1-112</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5">
@@ -51108,7 +51110,7 @@
       </c>
       <c r="N8" s="147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69663327920453078</v>
+        <v>0.6989653531549761</v>
       </c>
       <c r="O8" s="27">
         <v>7</v>
@@ -51172,35 +51174,35 @@
       <c r="AF8" s="10"/>
       <c r="AG8" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>16.837222845284362</v>
+        <v>16.839193807505922</v>
       </c>
       <c r="AH8" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>18.44425351620712</v>
+        <v>18.446412597144597</v>
       </c>
       <c r="AI8" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>4.176812109451185</v>
+        <v>4.1787830716727452</v>
       </c>
       <c r="AJ8" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5754684216143016</v>
+        <v>4.5776275025517794</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2031858157971653</v>
+        <v>4.2039249266302505</v>
       </c>
       <c r="AL8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.722070735705961</v>
+        <v>14.724402809656407</v>
       </c>
       <c r="AM8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.813765658856477</v>
+        <v>0.8139522247725125</v>
       </c>
       <c r="AN8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2045449514994173</v>
+        <v>1.2047081966759485</v>
       </c>
       <c r="AO8" s="22">
         <v>1</v>
@@ -51228,7 +51230,7 @@
       </c>
       <c r="C9" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42857142857142855</v>
+        <v>0.41964285714285715</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>243</v>
@@ -51238,7 +51240,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112-41-112-112-112</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
@@ -51266,7 +51268,7 @@
       </c>
       <c r="N9" s="147">
         <f ca="1">IF((TODAY()-M9)&gt;335,1,((TODAY()-M9)^0.64)/(336^0.64))</f>
-        <v>0.96537538102931275</v>
+        <v>0.9673171766915668</v>
       </c>
       <c r="O9" s="27">
         <v>6.9</v>
@@ -51331,35 +51333,35 @@
       <c r="AF9" s="10"/>
       <c r="AG9" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>13.416688588524345</v>
+        <v>13.418156448072695</v>
       </c>
       <c r="AH9" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>15.00031385844307</v>
+        <v>15.001954975308838</v>
       </c>
       <c r="AI9" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>10.8465301720616</v>
+        <v>10.847998031609952</v>
       </c>
       <c r="AJ9" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>12.126789392366115</v>
+        <v>12.128430509231883</v>
       </c>
       <c r="AK9" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.4432674848107192</v>
+        <v>3.4438179321413513</v>
       </c>
       <c r="AL9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>13.62561071161681</v>
+        <v>13.627552507279065</v>
       </c>
       <c r="AM9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81938885692934493</v>
+        <v>0.81954420058232513</v>
       </c>
       <c r="AN9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>1.197545606956034</v>
+        <v>1.1976815326523917</v>
       </c>
       <c r="AO9" s="22">
         <v>3</v>
@@ -51387,7 +51389,7 @@
       </c>
       <c r="C10" s="132">
         <f ca="1">((33*112)-(E10*112)-(F10))/112</f>
-        <v>1.1160714285714286</v>
+        <v>1.1071428571428572</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>416</v>
@@ -51397,7 +51399,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-112-30-112</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>190</v>
@@ -51425,7 +51427,7 @@
       </c>
       <c r="N10" s="147">
         <f ca="1">IF((TODAY()-M10)&gt;335,1,((TODAY()-M10)^0.64)/(336^0.64))</f>
-        <v>0.7059354862626166</v>
+        <v>0.70825026899523646</v>
       </c>
       <c r="O10" s="21">
         <v>7</v>
@@ -51491,35 +51493,35 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>10.546003723483466</v>
+        <v>10.548146795863932</v>
       </c>
       <c r="AH10" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>11.390985922723356</v>
+        <v>11.393300705455976</v>
       </c>
       <c r="AI10" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>15.767629086200657</v>
+        <v>15.769772158581121</v>
       </c>
       <c r="AJ10" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>17.030985922723357</v>
+        <v>17.033300705455975</v>
       </c>
       <c r="AK10" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0123579802921467</v>
+        <v>4.013161632434822</v>
       </c>
       <c r="AL10" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5209859227233551</v>
+        <v>8.5233007054559753</v>
       </c>
       <c r="AM10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.51961220715120182</v>
+        <v>0.51979738976981138</v>
       </c>
       <c r="AN10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.87136901459063476</v>
+        <v>0.87153104938191839</v>
       </c>
       <c r="AO10" s="22">
         <v>2</v>
@@ -51547,7 +51549,7 @@
       </c>
       <c r="C11" s="132">
         <f ca="1">((33*112)-(E11*112)-(F11))/112</f>
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>242</v>
@@ -51557,7 +51559,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">51+D2-D1-112-27-112+36+37-112-112+24-112-1-112-112-112</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -51585,7 +51587,7 @@
       </c>
       <c r="N11" s="147">
         <f ca="1">IF((TODAY()-M11)&gt;335,1,((TODAY()-M11)^0.64)/(336^0.64))</f>
-        <v>0.97312946000348366</v>
+        <v>0.97506255066494929</v>
       </c>
       <c r="O11" s="27">
         <v>6.9</v>
@@ -51652,35 +51654,35 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>15.77738063874563</v>
+        <v>15.779014398542943</v>
       </c>
       <c r="AH11" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>17.283254548372497</v>
+        <v>17.285044242561561</v>
       </c>
       <c r="AI11" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>13.982836437872084</v>
+        <v>13.984470197669397</v>
       </c>
       <c r="AJ11" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>15.317429869855451</v>
+        <v>15.319219564044515</v>
       </c>
       <c r="AK11" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9086648116759819</v>
+        <v>3.9092774715999741</v>
       </c>
       <c r="AL11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>14.091048525430066</v>
+        <v>14.09298161609153</v>
       </c>
       <c r="AM11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.81727721536773856</v>
+        <v>0.81743186262065581</v>
       </c>
       <c r="AN11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.82421437717226154</v>
+        <v>0.82434969351856391</v>
       </c>
       <c r="AO11" s="22">
         <v>1</v>
@@ -51708,7 +51710,7 @@
       </c>
       <c r="C12" s="132">
         <f ca="1">((33*112)-(E12*112)-(F12))/112</f>
-        <v>3.0267857142857144</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>248</v>
@@ -51718,7 +51720,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">8-659-32+D2-D1</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -51746,7 +51748,7 @@
       </c>
       <c r="N12" s="147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41492631106246303</v>
+        <v>0.41804388130271769</v>
       </c>
       <c r="O12" s="27">
         <v>7</v>
@@ -51812,35 +51814,35 @@
       <c r="AF12" s="10"/>
       <c r="AG12" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2028752972820094</v>
+        <v>2.2055101250349756</v>
       </c>
       <c r="AH12" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4131289833845102</v>
+        <v>2.4160152925753908</v>
       </c>
       <c r="AI12" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>12.241856568473919</v>
+        <v>12.244491396226884</v>
       </c>
       <c r="AJ12" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>13.410281976591902</v>
+        <v>13.413168285782783</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>2.1533812552783509</v>
+        <v>2.1543693156857131</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>3.0661438688545966</v>
+        <v>3.0692614390948512</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37179595395281217</v>
+        <v>0.37204535957203255</v>
       </c>
       <c r="AN12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18667562637537732</v>
+        <v>0.18689385629219518</v>
       </c>
       <c r="AO12" s="22">
         <v>1</v>
@@ -51868,7 +51870,7 @@
       </c>
       <c r="C13" s="132">
         <f ca="1">((33*112)-(E13*112)-(F13))/112</f>
-        <v>1.2857142857142858</v>
+        <v>1.2767857142857142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>249</v>
@@ -51878,7 +51880,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5">
@@ -51904,7 +51906,7 @@
       </c>
       <c r="N13" s="147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68961053266353356</v>
+        <v>0.69195590067854806</v>
       </c>
       <c r="O13" s="27">
         <v>7</v>
@@ -51970,35 +51972,35 @@
       <c r="AF13" s="10"/>
       <c r="AG13" s="25">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4423028694883584</v>
+        <v>8.4446482375033725</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4423028694883584</v>
+        <v>8.4446482375033725</v>
       </c>
       <c r="AI13" s="131">
         <f t="shared" ca="1" si="12"/>
-        <v>13.965030142215632</v>
+        <v>13.967375510230646</v>
       </c>
       <c r="AJ13" s="131">
         <f t="shared" ca="1" si="13"/>
-        <v>13.965030142215632</v>
+        <v>13.967375510230646</v>
       </c>
       <c r="AK13" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>3.3783635760581339</v>
+        <v>3.3792430890637646</v>
       </c>
       <c r="AL13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>6.6953028694883585</v>
+        <v>6.6976482375033717</v>
       </c>
       <c r="AM13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47088422955906867</v>
+        <v>0.47107185900026971</v>
       </c>
       <c r="AN13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46096120086418502</v>
+        <v>0.46112537662523606</v>
       </c>
       <c r="AO13" s="22">
         <v>3</v>
@@ -52026,7 +52028,7 @@
       </c>
       <c r="C14" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>6.25E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>241</v>
@@ -52036,7 +52038,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">-35+D2-D1-67-112-112-112+87-112-112-112</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>0</v>
@@ -52186,7 +52188,7 @@
       </c>
       <c r="C15" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9375</v>
+        <v>2.9285714285714284</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>188</v>
@@ -52196,7 +52198,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">-35+D2-D1-67-11-112-112-112-112-112-112</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>0</v>
@@ -52345,7 +52347,7 @@
       </c>
       <c r="C16" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>3.375</v>
+        <v>3.3660714285714284</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>73</v>
@@ -52355,7 +52357,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">62+D2-D1-112-112-112-112-112-112-112</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>74</v>
@@ -52506,7 +52508,7 @@
       </c>
       <c r="C17" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9196428571428572</v>
+        <v>2.9107142857142856</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -52516,7 +52518,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">1+D2-D1-112-112-112-112-112-112-112</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>45</v>
@@ -52666,7 +52668,7 @@
       </c>
       <c r="C18" s="132">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4107142857142856</v>
+        <v>3.4017857142857144</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -52676,7 +52678,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">58++D2-D1-112-112-112-112-112-112-112</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
@@ -52827,7 +52829,7 @@
       </c>
       <c r="C19" s="132">
         <f ca="1">((33*112)-(E19*112)-(F19))/112</f>
-        <v>15.821428571428571</v>
+        <v>15.8125</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>400</v>
@@ -52837,7 +52839,7 @@
       </c>
       <c r="F19" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-62</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>45</v>
@@ -52984,7 +52986,7 @@
       </c>
       <c r="C20" s="132">
         <f ca="1">((33*112)-(E20*112)-(F20))/112</f>
-        <v>15.785714285714286</v>
+        <v>15.776785714285714</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>419</v>
@@ -52994,7 +52996,7 @@
       </c>
       <c r="F20" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>402</v>
@@ -53022,7 +53024,7 @@
       </c>
       <c r="N20" s="147">
         <f ca="1">IF((TODAY()-M20)&gt;335,1,((TODAY()-M20)^0.64)/(336^0.64))</f>
-        <v>9.8595721295777455E-2</v>
+        <v>0.10547337971725297</v>
       </c>
       <c r="O20" s="21">
         <v>4.5</v>
@@ -53086,35 +53088,35 @@
       </c>
       <c r="AG20" s="25">
         <f t="shared" ref="AG20:AG21" ca="1" si="53">(AD20+1+(LOG(I20)*4/3)+N20)*(Q20/7)^0.5</f>
-        <v>0.92848284807966996</v>
+        <v>0.9342955303571493</v>
       </c>
       <c r="AH20" s="25">
         <f t="shared" ref="AH20:AH21" ca="1" si="54">(AD20+1+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>1.0171020002997548</v>
+        <v>1.0234694747057267</v>
       </c>
       <c r="AI20" s="131">
         <f t="shared" ref="AI20" ca="1" si="55">(Z20+N20+(LOG(I20)*4/3))*(Q20/7)^0.5</f>
-        <v>2.6187913575367028</v>
+        <v>2.6246040398141828</v>
       </c>
       <c r="AJ20" s="131">
         <f t="shared" ref="AJ20" ca="1" si="56">(Z20+N20+(LOG(I20)*4/3))*(IF(Q20=7, (Q20/7)^0.5, ((Q20+1)/7)^0.5))</f>
-        <v>2.8687421998448577</v>
+        <v>2.8751096742508295</v>
       </c>
       <c r="AK20" s="9">
         <f t="shared" ref="AK20" ca="1" si="57">(((Y20+LOG(I20)*4/3+N20)+(AB20+LOG(I20)*4/3+N20)*2)/8)*(Q20/7)^0.5</f>
-        <v>1.7638144447001414</v>
+        <v>1.7659942005541962</v>
       </c>
       <c r="AL20" s="9">
         <f t="shared" ref="AL20:AL21" ca="1" si="58">(AD20+LOG(I20)*4/3+N20)*0.7+(AC20+LOG(I20)*4/3+N20)*0.3</f>
-        <v>0.69859572129577741</v>
+        <v>0.70547337971725299</v>
       </c>
       <c r="AM20" s="9">
         <f t="shared" ref="AM20:AM21" ca="1" si="59">(0.5*(AC20+LOG(I20)*4/3+N20)+ 0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.1078876577036622</v>
+        <v>0.10843787037738024</v>
       </c>
       <c r="AN20" s="9">
         <f t="shared" ref="AN20:AN21" ca="1" si="60">(0.4*(Y20+LOG(I20)*4/3+N20)+0.3*(AD20+LOG(I20)*4/3+N20))/10</f>
-        <v>0.24690170049070442</v>
+        <v>0.24738313658020772</v>
       </c>
       <c r="AO20" s="22">
         <v>2</v>
@@ -53142,7 +53144,7 @@
       </c>
       <c r="C21" s="132">
         <f ca="1">((33*112)-(E21*112)-(F21))/112</f>
-        <v>15.821428571428571</v>
+        <v>15.8125</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>427</v>
@@ -53152,7 +53154,7 @@
       </c>
       <c r="F21" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31-25-4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>402</v>
@@ -53180,7 +53182,7 @@
       </c>
       <c r="N21" s="147">
         <f ca="1">IF((TODAY()-M21)&gt;335,1,((TODAY()-M21)^0.64)/(336^0.64))</f>
-        <v>7.6060585239192346E-2</v>
+        <v>8.394708266038052E-2</v>
       </c>
       <c r="O21" s="21">
         <v>4</v>
@@ -53243,35 +53245,35 @@
       </c>
       <c r="AG21" s="25">
         <f t="shared" ca="1" si="53"/>
-        <v>0.57021480644546696</v>
+        <v>0.57688011329588962</v>
       </c>
       <c r="AH21" s="25">
         <f t="shared" ca="1" si="54"/>
-        <v>0.62463902422724871</v>
+        <v>0.63194050205658925</v>
       </c>
       <c r="AI21" s="131">
         <f t="shared" ref="AI21" ca="1" si="61">(Z21+N21+(LOG(I21)*4/3))*(Q21/7)^0.5</f>
-        <v>3.9508318253595327</v>
+        <v>3.957497132209955</v>
       </c>
       <c r="AJ21" s="131">
         <f t="shared" ref="AJ21" ca="1" si="62">(Z21+N21+(LOG(I21)*4/3))*(IF(Q21=7, (Q21/7)^0.5, ((Q21+1)/7)^0.5))</f>
-        <v>4.3279194233174536</v>
+        <v>4.3352209011467941</v>
       </c>
       <c r="AK21" s="9">
         <f t="shared" ref="AK21" ca="1" si="63">(((Y21+LOG(I21)*4/3+N21)+(AB21+LOG(I21)*4/3+N21)*2)/8)*(Q21/7)^0.5</f>
-        <v>1.0589848071455665</v>
+        <v>1.0614842972144751</v>
       </c>
       <c r="AL21" s="9">
         <f t="shared" ca="1" si="58"/>
-        <v>0.5746872576872174</v>
+        <v>0.5825737551084057</v>
       </c>
       <c r="AM21" s="9">
         <f t="shared" ca="1" si="59"/>
-        <v>0.12397498061497739</v>
+        <v>0.12460590040867245</v>
       </c>
       <c r="AN21" s="9">
         <f t="shared" ca="1" si="60"/>
-        <v>9.7228108038105235E-2</v>
+        <v>9.7780162857588393E-2</v>
       </c>
       <c r="AO21" s="22">
         <v>2</v>
@@ -53299,7 +53301,7 @@
       </c>
       <c r="C22" s="132">
         <f ca="1">((33*112)-(E22*112)-(F22))/112</f>
-        <v>15.455357142857142</v>
+        <v>15.446428571428571</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>401</v>
@@ -53309,7 +53311,7 @@
       </c>
       <c r="F22" s="19">
         <f ca="1">8-159+16-570-5+D2-D1-2-19</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>402</v>
@@ -53337,7 +53339,7 @@
       </c>
       <c r="N22" s="147">
         <f ca="1">IF((TODAY()-M22)&gt;335,1,((TODAY()-M22)^0.64)/(336^0.64))</f>
-        <v>0.13672290211839563</v>
+        <v>0.14248844644448036</v>
       </c>
       <c r="O22" s="21">
         <v>5</v>
@@ -53401,35 +53403,35 @@
       </c>
       <c r="AG22" s="25">
         <f ca="1">(AD22+1+(LOG(I22)*4/3)+N22)*(Q22/7)^0.5</f>
-        <v>0.55587202885711329</v>
+        <v>0.56023037070275317</v>
       </c>
       <c r="AH22" s="25">
         <f ca="1">(AD22+1+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>0.62148382165761495</v>
+        <v>0.62635659597563154</v>
       </c>
       <c r="AI22" s="131">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(Q22/7)^0.5</f>
-        <v>4.3355167589493853</v>
+        <v>4.3398751007950249</v>
       </c>
       <c r="AJ22" s="131">
         <f ca="1">(Z22+N22+(LOG(I22)*4/3))*(IF(Q22=7, (Q22/7)^0.5, ((Q22+1)/7)^0.5))</f>
-        <v>4.8472550953001976</v>
+        <v>4.8521278696182142</v>
       </c>
       <c r="AK22" s="9">
         <f ca="1">(((Y22+LOG(I22)*4/3+N22)+(AB22+LOG(I22)*4/3+N22)*2)/8)*(Q22/7)^0.5</f>
-        <v>0.86988983858756519</v>
+        <v>0.87152421677968006</v>
       </c>
       <c r="AL22" s="9">
         <f ca="1">(AD22+LOG(I22)*4/3+N22)*0.7+(AC22+LOG(I22)*4/3+N22)*0.3</f>
-        <v>0.93534957456642076</v>
+        <v>0.94111511889250554</v>
       </c>
       <c r="AM22" s="9">
         <f ca="1">(0.5*(AC22+LOG(I22)*4/3+N22)+ 0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.17882796596531367</v>
+        <v>0.17928920951140043</v>
       </c>
       <c r="AN22" s="9">
         <f ca="1">(0.4*(Y22+LOG(I22)*4/3+N22)+0.3*(AD22+LOG(I22)*4/3+N22))/10</f>
-        <v>0.10147447021964946</v>
+        <v>0.10187805832247539</v>
       </c>
       <c r="AO22" s="22">
         <v>2</v>
@@ -53457,7 +53459,7 @@
       </c>
       <c r="C23" s="132">
         <f ca="1">((33*112)-(E23*112)-(F23))/112</f>
-        <v>15.839285714285714</v>
+        <v>15.830357142857142</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>406</v>
@@ -53467,7 +53469,7 @@
       </c>
       <c r="F23" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-62</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>0</v>
@@ -53495,7 +53497,7 @@
       </c>
       <c r="N23" s="147">
         <f ca="1">IF((TODAY()-M23)&gt;335,1,((TODAY()-M23)^0.64)/(336^0.64))</f>
-        <v>0.13672290211839563</v>
+        <v>0.14248844644448036</v>
       </c>
       <c r="O23" s="27">
         <v>5</v>
@@ -53559,35 +53561,35 @@
       </c>
       <c r="AG23" s="25">
         <f ca="1">(AD23+1+(LOG(I23)*4/3)+N23)*(Q23/7)^0.5</f>
-        <v>3.4961689613582592</v>
+        <v>3.5010417356762753</v>
       </c>
       <c r="AH23" s="25">
         <f ca="1">(AD23+1+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>3.8298612099706517</v>
+        <v>3.8351990667938707</v>
       </c>
       <c r="AI23" s="131">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(Q23/7)^0.5</f>
-        <v>1.8058604519012258</v>
+        <v>1.8107332262192419</v>
       </c>
       <c r="AJ23" s="131">
         <f ca="1">(Z23+N23+(LOG(I23)*4/3))*(IF(Q23=7, (Q23/7)^0.5, ((Q23+1)/7)^0.5))</f>
-        <v>1.9782210104255489</v>
+        <v>1.9835588672487674</v>
       </c>
       <c r="AK23" s="9">
         <f ca="1">(((Y23+LOG(I23)*4/3+N23)+(AB23+LOG(I23)*4/3+N23)*2)/8)*(Q23/7)^0.5</f>
-        <v>1.3638855014298794</v>
+        <v>1.3657127917991354</v>
       </c>
       <c r="AL23" s="9">
         <f ca="1">(AD23+LOG(I23)*4/3+N23)*0.7+(AC23+LOG(I23)*4/3+N23)*0.3</f>
-        <v>3.7367229021183954</v>
+        <v>3.7424884464444803</v>
       </c>
       <c r="AM23" s="9">
         <f ca="1">(0.5*(AC23+LOG(I23)*4/3+N23)+ 0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.35093783216947166</v>
+        <v>0.3513990757155584</v>
       </c>
       <c r="AN23" s="9">
         <f ca="1">(0.4*(Y23+LOG(I23)*4/3+N23)+0.3*(AD23+LOG(I23)*4/3+N23))/10</f>
-        <v>0.25957060314828773</v>
+        <v>0.25997419125111365</v>
       </c>
       <c r="AO23" s="22">
         <v>1</v>
@@ -53615,7 +53617,7 @@
       </c>
       <c r="C24" s="132">
         <f t="shared" ref="C24" ca="1" si="64">((33*112)-(E24*112)-(F24))/112</f>
-        <v>15.821428571428571</v>
+        <v>15.8125</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>407</v>
@@ -53625,7 +53627,7 @@
       </c>
       <c r="F24" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-60</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>402</v>
@@ -53653,7 +53655,7 @@
       </c>
       <c r="N24" s="147">
         <f t="shared" ref="N24" ca="1" si="68">IF((TODAY()-M24)&gt;335,1,((TODAY()-M24)^0.64)/(336^0.64))</f>
-        <v>0.13672290211839563</v>
+        <v>0.14248844644448036</v>
       </c>
       <c r="O24" s="27">
         <v>5</v>
@@ -53717,35 +53719,35 @@
       </c>
       <c r="AG24" s="25">
         <f ca="1">(AD24+1+(LOG(I24)*4/3)+N24)*(Q24/7)^0.5</f>
-        <v>0.96070619717270911</v>
+        <v>0.96557897149072558</v>
       </c>
       <c r="AH24" s="25">
         <f ca="1">(AD24+1+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>1.0524009106529972</v>
+        <v>1.0577387674762162</v>
       </c>
       <c r="AI24" s="131">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(Q24/7)^0.5</f>
-        <v>2.6510147066297423</v>
+        <v>2.6558874809477584</v>
       </c>
       <c r="AJ24" s="131">
         <f ca="1">(Z24+N24+(LOG(I24)*4/3))*(IF(Q24=7, (Q24/7)^0.5, ((Q24+1)/7)^0.5))</f>
-        <v>2.9040411101981003</v>
+        <v>2.9093789670213188</v>
       </c>
       <c r="AK24" s="9">
         <f ca="1">(((Y24+LOG(I24)*4/3+N24)+(AB24+LOG(I24)*4/3+N24)*2)/8)*(Q24/7)^0.5</f>
-        <v>1.0750117771636725</v>
+        <v>1.0768390675329285</v>
       </c>
       <c r="AL24" s="9">
         <f ca="1">(AD24+LOG(I24)*4/3+N24)*0.7+(AC24+LOG(I24)*4/3+N24)*0.3</f>
-        <v>1.0367229021183957</v>
+        <v>1.0424884464444804</v>
       </c>
       <c r="AM24" s="9">
         <f ca="1">(0.5*(AC24+LOG(I24)*4/3+N24)+ 0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.16093783216947166</v>
+        <v>0.16139907571555842</v>
       </c>
       <c r="AN24" s="9">
         <f ca="1">(0.4*(Y24+LOG(I24)*4/3+N24)+0.3*(AD24+LOG(I24)*4/3+N24))/10</f>
-        <v>0.20957060314828771</v>
+        <v>0.20997419125111363</v>
       </c>
       <c r="AO24" s="22">
         <v>3</v>
@@ -53773,7 +53775,7 @@
       </c>
       <c r="C25" s="132">
         <f t="shared" ref="C25" ca="1" si="74">((33*112)-(E25*112)-(F25))/112</f>
-        <v>15.75</v>
+        <v>15.741071428571429</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>413</v>
@@ -53783,7 +53785,7 @@
       </c>
       <c r="F25" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>45</v>
@@ -53811,7 +53813,7 @@
       </c>
       <c r="N25" s="147">
         <f t="shared" ref="N25" ca="1" si="78">IF((TODAY()-M25)&gt;335,1,((TODAY()-M25)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O25" s="21">
         <v>5</v>
@@ -53875,35 +53877,35 @@
       </c>
       <c r="AG25" s="25">
         <f t="shared" ref="AG25" ca="1" si="84">(AD25+1+(LOG(I25)*4/3)+N25)*(Q25/7)^0.5</f>
-        <v>1.3073366736813501</v>
+        <v>1.3118009748755677</v>
       </c>
       <c r="AH25" s="25">
         <f t="shared" ref="AH25" ca="1" si="85">(AD25+1+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4616468359149792</v>
+        <v>1.4666380763861318</v>
       </c>
       <c r="AI25" s="131">
         <f t="shared" ref="AI25" ca="1" si="86">(Z25+N25+(LOG(I25)*4/3))*(Q25/7)^0.5</f>
-        <v>1.3073366736813499</v>
+        <v>1.3118009748755679</v>
       </c>
       <c r="AJ25" s="131">
         <f t="shared" ref="AJ25" ca="1" si="87">(Z25+N25+(LOG(I25)*4/3))*(IF(Q25=7, (Q25/7)^0.5, ((Q25+1)/7)^0.5))</f>
-        <v>1.4616468359149792</v>
+        <v>1.4666380763861318</v>
       </c>
       <c r="AK25" s="9">
         <f t="shared" ref="AK25" ca="1" si="88">(((Y25+LOG(I25)*4/3+N25)+(AB25+LOG(I25)*4/3+N25)*2)/8)*(Q25/7)^0.5</f>
-        <v>0.92302057422607131</v>
+        <v>0.92469468717390313</v>
       </c>
       <c r="AL25" s="9">
         <f t="shared" ref="AL25" ca="1" si="89">(AD25+LOG(I25)*4/3+N25)*0.7+(AC25+LOG(I25)*4/3+N25)*0.3</f>
-        <v>1.6294438591976264</v>
+        <v>1.6353495745664208</v>
       </c>
       <c r="AM25" s="9">
         <f t="shared" ref="AM25" ca="1" si="90">(0.5*(AC25+LOG(I25)*4/3+N25)+ 0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.20835550873581013</v>
+        <v>0.20882796596531367</v>
       </c>
       <c r="AN25" s="9">
         <f t="shared" ref="AN25" ca="1" si="91">(0.4*(Y25+LOG(I25)*4/3+N25)+0.3*(AD25+LOG(I25)*4/3+N25))/10</f>
-        <v>0.17106107014383384</v>
+        <v>0.17147447021964948</v>
       </c>
       <c r="AO25" s="22">
         <v>3</v>
@@ -53931,7 +53933,7 @@
       </c>
       <c r="C26" s="132">
         <f t="shared" ref="C26" ca="1" si="93">((33*112)-(E26*112)-(F26))/112</f>
-        <v>15.455357142857142</v>
+        <v>15.446428571428571</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>415</v>
@@ -53941,7 +53943,7 @@
       </c>
       <c r="F26" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>74</v>
@@ -53969,7 +53971,7 @@
       </c>
       <c r="N26" s="147">
         <f t="shared" ref="N26" ca="1" si="97">IF((TODAY()-M26)&gt;335,1,((TODAY()-M26)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O26" s="21">
         <v>5</v>
@@ -54033,35 +54035,35 @@
       </c>
       <c r="AG26" s="25">
         <f t="shared" ref="AG26" ca="1" si="103">(AD26+1+(LOG(I26)*4/3)+N26)*(Q26/7)^0.5</f>
-        <v>0.67533378650082143</v>
+        <v>0.68080141649278691</v>
       </c>
       <c r="AH26" s="25">
         <f t="shared" ref="AH26" ca="1" si="104">(AD26+1+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>0.72944385919762644</v>
+        <v>0.73534957456642069</v>
       </c>
       <c r="AI26" s="131">
         <f t="shared" ref="AI26" ca="1" si="105">(Z26+N26+(LOG(I26)*4/3))*(Q26/7)^0.5</f>
-        <v>1.6011538862733727</v>
+        <v>1.6066215162653386</v>
       </c>
       <c r="AJ26" s="131">
         <f t="shared" ref="AJ26" ca="1" si="106">(Z26+N26+(LOG(I26)*4/3))*(IF(Q26=7, (Q26/7)^0.5, ((Q26+1)/7)^0.5))</f>
-        <v>1.7294438591976262</v>
+        <v>1.7353495745664209</v>
       </c>
       <c r="AK26" s="9">
         <f t="shared" ref="AK26" ca="1" si="107">(((Y26+LOG(I26)*4/3+N26)+(AB26+LOG(I26)*4/3+N26)*2)/8)*(Q26/7)^0.5</f>
-        <v>1.5262528071250658</v>
+        <v>1.5283031683720532</v>
       </c>
       <c r="AL26" s="9">
         <f t="shared" ref="AL26" ca="1" si="108">(AD26+LOG(I26)*4/3+N26)*0.7+(AC26+LOG(I26)*4/3+N26)*0.3</f>
-        <v>1.529443859197626</v>
+        <v>1.5353495745664205</v>
       </c>
       <c r="AM26" s="9">
         <f t="shared" ref="AM26" ca="1" si="109">(0.5*(AC26+LOG(I26)*4/3+N26)+ 0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.27835550873581011</v>
+        <v>0.27882796596531362</v>
       </c>
       <c r="AN26" s="9">
         <f t="shared" ref="AN26" ca="1" si="110">(0.4*(Y26+LOG(I26)*4/3+N26)+0.3*(AD26+LOG(I26)*4/3+N26))/10</f>
-        <v>0.18106107014383382</v>
+        <v>0.18147447021964946</v>
       </c>
       <c r="AO26" s="22">
         <v>2</v>
@@ -54089,7 +54091,7 @@
       </c>
       <c r="C27" s="132">
         <f ca="1">((33*112)-(E27*112)-(F27))/112</f>
-        <v>15.392857142857142</v>
+        <v>15.383928571428571</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>411</v>
@@ -54099,7 +54101,7 @@
       </c>
       <c r="F27" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>74</v>
@@ -54127,7 +54129,7 @@
       </c>
       <c r="N27" s="147">
         <f ca="1">IF((TODAY()-M27)&gt;335,1,((TODAY()-M27)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O27" s="27">
         <v>5.5</v>
@@ -54191,35 +54193,35 @@
       </c>
       <c r="AG27" s="25">
         <f ca="1">(AD27+1+(LOG(I27)*4/3)+N27)*(Q27/7)^0.5</f>
-        <v>3.1519553453720124</v>
+        <v>3.1569465858431651</v>
       </c>
       <c r="AH27" s="25">
         <f ca="1">(AD27+1+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4527940858184754</v>
+        <v>3.4582617158104414</v>
       </c>
       <c r="AI27" s="131">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(Q27/7)^0.5</f>
-        <v>3.1519553453720124</v>
+        <v>3.1569465858431651</v>
       </c>
       <c r="AJ27" s="131">
         <f ca="1">(Z27+N27+(LOG(I27)*4/3))*(IF(Q27=7, (Q27/7)^0.5, ((Q27+1)/7)^0.5))</f>
-        <v>3.4527940858184754</v>
+        <v>3.4582617158104414</v>
       </c>
       <c r="AK27" s="9">
         <f ca="1">(((Y27+LOG(I27)*4/3+N27)+(AB27+LOG(I27)*4/3+N27)*2)/8)*(Q27/7)^0.5</f>
-        <v>1.1931392906769211</v>
+        <v>1.1950110058536032</v>
       </c>
       <c r="AL27" s="9">
         <f ca="1">(AD27+LOG(I27)*4/3+N27)*0.7+(AC27+LOG(I27)*4/3+N27)*0.3</f>
-        <v>2.7294438591976262</v>
+        <v>2.7353495745664209</v>
       </c>
       <c r="AM27" s="9">
         <f ca="1">(0.5*(AC27+LOG(I27)*4/3+N27)+ 0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.21835550873581008</v>
+        <v>0.21882796596531368</v>
       </c>
       <c r="AN27" s="9">
         <f ca="1">(0.4*(Y27+LOG(I27)*4/3+N27)+0.3*(AD27+LOG(I27)*4/3+N27))/10</f>
-        <v>0.31106107014383383</v>
+        <v>0.31147447021964947</v>
       </c>
       <c r="AO27" s="22">
         <v>2</v>
@@ -54247,7 +54249,7 @@
       </c>
       <c r="C28" s="132">
         <f ca="1">((33*112)-(E28*112)-(F28))/112</f>
-        <v>15.5625</v>
+        <v>15.553571428571429</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>409</v>
@@ -54257,7 +54259,7 @@
       </c>
       <c r="F28" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-31</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>0</v>
@@ -54285,7 +54287,7 @@
       </c>
       <c r="N28" s="147">
         <f ca="1">IF((TODAY()-M28)&gt;335,1,((TODAY()-M28)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O28" s="27">
         <v>5</v>
@@ -54349,35 +54351,35 @@
       </c>
       <c r="AG28" s="25">
         <f ca="1">(AD28+1+(LOG(I28)*4/3)+N28)*(Q28/7)^0.5</f>
-        <v>2.3068010906434959</v>
+        <v>2.3117923311146482</v>
       </c>
       <c r="AH28" s="25">
         <f ca="1">(AD28+1+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>2.5269739860459239</v>
+        <v>2.53244161603789</v>
       </c>
       <c r="AI28" s="131">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(Q28/7)^0.5</f>
-        <v>3.9971096001005288</v>
+        <v>4.0021008405716811</v>
       </c>
       <c r="AJ28" s="131">
         <f ca="1">(Z28+N28+(LOG(I28)*4/3))*(IF(Q28=7, (Q28/7)^0.5, ((Q28+1)/7)^0.5))</f>
-        <v>4.3786141855910268</v>
+        <v>4.3840818155829924</v>
       </c>
       <c r="AK28" s="9">
         <f ca="1">(((Y28+LOG(I28)*4/3+N28)+(AB28+LOG(I28)*4/3+N28)*2)/8)*(Q28/7)^0.5</f>
-        <v>0.57042963579295014</v>
+        <v>0.57230135096963219</v>
       </c>
       <c r="AL28" s="9">
         <f ca="1">(AD28+LOG(I28)*4/3+N28)*0.7+(AC28+LOG(I28)*4/3+N28)*0.3</f>
-        <v>2.6294438591976261</v>
+        <v>2.6353495745664204</v>
       </c>
       <c r="AM28" s="9">
         <f ca="1">(0.5*(AC28+LOG(I28)*4/3+N28)+ 0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.28835550873581006</v>
+        <v>0.28882796596531363</v>
       </c>
       <c r="AN28" s="9">
         <f ca="1">(0.4*(Y28+LOG(I28)*4/3+N28)+0.3*(AD28+LOG(I28)*4/3+N28))/10</f>
-        <v>0.12106107014383385</v>
+        <v>0.12147447021964944</v>
       </c>
       <c r="AO28" s="22">
         <v>4</v>
@@ -54405,7 +54407,7 @@
       </c>
       <c r="C29" s="132">
         <f t="shared" ref="C29" ca="1" si="112">((33*112)-(E29*112)-(F29))/112</f>
-        <v>15.848214285714286</v>
+        <v>15.839285714285714</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>414</v>
@@ -54415,7 +54417,7 @@
       </c>
       <c r="F29" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>402</v>
@@ -54443,7 +54445,7 @@
       </c>
       <c r="N29" s="147">
         <f t="shared" ref="N29" ca="1" si="116">IF((TODAY()-M29)&gt;335,1,((TODAY()-M29)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O29" s="21">
         <v>4.2</v>
@@ -54507,35 +54509,35 @@
       </c>
       <c r="AG29" s="25">
         <f t="shared" ref="AG29" ca="1" si="122">(AD29+1+(LOG(I29)*4/3)+N29)*(Q29/7)^0.5</f>
-        <v>1.4616468359149795</v>
+        <v>1.4666380763861315</v>
       </c>
       <c r="AH29" s="25">
         <f t="shared" ref="AH29" ca="1" si="123">(AD29+1+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.6011538862733727</v>
+        <v>1.6066215162653386</v>
       </c>
       <c r="AI29" s="131">
         <f t="shared" ref="AI29" ca="1" si="124">(Z29+N29+(LOG(I29)*4/3))*(Q29/7)^0.5</f>
-        <v>1.4616468359149792</v>
+        <v>1.4666380763861318</v>
       </c>
       <c r="AJ29" s="131">
         <f t="shared" ref="AJ29" ca="1" si="125">(Z29+N29+(LOG(I29)*4/3))*(IF(Q29=7, (Q29/7)^0.5, ((Q29+1)/7)^0.5))</f>
-        <v>1.6011538862733727</v>
+        <v>1.6066215162653386</v>
       </c>
       <c r="AK29" s="9">
         <f t="shared" ref="AK29" ca="1" si="126">(((Y29+LOG(I29)*4/3+N29)+(AB29+LOG(I29)*4/3+N29)*2)/8)*(Q29/7)^0.5</f>
-        <v>0.97942795146457018</v>
+        <v>0.98129966664125234</v>
       </c>
       <c r="AL29" s="9">
         <f t="shared" ref="AL29" ca="1" si="127">(AD29+LOG(I29)*4/3+N29)*0.7+(AC29+LOG(I29)*4/3+N29)*0.3</f>
-        <v>1.9294438591976262</v>
+        <v>1.9353495745664206</v>
       </c>
       <c r="AM29" s="9">
         <f t="shared" ref="AM29" ca="1" si="128">(0.5*(AC29+LOG(I29)*4/3+N29)+ 0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.25835550873581009</v>
+        <v>0.25882796596531366</v>
       </c>
       <c r="AN29" s="9">
         <f t="shared" ref="AN29" ca="1" si="129">(0.4*(Y29+LOG(I29)*4/3+N29)+0.3*(AD29+LOG(I29)*4/3+N29))/10</f>
-        <v>0.17106107014383384</v>
+        <v>0.17147447021964948</v>
       </c>
       <c r="AO29" s="22">
         <v>1</v>
@@ -54563,7 +54565,7 @@
       </c>
       <c r="C30" s="132">
         <f t="shared" ref="C30" ca="1" si="131">((33*112)-(E30*112)-(F30))/112</f>
-        <v>15.8125</v>
+        <v>15.803571428571429</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>417</v>
@@ -54573,7 +54575,7 @@
       </c>
       <c r="F30" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49+9-11+44-40</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>190</v>
@@ -54601,7 +54603,7 @@
       </c>
       <c r="N30" s="147">
         <f t="shared" ref="N30" ca="1" si="135">IF((TODAY()-M30)&gt;335,1,((TODAY()-M30)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O30" s="21">
         <v>4.2</v>
@@ -54665,35 +54667,35 @@
       </c>
       <c r="AG30" s="25">
         <f t="shared" ref="AG30" ca="1" si="141">(AD30+1+(LOG(I30)*4/3)+N30)*(Q30/7)^0.5</f>
-        <v>1.0469332806610319</v>
+        <v>1.0524009106529972</v>
       </c>
       <c r="AH30" s="25">
         <f t="shared" ref="AH30" ca="1" si="142">(AD30+1+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>1.1308171867496013</v>
+        <v>1.1367229021183956</v>
       </c>
       <c r="AI30" s="131">
         <f t="shared" ref="AI30" ca="1" si="143">(Z30+N30+(LOG(I30)*4/3))*(Q30/7)^0.5</f>
-        <v>3.8243935799786857</v>
+        <v>3.8298612099706517</v>
       </c>
       <c r="AJ30" s="131">
         <f t="shared" ref="AJ30" ca="1" si="144">(Z30+N30+(LOG(I30)*4/3))*(IF(Q30=7, (Q30/7)^0.5, ((Q30+1)/7)^0.5))</f>
-        <v>4.1308171867496011</v>
+        <v>4.1367229021183958</v>
       </c>
       <c r="AK30" s="9">
         <f t="shared" ref="AK30" ca="1" si="145">(((Y30+LOG(I30)*4/3+N30)+(AB30+LOG(I30)*4/3+N30)*2)/8)*(Q30/7)^0.5</f>
-        <v>1.4923199554277158</v>
+        <v>1.4943703166747029</v>
       </c>
       <c r="AL30" s="9">
         <f t="shared" ref="AL30" ca="1" si="146">(AD30+LOG(I30)*4/3+N30)*0.7+(AC30+LOG(I30)*4/3+N30)*0.3</f>
-        <v>1.030817186749601</v>
+        <v>1.0367229021183957</v>
       </c>
       <c r="AM30" s="9">
         <f t="shared" ref="AM30" ca="1" si="147">(0.5*(AC30+LOG(I30)*4/3+N30)+ 0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.1604653749399681</v>
+        <v>0.16093783216947166</v>
       </c>
       <c r="AN30" s="9">
         <f t="shared" ref="AN30" ca="1" si="148">(0.4*(Y30+LOG(I30)*4/3+N30)+0.3*(AD30+LOG(I30)*4/3+N30))/10</f>
-        <v>0.16915720307247209</v>
+        <v>0.1695706031482877</v>
       </c>
       <c r="AO30" s="22">
         <v>1</v>
@@ -54721,7 +54723,7 @@
       </c>
       <c r="C31" s="132">
         <f t="shared" ref="C31" ca="1" si="150">((33*112)-(E31*112)-(F31))/112</f>
-        <v>15.830357142857142</v>
+        <v>15.821428571428571</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>412</v>
@@ -54731,7 +54733,7 @@
       </c>
       <c r="F31" s="3">
         <f ca="1">8-159+16-570-5+D2-D1-2-12-49</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>190</v>
@@ -54759,7 +54761,7 @@
       </c>
       <c r="N31" s="147">
         <f t="shared" ref="N31" ca="1" si="154">IF((TODAY()-M31)&gt;335,1,((TODAY()-M31)^0.64)/(336^0.64))</f>
-        <v>0.13081718674960124</v>
+        <v>0.13672290211839563</v>
       </c>
       <c r="O31" s="21">
         <v>4.2</v>
@@ -54823,35 +54825,35 @@
       </c>
       <c r="AG31" s="25">
         <f t="shared" ref="AG31" ca="1" si="160">(AD31+1+(LOG(I31)*4/3)+N31)*(Q31/7)^0.5</f>
-        <v>1.4616468359149795</v>
+        <v>1.4666380763861315</v>
       </c>
       <c r="AH31" s="25">
         <f t="shared" ref="AH31" ca="1" si="161">(AD31+1+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>1.6011538862733727</v>
+        <v>1.6066215162653386</v>
       </c>
       <c r="AI31" s="131">
         <f t="shared" ref="AI31" ca="1" si="162">(Z31+N31+(LOG(I31)*4/3))*(Q31/7)^0.5</f>
-        <v>3.1519553453720124</v>
+        <v>3.1569465858431651</v>
       </c>
       <c r="AJ31" s="131">
         <f t="shared" ref="AJ31" ca="1" si="163">(Z31+N31+(LOG(I31)*4/3))*(IF(Q31=7, (Q31/7)^0.5, ((Q31+1)/7)^0.5))</f>
-        <v>3.4527940858184754</v>
+        <v>3.4582617158104414</v>
       </c>
       <c r="AK31" s="9">
         <f t="shared" ref="AK31" ca="1" si="164">(((Y31+LOG(I31)*4/3+N31)+(AB31+LOG(I31)*4/3+N31)*2)/8)*(Q31/7)^0.5</f>
-        <v>0.8682432139536187</v>
+        <v>0.87011492913030075</v>
       </c>
       <c r="AL31" s="9">
         <f t="shared" ref="AL31" ca="1" si="165">(AD31+LOG(I31)*4/3+N31)*0.7+(AC31+LOG(I31)*4/3+N31)*0.3</f>
-        <v>1.6294438591976264</v>
+        <v>1.6353495745664208</v>
       </c>
       <c r="AM31" s="9">
         <f t="shared" ref="AM31" ca="1" si="166">(0.5*(AC31+LOG(I31)*4/3+N31)+ 0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.20835550873581013</v>
+        <v>0.20882796596531367</v>
       </c>
       <c r="AN31" s="9">
         <f t="shared" ref="AN31" ca="1" si="167">(0.4*(Y31+LOG(I31)*4/3+N31)+0.3*(AD31+LOG(I31)*4/3+N31))/10</f>
-        <v>0.13106107014383384</v>
+        <v>0.13147447021964948</v>
       </c>
       <c r="AO31" s="22">
         <v>1</v>
@@ -55637,7 +55639,7 @@
       </c>
       <c r="C3" s="36">
         <f ca="1">PLANTILLA!F4</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="69">
         <f>PLANTILLA!G4</f>
@@ -55970,7 +55972,7 @@
       </c>
       <c r="C4" s="36">
         <f ca="1">PLANTILLA!F5</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="69" t="str">
         <f>PLANTILLA!G5</f>
@@ -56303,7 +56305,7 @@
       </c>
       <c r="C5" s="36">
         <f ca="1">PLANTILLA!F6</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="69">
         <f>PLANTILLA!G6</f>
@@ -56636,7 +56638,7 @@
       </c>
       <c r="C6" s="36">
         <f ca="1">PLANTILLA!F10</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="69" t="str">
         <f>PLANTILLA!G10</f>
@@ -56969,7 +56971,7 @@
       </c>
       <c r="C7" s="36">
         <f ca="1">PLANTILLA!F8</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="69">
         <f>PLANTILLA!G8</f>
@@ -57302,7 +57304,7 @@
       </c>
       <c r="C8" s="36">
         <f ca="1">PLANTILLA!F9</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="69" t="str">
         <f>PLANTILLA!G9</f>
@@ -57635,7 +57637,7 @@
       </c>
       <c r="C9" s="36">
         <f ca="1">PLANTILLA!F11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="69" t="str">
         <f>PLANTILLA!G11</f>
@@ -57968,7 +57970,7 @@
       </c>
       <c r="C10" s="36">
         <f ca="1">PLANTILLA!F13</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="69">
         <f>PLANTILLA!G13</f>
@@ -58301,7 +58303,7 @@
       </c>
       <c r="C11" s="36">
         <f ca="1">PLANTILLA!F14</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="69" t="str">
         <f>PLANTILLA!G14</f>
@@ -58634,7 +58636,7 @@
       </c>
       <c r="C12" s="36">
         <f ca="1">PLANTILLA!F12</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="69" t="str">
         <f>PLANTILLA!G12</f>
@@ -58967,7 +58969,7 @@
       </c>
       <c r="C13" s="36">
         <f ca="1">PLANTILLA!F15</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="69" t="str">
         <f>PLANTILLA!G15</f>
@@ -59300,7 +59302,7 @@
       </c>
       <c r="C14" s="36">
         <f ca="1">PLANTILLA!F16</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="69" t="str">
         <f>PLANTILLA!G16</f>
@@ -59633,7 +59635,7 @@
       </c>
       <c r="C15" s="36">
         <f ca="1">PLANTILLA!F17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="69" t="str">
         <f>PLANTILLA!G17</f>
@@ -59966,7 +59968,7 @@
       </c>
       <c r="C16" s="36">
         <f ca="1">PLANTILLA!F18</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="69" t="str">
         <f>PLANTILLA!G18</f>
@@ -60299,7 +60301,7 @@
       </c>
       <c r="C17" s="36">
         <f ca="1">PLANTILLA!F19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="242" t="str">
         <f>PLANTILLA!G19</f>
@@ -60632,7 +60634,7 @@
       </c>
       <c r="C18" s="36">
         <f ca="1">PLANTILLA!F20</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="242" t="str">
         <f>PLANTILLA!G20</f>
@@ -60965,7 +60967,7 @@
       </c>
       <c r="C19" s="36">
         <f ca="1">PLANTILLA!F21</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="242" t="str">
         <f>PLANTILLA!G21</f>
@@ -61298,7 +61300,7 @@
       </c>
       <c r="C20" s="36">
         <f ca="1">PLANTILLA!F22</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="242" t="str">
         <f>PLANTILLA!G22</f>
@@ -61631,7 +61633,7 @@
       </c>
       <c r="C21" s="36">
         <f ca="1">PLANTILLA!F23</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="242" t="str">
         <f>PLANTILLA!G23</f>
@@ -61964,7 +61966,7 @@
       </c>
       <c r="C22" s="36">
         <f ca="1">PLANTILLA!F24</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="242" t="str">
         <f>PLANTILLA!G24</f>
@@ -62297,7 +62299,7 @@
       </c>
       <c r="C23" s="36">
         <f ca="1">PLANTILLA!F25</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="242" t="str">
         <f>PLANTILLA!G25</f>
@@ -62630,7 +62632,7 @@
       </c>
       <c r="C24" s="36">
         <f ca="1">PLANTILLA!F26</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="242" t="str">
         <f>PLANTILLA!G26</f>
@@ -62963,7 +62965,7 @@
       </c>
       <c r="C25" s="36">
         <f ca="1">PLANTILLA!F27</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="242" t="str">
         <f>PLANTILLA!G27</f>
@@ -63296,7 +63298,7 @@
       </c>
       <c r="C26" s="36">
         <f ca="1">PLANTILLA!F28</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="242" t="str">
         <f>PLANTILLA!G28</f>
@@ -63629,7 +63631,7 @@
       </c>
       <c r="C27" s="36">
         <f ca="1">PLANTILLA!F29</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="242" t="str">
         <f>PLANTILLA!G29</f>
@@ -63962,7 +63964,7 @@
       </c>
       <c r="C28" s="36">
         <f ca="1">PLANTILLA!F30</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="242" t="str">
         <f>PLANTILLA!G30</f>
@@ -64295,7 +64297,7 @@
       </c>
       <c r="C29" s="36">
         <f ca="1">PLANTILLA!F31</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="242" t="str">
         <f>PLANTILLA!G31</f>
@@ -71347,7 +71349,7 @@
       <c r="C2" s="161"/>
       <c r="D2" s="162">
         <f ca="1">TODAY()</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="163"/>
@@ -71668,7 +71670,7 @@
       </c>
       <c r="C4" s="132">
         <f ca="1">PLANTILLA!C4</f>
-        <v>2.7767857142857144</v>
+        <v>2.7678571428571428</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>PLANTILLA!D4</f>
@@ -71680,7 +71682,7 @@
       </c>
       <c r="F4" s="19">
         <f ca="1">PLANTILLA!F4</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="20">
         <f>PLANTILLA!G4</f>
@@ -71763,7 +71765,7 @@
       </c>
       <c r="AB4" s="179">
         <f t="shared" ref="AB4:AB18" ca="1" si="5">F4+7</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="27">
         <f t="shared" ref="AC4:AC18" si="6">I4+$AC$2</f>
@@ -71903,7 +71905,7 @@
       </c>
       <c r="C5" s="132">
         <f ca="1">PLANTILLA!C5</f>
-        <v>1.0446428571428572</v>
+        <v>1.0357142857142858</v>
       </c>
       <c r="D5" s="31" t="str">
         <f>PLANTILLA!D5</f>
@@ -71915,7 +71917,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1">PLANTILLA!F5</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="20" t="str">
         <f>PLANTILLA!G5</f>
@@ -71997,7 +71999,7 @@
       </c>
       <c r="AB5" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC5" s="27">
         <f t="shared" si="6"/>
@@ -72141,7 +72143,7 @@
       </c>
       <c r="C6" s="132">
         <f ca="1">PLANTILLA!C6</f>
-        <v>1.2410714285714286</v>
+        <v>1.2321428571428572</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>PLANTILLA!D6</f>
@@ -72153,7 +72155,7 @@
       </c>
       <c r="F6" s="3">
         <f ca="1">PLANTILLA!F6</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="4">
         <f>PLANTILLA!G6</f>
@@ -72235,7 +72237,7 @@
       </c>
       <c r="AB6" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="27">
         <f t="shared" si="6"/>
@@ -72379,7 +72381,7 @@
       </c>
       <c r="C7" s="132">
         <f ca="1">PLANTILLA!C7</f>
-        <v>1.7410714285714286</v>
+        <v>1.7321428571428572</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>PLANTILLA!D7</f>
@@ -72391,7 +72393,7 @@
       </c>
       <c r="F7" s="3">
         <f ca="1">PLANTILLA!F7</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4">
         <f>PLANTILLA!G7</f>
@@ -72473,7 +72475,7 @@
       </c>
       <c r="AB7" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="27">
         <f t="shared" si="6"/>
@@ -72602,7 +72604,7 @@
       </c>
       <c r="C8" s="132">
         <f ca="1">PLANTILLA!C8</f>
-        <v>1.8928571428571428</v>
+        <v>1.8839285714285714</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>PLANTILLA!D8</f>
@@ -72614,7 +72616,7 @@
       </c>
       <c r="F8" s="3">
         <f ca="1">PLANTILLA!F8</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4">
         <f>PLANTILLA!G8</f>
@@ -72696,7 +72698,7 @@
       </c>
       <c r="AB8" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="6"/>
@@ -72824,7 +72826,7 @@
       </c>
       <c r="C9" s="132">
         <f ca="1">PLANTILLA!C9</f>
-        <v>0.42857142857142855</v>
+        <v>0.41964285714285715</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>PLANTILLA!D9</f>
@@ -72836,7 +72838,7 @@
       </c>
       <c r="F9" s="3">
         <f ca="1">PLANTILLA!F9</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>PLANTILLA!G9</f>
@@ -72918,7 +72920,7 @@
       </c>
       <c r="AB9" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" s="27">
         <f t="shared" si="6"/>
@@ -73050,7 +73052,7 @@
       </c>
       <c r="C10" s="132">
         <f ca="1">PLANTILLA!C10</f>
-        <v>1.1160714285714286</v>
+        <v>1.1071428571428572</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>PLANTILLA!D10</f>
@@ -73062,7 +73064,7 @@
       </c>
       <c r="F10" s="3">
         <f ca="1">PLANTILLA!F10</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="20" t="str">
         <f>PLANTILLA!G10</f>
@@ -73144,7 +73146,7 @@
       </c>
       <c r="AB10" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC10" s="27">
         <f t="shared" si="6"/>
@@ -73276,7 +73278,7 @@
       </c>
       <c r="C11" s="132">
         <f ca="1">PLANTILLA!C11</f>
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>PLANTILLA!D11</f>
@@ -73288,7 +73290,7 @@
       </c>
       <c r="F11" s="3">
         <f ca="1">PLANTILLA!F11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>PLANTILLA!G11</f>
@@ -73371,7 +73373,7 @@
       </c>
       <c r="AB11" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC11" s="27">
         <f t="shared" si="6"/>
@@ -73493,7 +73495,7 @@
       </c>
       <c r="C12" s="132">
         <f ca="1">PLANTILLA!C12</f>
-        <v>3.0267857142857144</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>PLANTILLA!D12</f>
@@ -73505,7 +73507,7 @@
       </c>
       <c r="F12" s="3">
         <f ca="1">PLANTILLA!F12</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>PLANTILLA!G12</f>
@@ -73587,7 +73589,7 @@
       </c>
       <c r="AB12" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC12" s="27">
         <f t="shared" si="6"/>
@@ -73717,7 +73719,7 @@
       </c>
       <c r="C13" s="132">
         <f ca="1">PLANTILLA!C13</f>
-        <v>1.2857142857142858</v>
+        <v>1.2767857142857142</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>PLANTILLA!D13</f>
@@ -73729,7 +73731,7 @@
       </c>
       <c r="F13" s="3">
         <f ca="1">PLANTILLA!F13</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4">
         <f>PLANTILLA!G13</f>
@@ -73811,7 +73813,7 @@
       </c>
       <c r="AB13" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC13" s="27">
         <f t="shared" si="6"/>
@@ -73940,7 +73942,7 @@
       </c>
       <c r="C14" s="132">
         <f ca="1">PLANTILLA!C14</f>
-        <v>6.25E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>PLANTILLA!D14</f>
@@ -73952,7 +73954,7 @@
       </c>
       <c r="F14" s="3">
         <f ca="1">PLANTILLA!F14</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="20" t="str">
         <f>PLANTILLA!G14</f>
@@ -74035,7 +74037,7 @@
       </c>
       <c r="AB14" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC14" s="27">
         <f t="shared" si="6"/>
@@ -74161,7 +74163,7 @@
       </c>
       <c r="C15" s="132">
         <f ca="1">PLANTILLA!C15</f>
-        <v>2.9375</v>
+        <v>2.9285714285714284</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>PLANTILLA!D15</f>
@@ -74173,7 +74175,7 @@
       </c>
       <c r="F15" s="3">
         <f ca="1">PLANTILLA!F15</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="20" t="str">
         <f>PLANTILLA!G15</f>
@@ -74254,7 +74256,7 @@
       </c>
       <c r="AB15" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC15" s="27">
         <f t="shared" si="6"/>
@@ -74351,7 +74353,7 @@
       </c>
       <c r="C16" s="132">
         <f ca="1">PLANTILLA!C16</f>
-        <v>3.375</v>
+        <v>3.3660714285714284</v>
       </c>
       <c r="D16" s="17" t="str">
         <f>PLANTILLA!D16</f>
@@ -74363,7 +74365,7 @@
       </c>
       <c r="F16" s="3">
         <f ca="1">PLANTILLA!F16</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="20" t="str">
         <f>PLANTILLA!G16</f>
@@ -74444,7 +74446,7 @@
       </c>
       <c r="AB16" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" s="27">
         <f t="shared" si="6"/>
@@ -74574,7 +74576,7 @@
       </c>
       <c r="C17" s="132">
         <f ca="1">PLANTILLA!C17</f>
-        <v>2.9196428571428572</v>
+        <v>2.9107142857142856</v>
       </c>
       <c r="D17" s="29" t="str">
         <f>PLANTILLA!D17</f>
@@ -74586,7 +74588,7 @@
       </c>
       <c r="F17" s="3">
         <f ca="1">PLANTILLA!F17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="20" t="str">
         <f>PLANTILLA!G17</f>
@@ -74667,7 +74669,7 @@
       </c>
       <c r="AB17" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC17" s="27">
         <f t="shared" si="6"/>
@@ -74786,7 +74788,7 @@
       </c>
       <c r="C18" s="132">
         <f ca="1">PLANTILLA!C18</f>
-        <v>3.4107142857142856</v>
+        <v>3.4017857142857144</v>
       </c>
       <c r="D18" s="29" t="str">
         <f>PLANTILLA!D18</f>
@@ -74798,7 +74800,7 @@
       </c>
       <c r="F18" s="3">
         <f ca="1">PLANTILLA!F18</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>PLANTILLA!G18</f>
@@ -74880,7 +74882,7 @@
       </c>
       <c r="AB18" s="179">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" s="27">
         <f t="shared" si="6"/>
@@ -77783,7 +77785,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
